--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425FE945-51DA-4891-8E2C-52F19E84C9D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF3737E-9194-44CF-B040-ECFD91045586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -213,6 +213,18 @@
   <si>
     <t>s pct</t>
   </si>
+  <si>
+    <t>remainingRunTime</t>
+  </si>
+  <si>
+    <t>Remaining run time</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -491,12 +503,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -633,6 +654,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,16 +791,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.14195692025664527</c:v>
+                  <c:v>0.18488571855392891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20893379213991872</c:v>
+                  <c:v>0.18930442430499786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27361517166438126</c:v>
+                  <c:v>0.30880272264922948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23022137263365605</c:v>
+                  <c:v>0.17883496742101909</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.22744829304759534</c:v>
@@ -813,16 +838,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.20893379213991872</c:v>
+                  <c:v>0.23710374364269049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28517415215398717</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40297793071330623</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41755621397840731</c:v>
+                  <c:v>0.44292353275428198</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.53893595813605788</c:v>
@@ -860,16 +885,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.15786994602301663</c:v>
+                  <c:v>0.18488571855392891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39656533251858644</c:v>
+                  <c:v>0.37162010755900804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39739454573547589</c:v>
+                  <c:v>0.42153700556242274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41755621397840731</c:v>
+                  <c:v>0.45560719214221934</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -907,16 +932,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.40487255459047</c:v>
+                  <c:v>0.37950523581459533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44292353275428198</c:v>
+                  <c:v>0.39218889520253264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54439280785778066</c:v>
+                  <c:v>0.60781110479746725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59512744540953</c:v>
+                  <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.63835596221959856</c:v>
@@ -966,7 +991,7 @@
                   <c:v>0.66889609512228076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.41555195243885962</c:v>
@@ -1385,10 +1410,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.3792152226538301E-2</c:v>
+                  <c:v>5.5129500367376919E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2391791424788678E-2</c:v>
+                  <c:v>6.8176725425754411E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14004200921492455</c:v>
@@ -1397,10 +1422,10 @@
                   <c:v>0.16338328226733051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26249788887012326</c:v>
+                  <c:v>0.22733743570903744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10416314811687213</c:v>
+                  <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1472,22 +1497,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.8977650171705207E-2</c:v>
+                  <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11013086872390264</c:v>
+                  <c:v>6.8176725425754411E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17378297178938795</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19212689297978941</c:v>
+                  <c:v>0.19863611315209401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17453414400720596</c:v>
+                  <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1384901199121757E-2</c:v>
+                  <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1532,22 +1557,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.10276980239824351</c:v>
+                  <c:v>0.13896032329169725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17252266014869133</c:v>
+                  <c:v>0.13635345085150882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3138249810043125</c:v>
+                  <c:v>0.37161132502012323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35551017524711992</c:v>
+                  <c:v>0.36201939541942452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43703203287732922</c:v>
+                  <c:v>0.39727222630418801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15554804931599389</c:v>
+                  <c:v>0.25376561351947091</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1592,22 +1617,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.1394015036700249E-2</c:v>
+                  <c:v>7.2821015720186622E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14195692025664527</c:v>
+                  <c:v>0.18488571855392891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28517415215398717</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39739454573547589</c:v>
+                  <c:v>0.42153700556242274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59512744540953</c:v>
+                  <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.40713500341743192</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.24665585731657882</c:v>
@@ -1945,7 +1970,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10127038721846221</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16338328226733051</c:v>
@@ -2278,7 +2303,7 @@
                   <c:v>0.20528680794408075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19212689297978941</c:v>
+                  <c:v>0.19863611315209401</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13594252746033506</c:v>
@@ -2610,13 +2635,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20893379213991872</c:v>
+                  <c:v>0.23710374364269049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15786994602301663</c:v>
+                  <c:v>0.18488571855392891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40487255459047</c:v>
+                  <c:v>0.37950523581459533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,16 +2673,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20893379213991872</c:v>
+                  <c:v>0.18930442430499786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28517415215398717</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39656533251858644</c:v>
+                  <c:v>0.37162010755900804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44292353275428198</c:v>
+                  <c:v>0.39218889520253264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,16 +2714,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27361517166438126</c:v>
+                  <c:v>0.30880272264922948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40297793071330623</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39739454573547589</c:v>
+                  <c:v>0.42153700556242274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54439280785778066</c:v>
+                  <c:v>0.60781110479746725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,16 +2755,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23022137263365605</c:v>
+                  <c:v>0.17883496742101909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41755621397840731</c:v>
+                  <c:v>0.44292353275428198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41755621397840731</c:v>
+                  <c:v>0.45560719214221934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59512744540953</c:v>
+                  <c:v>0.54439280785778066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,10 +3133,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.3792152226538301E-2</c:v>
+                  <c:v>5.5129500367376919E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2391791424788678E-2</c:v>
+                  <c:v>6.8176725425754411E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14004200921492455</c:v>
@@ -3120,10 +3145,10 @@
                   <c:v>0.16338328226733051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26249788887012326</c:v>
+                  <c:v>0.22733743570903744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10416314811687213</c:v>
+                  <c:v>0.1699347905951506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,22 +3217,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.8977650171705207E-2</c:v>
+                  <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11013086872390264</c:v>
+                  <c:v>6.8176725425754411E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17378297178938795</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19212689297978941</c:v>
+                  <c:v>0.19863611315209401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17453414400720596</c:v>
+                  <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1384901199121757E-2</c:v>
+                  <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,22 +3274,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.10276980239824351</c:v>
+                  <c:v>0.13896032329169725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17252266014869133</c:v>
+                  <c:v>0.13635345085150882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3138249810043125</c:v>
+                  <c:v>0.37161132502012323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35551017524711992</c:v>
+                  <c:v>0.36201939541942452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43703203287732922</c:v>
+                  <c:v>0.39727222630418801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15554804931599389</c:v>
+                  <c:v>0.25376561351947091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,22 +3331,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.1394015036700249E-2</c:v>
+                  <c:v>7.2821015720186622E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14195692025664527</c:v>
+                  <c:v>0.18488571855392891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28517415215398717</c:v>
+                  <c:v>0.23156931580519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39739454573547589</c:v>
+                  <c:v>0.42153700556242274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59512744540953</c:v>
+                  <c:v>0.54439280785778066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.40713500341743192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6831,15 +6856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19499</xdr:rowOff>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>274319</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>141418</xdr:rowOff>
+      <xdr:colOff>278129</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6867,15 +6892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>338417</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>395567</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>423582</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>480732</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11256,15 +11281,15 @@
       </c>
       <c r="AB3" s="83">
         <f>+$F$16</f>
-        <v>0.20893379213991872</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="AC3" s="83">
         <f>+$F$18</f>
-        <v>0.15786994602301663</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AD3" s="83">
         <f>+F$24</f>
-        <v>0.40487255459047</v>
+        <v>0.37950523581459533</v>
       </c>
       <c r="AE3" s="83"/>
       <c r="AG3" t="s">
@@ -11329,50 +11354,50 @@
       </c>
       <c r="C4" s="36">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D4" s="36">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="51">
         <f t="shared" si="0"/>
-        <v>3.3898305084745763E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="F4" s="51">
         <f>(E4 + Params!$B$3^2/(2 * C4))/(1 + Params!$B$3^2/C4)</f>
-        <v>6.2391791424788678E-2</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="G4" s="37">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C4))*SQRT(E4*(1-E4)/C4 + (Params!$B$3/(2*C4))^2), 0)</f>
-        <v>5.3046078391287166E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="H4" s="37">
         <f t="shared" si="1"/>
-        <v>9.3457130335015126E-3</v>
+        <v>4.5405860652373703E-3</v>
       </c>
       <c r="I4" s="38">
         <f t="shared" si="2"/>
-        <v>0.11543786981607584</v>
+        <v>0.13181286478627147</v>
       </c>
       <c r="Z4" s="89">
         <v>10</v>
       </c>
       <c r="AA4" s="90">
         <f>$F$14</f>
-        <v>0.20893379213991872</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="AB4" s="90">
         <f>+$F$13</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AC4" s="90">
         <f>+$F$15</f>
-        <v>0.39656533251858644</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="AD4" s="90">
         <f>+$F$22</f>
-        <v>0.44292353275428198</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="AE4" s="90"/>
       <c r="AH4" s="89">
@@ -11431,50 +11456,50 @@
       </c>
       <c r="C5" s="36">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D5" s="36">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="51">
         <f t="shared" si="0"/>
-        <v>0.30508474576271188</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="F5" s="51">
         <f>(E5 + Params!$B$3^2/(2 * C5))/(1 + Params!$B$3^2/C5)</f>
-        <v>0.31700020368672982</v>
+        <v>0.27825291305646843</v>
       </c>
       <c r="G5" s="37">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C5))*SQRT(E5*(1-E5)/C5 + (Params!$B$3/(2*C5))^2), 0)</f>
-        <v>0.11446546891070856</v>
+        <v>0.13256665462194656</v>
       </c>
       <c r="H5" s="37">
         <f t="shared" si="1"/>
-        <v>0.20253473477602124</v>
+        <v>0.14568625843452188</v>
       </c>
       <c r="I5" s="38">
         <f t="shared" si="2"/>
-        <v>0.4314656725974384</v>
+        <v>0.41081956767841499</v>
       </c>
       <c r="Z5" s="101">
         <v>20</v>
       </c>
       <c r="AA5" s="102">
         <f>+$F$20</f>
-        <v>0.27361517166438126</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="AB5" s="102">
         <f>+$F$19</f>
-        <v>0.40297793071330623</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="102">
         <f>+$F$21</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AD5" s="102">
         <f>+$F$26</f>
-        <v>0.54439280785778066</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="AE5" s="102"/>
       <c r="AH5" s="101">
@@ -11533,7 +11558,7 @@
       </c>
       <c r="C6" s="36">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D6" s="36">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -11545,11 +11570,11 @@
       </c>
       <c r="F6" s="51">
         <f>(E6 + Params!$B$3^2/(2 * C6))/(1 + Params!$B$3^2/C6)</f>
-        <v>3.3792152226538301E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="G6" s="37">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C6))*SQRT(E6*(1-E6)/C6 + (Params!$B$3/(2*C6))^2), 0)</f>
-        <v>3.3792152226538308E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="1"/>
@@ -11557,26 +11582,26 @@
       </c>
       <c r="I6" s="38">
         <f t="shared" si="2"/>
-        <v>6.7584304453076616E-2</v>
+        <v>0.11025900073475384</v>
       </c>
       <c r="Z6" s="103">
         <v>50</v>
       </c>
       <c r="AA6" s="104">
         <f>+$F$29</f>
-        <v>0.23022137263365605</v>
+        <v>0.17883496742101909</v>
       </c>
       <c r="AB6" s="104">
         <f>+$F$30</f>
-        <v>0.41755621397840731</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="AC6" s="104">
         <f>+$F$31</f>
-        <v>0.41755621397840731</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="AD6" s="104">
         <f>+$F$32</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AE6" s="104"/>
       <c r="AH6" s="103">
@@ -11635,7 +11660,7 @@
       </c>
       <c r="C7" s="36">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" s="36">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -11643,23 +11668,23 @@
       </c>
       <c r="E7" s="51">
         <f t="shared" si="0"/>
-        <v>7.5471698113207544E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F7" s="51">
         <f>(E7 + Params!$B$3^2/(2 * C7))/(1 + Params!$B$3^2/C7)</f>
-        <v>0.10416314811687213</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="G7" s="37">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C7))*SQRT(E7*(1-E7)/C7 + (Params!$B$3/(2*C7))^2), 0)</f>
-        <v>7.4424074517970326E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="H7" s="37">
         <f t="shared" si="1"/>
-        <v>2.9739073598901808E-2</v>
+        <v>5.1342011646447652E-2</v>
       </c>
       <c r="I7" s="38">
         <f t="shared" si="2"/>
-        <v>0.17858722263484245</v>
+        <v>0.28852756954385356</v>
       </c>
       <c r="Z7" s="117">
         <v>100</v>
@@ -11670,7 +11695,7 @@
       <c r="AD7" s="118"/>
       <c r="AE7" s="118">
         <f>+$F$39</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="AH7" s="117">
         <v>100</v>
@@ -11728,31 +11753,31 @@
       </c>
       <c r="C8" s="36">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D8" s="36">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E8" s="51">
         <f t="shared" si="0"/>
-        <v>0.24528301886792453</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F8" s="51">
         <f>(E8 + Params!$B$3^2/(2 * C8))/(1 + Params!$B$3^2/C8)</f>
-        <v>0.26249788887012326</v>
+        <v>0.22733743570903744</v>
       </c>
       <c r="G8" s="37">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C8))*SQRT(E8*(1-E8)/C8 + (Params!$B$3/(2*C8))^2), 0)</f>
-        <v>0.11317026175157749</v>
+        <v>0.13546859984556112</v>
       </c>
       <c r="H8" s="37">
         <f t="shared" si="1"/>
-        <v>0.14932762711854577</v>
+        <v>9.1868835863476328E-2</v>
       </c>
       <c r="I8" s="38">
         <f t="shared" si="2"/>
-        <v>0.37566815062170078</v>
+        <v>0.36280603555459856</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -11894,32 +11919,32 @@
       </c>
       <c r="AA11" s="1">
         <f>+$F$6</f>
-        <v>3.3792152226538301E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="AB11" s="1">
         <f>+$F$55</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AC11" s="1">
         <f>+AA11+AB11</f>
-        <v>0.10276980239824351</v>
+        <v>0.13896032329169725</v>
       </c>
       <c r="AD11" s="1">
         <f>+$F$28</f>
-        <v>9.1394015036700249E-2</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="AF11" s="1">
         <f>+$G$6</f>
-        <v>3.3792152226538308E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="AG11" s="1">
         <f>+$G$55</f>
-        <v>5.8567581337885935E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
         <f>+$G$28</f>
-        <v>7.0779418672069758E-2</v>
+        <v>6.1782363059360045E-2</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -11962,32 +11987,32 @@
       </c>
       <c r="AA12" s="1">
         <f>+$F$4</f>
-        <v>6.2391791424788678E-2</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AB12" s="1">
         <f>+$F$52</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="3">+AA12+AB12</f>
-        <v>0.17252266014869133</v>
+        <v>0.13635345085150882</v>
       </c>
       <c r="AD12" s="1">
         <f>+$F$17</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AF12" s="1">
         <f>+$G$4</f>
-        <v>5.3046078391287166E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="AG12" s="1">
         <f>+$G$52</f>
-        <v>7.3389377417702864E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
         <f>+$G$17</f>
-        <v>8.3281837477505269E-2</v>
+        <v>0.11241198010341422</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -11999,31 +12024,31 @@
       </c>
       <c r="C13" s="92">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D13" s="92">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E13" s="93">
         <f t="shared" si="0"/>
-        <v>0.2711864406779661</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F13" s="93">
         <f>(E13 + Params!$B$3^2/(2 * C13))/(1 + Params!$B$3^2/C13)</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G13" s="94">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C13))*SQRT(E13*(1-E13)/C13 + (Params!$B$3/(2*C13))^2), 0)</f>
-        <v>0.1108059022289038</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H13" s="94">
         <f t="shared" si="1"/>
-        <v>0.17436824992508337</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I13" s="95">
         <f t="shared" si="2"/>
-        <v>0.39598005438289097</v>
+        <v>0.35534272963128621</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -12034,15 +12059,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+$F$51</f>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="3"/>
-        <v>0.3138249810043125</v>
+        <v>0.37161132502012323</v>
       </c>
       <c r="AD13" s="1">
         <f>+$F$13</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AF13" s="1">
         <f>+$G$2</f>
@@ -12050,12 +12075,12 @@
       </c>
       <c r="AG13" s="1">
         <f>+$G$51</f>
-        <v>9.1399260898714321E-2</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
         <f>+$G$13</f>
-        <v>0.1108059022289038</v>
+        <v>0.12377341382608752</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -12067,31 +12092,31 @@
       </c>
       <c r="C14" s="85">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D14" s="85">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" s="86">
         <f t="shared" si="0"/>
-        <v>0.18965517241379309</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F14" s="86">
         <f>(E14 + Params!$B$3^2/(2 * C14))/(1 + Params!$B$3^2/C14)</f>
-        <v>0.20893379213991872</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="G14" s="87">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C14))*SQRT(E14*(1-E14)/C14 + (Params!$B$3/(2*C14))^2), 0)</f>
-        <v>9.9592391714244374E-2</v>
+        <v>0.114866802067771</v>
       </c>
       <c r="H14" s="87">
         <f t="shared" si="1"/>
-        <v>0.10934140042567435</v>
+        <v>7.4437622237226858E-2</v>
       </c>
       <c r="I14" s="88">
         <f t="shared" si="2"/>
-        <v>0.30852618385416308</v>
+        <v>0.30417122637276883</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -12102,15 +12127,15 @@
       </c>
       <c r="AB14" s="1">
         <f>+$F$53</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="3"/>
-        <v>0.35551017524711992</v>
+        <v>0.36201939541942452</v>
       </c>
       <c r="AD14" s="1">
         <f>+$F$21</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AF14" s="1">
         <f>+$G$3</f>
@@ -12118,12 +12143,12 @@
       </c>
       <c r="AG14" s="1">
         <f>+$G$53</f>
-        <v>0.10012847525755188</v>
+        <v>0.12771091409769464</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
         <f>+$G$21</f>
-        <v>0.10526756906167181</v>
+        <v>0.10627245507177599</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -12135,63 +12160,63 @@
       </c>
       <c r="C15" s="97">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D15" s="97">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15" s="98">
         <f t="shared" si="0"/>
-        <v>0.38983050847457629</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="F15" s="98">
         <f>(E15 + Params!$B$3^2/(2 * C15))/(1 + Params!$B$3^2/C15)</f>
-        <v>0.39656533251858644</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="G15" s="99">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C15))*SQRT(E15*(1-E15)/C15 + (Params!$B$3/(2*C15))^2), 0)</f>
-        <v>0.12077357186274237</v>
+        <v>0.14420126059409702</v>
       </c>
       <c r="H15" s="99">
         <f t="shared" si="1"/>
-        <v>0.2757917606558441</v>
+        <v>0.22741884696491102</v>
       </c>
       <c r="I15" s="100">
         <f t="shared" si="2"/>
-        <v>0.51733890438132879</v>
+        <v>0.51582136815310509</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+$F$8</f>
-        <v>0.26249788887012326</v>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AB15" s="1">
         <f>+$F$54</f>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="3"/>
-        <v>0.43703203287732922</v>
+        <v>0.39727222630418801</v>
       </c>
       <c r="AD15" s="1">
         <f>+$F$32</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AF15" s="1">
         <f>+$G$8</f>
-        <v>0.11317026175157749</v>
+        <v>0.13546859984556112</v>
       </c>
       <c r="AG15" s="1">
         <f>+$G$54</f>
-        <v>9.601090142938945E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
         <f>+$G$32</f>
-        <v>0.10824912380876403</v>
+        <v>0.10991107086629816</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -12203,63 +12228,63 @@
       </c>
       <c r="C16" s="68">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D16" s="68">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="69">
         <f t="shared" si="0"/>
-        <v>0.18965517241379309</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F16" s="69">
         <f>(E16 + Params!$B$3^2/(2 * C16))/(1 + Params!$B$3^2/C16)</f>
-        <v>0.20893379213991872</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="G16" s="70">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C16))*SQRT(E16*(1-E16)/C16 + (Params!$B$3/(2*C16))^2), 0)</f>
-        <v>9.9592391714244374E-2</v>
+        <v>0.12635714012173116</v>
       </c>
       <c r="H16" s="70">
         <f t="shared" si="1"/>
-        <v>0.10934140042567435</v>
+        <v>0.11074660352095933</v>
       </c>
       <c r="I16" s="71">
         <f t="shared" si="2"/>
-        <v>0.30852618385416308</v>
+        <v>0.36346088376442165</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+$F$7</f>
-        <v>0.10416314811687213</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AB16" s="1">
         <f>+$F$56</f>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="3"/>
-        <v>0.15554804931599389</v>
+        <v>0.25376561351947091</v>
       </c>
       <c r="AD16" s="1">
         <f>+$F$39</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="AF16" s="1">
         <f>+$G$7</f>
-        <v>7.4424074517970326E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="AG16" s="1">
         <f>+$G$56</f>
-        <v>4.8046533812372359E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
         <f>+$G$39</f>
-        <v>0.13355713587667145</v>
+        <v>0.13105310555497438</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12271,31 +12296,31 @@
       </c>
       <c r="C17" s="73">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D17" s="73">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="74">
         <f t="shared" si="0"/>
-        <v>0.11864406779661017</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F17" s="74">
         <f>(E17 + Params!$B$3^2/(2 * C17))/(1 + Params!$B$3^2/C17)</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="G17" s="75">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C17))*SQRT(E17*(1-E17)/C17 + (Params!$B$3/(2*C17))^2), 0)</f>
-        <v>8.3281837477505269E-2</v>
+        <v>0.11241198010341422</v>
       </c>
       <c r="H17" s="75">
         <f t="shared" si="1"/>
-        <v>5.8675082779140006E-2</v>
+        <v>7.2473738450514691E-2</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" si="2"/>
-        <v>0.22523875773415053</v>
+        <v>0.29729769865734312</v>
       </c>
       <c r="Z17">
         <v>200</v>
@@ -12316,31 +12341,31 @@
       </c>
       <c r="C18" s="78">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D18" s="78">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" s="79">
         <f t="shared" si="0"/>
-        <v>0.13559322033898305</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F18" s="79">
         <f>(E18 + Params!$B$3^2/(2 * C18))/(1 + Params!$B$3^2/C18)</f>
-        <v>0.15786994602301663</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="G18" s="80">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C18))*SQRT(E18*(1-E18)/C18 + (Params!$B$3/(2*C18))^2), 0)</f>
-        <v>8.7529038526160952E-2</v>
+        <v>0.11241198010341422</v>
       </c>
       <c r="H18" s="80">
         <f t="shared" si="1"/>
-        <v>7.0340907496855676E-2</v>
+        <v>7.2473738450514691E-2</v>
       </c>
       <c r="I18" s="81">
         <f t="shared" si="2"/>
-        <v>0.24539898454917758</v>
+        <v>0.29729769865734312</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12352,31 +12377,31 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="54">
         <f t="shared" si="0"/>
-        <v>0.39655172413793105</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="54">
         <f>(E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19)</f>
-        <v>0.40297793071330623</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="21">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C19))*SQRT(E19*(1-E19)/C19 + (Params!$B$3/(2*C19))^2), 0)</f>
-        <v>0.1220922412121949</v>
+        <v>0.15150324467139309</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="1"/>
-        <v>0.28088568950111131</v>
+        <v>0.34849675532860691</v>
       </c>
       <c r="I19" s="47">
         <f t="shared" si="2"/>
-        <v>0.52507017192550109</v>
+        <v>0.65150324467139309</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12388,31 +12413,31 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="55">
         <f t="shared" si="0"/>
-        <v>0.25862068965517243</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="F20" s="55">
         <f>(E20 + Params!$B$3^2/(2 * C20))/(1 + Params!$B$3^2/C20)</f>
-        <v>0.27361517166438126</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="G20" s="25">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C20))*SQRT(E20*(1-E20)/C20 + (Params!$B$3/(2*C20))^2), 0)</f>
-        <v>0.11016113646920669</v>
+        <v>0.13877166001266816</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="1"/>
-        <v>0.16345403519517457</v>
+        <v>0.17003106263656131</v>
       </c>
       <c r="I20" s="48">
         <f t="shared" si="2"/>
-        <v>0.38377630813358798</v>
+        <v>0.44757438266189764</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12428,27 +12453,27 @@
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="55">
         <f t="shared" si="0"/>
-        <v>0.39240506329113922</v>
+        <v>0.41772151898734178</v>
       </c>
       <c r="F21" s="55">
         <f>(E21 + Params!$B$3^2/(2 * C21))/(1 + Params!$B$3^2/C21)</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="G21" s="25">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C21))*SQRT(E21*(1-E21)/C21 + (Params!$B$3/(2*C21))^2), 0)</f>
-        <v>0.10526756906167181</v>
+        <v>0.10627245507177599</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="1"/>
-        <v>0.29212697667380405</v>
+        <v>0.31526455049064672</v>
       </c>
       <c r="I21" s="48">
         <f t="shared" si="2"/>
-        <v>0.50266211479714773</v>
+        <v>0.52780946063419876</v>
       </c>
       <c r="AA21" t="s">
         <v>10</v>
@@ -12467,27 +12492,27 @@
       </c>
       <c r="D22" s="85">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E22" s="86">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.38666666666666666</v>
       </c>
       <c r="F22" s="86">
         <f>(E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22)</f>
-        <v>0.44292353275428198</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="G22" s="87">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), 0)</f>
-        <v>0.10961077298643349</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H22" s="87">
         <f t="shared" si="1"/>
-        <v>0.33331275976784847</v>
+        <v>0.28455047772633968</v>
       </c>
       <c r="I22" s="88">
         <f t="shared" si="2"/>
-        <v>0.55253430574071549</v>
+        <v>0.4998273126787256</v>
       </c>
       <c r="Z22" s="56"/>
       <c r="AA22" s="56">
@@ -12549,19 +12574,19 @@
       </c>
       <c r="AA23" s="83">
         <f>+$F$17</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AB23" s="83">
         <f>+$F$16</f>
-        <v>0.20893379213991872</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="AC23" s="83">
         <f>+$F$18</f>
-        <v>0.15786994602301663</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AD23" s="83">
         <f>+F$24</f>
-        <v>0.40487255459047</v>
+        <v>0.37950523581459533</v>
       </c>
       <c r="AE23" s="83"/>
     </row>
@@ -12578,46 +12603,46 @@
       </c>
       <c r="D24" s="73">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="74">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="F24" s="74">
         <f>(E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24)</f>
-        <v>0.40487255459047</v>
+        <v>0.37950523581459533</v>
       </c>
       <c r="G24" s="75">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), 0)</f>
-        <v>0.10824912380876403</v>
+        <v>0.10694720446145395</v>
       </c>
       <c r="H24" s="75">
         <f t="shared" si="1"/>
-        <v>0.29662343078170594</v>
+        <v>0.27255803135314138</v>
       </c>
       <c r="I24" s="76">
         <f t="shared" si="2"/>
-        <v>0.51312167839923406</v>
+        <v>0.48645244027604928</v>
       </c>
       <c r="Z24" s="89">
         <v>10</v>
       </c>
       <c r="AA24" s="90">
         <f>$F$14</f>
-        <v>0.20893379213991872</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="AB24" s="90">
         <f>+$F$13</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AC24" s="90">
         <f>+$F$15</f>
-        <v>0.39656533251858644</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="AD24" s="90">
         <f>+$F$22</f>
-        <v>0.44292353275428198</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="AE24" s="90"/>
     </row>
@@ -12662,19 +12687,19 @@
       </c>
       <c r="AA25" s="102">
         <f>+$F$20</f>
-        <v>0.27361517166438126</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="AB25" s="102">
         <f>+$F$19</f>
-        <v>0.40297793071330623</v>
+        <v>0.5</v>
       </c>
       <c r="AC25" s="102">
         <f>+$F$21</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AD25" s="102">
         <f>+$F$26</f>
-        <v>0.54439280785778066</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="AE25" s="102"/>
     </row>
@@ -12691,46 +12716,46 @@
       </c>
       <c r="D26" s="24">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="55">
         <f t="shared" si="0"/>
-        <v>0.54666666666666663</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="F26" s="55">
         <f>(E26 + Params!$B$3^2/(2 * C26))/(1 + Params!$B$3^2/C26)</f>
-        <v>0.54439280785778066</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="G26" s="25">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C26))*SQRT(E26*(1-E26)/C26 + (Params!$B$3/(2*C26))^2), 0)</f>
-        <v>0.10991107086629816</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H26" s="25">
         <f t="shared" si="1"/>
-        <v>0.43448173699148251</v>
+        <v>0.50017268732127429</v>
       </c>
       <c r="I26" s="48">
         <f t="shared" si="2"/>
-        <v>0.6543038787240788</v>
+        <v>0.71544952227366021</v>
       </c>
       <c r="Z26" s="103">
         <v>50</v>
       </c>
       <c r="AA26" s="104">
         <f>+$F$29</f>
-        <v>0.23022137263365605</v>
+        <v>0.17883496742101909</v>
       </c>
       <c r="AB26" s="104">
         <f>+$F$30</f>
-        <v>0.41755621397840731</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="AC26" s="104">
         <f>+$F$31</f>
-        <v>0.41755621397840731</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="AD26" s="104">
         <f>+$F$32</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AE26" s="104"/>
     </row>
@@ -12779,7 +12804,7 @@
       <c r="AD27" s="118"/>
       <c r="AE27" s="118">
         <f>+$F$39</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12795,27 +12820,27 @@
       </c>
       <c r="D28" s="12">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="53">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="53">
         <f>(E28 + Params!$B$3^2/(2 * C28))/(1 + Params!$B$3^2/C28)</f>
-        <v>9.1394015036700249E-2</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="G28" s="13">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C28))*SQRT(E28*(1-E28)/C28 + (Params!$B$3/(2*C28))^2), 0)</f>
-        <v>7.0779418672069758E-2</v>
+        <v>6.1782363059360045E-2</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="1"/>
-        <v>2.0614596364630491E-2</v>
+        <v>1.1038652660826577E-2</v>
       </c>
       <c r="I28" s="46">
         <f t="shared" si="2"/>
-        <v>0.16217343370877002</v>
+        <v>0.13460337877954667</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12831,27 +12856,27 @@
       </c>
       <c r="D29" s="106">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" s="107">
         <f t="shared" si="0"/>
-        <v>0.21621621621621623</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F29" s="107">
         <f>(E29 + Params!$B$3^2/(2 * C29))/(1 + Params!$B$3^2/C29)</f>
-        <v>0.23022137263365605</v>
+        <v>0.17883496742101909</v>
       </c>
       <c r="G29" s="108">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C29))*SQRT(E29*(1-E29)/C29 + (Params!$B$3/(2*C29))^2), 0)</f>
-        <v>9.2518019959391004E-2</v>
+        <v>8.356526699179713E-2</v>
       </c>
       <c r="H29" s="108">
         <f t="shared" si="1"/>
-        <v>0.13770335267426503</v>
+        <v>9.5269700429221962E-2</v>
       </c>
       <c r="I29" s="109">
         <f t="shared" si="2"/>
-        <v>0.32273939259304707</v>
+        <v>0.26240023441281624</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12867,27 +12892,27 @@
       </c>
       <c r="D30" s="106">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="107">
         <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="F30" s="107">
         <f>(E30 + Params!$B$3^2/(2 * C30))/(1 + Params!$B$3^2/C30)</f>
-        <v>0.41755621397840731</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="G30" s="108">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C30))*SQRT(E30*(1-E30)/C30 + (Params!$B$3/(2*C30))^2), 0)</f>
-        <v>0.10878067938691047</v>
+        <v>0.10961077298643349</v>
       </c>
       <c r="H30" s="108">
         <f t="shared" si="1"/>
-        <v>0.30877553459149687</v>
+        <v>0.33331275976784847</v>
       </c>
       <c r="I30" s="109">
         <f t="shared" si="2"/>
-        <v>0.52633689336531775</v>
+        <v>0.55253430574071549</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12903,27 +12928,27 @@
       </c>
       <c r="D31" s="106">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E31" s="107">
         <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="F31" s="107">
         <f>(E31 + Params!$B$3^2/(2 * C31))/(1 + Params!$B$3^2/C31)</f>
-        <v>0.41755621397840731</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="G31" s="108">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C31))*SQRT(E31*(1-E31)/C31 + (Params!$B$3/(2*C31))^2), 0)</f>
-        <v>0.10878067938691047</v>
+        <v>0.10991107086629816</v>
       </c>
       <c r="H31" s="108">
         <f t="shared" si="1"/>
-        <v>0.30877553459149687</v>
+        <v>0.3456961212759212</v>
       </c>
       <c r="I31" s="109">
         <f t="shared" si="2"/>
-        <v>0.52633689336531775</v>
+        <v>0.56551826300851749</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
@@ -12939,27 +12964,27 @@
       </c>
       <c r="D32" s="106">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E32" s="107">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.54666666666666663</v>
       </c>
       <c r="F32" s="107">
         <f>(E32 + Params!$B$3^2/(2 * C32))/(1 + Params!$B$3^2/C32)</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="G32" s="108">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C32))*SQRT(E32*(1-E32)/C32 + (Params!$B$3/(2*C32))^2), 0)</f>
-        <v>0.10824912380876403</v>
+        <v>0.10991107086629816</v>
       </c>
       <c r="H32" s="108">
         <f t="shared" si="1"/>
-        <v>0.48687832160076594</v>
+        <v>0.43448173699148251</v>
       </c>
       <c r="I32" s="109">
         <f t="shared" si="2"/>
-        <v>0.70337656921829406</v>
+        <v>0.6543038787240788</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13191,27 +13216,27 @@
       </c>
       <c r="D39" s="106">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39" s="107">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F39" s="107">
         <f>(E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39)</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="G39" s="108">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C39))*SQRT(E39*(1-E39)/C39 + (Params!$B$3/(2*C39))^2), 0)</f>
-        <v>0.13355713587667145</v>
+        <v>0.13105310555497438</v>
       </c>
       <c r="H39" s="108">
         <f t="shared" si="1"/>
-        <v>0.36644286412332855</v>
+        <v>0.27608189786245751</v>
       </c>
       <c r="I39" s="109">
         <f t="shared" si="2"/>
-        <v>0.6335571358766714</v>
+        <v>0.53818810897240632</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13619,31 +13644,31 @@
       </c>
       <c r="C51" s="58">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D51" s="58">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="59">
         <f t="shared" si="0"/>
-        <v>0.15254237288135594</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F51" s="59">
         <f>(E51 + Params!$B$3^2/(2 * C51))/(1 + Params!$B$3^2/C51)</f>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G51" s="60">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C51))*SQRT(E51*(1-E51)/C51 + (Params!$B$3/(2*C51))^2), 0)</f>
-        <v>9.1399260898714321E-2</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H51" s="60">
         <f t="shared" si="1"/>
-        <v>8.2383710890673631E-2</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I51" s="61">
         <f t="shared" si="2"/>
-        <v>0.26518223268810226</v>
+        <v>0.35534272963128621</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13655,31 +13680,31 @@
       </c>
       <c r="C52" s="111">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D52" s="111">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" s="112">
         <f t="shared" si="0"/>
-        <v>8.4745762711864403E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="F52" s="112">
         <f>(E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52)</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="G52" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), 0)</f>
-        <v>7.3389377417702864E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="H52" s="113">
         <f t="shared" si="1"/>
-        <v>3.6741491306199775E-2</v>
+        <v>4.5405860652373703E-3</v>
       </c>
       <c r="I52" s="114">
         <f t="shared" si="2"/>
-        <v>0.1835202461416055</v>
+        <v>0.13181286478627147</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13691,31 +13716,31 @@
       </c>
       <c r="C53" s="111">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D53" s="111">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E53" s="112">
         <f t="shared" si="0"/>
-        <v>0.16981132075471697</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F53" s="112">
         <f>(E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53)</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="G53" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C53))*SQRT(E53*(1-E53)/C53 + (Params!$B$3/(2*C53))^2), 0)</f>
-        <v>0.10012847525755188</v>
+        <v>0.12771091409769464</v>
       </c>
       <c r="H53" s="113">
         <f t="shared" si="1"/>
-        <v>9.1998417722237533E-2</v>
+        <v>7.0925199054399368E-2</v>
       </c>
       <c r="I53" s="114">
         <f t="shared" si="2"/>
-        <v>0.29225536823734127</v>
+        <v>0.32634702724978865</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13727,31 +13752,31 @@
       </c>
       <c r="C54" s="111">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D54" s="111">
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E54" s="112">
         <f t="shared" si="0"/>
-        <v>0.15094339622641509</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F54" s="112">
         <f>(E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54)</f>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="G54" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), 0)</f>
-        <v>9.601090142938945E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="H54" s="113">
         <f t="shared" si="1"/>
-        <v>7.852324257781651E-2</v>
+        <v>5.1342011646447652E-2</v>
       </c>
       <c r="I54" s="114">
         <f t="shared" si="2"/>
-        <v>0.27054504543659541</v>
+        <v>0.28852756954385356</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -13763,31 +13788,31 @@
       </c>
       <c r="C55" s="63">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D55" s="63">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="64">
         <f t="shared" si="0"/>
-        <v>3.7735849056603772E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="F55" s="64">
         <f>(E55 + Params!$B$3^2/(2 * C55))/(1 + Params!$B$3^2/C55)</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="G55" s="65">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C55))*SQRT(E55*(1-E55)/C55 + (Params!$B$3/(2*C55))^2), 0)</f>
-        <v>5.8567581337885935E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="H55" s="65">
         <f t="shared" si="1"/>
-        <v>1.0410068833819272E-2</v>
+        <v>5.7170740869444542E-3</v>
       </c>
       <c r="I55" s="66">
         <f t="shared" si="2"/>
-        <v>0.12754523150959113</v>
+        <v>0.16194457176169619</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -13799,7 +13824,7 @@
       </c>
       <c r="C56" s="63">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D56" s="63">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -13807,23 +13832,23 @@
       </c>
       <c r="E56" s="64">
         <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="F56" s="64">
         <f>(E56 + Params!$B$3^2/(2 * C56))/(1 + Params!$B$3^2/C56)</f>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="G56" s="65">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C56))*SQRT(E56*(1-E56)/C56 + (Params!$B$3/(2*C56))^2), 0)</f>
-        <v>4.8046533812372359E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="H56" s="65">
         <f t="shared" si="1"/>
-        <v>3.3383673867493982E-3</v>
+        <v>5.7170740869444542E-3</v>
       </c>
       <c r="I56" s="66">
         <f t="shared" si="2"/>
-        <v>9.9431435011494124E-2</v>
+        <v>0.16194457176169619</v>
       </c>
     </row>
   </sheetData>
@@ -15594,10 +15619,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15606,7 +15631,7 @@
     <col min="6" max="6" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15640,25 +15665,32 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="134">
+        <f>SUM(L2:L1000)/52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>7002</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.79</v>
+        <v>9.19</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -15667,27 +15699,30 @@
         <v>0.2</v>
       </c>
       <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>7002</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>7003</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.98</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -15696,27 +15731,30 @@
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -15725,27 +15763,30 @@
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -15754,27 +15795,30 @@
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.32</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>1.88</v>
+        <v>3.09</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -15783,62 +15827,62 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>9000</v>
+        <v>7006</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.36</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
       <c r="J7">
         <v>0.2</v>
       </c>
       <c r="K7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>1.72</v>
+        <v>1.08</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -15853,27 +15897,30 @@
         <v>0.2</v>
       </c>
       <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9001</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>9002</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
       <c r="D9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.31</v>
+        <v>2.29</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -15888,27 +15935,30 @@
         <v>0.2</v>
       </c>
       <c r="K9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="2">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -15917,33 +15967,36 @@
         <v>0.2</v>
       </c>
       <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9003</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>0.2</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>9004</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="F11" s="2">
-        <v>1.66</v>
+        <v>2.13</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -15958,27 +16011,30 @@
         <v>0.2</v>
       </c>
       <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9004</v>
+      </c>
+      <c r="C12">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>9005</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="2">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -15993,27 +16049,30 @@
         <v>0.2</v>
       </c>
       <c r="K12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.08</v>
+        <v>2.73</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -16022,33 +16081,36 @@
         <v>0.2</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>0.2</v>
       </c>
       <c r="K13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -16063,27 +16125,30 @@
         <v>0.2</v>
       </c>
       <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>9007</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>9008</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
       <c r="D15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="2">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -16098,15 +16163,18 @@
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9010</v>
+        <v>9008</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -16118,7 +16186,7 @@
         <v>0.48</v>
       </c>
       <c r="F16" s="2">
-        <v>1.02</v>
+        <v>1.67</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -16127,33 +16195,36 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9013</v>
+        <v>9010</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="F17" s="2">
-        <v>1.26</v>
+        <v>1.98</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -16162,7 +16233,7 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>0.2</v>
@@ -16170,13 +16241,16 @@
       <c r="K17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9016</v>
+        <v>9013</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -16188,7 +16262,7 @@
         <v>0.4</v>
       </c>
       <c r="F18" s="2">
-        <v>0.97</v>
+        <v>2.11</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -16197,7 +16271,7 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0.2</v>
@@ -16205,25 +16279,28 @@
       <c r="K18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9018</v>
+        <v>9016</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>0.08</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="2">
-        <v>1.45</v>
+        <v>2.38</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -16232,33 +16309,36 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9025</v>
+        <v>9018</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="F20" s="2">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -16267,33 +16347,36 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="F21" s="2">
-        <v>1.36</v>
+        <v>2.35</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -16308,15 +16391,18 @@
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -16328,7 +16414,7 @@
         <v>0.4</v>
       </c>
       <c r="F22" s="2">
-        <v>1.22</v>
+        <v>2.42</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -16343,27 +16429,30 @@
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C23">
         <v>25</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="F23" s="2">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -16378,27 +16467,30 @@
         <v>0.2</v>
       </c>
       <c r="K23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>9035</v>
+        <v>9028</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F24" s="2">
-        <v>1.74</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -16407,33 +16499,36 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>0.2</v>
       </c>
       <c r="K24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>9035</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="2">
-        <v>1.24</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -16442,27 +16537,36 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="F26" s="2">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -16471,27 +16575,30 @@
         <v>0.2</v>
       </c>
       <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>10001</v>
+      </c>
+      <c r="C27">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>10002</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -16500,27 +16607,30 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1.34</v>
+        <v>2.13</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -16529,27 +16639,30 @@
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1.1100000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -16558,18 +16671,21 @@
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>20</v>
       </c>
       <c r="B30">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -16578,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="G30">
         <v>0.1</v>
@@ -16587,65 +16703,80 @@
         <v>0.2</v>
       </c>
       <c r="I30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
       <c r="B31">
-        <v>11001</v>
+        <v>10005</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1.43</v>
+        <v>3.08</v>
       </c>
       <c r="G31">
         <v>0.1</v>
       </c>
-      <c r="J31">
-        <v>0.1</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
       <c r="B32">
-        <v>11002</v>
+        <v>15028</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1">
-        <v>0.08</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="F32" s="2">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G32">
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
       </c>
       <c r="J32">
         <v>0.2</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -17280,10 +17411,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17292,7 +17423,7 @@
     <col min="6" max="6" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17326,8 +17457,15 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="134">
+        <f>SUM(L2:L1000)/52</f>
+        <v>16.67173076923077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -17355,8 +17493,11 @@
       <c r="K2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -17384,8 +17525,11 @@
       <c r="K3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -17413,8 +17557,11 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -17442,8 +17589,11 @@
       <c r="K5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -17471,8 +17621,11 @@
       <c r="K6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -17506,8 +17659,11 @@
       <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -17541,8 +17697,11 @@
       <c r="K8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -17576,8 +17735,11 @@
       <c r="K9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17611,8 +17773,11 @@
       <c r="K10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -17646,8 +17811,11 @@
       <c r="K11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -17681,8 +17849,11 @@
       <c r="K12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -17716,8 +17887,11 @@
       <c r="K13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
@@ -17751,8 +17925,11 @@
       <c r="K14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -17786,8 +17963,11 @@
       <c r="K15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
@@ -17821,8 +18001,11 @@
       <c r="K16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -17856,8 +18039,11 @@
       <c r="K17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L17">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -17891,8 +18077,11 @@
       <c r="K18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
@@ -17926,8 +18115,11 @@
       <c r="K19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L19">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -17961,8 +18153,11 @@
       <c r="K20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17996,8 +18191,11 @@
       <c r="K21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L21">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -18031,8 +18229,11 @@
       <c r="K22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -18066,8 +18267,11 @@
       <c r="K23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -18101,8 +18305,11 @@
       <c r="K24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -18136,8 +18343,11 @@
       <c r="K25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>20</v>
       </c>
@@ -18171,8 +18381,11 @@
       <c r="K26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L26">
+        <v>27.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -18206,8 +18419,11 @@
       <c r="K27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L27">
+        <v>45.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>20</v>
       </c>
@@ -18241,8 +18457,11 @@
       <c r="K28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L28">
+        <v>43.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>20</v>
       </c>
@@ -18276,8 +18495,11 @@
       <c r="K29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L29">
+        <v>51.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>20</v>
       </c>
@@ -18311,8 +18533,11 @@
       <c r="K30">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L30">
+        <v>58.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>20</v>
       </c>
@@ -18346,8 +18571,11 @@
       <c r="K31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L31">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>20</v>
       </c>
@@ -18381,8 +18609,11 @@
       <c r="K32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L32">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>20</v>
       </c>
@@ -18416,8 +18647,11 @@
       <c r="K33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L33">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>20</v>
       </c>
@@ -18451,8 +18685,11 @@
       <c r="K34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L34">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>20</v>
       </c>
@@ -18486,8 +18723,11 @@
       <c r="K35">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L35">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>20</v>
       </c>
@@ -18521,8 +18761,11 @@
       <c r="K36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L36">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>20</v>
       </c>
@@ -18556,8 +18799,11 @@
       <c r="K37">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>20</v>
       </c>
@@ -18591,8 +18837,11 @@
       <c r="K38">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L38">
+        <v>33.880000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>20</v>
       </c>
@@ -18626,8 +18875,11 @@
       <c r="K39">
         <v>200</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L39">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>20</v>
       </c>
@@ -18661,8 +18913,11 @@
       <c r="K40">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L40">
+        <v>53.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>20</v>
       </c>
@@ -18696,8 +18951,11 @@
       <c r="K41">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L41">
+        <v>41.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>20</v>
       </c>
@@ -18731,8 +18989,11 @@
       <c r="K42">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L42">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>20</v>
       </c>
@@ -18760,8 +19021,11 @@
       <c r="I43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>20</v>
       </c>
@@ -18789,8 +19053,11 @@
       <c r="I44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>20</v>
       </c>
@@ -18818,8 +19085,11 @@
       <c r="I45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>20</v>
       </c>
@@ -18847,8 +19117,11 @@
       <c r="I46">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>20</v>
       </c>
@@ -18876,8 +19149,11 @@
       <c r="I47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>20</v>
       </c>
@@ -18904,6 +19180,9 @@
       </c>
       <c r="I48">
         <v>100</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18913,19 +19192,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="8.83984375" style="1"/>
     <col min="6" max="6" width="8.83984375" style="2"/>
+    <col min="12" max="12" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18959,8 +19239,15 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="134">
+        <f>SUM(L2:L1000)/52</f>
+        <v>7.194807692307692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -18994,8 +19281,11 @@
       <c r="K2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L2" s="2">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -19029,8 +19319,11 @@
       <c r="K3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L3" s="2">
+        <v>44.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -19064,8 +19357,11 @@
       <c r="K4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" s="2">
+        <v>43.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -19099,8 +19395,11 @@
       <c r="K5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" s="2">
+        <v>47.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -19134,8 +19433,11 @@
       <c r="K6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" s="2">
+        <v>42.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -19169,8 +19471,11 @@
       <c r="K7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="2">
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -19204,8 +19509,11 @@
       <c r="K8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L8" s="2">
+        <v>46.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -19239,8 +19547,11 @@
       <c r="K9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L9" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19273,6 +19584,9 @@
       </c>
       <c r="K10">
         <v>100</v>
+      </c>
+      <c r="L10" s="2">
+        <v>32.81</v>
       </c>
     </row>
   </sheetData>
@@ -19284,8 +19598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BG140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19335,6 +19649,11 @@
       <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="125">
@@ -19370,6 +19689,13 @@
       <c r="I2" s="128">
         <f>F2+G2</f>
         <v>0.21832243072397375</v>
+      </c>
+      <c r="K2" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="137">
+        <f>+'V4000'!N1</f>
+        <v>7.194807692307692</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -19482,6 +19808,13 @@
         <f t="shared" ref="I3:I66" si="2">F3+G3</f>
         <v>0.24974795045491055</v>
       </c>
+      <c r="K3" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="137">
+        <f>+THUNDER_3200!N1</f>
+        <v>16.67173076923077</v>
+      </c>
       <c r="AC3" s="125"/>
       <c r="AD3" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ3, $B$1:$F1000, 5), "")</f>
@@ -19489,27 +19822,27 @@
       </c>
       <c r="AE3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BA3, $B$1:$F1000, 5), "")</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AF3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB3, $B$1:$F1000, 5), "")</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AG3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC3, $B$1:$F1000, 5), "")</f>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AH3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="AI3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AJ3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$F1000, 5), "")</f>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AK3" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
@@ -19591,42 +19924,42 @@
       </c>
       <c r="C4" s="125">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D4" s="125">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="127">
         <f t="shared" si="0"/>
-        <v>3.3898305084745763E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="F4" s="127">
         <f>IFERROR((E4 + Params!$B$3^2/(2 * C4))/(1 + Params!$B$3^2/C4), NA())</f>
-        <v>6.2391791424788678E-2</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="G4" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C4))*SQRT(E4*(1-E4)/C4 + (Params!$B$3/(2*C4))^2), 0)</f>
-        <v>5.3046078391287166E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="H4" s="128">
         <f t="shared" si="1"/>
-        <v>9.3457130335015126E-3</v>
+        <v>4.5405860652373703E-3</v>
       </c>
       <c r="I4" s="128">
         <f t="shared" si="2"/>
-        <v>0.11543786981607584</v>
+        <v>0.13181286478627147</v>
       </c>
       <c r="AC4" s="125">
         <v>2</v>
       </c>
       <c r="AD4" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ4, $B$1:$F1001, 5), "")</f>
-        <v>3.3792152226538301E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="AE4" s="129">
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$F1001, 5), "")</f>
-        <v>9.1394015036700249E-2</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="AF4" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$F1001, 5), "")</f>
@@ -19730,31 +20063,31 @@
       </c>
       <c r="C5" s="125">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D5" s="125">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="127">
         <f t="shared" si="0"/>
-        <v>0.30508474576271188</v>
+        <v>0.25641025641025639</v>
       </c>
       <c r="F5" s="127">
         <f>IFERROR((E5 + Params!$B$3^2/(2 * C5))/(1 + Params!$B$3^2/C5), NA())</f>
-        <v>0.31700020368672982</v>
+        <v>0.27825291305646843</v>
       </c>
       <c r="G5" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C5))*SQRT(E5*(1-E5)/C5 + (Params!$B$3/(2*C5))^2), 0)</f>
-        <v>0.11446546891070856</v>
+        <v>0.13256665462194656</v>
       </c>
       <c r="H5" s="128">
         <f t="shared" si="1"/>
-        <v>0.20253473477602124</v>
+        <v>0.14568625843452188</v>
       </c>
       <c r="I5" s="128">
         <f t="shared" si="2"/>
-        <v>0.4314656725974384</v>
+        <v>0.41081956767841499</v>
       </c>
       <c r="AA5" t="s">
         <v>43</v>
@@ -19767,7 +20100,7 @@
       </c>
       <c r="AD5" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ5, $B$1:$F1002, 5), "")</f>
-        <v>6.2391791424788678E-2</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AE5" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$F1002, 5), "")</f>
@@ -19775,19 +20108,19 @@
       </c>
       <c r="AF5" s="129">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$F1002, 5), "")</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AG5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC5, $B$1:$F1002, 5), "")</f>
-        <v>0.20893379213991872</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="AH5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD5, $B$1:$F1002, 5), "")</f>
-        <v>0.27361517166438126</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="AI5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE5, $B$1:$F1002, 5), "")</f>
-        <v>0.23022137263365605</v>
+        <v>0.17883496742101909</v>
       </c>
       <c r="AJ5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$F1002, 5), "")</f>
@@ -19893,7 +20226,7 @@
       </c>
       <c r="C6" s="125">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D6" s="125">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -19905,11 +20238,11 @@
       </c>
       <c r="F6" s="127">
         <f>IFERROR((E6 + Params!$B$3^2/(2 * C6))/(1 + Params!$B$3^2/C6), NA())</f>
-        <v>3.3792152226538301E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="G6" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C6))*SQRT(E6*(1-E6)/C6 + (Params!$B$3/(2*C6))^2), 0)</f>
-        <v>3.3792152226538308E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="H6" s="128">
         <f t="shared" si="1"/>
@@ -19917,7 +20250,7 @@
       </c>
       <c r="I6" s="128">
         <f t="shared" si="2"/>
-        <v>6.7584304453076616E-2</v>
+        <v>0.11025900073475384</v>
       </c>
       <c r="AA6" t="s">
         <v>44</v>
@@ -19938,19 +20271,19 @@
       </c>
       <c r="AF6" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$F1003, 5), "")</f>
-        <v>0.20893379213991872</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="AG6" s="129">
         <f ca="1">IFERROR(VLOOKUP(BC6, $B$1:$F1003, 5), "")</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AH6" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD6, $B$1:$F1003, 5), "")</f>
-        <v>0.40297793071330623</v>
+        <v>0.5</v>
       </c>
       <c r="AI6" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE6, $B$1:$F1003, 5), "")</f>
-        <v>0.41755621397840731</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="AJ6" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$F1003, 5), "")</f>
@@ -20056,7 +20389,7 @@
       </c>
       <c r="C7" s="125">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" s="125">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -20064,23 +20397,23 @@
       </c>
       <c r="E7" s="127">
         <f t="shared" si="0"/>
-        <v>7.5471698113207544E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F7" s="127">
         <f>IFERROR((E7 + Params!$B$3^2/(2 * C7))/(1 + Params!$B$3^2/C7), NA())</f>
-        <v>0.10416314811687213</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="G7" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C7))*SQRT(E7*(1-E7)/C7 + (Params!$B$3/(2*C7))^2), 0)</f>
-        <v>7.4424074517970326E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="H7" s="128">
         <f t="shared" si="1"/>
-        <v>2.9739073598901808E-2</v>
+        <v>5.1342011646447652E-2</v>
       </c>
       <c r="I7" s="128">
         <f t="shared" si="2"/>
-        <v>0.17858722263484245</v>
+        <v>0.28852756954385356</v>
       </c>
       <c r="AA7" t="s">
         <v>45</v>
@@ -20101,19 +20434,19 @@
       </c>
       <c r="AF7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$F1004, 5), "")</f>
-        <v>0.15786994602301663</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AG7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC7, $B$1:$F1004, 5), "")</f>
-        <v>0.39656533251858644</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="AH7" s="129">
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$F1004, 5), "")</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AI7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE7, $B$1:$F1004, 5), "")</f>
-        <v>0.41755621397840731</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="AJ7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF7, $B$1:$F1004, 5), "")</f>
@@ -20219,38 +20552,38 @@
       </c>
       <c r="C8" s="125">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D8" s="125">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E8" s="127">
         <f t="shared" si="0"/>
-        <v>0.24528301886792453</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F8" s="127">
         <f>IFERROR((E8 + Params!$B$3^2/(2 * C8))/(1 + Params!$B$3^2/C8), NA())</f>
-        <v>0.26249788887012326</v>
+        <v>0.22733743570903744</v>
       </c>
       <c r="G8" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C8))*SQRT(E8*(1-E8)/C8 + (Params!$B$3/(2*C8))^2), 0)</f>
-        <v>0.11317026175157749</v>
+        <v>0.13546859984556112</v>
       </c>
       <c r="H8" s="128">
         <f t="shared" si="1"/>
-        <v>0.14932762711854577</v>
+        <v>9.1868835863476328E-2</v>
       </c>
       <c r="I8" s="128">
         <f t="shared" si="2"/>
-        <v>0.37566815062170078</v>
+        <v>0.36280603555459856</v>
       </c>
       <c r="AC8" s="125">
         <v>50</v>
       </c>
       <c r="AD8" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$F1005, 5), "")</f>
-        <v>0.26249788887012326</v>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AE8" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
@@ -20258,19 +20591,19 @@
       </c>
       <c r="AF8" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
-        <v>0.40487255459047</v>
+        <v>0.37950523581459533</v>
       </c>
       <c r="AG8" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC8, $B$1:$F1005, 5), "")</f>
-        <v>0.44292353275428198</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="AH8" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$F1005, 5), "")</f>
-        <v>0.54439280785778066</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="AI8" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$F1005, 5), "")</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AJ8" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
@@ -20360,38 +20693,38 @@
       </c>
       <c r="C9" s="125">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D9" s="125">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="127">
         <f t="shared" si="0"/>
-        <v>0.2711864406779661</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F9" s="127">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G9" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), 0)</f>
-        <v>0.1108059022289038</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H9" s="128">
         <f t="shared" si="1"/>
-        <v>0.17436824992508337</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I9" s="128">
         <f t="shared" si="2"/>
-        <v>0.39598005438289097</v>
+        <v>0.35534272963128621</v>
       </c>
       <c r="AC9" s="125">
         <v>100</v>
       </c>
       <c r="AD9" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$F1006, 5), "")</f>
-        <v>0.10416314811687213</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AE9" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$F1006, 5), "")</f>
@@ -20415,7 +20748,7 @@
       </c>
       <c r="AJ9" s="129">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="AK9" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$F1006, 5), "")</f>
@@ -20501,31 +20834,31 @@
       </c>
       <c r="C10" s="125">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D10" s="125">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10" s="127">
         <f t="shared" si="0"/>
-        <v>0.18965517241379309</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F10" s="127">
         <f>IFERROR((E10 + Params!$B$3^2/(2 * C10))/(1 + Params!$B$3^2/C10), NA())</f>
-        <v>0.20893379213991872</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="G10" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C10))*SQRT(E10*(1-E10)/C10 + (Params!$B$3/(2*C10))^2), 0)</f>
-        <v>9.9592391714244374E-2</v>
+        <v>0.114866802067771</v>
       </c>
       <c r="H10" s="128">
         <f t="shared" si="1"/>
-        <v>0.10934140042567435</v>
+        <v>7.4437622237226858E-2</v>
       </c>
       <c r="I10" s="128">
         <f t="shared" si="2"/>
-        <v>0.30852618385416308</v>
+        <v>0.30417122637276883</v>
       </c>
       <c r="AC10" s="125">
         <v>200</v>
@@ -20642,31 +20975,31 @@
       </c>
       <c r="C11" s="125">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D11" s="125">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E11" s="127">
         <f t="shared" si="0"/>
-        <v>0.38983050847457629</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="F11" s="127">
         <f>IFERROR((E11 + Params!$B$3^2/(2 * C11))/(1 + Params!$B$3^2/C11), NA())</f>
-        <v>0.39656533251858644</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="G11" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C11))*SQRT(E11*(1-E11)/C11 + (Params!$B$3/(2*C11))^2), 0)</f>
-        <v>0.12077357186274237</v>
+        <v>0.14420126059409702</v>
       </c>
       <c r="H11" s="128">
         <f t="shared" si="1"/>
-        <v>0.2757917606558441</v>
+        <v>0.22741884696491102</v>
       </c>
       <c r="I11" s="128">
         <f t="shared" si="2"/>
-        <v>0.51733890438132879</v>
+        <v>0.51582136815310509</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -20678,31 +21011,31 @@
       </c>
       <c r="C12" s="125">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D12" s="125">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="127">
         <f t="shared" si="0"/>
-        <v>0.18965517241379309</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F12" s="127">
         <f>IFERROR((E12 + Params!$B$3^2/(2 * C12))/(1 + Params!$B$3^2/C12), NA())</f>
-        <v>0.20893379213991872</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="G12" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C12))*SQRT(E12*(1-E12)/C12 + (Params!$B$3/(2*C12))^2), 0)</f>
-        <v>9.9592391714244374E-2</v>
+        <v>0.12635714012173116</v>
       </c>
       <c r="H12" s="128">
         <f t="shared" si="1"/>
-        <v>0.10934140042567435</v>
+        <v>0.11074660352095933</v>
       </c>
       <c r="I12" s="128">
         <f t="shared" si="2"/>
-        <v>0.30852618385416308</v>
+        <v>0.36346088376442165</v>
       </c>
       <c r="AC12" t="s">
         <v>11</v>
@@ -20741,50 +21074,50 @@
       </c>
       <c r="C13" s="125">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D13" s="125">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="127">
         <f t="shared" si="0"/>
-        <v>0.11864406779661017</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F13" s="127">
         <f>IFERROR((E13 + Params!$B$3^2/(2 * C13))/(1 + Params!$B$3^2/C13), NA())</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="G13" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C13))*SQRT(E13*(1-E13)/C13 + (Params!$B$3/(2*C13))^2), 0)</f>
-        <v>8.3281837477505269E-2</v>
+        <v>0.11241198010341422</v>
       </c>
       <c r="H13" s="128">
         <f t="shared" si="1"/>
-        <v>5.8675082779140006E-2</v>
+        <v>7.2473738450514691E-2</v>
       </c>
       <c r="I13" s="128">
         <f t="shared" si="2"/>
-        <v>0.22523875773415053</v>
+        <v>0.29729769865734312</v>
       </c>
       <c r="AC13">
         <v>2</v>
       </c>
       <c r="AD13" s="1">
         <f ca="1">+AD4</f>
-        <v>3.3792152226538301E-2</v>
+        <v>5.5129500367376919E-2</v>
       </c>
       <c r="AE13" s="1">
         <f ca="1">+OFFSET($AE$3, 0, ROW(AD13)-ROW($AD$13))</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AF13" s="1">
         <f ca="1">+AD13+AE13</f>
-        <v>0.10276980239824351</v>
+        <v>0.13896032329169725</v>
       </c>
       <c r="AG13" s="1">
         <f ca="1">+OFFSET($AE$4, ROW(AF13)-ROW($AD$13), ROW(AF13)-ROW($AD$13))</f>
-        <v>9.1394015036700249E-2</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -20802,50 +21135,50 @@
       </c>
       <c r="C14" s="125">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D14" s="125">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="127">
         <f t="shared" si="0"/>
-        <v>0.13559322033898305</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F14" s="127">
         <f>IFERROR((E14 + Params!$B$3^2/(2 * C14))/(1 + Params!$B$3^2/C14), NA())</f>
-        <v>0.15786994602301663</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="G14" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C14))*SQRT(E14*(1-E14)/C14 + (Params!$B$3/(2*C14))^2), 0)</f>
-        <v>8.7529038526160952E-2</v>
+        <v>0.11241198010341422</v>
       </c>
       <c r="H14" s="128">
         <f t="shared" si="1"/>
-        <v>7.0340907496855676E-2</v>
+        <v>7.2473738450514691E-2</v>
       </c>
       <c r="I14" s="128">
         <f t="shared" si="2"/>
-        <v>0.24539898454917758</v>
+        <v>0.29729769865734312</v>
       </c>
       <c r="AC14">
         <v>5</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" ref="AD14:AD19" ca="1" si="7">+AD5</f>
-        <v>6.2391791424788678E-2</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" ref="AE14:AE19" ca="1" si="8">+OFFSET($AE$3, 0, ROW(AD14)-ROW($AD$13))</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" ref="AF14:AF19" ca="1" si="9">+AD14+AE14</f>
-        <v>0.17252266014869133</v>
+        <v>0.13635345085150882</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" ref="AG14:AG19" ca="1" si="10">+OFFSET($AE$4, ROW(AF14)-ROW($AD$13), ROW(AF14)-ROW($AD$13))</f>
-        <v>0.14195692025664527</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -20863,31 +21196,31 @@
       </c>
       <c r="C15" s="125">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D15" s="125">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="127">
         <f t="shared" si="0"/>
-        <v>0.39655172413793105</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="127">
         <f>IFERROR((E15 + Params!$B$3^2/(2 * C15))/(1 + Params!$B$3^2/C15), NA())</f>
-        <v>0.40297793071330623</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C15))*SQRT(E15*(1-E15)/C15 + (Params!$B$3/(2*C15))^2), 0)</f>
-        <v>0.1220922412121949</v>
+        <v>0.15150324467139309</v>
       </c>
       <c r="H15" s="128">
         <f t="shared" si="1"/>
-        <v>0.28088568950111131</v>
+        <v>0.34849675532860691</v>
       </c>
       <c r="I15" s="128">
         <f t="shared" si="2"/>
-        <v>0.52507017192550109</v>
+        <v>0.65150324467139309</v>
       </c>
       <c r="AC15">
         <v>10</v>
@@ -20898,15 +21231,15 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3138249810043125</v>
+        <v>0.37161132502012323</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28517415215398717</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -20924,31 +21257,31 @@
       </c>
       <c r="C16" s="125">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D16" s="125">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" s="127">
         <f t="shared" si="0"/>
-        <v>0.25862068965517243</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="F16" s="127">
         <f>IFERROR((E16 + Params!$B$3^2/(2 * C16))/(1 + Params!$B$3^2/C16), NA())</f>
-        <v>0.27361517166438126</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="G16" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C16))*SQRT(E16*(1-E16)/C16 + (Params!$B$3/(2*C16))^2), 0)</f>
-        <v>0.11016113646920669</v>
+        <v>0.13877166001266816</v>
       </c>
       <c r="H16" s="128">
         <f t="shared" si="1"/>
-        <v>0.16345403519517457</v>
+        <v>0.17003106263656131</v>
       </c>
       <c r="I16" s="128">
         <f t="shared" si="2"/>
-        <v>0.38377630813358798</v>
+        <v>0.44757438266189764</v>
       </c>
       <c r="AC16">
         <v>20</v>
@@ -20959,15 +21292,15 @@
       </c>
       <c r="AE16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35551017524711992</v>
+        <v>0.36201939541942452</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -20989,46 +21322,46 @@
       </c>
       <c r="D17" s="125">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="127">
         <f t="shared" si="0"/>
-        <v>0.39240506329113922</v>
+        <v>0.41772151898734178</v>
       </c>
       <c r="F17" s="127">
         <f>IFERROR((E17 + Params!$B$3^2/(2 * C17))/(1 + Params!$B$3^2/C17), NA())</f>
-        <v>0.39739454573547589</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="G17" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C17))*SQRT(E17*(1-E17)/C17 + (Params!$B$3/(2*C17))^2), 0)</f>
-        <v>0.10526756906167181</v>
+        <v>0.10627245507177599</v>
       </c>
       <c r="H17" s="128">
         <f t="shared" si="1"/>
-        <v>0.29212697667380405</v>
+        <v>0.31526455049064672</v>
       </c>
       <c r="I17" s="128">
         <f t="shared" si="2"/>
-        <v>0.50266211479714773</v>
+        <v>0.52780946063419876</v>
       </c>
       <c r="AC17">
         <v>50</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26249788887012326</v>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43703203287732922</v>
+        <v>0.39727222630418801</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -21077,19 +21410,19 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0.10416314811687213</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15554804931599389</v>
+        <v>0.25376561351947091</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -21111,27 +21444,27 @@
       </c>
       <c r="D19" s="125">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19" s="127">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.38666666666666666</v>
       </c>
       <c r="F19" s="127">
         <f>IFERROR((E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19), NA())</f>
-        <v>0.44292353275428198</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="G19" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C19))*SQRT(E19*(1-E19)/C19 + (Params!$B$3/(2*C19))^2), 0)</f>
-        <v>0.10961077298643349</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H19" s="128">
         <f t="shared" si="1"/>
-        <v>0.33331275976784847</v>
+        <v>0.28455047772633968</v>
       </c>
       <c r="I19" s="128">
         <f t="shared" si="2"/>
-        <v>0.55253430574071549</v>
+        <v>0.4998273126787256</v>
       </c>
       <c r="AC19">
         <v>200</v>
@@ -21238,27 +21571,27 @@
       </c>
       <c r="D22" s="125">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="127">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="F22" s="127">
         <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
-        <v>0.40487255459047</v>
+        <v>0.37950523581459533</v>
       </c>
       <c r="G22" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), 0)</f>
-        <v>0.10824912380876403</v>
+        <v>0.10694720446145395</v>
       </c>
       <c r="H22" s="128">
         <f t="shared" si="1"/>
-        <v>0.29662343078170594</v>
+        <v>0.27255803135314138</v>
       </c>
       <c r="I22" s="128">
         <f t="shared" si="2"/>
-        <v>0.51312167839923406</v>
+        <v>0.48645244027604928</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -21346,27 +21679,27 @@
       </c>
       <c r="D25" s="125">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E25" s="127">
         <f t="shared" si="0"/>
-        <v>0.54666666666666663</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="F25" s="127">
         <f>IFERROR((E25 + Params!$B$3^2/(2 * C25))/(1 + Params!$B$3^2/C25), NA())</f>
-        <v>0.54439280785778066</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="G25" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C25))*SQRT(E25*(1-E25)/C25 + (Params!$B$3/(2*C25))^2), 0)</f>
-        <v>0.10991107086629816</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H25" s="128">
         <f t="shared" si="1"/>
-        <v>0.43448173699148251</v>
+        <v>0.50017268732127429</v>
       </c>
       <c r="I25" s="128">
         <f t="shared" si="2"/>
-        <v>0.6543038787240788</v>
+        <v>0.71544952227366021</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -21492,27 +21825,27 @@
       </c>
       <c r="AE26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BA26, $B$1:$F1023, 5), "")</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AF26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB26, $B$1:$F1023, 5), "")</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AG26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC26, $B$1:$F1023, 5), "")</f>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AH26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD26, $B$1:$F1023, 5), "")</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="AI26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE26, $B$1:$F1023, 5), "")</f>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AJ26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF26, $B$1:$F1023, 5), "")</f>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AK26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG26, $B$1:$F1023, 5), "")</f>
@@ -21598,27 +21931,27 @@
       </c>
       <c r="D27" s="125">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="127">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="127">
         <f>IFERROR((E27 + Params!$B$3^2/(2 * C27))/(1 + Params!$B$3^2/C27), NA())</f>
-        <v>9.1394015036700249E-2</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="G27" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C27))*SQRT(E27*(1-E27)/C27 + (Params!$B$3/(2*C27))^2), 0)</f>
-        <v>7.0779418672069758E-2</v>
+        <v>6.1782363059360045E-2</v>
       </c>
       <c r="H27" s="128">
         <f t="shared" si="1"/>
-        <v>2.0614596364630491E-2</v>
+        <v>1.1038652660826577E-2</v>
       </c>
       <c r="I27" s="128">
         <f t="shared" si="2"/>
-        <v>0.16217343370877002</v>
+        <v>0.13460337877954667</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
@@ -22279,7 +22612,7 @@
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.56702053509195216</v>
+        <v>0.57429199726605451</v>
       </c>
       <c r="AJ31" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
@@ -22655,27 +22988,27 @@
       </c>
       <c r="D34" s="125">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34" s="127">
         <f t="shared" si="0"/>
-        <v>0.21621621621621623</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="F34" s="127">
         <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
-        <v>0.23022137263365605</v>
+        <v>0.17883496742101909</v>
       </c>
       <c r="G34" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C34))*SQRT(E34*(1-E34)/C34 + (Params!$B$3/(2*C34))^2), 0)</f>
-        <v>9.2518019959391004E-2</v>
+        <v>8.356526699179713E-2</v>
       </c>
       <c r="H34" s="128">
         <f t="shared" si="1"/>
-        <v>0.13770335267426503</v>
+        <v>9.5269700429221962E-2</v>
       </c>
       <c r="I34" s="128">
         <f t="shared" si="2"/>
-        <v>0.32273939259304707</v>
+        <v>0.26240023441281624</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22691,27 +23024,27 @@
       </c>
       <c r="D35" s="125">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" s="127">
         <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="F35" s="127">
         <f>IFERROR((E35 + Params!$B$3^2/(2 * C35))/(1 + Params!$B$3^2/C35), NA())</f>
-        <v>0.41755621397840731</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="G35" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C35))*SQRT(E35*(1-E35)/C35 + (Params!$B$3/(2*C35))^2), 0)</f>
-        <v>0.10878067938691047</v>
+        <v>0.10961077298643349</v>
       </c>
       <c r="H35" s="128">
         <f t="shared" si="1"/>
-        <v>0.30877553459149687</v>
+        <v>0.33331275976784847</v>
       </c>
       <c r="I35" s="128">
         <f t="shared" si="2"/>
-        <v>0.52633689336531775</v>
+        <v>0.55253430574071549</v>
       </c>
     </row>
     <row r="36" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22727,27 +23060,27 @@
       </c>
       <c r="D36" s="125">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" s="127">
         <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="F36" s="127">
         <f>IFERROR((E36 + Params!$B$3^2/(2 * C36))/(1 + Params!$B$3^2/C36), NA())</f>
-        <v>0.41755621397840731</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="G36" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C36))*SQRT(E36*(1-E36)/C36 + (Params!$B$3/(2*C36))^2), 0)</f>
-        <v>0.10878067938691047</v>
+        <v>0.10991107086629816</v>
       </c>
       <c r="H36" s="128">
         <f t="shared" si="1"/>
-        <v>0.30877553459149687</v>
+        <v>0.3456961212759212</v>
       </c>
       <c r="I36" s="128">
         <f t="shared" si="2"/>
-        <v>0.52633689336531775</v>
+        <v>0.56551826300851749</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22763,27 +23096,27 @@
       </c>
       <c r="D37" s="125">
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E37" s="127">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.54666666666666663</v>
       </c>
       <c r="F37" s="127">
         <f>IFERROR((E37 + Params!$B$3^2/(2 * C37))/(1 + Params!$B$3^2/C37), NA())</f>
-        <v>0.59512744540953</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="G37" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C37))*SQRT(E37*(1-E37)/C37 + (Params!$B$3/(2*C37))^2), 0)</f>
-        <v>0.10824912380876403</v>
+        <v>0.10991107086629816</v>
       </c>
       <c r="H37" s="128">
         <f t="shared" si="1"/>
-        <v>0.48687832160076594</v>
+        <v>0.43448173699148251</v>
       </c>
       <c r="I37" s="128">
         <f t="shared" si="2"/>
-        <v>0.70337656921829406</v>
+        <v>0.6543038787240788</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22970,9 +23303,9 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG40-1, 0)</f>
         <v>11001</v>
       </c>
-      <c r="AI40" s="128">
+      <c r="AI40" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
-        <v>0.10127038721846221</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23177,27 +23510,27 @@
       </c>
       <c r="D44" s="125">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E44" s="127">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F44" s="127">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.5</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="G44" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), 0)</f>
-        <v>0.13355713587667145</v>
+        <v>0.13105310555497438</v>
       </c>
       <c r="H44" s="128">
         <f t="shared" si="1"/>
-        <v>0.36644286412332855</v>
+        <v>0.27608189786245751</v>
       </c>
       <c r="I44" s="128">
         <f t="shared" si="2"/>
-        <v>0.6335571358766714</v>
+        <v>0.53818810897240632</v>
       </c>
       <c r="AA44" s="125">
         <v>20</v>
@@ -23899,7 +24232,7 @@
       </c>
       <c r="AI56" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$F1017, 5), "")</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -23974,31 +24307,31 @@
       </c>
       <c r="C58" s="125">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D58" s="125">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="127">
         <f t="shared" si="0"/>
-        <v>0.15254237288135594</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F58" s="127">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.17378297178938795</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G58" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), 0)</f>
-        <v>9.1399260898714321E-2</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H58" s="128">
         <f t="shared" si="1"/>
-        <v>8.2383710890673631E-2</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I58" s="128">
         <f t="shared" si="2"/>
-        <v>0.26518223268810226</v>
+        <v>0.35534272963128621</v>
       </c>
       <c r="AA58" s="125"/>
       <c r="AB58" s="133"/>
@@ -24037,31 +24370,31 @@
       </c>
       <c r="C59" s="125">
         <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D59" s="125">
         <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="127">
         <f t="shared" si="0"/>
-        <v>8.4745762711864403E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="F59" s="127">
         <f>IFERROR((E59 + Params!$B$3^2/(2 * C59))/(1 + Params!$B$3^2/C59), NA())</f>
-        <v>0.11013086872390264</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="G59" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C59))*SQRT(E59*(1-E59)/C59 + (Params!$B$3/(2*C59))^2), 0)</f>
-        <v>7.3389377417702864E-2</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="H59" s="128">
         <f t="shared" si="1"/>
-        <v>3.6741491306199775E-2</v>
+        <v>4.5405860652373703E-3</v>
       </c>
       <c r="I59" s="128">
         <f t="shared" si="2"/>
-        <v>0.1835202461416055</v>
+        <v>0.13181286478627147</v>
       </c>
       <c r="AA59" s="125"/>
       <c r="AB59" s="133"/>
@@ -24100,31 +24433,31 @@
       </c>
       <c r="C60" s="125">
         <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D60" s="125">
         <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E60" s="127">
         <f t="shared" si="0"/>
-        <v>0.16981132075471697</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F60" s="127">
         <f>IFERROR((E60 + Params!$B$3^2/(2 * C60))/(1 + Params!$B$3^2/C60), NA())</f>
-        <v>0.19212689297978941</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="G60" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C60))*SQRT(E60*(1-E60)/C60 + (Params!$B$3/(2*C60))^2), 0)</f>
-        <v>0.10012847525755188</v>
+        <v>0.12771091409769464</v>
       </c>
       <c r="H60" s="128">
         <f t="shared" si="1"/>
-        <v>9.1998417722237533E-2</v>
+        <v>7.0925199054399368E-2</v>
       </c>
       <c r="I60" s="128">
         <f t="shared" si="2"/>
-        <v>0.29225536823734127</v>
+        <v>0.32634702724978865</v>
       </c>
       <c r="AA60" s="125"/>
       <c r="AB60" s="133"/>
@@ -24163,31 +24496,31 @@
       </c>
       <c r="C61" s="125">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D61" s="125">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E61" s="127">
         <f t="shared" si="0"/>
-        <v>0.15094339622641509</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F61" s="127">
         <f>IFERROR((E61 + Params!$B$3^2/(2 * C61))/(1 + Params!$B$3^2/C61), NA())</f>
-        <v>0.17453414400720596</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="G61" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C61))*SQRT(E61*(1-E61)/C61 + (Params!$B$3/(2*C61))^2), 0)</f>
-        <v>9.601090142938945E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="H61" s="128">
         <f t="shared" si="1"/>
-        <v>7.852324257781651E-2</v>
+        <v>5.1342011646447652E-2</v>
       </c>
       <c r="I61" s="128">
         <f t="shared" si="2"/>
-        <v>0.27054504543659541</v>
+        <v>0.28852756954385356</v>
       </c>
       <c r="AA61" s="125"/>
       <c r="AB61" s="133"/>
@@ -24226,31 +24559,31 @@
       </c>
       <c r="C62" s="125">
         <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D62" s="125">
         <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" s="127">
         <f t="shared" si="0"/>
-        <v>3.7735849056603772E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="F62" s="127">
         <f>IFERROR((E62 + Params!$B$3^2/(2 * C62))/(1 + Params!$B$3^2/C62), NA())</f>
-        <v>6.8977650171705207E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="G62" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C62))*SQRT(E62*(1-E62)/C62 + (Params!$B$3/(2*C62))^2), 0)</f>
-        <v>5.8567581337885935E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="H62" s="128">
         <f t="shared" si="1"/>
-        <v>1.0410068833819272E-2</v>
+        <v>5.7170740869444542E-3</v>
       </c>
       <c r="I62" s="128">
         <f t="shared" si="2"/>
-        <v>0.12754523150959113</v>
+        <v>0.16194457176169619</v>
       </c>
       <c r="AA62" s="125"/>
       <c r="AB62" s="133"/>
@@ -24289,7 +24622,7 @@
       </c>
       <c r="C63" s="125">
         <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D63" s="125">
         <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24297,23 +24630,23 @@
       </c>
       <c r="E63" s="127">
         <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="F63" s="127">
         <f>IFERROR((E63 + Params!$B$3^2/(2 * C63))/(1 + Params!$B$3^2/C63), NA())</f>
-        <v>5.1384901199121757E-2</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="G63" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C63))*SQRT(E63*(1-E63)/C63 + (Params!$B$3/(2*C63))^2), 0)</f>
-        <v>4.8046533812372359E-2</v>
+        <v>7.8113748837375874E-2</v>
       </c>
       <c r="H63" s="128">
         <f t="shared" si="1"/>
-        <v>3.3383673867493982E-3</v>
+        <v>5.7170740869444542E-3</v>
       </c>
       <c r="I63" s="128">
         <f t="shared" si="2"/>
-        <v>9.9431435011494124E-2</v>
+        <v>0.16194457176169619</v>
       </c>
       <c r="AA63" s="125"/>
       <c r="AB63" s="133"/>
@@ -24415,31 +24748,31 @@
       </c>
       <c r="C65" s="125">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D65" s="125">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E65" s="127">
+        <v>0</v>
+      </c>
+      <c r="E65" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="F65" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="127" t="e">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
-        <v>0.10127038721846221</v>
+        <v>#N/A</v>
       </c>
       <c r="G65" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C65))*SQRT(E65*(1-E65)/C65 + (Params!$B$3/(2*C65))^2), 0)</f>
-        <v>9.4174336831763045E-2</v>
-      </c>
-      <c r="H65" s="128">
+        <v>0</v>
+      </c>
+      <c r="H65" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>7.0960503866991653E-3</v>
-      </c>
-      <c r="I65" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.19544472405022525</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -24451,31 +24784,31 @@
       </c>
       <c r="C66" s="125">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D66" s="125">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E66" s="127">
+        <v>0</v>
+      </c>
+      <c r="E66" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F66" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="127" t="e">
         <f>IFERROR((E66 + Params!$B$3^2/(2 * C66))/(1 + Params!$B$3^2/C66), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>#N/A</v>
       </c>
       <c r="G66" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C66))*SQRT(E66*(1-E66)/C66 + (Params!$B$3/(2*C66))^2), 0)</f>
-        <v>0.11372259376924314</v>
-      </c>
-      <c r="H66" s="128">
+        <v>0</v>
+      </c>
+      <c r="H66" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>2.2219933691091917E-2</v>
-      </c>
-      <c r="I66" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.24966512122957818</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26395,31 +26728,31 @@
       </c>
       <c r="C120" s="125">
         <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D120" s="125">
         <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E120" s="127">
         <f t="shared" si="17"/>
-        <v>0.57692307692307687</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F120" s="127">
         <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
-        <v>0.56702053509195216</v>
+        <v>0.57429199726605451</v>
       </c>
       <c r="G120" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
-        <v>0.17753756588075384</v>
+        <v>0.13196003038827617</v>
       </c>
       <c r="H120" s="128">
         <f t="shared" si="18"/>
-        <v>0.38948296921119829</v>
+        <v>0.44233196687777832</v>
       </c>
       <c r="I120" s="128">
         <f t="shared" si="19"/>
-        <v>0.74455810097270603</v>
+        <v>0.70625202765433071</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF3737E-9194-44CF-B040-ECFD91045586}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB9ED73-8F78-46D1-8794-ECA84710F357}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="61">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>Thunder</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -658,6 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -19194,9 +19204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -19244,7 +19252,7 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>7.194807692307692</v>
+        <v>7.3421153846153846</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -19255,7 +19263,7 @@
         <v>15008</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -19264,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -19282,7 +19290,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <v>44.05</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -19293,16 +19301,16 @@
         <v>15016</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F3" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -19320,7 +19328,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>44.89</v>
+        <v>47.59</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -19596,10 +19604,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:BG140"/>
+  <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19619,9 +19627,13 @@
     <col min="42" max="48" width="4.734375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.7890625" bestFit="1" customWidth="1"/>
     <col min="52" max="59" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.5234375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.62890625" bestFit="1" customWidth="1"/>
+    <col min="64" max="69" width="6.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
@@ -19655,7 +19667,7 @@
       </c>
       <c r="L1" s="126"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="125">
         <v>20</v>
       </c>
@@ -19695,7 +19707,7 @@
       </c>
       <c r="L2" s="137">
         <f>+'V4000'!N1</f>
-        <v>7.194807692307692</v>
+        <v>7.3421153846153846</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -19772,8 +19784,33 @@
       <c r="BG2" s="56">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="56">
+        <v>5</v>
+      </c>
+      <c r="BM2" s="56">
+        <v>10</v>
+      </c>
+      <c r="BN2" s="56">
+        <v>20</v>
+      </c>
+      <c r="BO2" s="56">
+        <v>50</v>
+      </c>
+      <c r="BP2" s="56">
+        <v>100</v>
+      </c>
+      <c r="BQ2" s="56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="125">
         <v>20</v>
       </c>
@@ -19910,12 +19947,37 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AU3 - 1, 0)</f>
         <v>10005</v>
       </c>
-      <c r="BG3" s="125" t="e">
+      <c r="BG3" s="138" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV3 - 1, 0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI3" s="125"/>
+      <c r="BJ3" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK3" s="128">
+        <v>8.3830822924320328E-2</v>
+      </c>
+      <c r="BL3" s="128">
+        <v>6.8176725425754411E-2</v>
+      </c>
+      <c r="BM3" s="128">
+        <v>0.23156931580519868</v>
+      </c>
+      <c r="BN3" s="128">
+        <v>0.19863611315209401</v>
+      </c>
+      <c r="BO3" s="128">
+        <v>0.1699347905951506</v>
+      </c>
+      <c r="BP3" s="128">
+        <v>8.3830822924320328E-2</v>
+      </c>
+      <c r="BQ3" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="125">
         <v>20</v>
       </c>
@@ -20029,19 +20091,19 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP4 - 1, 0)</f>
         <v>9018</v>
       </c>
-      <c r="BB4" s="125">
+      <c r="BB4" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AQ4 - 1, 0)</f>
         <v>9012</v>
       </c>
-      <c r="BC4" s="125">
+      <c r="BC4" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AR4 - 1, 0)</f>
         <v>9009</v>
       </c>
-      <c r="BD4" s="125">
+      <c r="BD4" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AS4 - 1, 0)</f>
         <v>9015</v>
       </c>
-      <c r="BE4" s="125">
+      <c r="BE4" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AT4 - 1, 0)</f>
         <v>9024</v>
       </c>
@@ -20049,12 +20111,39 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AU4 - 1, 0)</f>
         <v>9030</v>
       </c>
-      <c r="BG4" s="125">
+      <c r="BG4" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV4 - 1, 0)</f>
         <v>9036</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI4" s="125">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="128">
+        <v>5.5129500367376919E-2</v>
+      </c>
+      <c r="BK4" s="129">
+        <v>7.2821015720186622E-2</v>
+      </c>
+      <c r="BL4" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM4" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN4" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO4" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP4" s="128">
+        <v>0.21101606750664662</v>
+      </c>
+      <c r="BQ4" s="128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="125">
         <v>20</v>
       </c>
@@ -20188,7 +20277,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO5 - 1, 0)</f>
         <v>7002</v>
       </c>
-      <c r="BA5" s="125">
+      <c r="BA5" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP5 - 1, 0)</f>
         <v>9019</v>
       </c>
@@ -20216,8 +20305,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV5 - 1, 0)</f>
         <v>9037</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI5" s="125">
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="128">
+        <v>6.8176725425754411E-2</v>
+      </c>
+      <c r="BK5" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL5" s="129">
+        <v>0.18488571855392891</v>
+      </c>
+      <c r="BM5" s="128">
+        <v>0.18930442430499786</v>
+      </c>
+      <c r="BN5" s="128">
+        <v>0.30880272264922948</v>
+      </c>
+      <c r="BO5" s="128">
+        <v>0.17883496742101909</v>
+      </c>
+      <c r="BP5" s="128">
+        <v>0.22744829304759534</v>
+      </c>
+      <c r="BQ5" s="128">
+        <v>0.16220780975543844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="125">
         <v>20</v>
       </c>
@@ -20351,7 +20467,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO6 - 1, 0)</f>
         <v>7000</v>
       </c>
-      <c r="BA6" s="125">
+      <c r="BA6" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP6 - 1, 0)</f>
         <v>9020</v>
       </c>
@@ -20379,8 +20495,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV6 - 1, 0)</f>
         <v>9038</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI6" s="125">
+        <v>10</v>
+      </c>
+      <c r="BJ6" s="128">
+        <v>0.14004200921492455</v>
+      </c>
+      <c r="BK6" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL6" s="128">
+        <v>0.23710374364269049</v>
+      </c>
+      <c r="BM6" s="129">
+        <v>0.23156931580519868</v>
+      </c>
+      <c r="BN6" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="BO6" s="128">
+        <v>0.44292353275428198</v>
+      </c>
+      <c r="BP6" s="128">
+        <v>0.53893595813605788</v>
+      </c>
+      <c r="BQ6" s="128">
+        <v>0.24665585731657882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="125">
         <v>20</v>
       </c>
@@ -20514,7 +20657,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO7 - 1, 0)</f>
         <v>7001</v>
       </c>
-      <c r="BA7" s="125">
+      <c r="BA7" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP7 - 1, 0)</f>
         <v>9021</v>
       </c>
@@ -20542,8 +20685,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV7 - 1, 0)</f>
         <v>9039</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI7" s="125">
+        <v>20</v>
+      </c>
+      <c r="BJ7" s="128">
+        <v>0.16338328226733051</v>
+      </c>
+      <c r="BK7" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL7" s="128">
+        <v>0.18488571855392891</v>
+      </c>
+      <c r="BM7" s="128">
+        <v>0.37162010755900804</v>
+      </c>
+      <c r="BN7" s="129">
+        <v>0.42153700556242274</v>
+      </c>
+      <c r="BO7" s="128">
+        <v>0.45560719214221934</v>
+      </c>
+      <c r="BP7" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="BQ7" s="128">
+        <v>0.58444804756114044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="125">
         <v>20</v>
       </c>
@@ -20655,7 +20825,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO8 - 1, 0)</f>
         <v>7006</v>
       </c>
-      <c r="BA8" s="125">
+      <c r="BA8" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP8 - 1, 0)</f>
         <v>9022</v>
       </c>
@@ -20683,8 +20853,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV8 - 1, 0)</f>
         <v>9040</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI8" s="125">
+        <v>50</v>
+      </c>
+      <c r="BJ8" s="128">
+        <v>0.22733743570903744</v>
+      </c>
+      <c r="BK8" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL8" s="128">
+        <v>0.37950523581459533</v>
+      </c>
+      <c r="BM8" s="128">
+        <v>0.39218889520253264</v>
+      </c>
+      <c r="BN8" s="128">
+        <v>0.60781110479746725</v>
+      </c>
+      <c r="BO8" s="129">
+        <v>0.54439280785778066</v>
+      </c>
+      <c r="BP8" s="128">
+        <v>0.63835596221959856</v>
+      </c>
+      <c r="BQ8" s="128">
+        <v>0.45388134592680052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="125">
         <v>20</v>
       </c>
@@ -20796,7 +20993,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO9 - 1, 0)</f>
         <v>7005</v>
       </c>
-      <c r="BA9" s="125">
+      <c r="BA9" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP9 - 1, 0)</f>
         <v>9023</v>
       </c>
@@ -20824,8 +21021,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV9 - 1, 0)</f>
         <v>9041</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI9" s="125">
+        <v>100</v>
+      </c>
+      <c r="BJ9" s="128">
+        <v>0.1699347905951506</v>
+      </c>
+      <c r="BK9" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL9" s="128">
+        <v>0.41555195243885962</v>
+      </c>
+      <c r="BM9" s="128">
+        <v>0.53368909012505383</v>
+      </c>
+      <c r="BN9" s="128">
+        <v>0.35550803375332329</v>
+      </c>
+      <c r="BO9" s="128">
+        <v>0.66889609512228076</v>
+      </c>
+      <c r="BP9" s="129">
+        <v>0.40713500341743192</v>
+      </c>
+      <c r="BQ9" s="128">
+        <v>0.41555195243885962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="125">
         <v>20</v>
       </c>
@@ -20933,11 +21157,11 @@
       <c r="AY10" s="125">
         <v>200</v>
       </c>
-      <c r="AZ10" s="125" t="e">
+      <c r="AZ10" s="138" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO10 - 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA10" s="125">
+      <c r="BA10" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP10 - 1, 0)</f>
         <v>9043</v>
       </c>
@@ -20965,8 +21189,35 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV10 - 1, 0)</f>
         <v>9042</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI10" s="125">
+        <v>200</v>
+      </c>
+      <c r="BJ10" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK10" s="128" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL10" s="128">
+        <v>0.33110390487771924</v>
+      </c>
+      <c r="BM10" s="128">
+        <v>0.38319212559182658</v>
+      </c>
+      <c r="BN10" s="128">
+        <v>0.5722459831233383</v>
+      </c>
+      <c r="BO10" s="128">
+        <v>0.53893595813605788</v>
+      </c>
+      <c r="BP10" s="128">
+        <v>0.33034744842562436</v>
+      </c>
+      <c r="BQ10" s="129">
+        <v>0.24665585731657882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="125">
         <v>20</v>
       </c>
@@ -21002,7 +21253,7 @@
         <v>0.51582136815310509</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="125">
         <v>20</v>
       </c>
@@ -21065,7 +21316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="125">
         <v>20</v>
       </c>
@@ -21126,7 +21377,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="125">
         <v>20</v>
       </c>
@@ -21187,7 +21438,7 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="125">
         <v>20</v>
       </c>
@@ -21248,7 +21499,7 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="125">
         <v>20</v>
       </c>
@@ -22451,7 +22702,7 @@
       </c>
       <c r="AH30" s="129">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="AI30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
@@ -22608,7 +22859,7 @@
       </c>
       <c r="AH31" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.5</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
@@ -26008,7 +26259,7 @@
       </c>
       <c r="C100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26020,11 +26271,11 @@
       </c>
       <c r="F100" s="127">
         <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
-        <v>0.39672835426305353</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="G100" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
-        <v>0.39672835426305358</v>
+        <v>0.32881402355519035</v>
       </c>
       <c r="H100" s="128">
         <f t="shared" si="18"/>
@@ -26032,7 +26283,7 @@
       </c>
       <c r="I100" s="128">
         <f t="shared" si="19"/>
-        <v>0.79345670852610706</v>
+        <v>0.6576280471103807</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26296,31 +26547,31 @@
       </c>
       <c r="C108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" s="127">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F108" s="127">
         <f>IFERROR((E108 + Params!$B$3^2/(2 * C108))/(1 + Params!$B$3^2/C108), NA())</f>
-        <v>0.5</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="G108" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C108))*SQRT(E108*(1-E108)/C108 + (Params!$B$3/(2*C108))^2), 0)</f>
-        <v>0.40547134519913386</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="H108" s="128">
         <f t="shared" si="18"/>
-        <v>9.4528654800866141E-2</v>
+        <v>0.20765495512648796</v>
       </c>
       <c r="I108" s="128">
         <f t="shared" si="19"/>
-        <v>0.90547134519913386</v>
+        <v>0.93850968472383944</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB9ED73-8F78-46D1-8794-ECA84710F357}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C13C2F-9A3B-40FA-AB1F-F70225C42C9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="7" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Current est.</t>
+  </si>
+  <si>
+    <t>Est on 9/7/2919</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,6 +674,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -816,7 +826,7 @@
                   <c:v>0.22744829304759534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16220780975543844</c:v>
+                  <c:v>0.14957637677547969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +873,7 @@
                   <c:v>0.53893595813605788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24665585731657882</c:v>
+                  <c:v>0.22744829304759534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,7 +917,7 @@
                   <c:v>0.45560719214221934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.58444804756114044</c:v>
@@ -998,7 +1008,7 @@
                   <c:v>0.35550803375332329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66889609512228076</c:v>
+                  <c:v>0.61680787440817342</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.40713500341743192</c:v>
@@ -1388,10 +1398,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TOTAL!$AC$13:$AC$18</c:f>
+              <c:f>TOTAL!$AC$13:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1409,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,7 +1451,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.22733743570903744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,10 +1488,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TOTAL!$AC$13:$AC$18</c:f>
+              <c:f>TOTAL!$AC$13:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1496,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,7 +1541,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,6 +1576,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$AC$13:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>TOTAL!$AF$13:$AF$19</c:f>
@@ -1585,7 +1631,7 @@
                   <c:v>0.25376561351947091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.31116825863335779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,6 +1666,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$AC$13:$AC$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>TOTAL!$AG$13:$AG$19</c:f>
@@ -1724,7 +1800,7 @@
         <c:axId val="938670176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000007"/>
+          <c:max val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7430,10 +7506,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7653,35 +7729,29 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="124"/>
       <c r="B10">
-        <v>9000</v>
+        <v>7007</v>
       </c>
       <c r="C10" s="2">
         <v>0.1</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
       <c r="F10" s="2">
         <v>0.2</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>10#10#0.2#0.2#0.1</v>
+        <v>200##0.2##0.1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="124"/>
       <c r="B11">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -7696,20 +7766,20 @@
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>5#10#0.2#0.2#0.1</v>
+        <v>10#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="124"/>
       <c r="B12">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C12" s="2">
         <v>0.1</v>
@@ -7724,20 +7794,20 @@
         <v>0.2</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>20#10#0.2#0.2#0.1</v>
+        <v>5#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="124"/>
       <c r="B13">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C13" s="2">
         <v>0.1</v>
@@ -7746,26 +7816,26 @@
         <v>0.2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>0.2</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>10#5#0.2#0.2#0.1</v>
+        <v>20#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="124"/>
       <c r="B14">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C14" s="2">
         <v>0.1</v>
@@ -7780,20 +7850,20 @@
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>5#5#0.2#0.2#0.1</v>
+        <v>10#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="124"/>
       <c r="B15">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C15" s="2">
         <v>0.1</v>
@@ -7808,20 +7878,20 @@
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>20#5#0.2#0.2#0.1</v>
+        <v>5#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="124"/>
       <c r="B16">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C16" s="2">
         <v>0.1</v>
@@ -7830,26 +7900,26 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2">
         <v>0.2</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>10#20#0.2#0.2#0.1</v>
+        <v>20#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="124"/>
       <c r="B17">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C17" s="2">
         <v>0.1</v>
@@ -7864,20 +7934,20 @@
         <v>0.2</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>5#20#0.2#0.2#0.1</v>
+        <v>10#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="124"/>
       <c r="B18">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="C18" s="2">
         <v>0.1</v>
@@ -7892,20 +7962,20 @@
         <v>0.2</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>20#20#0.2#0.2#0.1</v>
+        <v>5#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="124"/>
       <c r="B19">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="C19" s="2">
         <v>0.1</v>
@@ -7914,26 +7984,26 @@
         <v>0.2</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>0.2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>2#10#0.2#0.2#0.1</v>
+        <v>20#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="124"/>
       <c r="B20">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="C20" s="2">
         <v>0.1</v>
@@ -7948,20 +8018,20 @@
         <v>0.2</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>50#10#0.2#0.2#0.1</v>
+        <v>2#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="124"/>
       <c r="B21">
-        <v>9011</v>
+        <v>9010</v>
       </c>
       <c r="C21" s="2">
         <v>0.1</v>
@@ -7976,20 +8046,20 @@
         <v>0.2</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>100#10#0.2#0.2#0.1</v>
+        <v>50#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="124"/>
       <c r="B22">
-        <v>9012</v>
+        <v>9011</v>
       </c>
       <c r="C22" s="2">
         <v>0.1</v>
@@ -7998,26 +8068,26 @@
         <v>0.2</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <v>0.2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>2#5#0.2#0.2#0.1</v>
+        <v>100#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="124"/>
       <c r="B23">
-        <v>9013</v>
+        <v>9012</v>
       </c>
       <c r="C23" s="2">
         <v>0.1</v>
@@ -8032,20 +8102,20 @@
         <v>0.2</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>50#5#0.2#0.2#0.1</v>
+        <v>2#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="124"/>
       <c r="B24">
-        <v>9014</v>
+        <v>9013</v>
       </c>
       <c r="C24" s="2">
         <v>0.1</v>
@@ -8060,20 +8130,20 @@
         <v>0.2</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>100#5#0.2#0.2#0.1</v>
+        <v>50#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="124"/>
       <c r="B25">
-        <v>9015</v>
+        <v>9014</v>
       </c>
       <c r="C25" s="2">
         <v>0.1</v>
@@ -8082,26 +8152,26 @@
         <v>0.2</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>0.2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>2#20#0.2#0.2#0.1</v>
+        <v>100#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="124"/>
       <c r="B26">
-        <v>9016</v>
+        <v>9015</v>
       </c>
       <c r="C26" s="2">
         <v>0.1</v>
@@ -8116,20 +8186,20 @@
         <v>0.2</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>50#20#0.2#0.2#0.1</v>
+        <v>2#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="124"/>
       <c r="B27">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="C27" s="2">
         <v>0.1</v>
@@ -8144,20 +8214,20 @@
         <v>0.2</v>
       </c>
       <c r="G27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>100#20#0.2#0.2#0.1</v>
+        <v>50#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="124"/>
       <c r="B28">
-        <v>9018</v>
+        <v>9017</v>
       </c>
       <c r="C28" s="2">
         <v>0.1</v>
@@ -8166,26 +8236,26 @@
         <v>0.2</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
         <v>0.2</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
         <v>22</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>2#2#0.2#0.2#0.1</v>
+        <v>100#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="124"/>
       <c r="B29">
-        <v>9019</v>
+        <v>9018</v>
       </c>
       <c r="C29" s="2">
         <v>0.1</v>
@@ -8200,20 +8270,20 @@
         <v>0.2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>22</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>5#2#0.2#0.2#0.1</v>
+        <v>2#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="124"/>
       <c r="B30">
-        <v>9020</v>
+        <v>9019</v>
       </c>
       <c r="C30" s="2">
         <v>0.1</v>
@@ -8228,20 +8298,20 @@
         <v>0.2</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
         <v>22</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>10#2#0.2#0.2#0.1</v>
+        <v>5#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="124"/>
       <c r="B31">
-        <v>9021</v>
+        <v>9020</v>
       </c>
       <c r="C31" s="2">
         <v>0.1</v>
@@ -8256,20 +8326,20 @@
         <v>0.2</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
         <v>22</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>20#2#0.2#0.2#0.1</v>
+        <v>10#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="124"/>
       <c r="B32">
-        <v>9022</v>
+        <v>9021</v>
       </c>
       <c r="C32" s="2">
         <v>0.1</v>
@@ -8284,20 +8354,20 @@
         <v>0.2</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>50#2#0.2#0.2#0.1</v>
+        <v>20#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="124"/>
       <c r="B33">
-        <v>9023</v>
+        <v>9022</v>
       </c>
       <c r="C33" s="2">
         <v>0.1</v>
@@ -8312,20 +8382,20 @@
         <v>0.2</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>100#2#0.2#0.2#0.1</v>
+        <v>50#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="124"/>
       <c r="B34">
-        <v>9024</v>
+        <v>9023</v>
       </c>
       <c r="C34" s="2">
         <v>0.1</v>
@@ -8334,26 +8404,26 @@
         <v>0.2</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
         <v>0.2</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>2#50#0.2#0.2#0.1</v>
+        <v>100#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="124"/>
       <c r="B35">
-        <v>9025</v>
+        <v>9024</v>
       </c>
       <c r="C35" s="2">
         <v>0.1</v>
@@ -8368,20 +8438,20 @@
         <v>0.2</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
         <v>22</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>5#50#0.2#0.2#0.1</v>
+        <v>2#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="124"/>
       <c r="B36">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C36" s="2">
         <v>0.1</v>
@@ -8396,20 +8466,20 @@
         <v>0.2</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H36" t="s">
         <v>22</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>10#50#0.2#0.2#0.1</v>
+        <v>5#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="124"/>
       <c r="B37">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C37" s="2">
         <v>0.1</v>
@@ -8424,20 +8494,20 @@
         <v>0.2</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>20#50#0.2#0.2#0.1</v>
+        <v>10#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="124"/>
       <c r="B38">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C38" s="2">
         <v>0.1</v>
@@ -8452,20 +8522,20 @@
         <v>0.2</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>50#50#0.2#0.2#0.1</v>
+        <v>20#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="124"/>
       <c r="B39">
-        <v>9029</v>
+        <v>9028</v>
       </c>
       <c r="C39" s="2">
         <v>0.1</v>
@@ -8480,20 +8550,20 @@
         <v>0.2</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>100#50#0.2#0.2#0.1</v>
+        <v>50#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="124"/>
       <c r="B40">
-        <v>9030</v>
+        <v>9029</v>
       </c>
       <c r="C40" s="2">
         <v>0.1</v>
@@ -8502,26 +8572,26 @@
         <v>0.2</v>
       </c>
       <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G40">
         <v>100</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>22</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>2#100#0.2#0.2#0.1</v>
+        <v>100#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="124"/>
       <c r="B41">
-        <v>9031</v>
+        <v>9030</v>
       </c>
       <c r="C41" s="2">
         <v>0.1</v>
@@ -8536,20 +8606,20 @@
         <v>0.2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
         <v>22</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>5#100#0.2#0.2#0.1</v>
+        <v>2#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="124"/>
       <c r="B42">
-        <v>9032</v>
+        <v>9031</v>
       </c>
       <c r="C42" s="2">
         <v>0.1</v>
@@ -8564,20 +8634,20 @@
         <v>0.2</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
         <v>22</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>10#100#0.2#0.2#0.1</v>
+        <v>5#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="124"/>
       <c r="B43">
-        <v>9033</v>
+        <v>9032</v>
       </c>
       <c r="C43" s="2">
         <v>0.1</v>
@@ -8592,20 +8662,20 @@
         <v>0.2</v>
       </c>
       <c r="G43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
         <v>22</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>20#100#0.2#0.2#0.1</v>
+        <v>10#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="124"/>
       <c r="B44">
-        <v>9034</v>
+        <v>9033</v>
       </c>
       <c r="C44" s="2">
         <v>0.1</v>
@@ -8620,20 +8690,20 @@
         <v>0.2</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>50#100#0.2#0.2#0.1</v>
+        <v>20#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="124"/>
       <c r="B45">
-        <v>9035</v>
+        <v>9034</v>
       </c>
       <c r="C45" s="2">
         <v>0.1</v>
@@ -8648,20 +8718,20 @@
         <v>0.2</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>100#100#0.2#0.2#0.1</v>
+        <v>50#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="124"/>
       <c r="B46">
-        <v>9036</v>
+        <v>9035</v>
       </c>
       <c r="C46" s="2">
         <v>0.1</v>
@@ -8670,26 +8740,26 @@
         <v>0.2</v>
       </c>
       <c r="E46">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2">
         <v>0.2</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>2#200#0.2#0.2#0.1</v>
+        <v>100#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="124"/>
       <c r="B47">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="C47" s="2">
         <v>0.1</v>
@@ -8704,20 +8774,20 @@
         <v>0.2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>22</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>5#200#0.2#0.2#0.1</v>
+        <v>2#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="124"/>
       <c r="B48">
-        <v>9038</v>
+        <v>9037</v>
       </c>
       <c r="C48" s="2">
         <v>0.1</v>
@@ -8732,20 +8802,20 @@
         <v>0.2</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>10#200#0.2#0.2#0.1</v>
+        <v>5#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="124"/>
       <c r="B49">
-        <v>9039</v>
+        <v>9038</v>
       </c>
       <c r="C49" s="2">
         <v>0.1</v>
@@ -8760,20 +8830,20 @@
         <v>0.2</v>
       </c>
       <c r="G49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
         <v>22</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>20#200#0.2#0.2#0.1</v>
+        <v>10#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="124"/>
       <c r="B50">
-        <v>9040</v>
+        <v>9039</v>
       </c>
       <c r="C50" s="2">
         <v>0.1</v>
@@ -8788,20 +8858,20 @@
         <v>0.2</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
         <v>22</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>50#200#0.2#0.2#0.1</v>
+        <v>20#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="124"/>
       <c r="B51">
-        <v>9041</v>
+        <v>9040</v>
       </c>
       <c r="C51" s="2">
         <v>0.1</v>
@@ -8816,20 +8886,20 @@
         <v>0.2</v>
       </c>
       <c r="G51">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>100#200#0.2#0.2#0.1</v>
+        <v>50#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="124"/>
       <c r="B52">
-        <v>9042</v>
+        <v>9041</v>
       </c>
       <c r="C52" s="2">
         <v>0.1</v>
@@ -8844,20 +8914,20 @@
         <v>0.2</v>
       </c>
       <c r="G52">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>200#200#0.2#0.2#0.1</v>
+        <v>100#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="124"/>
       <c r="B53">
-        <v>9043</v>
+        <v>9042</v>
       </c>
       <c r="C53" s="2">
         <v>0.1</v>
@@ -8866,7 +8936,7 @@
         <v>0.2</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2">
         <v>0.2</v>
@@ -8879,13 +8949,13 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>200#2#0.2#0.2#0.1</v>
+        <v>200#200#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="124"/>
       <c r="B54">
-        <v>9044</v>
+        <v>9043</v>
       </c>
       <c r="C54" s="2">
         <v>0.1</v>
@@ -8894,7 +8964,7 @@
         <v>0.2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2">
         <v>0.2</v>
@@ -8907,13 +8977,13 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>200#5#0.2#0.2#0.1</v>
+        <v>200#2#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="124"/>
       <c r="B55">
-        <v>9045</v>
+        <v>9044</v>
       </c>
       <c r="C55" s="2">
         <v>0.1</v>
@@ -8922,7 +8992,7 @@
         <v>0.2</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2">
         <v>0.2</v>
@@ -8935,13 +9005,13 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>200#10#0.2#0.2#0.1</v>
+        <v>200#5#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="124"/>
       <c r="B56">
-        <v>9046</v>
+        <v>9045</v>
       </c>
       <c r="C56" s="2">
         <v>0.1</v>
@@ -8950,7 +9020,7 @@
         <v>0.2</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2">
         <v>0.2</v>
@@ -8963,13 +9033,13 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>200#20#0.2#0.2#0.1</v>
+        <v>200#10#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="124"/>
       <c r="B57">
-        <v>9047</v>
+        <v>9046</v>
       </c>
       <c r="C57" s="2">
         <v>0.1</v>
@@ -8978,7 +9048,7 @@
         <v>0.2</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2">
         <v>0.2</v>
@@ -8991,13 +9061,13 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>200#50#0.2#0.2#0.1</v>
+        <v>200#20#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="124"/>
       <c r="B58">
-        <v>9048</v>
+        <v>9047</v>
       </c>
       <c r="C58" s="2">
         <v>0.1</v>
@@ -9006,7 +9076,7 @@
         <v>0.2</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2">
         <v>0.2</v>
@@ -9019,13 +9089,13 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>200#100#0.2#0.2#0.1</v>
+        <v>200#50#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="124"/>
       <c r="B59">
-        <v>10000</v>
+        <v>9048</v>
       </c>
       <c r="C59" s="2">
         <v>0.1</v>
@@ -9034,20 +9104,26 @@
         <v>0.2</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G59">
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>#10##0.2#0.1</v>
+        <v>200#100#0.2#0.2#0.1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="124"/>
       <c r="B60">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C60" s="2">
         <v>0.1</v>
@@ -9056,20 +9132,20 @@
         <v>0.2</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>#5##0.2#0.1</v>
+        <v>#10##0.2#0.1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="124"/>
       <c r="B61">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C61" s="2">
         <v>0.1</v>
@@ -9078,20 +9154,20 @@
         <v>0.2</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>#20##0.2#0.1</v>
+        <v>#5##0.2#0.1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="124"/>
       <c r="B62">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C62" s="2">
         <v>0.1</v>
@@ -9100,20 +9176,20 @@
         <v>0.2</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>#50##0.2#0.1</v>
+        <v>#20##0.2#0.1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="124"/>
       <c r="B63">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C63" s="2">
         <v>0.1</v>
@@ -9122,20 +9198,20 @@
         <v>0.2</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>#2##0.2#0.1</v>
+        <v>#50##0.2#0.1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="124"/>
       <c r="B64">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C64" s="2">
         <v>0.1</v>
@@ -9144,92 +9220,92 @@
         <v>0.2</v>
       </c>
       <c r="E64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>#100##0.2#0.1</v>
+        <v>#2##0.2#0.1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="124"/>
       <c r="B65">
-        <v>11000</v>
+        <v>10005</v>
       </c>
       <c r="C65" s="2">
         <v>0.1</v>
       </c>
-      <c r="F65" s="2">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>20</v>
+      <c r="D65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>20##0##0.1</v>
+        <v>#100##0.2#0.1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="124"/>
       <c r="B66">
-        <v>11001</v>
+        <v>10006</v>
       </c>
       <c r="C66" s="2">
         <v>0.1</v>
       </c>
-      <c r="F66" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G66">
-        <v>20</v>
+      <c r="D66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>20##0.1##0.1</v>
+        <v>#200##0.2#0.1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="124"/>
       <c r="B67">
-        <v>11002</v>
+        <v>10007</v>
       </c>
       <c r="C67" s="2">
         <v>0.1</v>
       </c>
-      <c r="F67" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G67">
-        <v>20</v>
+      <c r="D67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" ref="I67:I130" si="1">IF(A67="", G67 &amp; "#" &amp; E67 &amp; "#" &amp; F67 &amp; "#" &amp; D67 &amp; "#" &amp; C67, "")</f>
-        <v>20##0.2##0.1</v>
+        <v>#0##0.2#0.1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="124"/>
       <c r="B68">
-        <v>11003</v>
+        <v>11000</v>
       </c>
       <c r="C68" s="2">
         <v>0.1</v>
       </c>
       <c r="F68" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>20</v>
@@ -9239,19 +9315,19 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.3##0.1</v>
+        <v>20##0##0.1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="124"/>
       <c r="B69">
-        <v>11004</v>
+        <v>11001</v>
       </c>
       <c r="C69" s="2">
         <v>0.1</v>
       </c>
       <c r="F69" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G69">
         <v>20</v>
@@ -9261,19 +9337,19 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.4##0.1</v>
+        <v>20##0.1##0.1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="124"/>
       <c r="B70">
-        <v>11005</v>
+        <v>11002</v>
       </c>
       <c r="C70" s="2">
         <v>0.1</v>
       </c>
       <c r="F70" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
         <v>20</v>
@@ -9283,19 +9359,19 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.5##0.1</v>
+        <v>20##0.2##0.1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="124"/>
       <c r="B71">
-        <v>11006</v>
+        <v>11003</v>
       </c>
       <c r="C71" s="2">
         <v>0.1</v>
       </c>
       <c r="F71" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G71">
         <v>20</v>
@@ -9305,18 +9381,18 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.6##0.1</v>
+        <v>20##0.3##0.1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
-        <v>11007</v>
+        <v>11004</v>
       </c>
       <c r="C72" s="2">
         <v>0.1</v>
       </c>
       <c r="F72" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G72">
         <v>20</v>
@@ -9326,18 +9402,18 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.7##0.1</v>
+        <v>20##0.4##0.1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
-        <v>11008</v>
+        <v>11005</v>
       </c>
       <c r="C73" s="2">
         <v>0.1</v>
       </c>
       <c r="F73" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -9347,18 +9423,18 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.8##0.1</v>
+        <v>20##0.5##0.1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
-        <v>11009</v>
+        <v>11006</v>
       </c>
       <c r="C74" s="2">
         <v>0.1</v>
       </c>
       <c r="F74" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G74">
         <v>20</v>
@@ -9368,18 +9444,18 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.9##0.1</v>
+        <v>20##0.6##0.1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
-        <v>11010</v>
+        <v>11007</v>
       </c>
       <c r="C75" s="2">
         <v>0.1</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G75">
         <v>20</v>
@@ -9389,81 +9465,81 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="1"/>
-        <v>20##1##0.1</v>
+        <v>20##0.7##0.1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
-        <v>12000</v>
+        <v>11008</v>
       </c>
       <c r="C76" s="2">
         <v>0.1</v>
       </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="F76" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G76">
         <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0#0.1</v>
+        <v>20##0.8##0.1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
-        <v>12001</v>
+        <v>11009</v>
       </c>
       <c r="C77" s="2">
         <v>0.1</v>
       </c>
-      <c r="D77" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E77">
+      <c r="F77" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G77">
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.1#0.1</v>
+        <v>20##0.9##0.1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
-        <v>12002</v>
+        <v>11010</v>
       </c>
       <c r="C78" s="2">
         <v>0.1</v>
       </c>
-      <c r="D78" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E78">
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.1</v>
+        <v>20##1##0.1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
-        <v>12003</v>
+        <v>12000</v>
       </c>
       <c r="C79" s="2">
         <v>0.1</v>
       </c>
       <c r="D79" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>20</v>
@@ -9473,18 +9549,18 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.3#0.1</v>
+        <v>#20##0#0.1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
-        <v>12004</v>
+        <v>12001</v>
       </c>
       <c r="C80" s="2">
         <v>0.1</v>
       </c>
       <c r="D80" s="2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -9494,18 +9570,18 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.4#0.1</v>
+        <v>#20##0.1#0.1</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
-        <v>12005</v>
+        <v>12002</v>
       </c>
       <c r="C81" s="2">
         <v>0.1</v>
       </c>
       <c r="D81" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E81">
         <v>20</v>
@@ -9515,18 +9591,18 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.5#0.1</v>
+        <v>#20##0.2#0.1</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
-        <v>12006</v>
+        <v>12003</v>
       </c>
       <c r="C82" s="2">
         <v>0.1</v>
       </c>
       <c r="D82" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -9536,18 +9612,18 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.6#0.1</v>
+        <v>#20##0.3#0.1</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
-        <v>12007</v>
+        <v>12004</v>
       </c>
       <c r="C83" s="2">
         <v>0.1</v>
       </c>
       <c r="D83" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E83">
         <v>20</v>
@@ -9557,18 +9633,18 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.7#0.1</v>
+        <v>#20##0.4#0.1</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
-        <v>12008</v>
+        <v>12005</v>
       </c>
       <c r="C84" s="2">
         <v>0.1</v>
       </c>
       <c r="D84" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
         <v>20</v>
@@ -9578,18 +9654,18 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.8#0.1</v>
+        <v>#20##0.5#0.1</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
-        <v>12009</v>
+        <v>12006</v>
       </c>
       <c r="C85" s="2">
         <v>0.1</v>
       </c>
       <c r="D85" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -9599,18 +9675,18 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.9#0.1</v>
+        <v>#20##0.6#0.1</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
-        <v>12010</v>
+        <v>12007</v>
       </c>
       <c r="C86" s="2">
         <v>0.1</v>
       </c>
       <c r="D86" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -9620,192 +9696,180 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>#20##1#0.1</v>
+        <v>#20##0.7#0.1</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
-        <v>13000</v>
+        <v>12008</v>
       </c>
       <c r="C87" s="2">
         <v>0.1</v>
       </c>
-      <c r="F87" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G87">
+      <c r="D87" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.2##0.1</v>
+        <v>#20##0.8#0.1</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
-        <v>13001</v>
+        <v>12009</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G88">
+        <v>0.1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E88">
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.2##1</v>
+        <v>#20##0.9#0.1</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B89">
-        <v>13002</v>
+        <v>12010</v>
       </c>
       <c r="C89" s="2">
-        <v>10</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G89">
+        <v>0.1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89">
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>20##0.2##10</v>
+        <v>#20##1#0.1</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B90">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="C90" s="2">
         <v>0.1</v>
       </c>
-      <c r="D90" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E90">
+      <c r="F90" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G90">
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.1</v>
+        <v>20##0.2##0.1</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B91">
-        <v>14001</v>
+        <v>13001</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
-      <c r="D91" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E91">
+      <c r="F91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G91">
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#1</v>
+        <v>20##0.2##1</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B92">
-        <v>14002</v>
+        <v>13002</v>
       </c>
       <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="D92" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E92">
+      <c r="F92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G92">
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#10</v>
+        <v>20##0.2##10</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B93">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="C93" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D93" s="2">
         <v>0.2</v>
       </c>
       <c r="E93">
-        <v>10</v>
-      </c>
-      <c r="F93" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>10#10#0.2#0.2#10</v>
+        <v>#20##0.2#0.1</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B94">
-        <v>15001</v>
+        <v>14001</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2">
         <v>0.2</v>
       </c>
       <c r="E94">
-        <v>10</v>
-      </c>
-      <c r="F94" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G94">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>5#10#0.2#0.2#10</v>
+        <v>#20##0.2#1</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B95">
-        <v>15002</v>
+        <v>14002</v>
       </c>
       <c r="C95" s="2">
         <v>10</v>
@@ -9814,25 +9878,19 @@
         <v>0.2</v>
       </c>
       <c r="E95">
-        <v>10</v>
-      </c>
-      <c r="F95" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G95">
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>20#10#0.2#0.2#10</v>
+        <v>#20##0.2#10</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B96">
-        <v>15003</v>
+        <v>15000</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
@@ -9841,7 +9899,7 @@
         <v>0.2</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2">
         <v>0.2</v>
@@ -9854,12 +9912,12 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>10#5#0.2#0.2#10</v>
+        <v>10#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B97">
-        <v>15004</v>
+        <v>15001</v>
       </c>
       <c r="C97" s="2">
         <v>10</v>
@@ -9868,7 +9926,7 @@
         <v>0.2</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2">
         <v>0.2</v>
@@ -9881,12 +9939,12 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>5#5#0.2#0.2#10</v>
+        <v>5#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
-        <v>15005</v>
+        <v>15002</v>
       </c>
       <c r="C98" s="2">
         <v>10</v>
@@ -9895,7 +9953,7 @@
         <v>0.2</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2">
         <v>0.2</v>
@@ -9908,12 +9966,12 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>20#5#0.2#0.2#10</v>
+        <v>20#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
-        <v>15006</v>
+        <v>15003</v>
       </c>
       <c r="C99" s="2">
         <v>10</v>
@@ -9922,7 +9980,7 @@
         <v>0.2</v>
       </c>
       <c r="E99">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F99" s="2">
         <v>0.2</v>
@@ -9935,12 +9993,12 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>10#20#0.2#0.2#10</v>
+        <v>10#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
-        <v>15007</v>
+        <v>15004</v>
       </c>
       <c r="C100" s="2">
         <v>10</v>
@@ -9949,7 +10007,7 @@
         <v>0.2</v>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F100" s="2">
         <v>0.2</v>
@@ -9962,12 +10020,12 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>5#20#0.2#0.2#10</v>
+        <v>5#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
-        <v>15008</v>
+        <v>15005</v>
       </c>
       <c r="C101" s="2">
         <v>10</v>
@@ -9976,7 +10034,7 @@
         <v>0.2</v>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F101" s="2">
         <v>0.2</v>
@@ -9989,12 +10047,12 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>20#20#0.2#0.2#10</v>
+        <v>20#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
-        <v>15009</v>
+        <v>15006</v>
       </c>
       <c r="C102" s="2">
         <v>10</v>
@@ -10003,25 +10061,25 @@
         <v>0.2</v>
       </c>
       <c r="E102">
+        <v>20</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G102">
         <v>10</v>
-      </c>
-      <c r="F102" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G102">
-        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>48</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>2#10#0.2#0.2#10</v>
+        <v>10#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
-        <v>15010</v>
+        <v>15007</v>
       </c>
       <c r="C103" s="2">
         <v>10</v>
@@ -10030,25 +10088,25 @@
         <v>0.2</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F103" s="2">
         <v>0.2</v>
       </c>
       <c r="G103">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H103" t="s">
         <v>48</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>50#10#0.2#0.2#10</v>
+        <v>5#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
-        <v>15011</v>
+        <v>15008</v>
       </c>
       <c r="C104" s="2">
         <v>10</v>
@@ -10057,25 +10115,25 @@
         <v>0.2</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F104" s="2">
         <v>0.2</v>
       </c>
       <c r="G104">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
         <v>48</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>100#10#0.2#0.2#10</v>
+        <v>20#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
-        <v>15012</v>
+        <v>15009</v>
       </c>
       <c r="C105" s="2">
         <v>10</v>
@@ -10084,7 +10142,7 @@
         <v>0.2</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2">
         <v>0.2</v>
@@ -10097,12 +10155,12 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>2#5#0.2#0.2#10</v>
+        <v>2#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
-        <v>15013</v>
+        <v>15010</v>
       </c>
       <c r="C106" s="2">
         <v>10</v>
@@ -10111,7 +10169,7 @@
         <v>0.2</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2">
         <v>0.2</v>
@@ -10124,12 +10182,12 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>50#5#0.2#0.2#10</v>
+        <v>50#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
-        <v>15014</v>
+        <v>15011</v>
       </c>
       <c r="C107" s="2">
         <v>10</v>
@@ -10138,7 +10196,7 @@
         <v>0.2</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2">
         <v>0.2</v>
@@ -10151,12 +10209,12 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>100#5#0.2#0.2#10</v>
+        <v>100#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
-        <v>15015</v>
+        <v>15012</v>
       </c>
       <c r="C108" s="2">
         <v>10</v>
@@ -10165,7 +10223,7 @@
         <v>0.2</v>
       </c>
       <c r="E108">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F108" s="2">
         <v>0.2</v>
@@ -10178,12 +10236,12 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>2#20#0.2#0.2#10</v>
+        <v>2#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
-        <v>15016</v>
+        <v>15013</v>
       </c>
       <c r="C109" s="2">
         <v>10</v>
@@ -10192,7 +10250,7 @@
         <v>0.2</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F109" s="2">
         <v>0.2</v>
@@ -10205,12 +10263,12 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>50#20#0.2#0.2#10</v>
+        <v>50#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
-        <v>15017</v>
+        <v>15014</v>
       </c>
       <c r="C110" s="2">
         <v>10</v>
@@ -10219,7 +10277,7 @@
         <v>0.2</v>
       </c>
       <c r="E110">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F110" s="2">
         <v>0.2</v>
@@ -10232,12 +10290,12 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>100#20#0.2#0.2#10</v>
+        <v>100#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
-        <v>15018</v>
+        <v>15015</v>
       </c>
       <c r="C111" s="2">
         <v>10</v>
@@ -10246,7 +10304,7 @@
         <v>0.2</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2">
         <v>0.2</v>
@@ -10259,12 +10317,12 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>2#2#0.2#0.2#10</v>
+        <v>2#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
-        <v>15019</v>
+        <v>15016</v>
       </c>
       <c r="C112" s="2">
         <v>10</v>
@@ -10273,25 +10331,25 @@
         <v>0.2</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F112" s="2">
         <v>0.2</v>
       </c>
       <c r="G112">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H112" t="s">
         <v>48</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>5#2#0.2#0.2#10</v>
+        <v>50#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
-        <v>15020</v>
+        <v>15017</v>
       </c>
       <c r="C113" s="2">
         <v>10</v>
@@ -10300,25 +10358,25 @@
         <v>0.2</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2">
         <v>0.2</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H113" t="s">
         <v>48</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>10#2#0.2#0.2#10</v>
+        <v>100#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
-        <v>15021</v>
+        <v>15018</v>
       </c>
       <c r="C114" s="2">
         <v>10</v>
@@ -10333,19 +10391,19 @@
         <v>0.2</v>
       </c>
       <c r="G114">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>48</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>20#2#0.2#0.2#10</v>
+        <v>2#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
-        <v>15022</v>
+        <v>15019</v>
       </c>
       <c r="C115" s="2">
         <v>10</v>
@@ -10360,19 +10418,19 @@
         <v>0.2</v>
       </c>
       <c r="G115">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H115" t="s">
         <v>48</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>50#2#0.2#0.2#10</v>
+        <v>5#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
-        <v>15023</v>
+        <v>15020</v>
       </c>
       <c r="C116" s="2">
         <v>10</v>
@@ -10387,19 +10445,19 @@
         <v>0.2</v>
       </c>
       <c r="G116">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
         <v>48</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>100#2#0.2#0.2#10</v>
+        <v>10#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
-        <v>15024</v>
+        <v>15021</v>
       </c>
       <c r="C117" s="2">
         <v>10</v>
@@ -10408,25 +10466,25 @@
         <v>0.2</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F117" s="2">
         <v>0.2</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
         <v>48</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>2#50#0.2#0.2#10</v>
+        <v>20#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
-        <v>15025</v>
+        <v>15022</v>
       </c>
       <c r="C118" s="2">
         <v>10</v>
@@ -10435,25 +10493,25 @@
         <v>0.2</v>
       </c>
       <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G118">
         <v>50</v>
-      </c>
-      <c r="F118" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G118">
-        <v>5</v>
       </c>
       <c r="H118" t="s">
         <v>48</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>5#50#0.2#0.2#10</v>
+        <v>50#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
-        <v>15026</v>
+        <v>15023</v>
       </c>
       <c r="C119" s="2">
         <v>10</v>
@@ -10462,25 +10520,25 @@
         <v>0.2</v>
       </c>
       <c r="E119">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F119" s="2">
         <v>0.2</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>48</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>10#50#0.2#0.2#10</v>
+        <v>100#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
-        <v>15027</v>
+        <v>15024</v>
       </c>
       <c r="C120" s="2">
         <v>10</v>
@@ -10495,19 +10553,19 @@
         <v>0.2</v>
       </c>
       <c r="G120">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>48</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>20#50#0.2#0.2#10</v>
+        <v>2#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
-        <v>15028</v>
+        <v>15025</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
@@ -10522,19 +10580,19 @@
         <v>0.2</v>
       </c>
       <c r="G121">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H121" t="s">
         <v>48</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>50#50#0.2#0.2#10</v>
+        <v>5#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
-        <v>15029</v>
+        <v>15026</v>
       </c>
       <c r="C122" s="2">
         <v>10</v>
@@ -10549,19 +10607,19 @@
         <v>0.2</v>
       </c>
       <c r="G122">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
         <v>48</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>100#50#0.2#0.2#10</v>
+        <v>10#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
-        <v>15030</v>
+        <v>15027</v>
       </c>
       <c r="C123" s="2">
         <v>10</v>
@@ -10570,25 +10628,25 @@
         <v>0.2</v>
       </c>
       <c r="E123">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2">
         <v>0.2</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H123" t="s">
         <v>48</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>2#100#0.2#0.2#10</v>
+        <v>20#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
-        <v>15031</v>
+        <v>15028</v>
       </c>
       <c r="C124" s="2">
         <v>10</v>
@@ -10597,25 +10655,25 @@
         <v>0.2</v>
       </c>
       <c r="E124">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F124" s="2">
         <v>0.2</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H124" t="s">
         <v>48</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>5#100#0.2#0.2#10</v>
+        <v>50#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <v>15032</v>
+        <v>15029</v>
       </c>
       <c r="C125" s="2">
         <v>10</v>
@@ -10624,25 +10682,25 @@
         <v>0.2</v>
       </c>
       <c r="E125">
+        <v>50</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G125">
         <v>100</v>
-      </c>
-      <c r="F125" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G125">
-        <v>10</v>
       </c>
       <c r="H125" t="s">
         <v>48</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>10#100#0.2#0.2#10</v>
+        <v>100#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
-        <v>15033</v>
+        <v>15030</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -10657,19 +10715,19 @@
         <v>0.2</v>
       </c>
       <c r="G126">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
         <v>48</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>20#100#0.2#0.2#10</v>
+        <v>2#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
-        <v>15034</v>
+        <v>15031</v>
       </c>
       <c r="C127" s="2">
         <v>10</v>
@@ -10684,19 +10742,19 @@
         <v>0.2</v>
       </c>
       <c r="G127">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
         <v>48</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>50#100#0.2#0.2#10</v>
+        <v>5#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
-        <v>15035</v>
+        <v>15032</v>
       </c>
       <c r="C128" s="2">
         <v>10</v>
@@ -10711,19 +10769,19 @@
         <v>0.2</v>
       </c>
       <c r="G128">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
         <v>48</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>100#100#0.2#0.2#10</v>
+        <v>10#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
-        <v>15036</v>
+        <v>15033</v>
       </c>
       <c r="C129" s="2">
         <v>10</v>
@@ -10732,25 +10790,25 @@
         <v>0.2</v>
       </c>
       <c r="E129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2">
         <v>0.2</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
         <v>48</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>2#200#0.2#0.2#10</v>
+        <v>20#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
-        <v>15037</v>
+        <v>15034</v>
       </c>
       <c r="C130" s="2">
         <v>10</v>
@@ -10759,25 +10817,25 @@
         <v>0.2</v>
       </c>
       <c r="E130">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2">
         <v>0.2</v>
       </c>
       <c r="G130">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s">
         <v>48</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="1"/>
-        <v>5#200#0.2#0.2#10</v>
+        <v>50#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
-        <v>15038</v>
+        <v>15035</v>
       </c>
       <c r="C131" s="2">
         <v>10</v>
@@ -10786,25 +10844,25 @@
         <v>0.2</v>
       </c>
       <c r="E131">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2">
         <v>0.2</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H131" t="s">
         <v>48</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" ref="I131:I142" si="2">IF(A131="", G131 &amp; "#" &amp; E131 &amp; "#" &amp; F131 &amp; "#" &amp; D131 &amp; "#" &amp; C131, "")</f>
-        <v>10#200#0.2#0.2#10</v>
+        <v>100#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
-        <v>15039</v>
+        <v>15036</v>
       </c>
       <c r="C132" s="2">
         <v>10</v>
@@ -10819,19 +10877,19 @@
         <v>0.2</v>
       </c>
       <c r="G132">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>48</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>20#200#0.2#0.2#10</v>
+        <v>2#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
-        <v>15040</v>
+        <v>15037</v>
       </c>
       <c r="C133" s="2">
         <v>10</v>
@@ -10846,19 +10904,19 @@
         <v>0.2</v>
       </c>
       <c r="G133">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H133" t="s">
         <v>48</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>50#200#0.2#0.2#10</v>
+        <v>5#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
-        <v>15041</v>
+        <v>15038</v>
       </c>
       <c r="C134" s="2">
         <v>10</v>
@@ -10873,19 +10931,19 @@
         <v>0.2</v>
       </c>
       <c r="G134">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H134" t="s">
         <v>48</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>100#200#0.2#0.2#10</v>
+        <v>10#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
-        <v>15042</v>
+        <v>15039</v>
       </c>
       <c r="C135" s="2">
         <v>10</v>
@@ -10900,19 +10958,19 @@
         <v>0.2</v>
       </c>
       <c r="G135">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s">
         <v>48</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>200#200#0.2#0.2#10</v>
+        <v>20#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
-        <v>15043</v>
+        <v>15040</v>
       </c>
       <c r="C136" s="2">
         <v>10</v>
@@ -10921,25 +10979,25 @@
         <v>0.2</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F136" s="2">
         <v>0.2</v>
       </c>
       <c r="G136">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H136" t="s">
         <v>48</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>200#2#0.2#0.2#10</v>
+        <v>50#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
-        <v>15044</v>
+        <v>15041</v>
       </c>
       <c r="C137" s="2">
         <v>10</v>
@@ -10948,25 +11006,25 @@
         <v>0.2</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F137" s="2">
         <v>0.2</v>
       </c>
       <c r="G137">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H137" t="s">
         <v>48</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>200#5#0.2#0.2#10</v>
+        <v>100#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
-        <v>15045</v>
+        <v>15042</v>
       </c>
       <c r="C138" s="2">
         <v>10</v>
@@ -10975,7 +11033,7 @@
         <v>0.2</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F138" s="2">
         <v>0.2</v>
@@ -10988,12 +11046,12 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>200#10#0.2#0.2#10</v>
+        <v>200#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
-        <v>15046</v>
+        <v>15043</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -11002,7 +11060,7 @@
         <v>0.2</v>
       </c>
       <c r="E139">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
         <v>0.2</v>
@@ -11015,12 +11073,12 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>200#20#0.2#0.2#10</v>
+        <v>200#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
-        <v>15047</v>
+        <v>15044</v>
       </c>
       <c r="C140" s="2">
         <v>10</v>
@@ -11029,7 +11087,7 @@
         <v>0.2</v>
       </c>
       <c r="E140">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F140" s="2">
         <v>0.2</v>
@@ -11042,12 +11100,12 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>200#50#0.2#0.2#10</v>
+        <v>200#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
-        <v>15048</v>
+        <v>15045</v>
       </c>
       <c r="C141" s="2">
         <v>10</v>
@@ -11056,7 +11114,7 @@
         <v>0.2</v>
       </c>
       <c r="E141">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F141" s="2">
         <v>0.2</v>
@@ -11069,7 +11127,7 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>200#100#0.2#0.2#10</v>
+        <v>200#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11077,33 +11135,101 @@
         <v>1</v>
       </c>
       <c r="B142">
-        <v>999000</v>
+        <v>15046</v>
       </c>
       <c r="C142" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E142">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="F142" s="2">
         <v>0.2</v>
       </c>
       <c r="G142">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143">
+        <v>15047</v>
+      </c>
+      <c r="C143" s="2">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E143">
+        <v>50</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G143">
+        <v>200</v>
+      </c>
+      <c r="H143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144">
+        <v>15048</v>
+      </c>
+      <c r="C144" s="2">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E144">
+        <v>100</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G144">
+        <v>200</v>
+      </c>
+      <c r="H144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145">
+        <v>999000</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E145">
+        <v>20000</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G145">
+        <v>20000</v>
+      </c>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I142" xr:uid="{57F81B4B-7B82-42D1-857A-017AACDAB887}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13006,7 +13132,7 @@
       </c>
       <c r="C33" s="111">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="111">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -13014,23 +13140,23 @@
       </c>
       <c r="E33" s="112">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F33" s="112">
         <f>(E33 + Params!$B$3^2/(2 * C33))/(1 + Params!$B$3^2/C33)</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G33" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C33))*SQRT(E33*(1-E33)/C33 + (Params!$B$3/(2*C33))^2), 0)</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H33" s="113">
         <f t="shared" si="1"/>
-        <v>0.40926987910258916</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I33" s="114">
         <f t="shared" si="2"/>
-        <v>0.92852231114197237</v>
+        <v>0.87941840131725713</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13150,31 +13276,31 @@
       </c>
       <c r="C37" s="111">
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="111">
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="112">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F37" s="112">
         <f>(E37 + Params!$B$3^2/(2 * C37))/(1 + Params!$B$3^2/C37)</f>
-        <v>0.5</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G37" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C37))*SQRT(E37*(1-E37)/C37 + (Params!$B$3/(2*C37))^2), 0)</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H37" s="113">
         <f t="shared" si="1"/>
-        <v>0.23658959361548731</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I37" s="114">
         <f t="shared" si="2"/>
-        <v>0.76341040638451263</v>
+        <v>0.78729042456011944</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13258,7 +13384,7 @@
       </c>
       <c r="C40" s="111">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="111">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -13270,11 +13396,11 @@
       </c>
       <c r="F40" s="112">
         <f>(E40 + Params!$B$3^2/(2 * C40))/(1 + Params!$B$3^2/C40)</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G40" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C40))*SQRT(E40*(1-E40)/C40 + (Params!$B$3/(2*C40))^2), 0)</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H40" s="113">
         <f t="shared" si="1"/>
@@ -13282,7 +13408,7 @@
       </c>
       <c r="I40" s="114">
         <f t="shared" si="2"/>
-        <v>0.32441561951087694</v>
+        <v>0.29915275355095938</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -13294,7 +13420,7 @@
       </c>
       <c r="C41" s="111">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="111">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -13302,23 +13428,23 @@
       </c>
       <c r="E41" s="112">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F41" s="112">
         <f>(E41 + Params!$B$3^2/(2 * C41))/(1 + Params!$B$3^2/C41)</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G41" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C41))*SQRT(E41*(1-E41)/C41 + (Params!$B$3/(2*C41))^2), 0)</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H41" s="113">
         <f t="shared" si="1"/>
-        <v>2.2416908863296142E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I41" s="114">
         <f t="shared" si="2"/>
-        <v>0.47089480576986154</v>
+        <v>0.43500621476806017</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -17423,9 +17549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17472,7 +17596,7 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>16.67173076923077</v>
+        <v>17.119423076923077</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -18365,16 +18489,16 @@
         <v>9029</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>0.75</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F26" s="2">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -18392,7 +18516,7 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <v>27.34</v>
+        <v>33.85</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18517,16 +18641,16 @@
         <v>9033</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>0.5</v>
+        <v>0.54549999999999998</v>
       </c>
       <c r="F30" s="2">
-        <v>4.16</v>
+        <v>4.49</v>
       </c>
       <c r="G30">
         <v>0.1</v>
@@ -18544,7 +18668,7 @@
         <v>20</v>
       </c>
       <c r="L30">
-        <v>58.23</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18593,7 +18717,7 @@
         <v>9037</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -18602,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>2.42</v>
+        <v>2.91</v>
       </c>
       <c r="G32">
         <v>0.1</v>
@@ -18620,7 +18744,7 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <v>33.92</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -18631,16 +18755,16 @@
         <v>9038</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="F33" s="2">
-        <v>3.21</v>
+        <v>3.58</v>
       </c>
       <c r="G33">
         <v>0.1</v>
@@ -18658,7 +18782,7 @@
         <v>10</v>
       </c>
       <c r="L33">
-        <v>44.93</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -19202,18 +19326,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="5" width="8.83984375" style="1"/>
     <col min="6" max="6" width="8.83984375" style="2"/>
     <col min="12" max="12" width="8.83984375" style="2"/>
+    <col min="15" max="15" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19252,10 +19378,17 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>7.3421153846153846</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>8.3786538461538456</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="139">
+        <f ca="1">NOW() +N1</f>
+        <v>43724.561883707269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -19263,7 +19396,7 @@
         <v>15008</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -19272,7 +19405,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -19290,10 +19423,16 @@
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <v>49.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>50.31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="140">
+        <v>43723.118290286679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -19301,16 +19440,16 @@
         <v>15016</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F3" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -19328,10 +19467,10 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>47.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>52.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -19339,16 +19478,16 @@
         <v>15017</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F4" s="2">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -19366,10 +19505,10 @@
         <v>100</v>
       </c>
       <c r="L4" s="2">
-        <v>43.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -19377,16 +19516,16 @@
         <v>15027</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -19404,10 +19543,10 @@
         <v>20</v>
       </c>
       <c r="L5" s="2">
-        <v>47.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -19442,10 +19581,10 @@
         <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>42.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>41.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -19453,16 +19592,16 @@
         <v>15029</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -19480,10 +19619,10 @@
         <v>100</v>
       </c>
       <c r="L7" s="2">
-        <v>41.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>48.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -19491,16 +19630,16 @@
         <v>15033</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -19518,10 +19657,10 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>46.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -19529,16 +19668,16 @@
         <v>15034</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F9" s="2">
-        <v>0.78</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -19556,10 +19695,10 @@
         <v>50</v>
       </c>
       <c r="L9" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>43.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19567,7 +19706,7 @@
         <v>15035</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -19576,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.8</v>
+        <v>1.06</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -19594,11 +19733,12 @@
         <v>100</v>
       </c>
       <c r="L10" s="2">
-        <v>32.81</v>
+        <v>42.26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19606,8 +19746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19707,7 +19847,7 @@
       </c>
       <c r="L2" s="137">
         <f>+'V4000'!N1</f>
-        <v>7.3421153846153846</v>
+        <v>8.3786538461538456</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -19725,7 +19865,7 @@
       <c r="AH2" s="56">
         <v>20</v>
       </c>
-      <c r="AI2" s="56">
+      <c r="AI2" s="141">
         <v>50</v>
       </c>
       <c r="AJ2" s="56">
@@ -19850,7 +19990,7 @@
       </c>
       <c r="L3" s="137">
         <f>+THUNDER_3200!N1</f>
-        <v>16.67173076923077</v>
+        <v>17.119423076923077</v>
       </c>
       <c r="AC3" s="125"/>
       <c r="AD3" s="129" t="str">
@@ -19873,7 +20013,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-      <c r="AI3" s="128">
+      <c r="AI3" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
@@ -19881,9 +20021,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$F1000, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AK3" s="128" t="str">
+      <c r="AK3" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v/>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AN3" s="125"/>
       <c r="AO3" s="131" t="e">
@@ -19892,31 +20032,31 @@
       </c>
       <c r="AP3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AQ3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>64</v>
-      </c>
-      <c r="AV3" s="125" t="e">
+        <v>65</v>
+      </c>
+      <c r="AV3" s="125">
         <f>MATCH($AN3 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="AY3" s="125"/>
       <c r="AZ3" s="131" t="e">
@@ -19947,9 +20087,9 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AU3 - 1, 0)</f>
         <v>10005</v>
       </c>
-      <c r="BG3" s="138" t="e">
+      <c r="BG3" s="138">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV3 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>10006</v>
       </c>
       <c r="BI3" s="125"/>
       <c r="BJ3" s="129" t="s">
@@ -20035,7 +20175,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AI4" s="128" t="str">
+      <c r="AI4" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
@@ -20056,31 +20196,31 @@
       </c>
       <c r="AP4" s="131">
         <f>MATCH($AN4 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AU4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AV4" s="125">
         <f>MATCH($AN4 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AY4" s="125"/>
       <c r="AZ4" s="125">
@@ -20207,7 +20347,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD5, $B$1:$F1002, 5), "")</f>
         <v>0.30880272264922948</v>
       </c>
-      <c r="AI5" s="128">
+      <c r="AI5" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE5, $B$1:$F1002, 5), "")</f>
         <v>0.17883496742101909</v>
       </c>
@@ -20217,7 +20357,7 @@
       </c>
       <c r="AK5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AL5" t="str">
         <f>+AA5</f>
@@ -20236,31 +20376,31 @@
       </c>
       <c r="AP5" s="125">
         <f>MATCH($AN5 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ5" s="132">
         <f>MATCH($AN5 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR5" s="130">
         <f>MATCH($AN5 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS5" s="130">
         <f>MATCH($AN5 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT5" s="130">
         <f>MATCH($AN5 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AU5" s="130">
         <f>MATCH($AN5 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AV5" s="130">
         <f>MATCH($AN5 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AW5" t="str">
         <f>+AL5</f>
@@ -20397,7 +20537,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD6, $B$1:$F1003, 5), "")</f>
         <v>0.5</v>
       </c>
-      <c r="AI6" s="128">
+      <c r="AI6" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE6, $B$1:$F1003, 5), "")</f>
         <v>0.44292353275428198</v>
       </c>
@@ -20407,7 +20547,7 @@
       </c>
       <c r="AK6" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ref="AL6:AL7" si="5">+AA6</f>
@@ -20426,31 +20566,31 @@
       </c>
       <c r="AP6" s="125">
         <f>MATCH($AN6 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ6" s="130">
         <f>MATCH($AN6 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR6" s="132">
         <f>MATCH($AN6 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" s="130">
         <f>MATCH($AN6 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT6" s="130">
         <f>MATCH($AN6 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AU6" s="130">
         <f>MATCH($AN6 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AV6" s="130">
         <f>MATCH($AN6 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW6" t="str">
         <f t="shared" ref="AW6:AW7" si="6">+AL6</f>
@@ -20587,13 +20727,13 @@
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$F1004, 5), "")</f>
         <v>0.42153700556242274</v>
       </c>
-      <c r="AI7" s="128">
+      <c r="AI7" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE7, $B$1:$F1004, 5), "")</f>
         <v>0.45560719214221934</v>
       </c>
       <c r="AJ7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF7, $B$1:$F1004, 5), "")</f>
-        <v>0.5</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AK7" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$F1004, 5), "")</f>
@@ -20616,31 +20756,31 @@
       </c>
       <c r="AP7" s="125">
         <f>MATCH($AN7 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ7" s="130">
         <f>MATCH($AN7 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" s="130">
         <f>MATCH($AN7 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" s="132">
         <f>MATCH($AN7 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT7" s="130">
         <f>MATCH($AN7 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AU7" s="130">
         <f>MATCH($AN7 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AV7" s="130">
         <f>MATCH($AN7 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="str">
         <f t="shared" si="6"/>
@@ -20748,26 +20888,26 @@
         <f t="shared" si="2"/>
         <v>0.36280603555459856</v>
       </c>
-      <c r="AC8" s="125">
+      <c r="AC8" s="141">
         <v>50</v>
       </c>
-      <c r="AD8" s="128">
+      <c r="AD8" s="142">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$F1005, 5), "")</f>
         <v>0.22733743570903744</v>
       </c>
-      <c r="AE8" s="128" t="str">
+      <c r="AE8" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
         <v/>
       </c>
-      <c r="AF8" s="128">
+      <c r="AF8" s="142">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
         <v>0.37950523581459533</v>
       </c>
-      <c r="AG8" s="128">
+      <c r="AG8" s="142">
         <f ca="1">IFERROR(VLOOKUP(BC8, $B$1:$F1005, 5), "")</f>
         <v>0.39218889520253264</v>
       </c>
-      <c r="AH8" s="128">
+      <c r="AH8" s="142">
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$F1005, 5), "")</f>
         <v>0.60781110479746725</v>
       </c>
@@ -20775,11 +20915,11 @@
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$F1005, 5), "")</f>
         <v>0.54439280785778066</v>
       </c>
-      <c r="AJ8" s="128">
+      <c r="AJ8" s="142">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
         <v>0.63835596221959856</v>
       </c>
-      <c r="AK8" s="128">
+      <c r="AK8" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
         <v>0.45388134592680052</v>
       </c>
@@ -20792,31 +20932,31 @@
       </c>
       <c r="AP8" s="125">
         <f>MATCH($AN8 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AQ8" s="130">
         <f>MATCH($AN8 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR8" s="130">
         <f>MATCH($AN8 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS8" s="130">
         <f>MATCH($AN8 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT8" s="132">
         <f>MATCH($AN8 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AU8" s="130">
         <f>MATCH($AN8 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV8" s="130">
         <f>MATCH($AN8 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY8" s="125">
         <v>50</v>
@@ -20939,9 +21079,9 @@
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
         <v>0.35550803375332329</v>
       </c>
-      <c r="AI9" s="128">
+      <c r="AI9" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="AJ9" s="129">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
@@ -20960,31 +21100,31 @@
       </c>
       <c r="AP9" s="125">
         <f>MATCH($AN9 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ9" s="130">
         <f>MATCH($AN9 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" s="130">
         <f>MATCH($AN9 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS9" s="130">
         <f>MATCH($AN9 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT9" s="130">
         <f>MATCH($AN9 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AU9" s="132">
         <f>MATCH($AN9 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV9" s="130">
         <f>MATCH($AN9 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY9" s="125">
         <v>100</v>
@@ -21087,9 +21227,9 @@
       <c r="AC10" s="125">
         <v>200</v>
       </c>
-      <c r="AD10" s="128" t="str">
+      <c r="AD10" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v/>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AE10" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -21107,7 +21247,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
         <v>0.5722459831233383</v>
       </c>
-      <c r="AI10" s="128">
+      <c r="AI10" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
         <v>0.53893595813605788</v>
       </c>
@@ -21122,44 +21262,44 @@
       <c r="AN10" s="125">
         <v>200</v>
       </c>
-      <c r="AO10" s="125" t="e">
+      <c r="AO10" s="125">
         <f>MATCH($AN10 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="AP10" s="125">
         <f>MATCH($AN10 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ10" s="130">
         <f>MATCH($AN10 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AR10" s="130">
         <f>MATCH($AN10 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS10" s="130">
         <f>MATCH($AN10 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT10" s="130">
         <f>MATCH($AN10 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AU10" s="130">
         <f>MATCH($AN10 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AV10" s="132">
         <f>MATCH($AN10 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AY10" s="125">
         <v>200</v>
       </c>
-      <c r="AZ10" s="138" t="e">
+      <c r="AZ10" s="138">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO10 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7007</v>
       </c>
       <c r="BA10" s="117">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AP10 - 1, 0)</f>
@@ -21720,17 +21860,17 @@
       <c r="AC19">
         <v>200</v>
       </c>
-      <c r="AD19" s="1" t="str">
+      <c r="AD19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AE19" s="1" t="str">
+        <v>0.22733743570903744</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="AF19" s="1" t="e">
+        <v>8.3830822924320328E-2</v>
+      </c>
+      <c r="AF19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
+        <v>0.31116825863335779</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -21970,7 +22110,7 @@
       <c r="AH25" s="125">
         <v>20</v>
       </c>
-      <c r="AI25" s="125">
+      <c r="AI25" s="141">
         <v>50</v>
       </c>
       <c r="AJ25" s="125">
@@ -22090,7 +22230,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD26, $B$1:$F1023, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-      <c r="AI26" s="128">
+      <c r="AI26" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE26, $B$1:$F1023, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
@@ -22098,9 +22238,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF26, $B$1:$F1023, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AK26" s="128" t="str">
+      <c r="AK26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG26, $B$1:$F1023, 5), "")</f>
-        <v/>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="AN26" s="125"/>
       <c r="AO26" s="131" t="e">
@@ -22109,31 +22249,31 @@
       </c>
       <c r="AP26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AQ26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AT26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>64</v>
-      </c>
-      <c r="AV26" s="125" t="e">
+        <v>65</v>
+      </c>
+      <c r="AV26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+        <v>66</v>
       </c>
       <c r="AY26" s="125"/>
       <c r="AZ26" s="131" t="e">
@@ -22164,9 +22304,9 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU26 - 1, 0)</f>
         <v>10005</v>
       </c>
-      <c r="BG26" s="125" t="e">
+      <c r="BG26" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV26 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22229,7 +22369,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-      <c r="AI27" s="128" t="str">
+      <c r="AI27" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
@@ -22252,31 +22392,31 @@
       </c>
       <c r="AP27" s="131">
         <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AQ27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AR27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AS27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AT27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AU27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AV27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AW27"/>
       <c r="AX27"/>
@@ -22378,7 +22518,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-      <c r="AI28" s="128" t="str">
+      <c r="AI28" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
@@ -22407,31 +22547,31 @@
       </c>
       <c r="AP28" s="125">
         <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AQ28" s="132">
         <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AR28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AS28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AT28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AU28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AV28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AW28" t="str">
         <f>+AL28</f>
@@ -22541,7 +22681,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
-      <c r="AI29" s="128" t="str">
+      <c r="AI29" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
@@ -22570,31 +22710,31 @@
       </c>
       <c r="AP29" s="125">
         <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AQ29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AR29" s="132">
         <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AS29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AT29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AU29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AV29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" ref="AW29:AW30" si="14">+AL29</f>
@@ -22702,15 +22842,15 @@
       </c>
       <c r="AH30" s="129">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.32881402355519035</v>
-      </c>
-      <c r="AI30" s="128">
+        <v>0.28075304022450887</v>
+      </c>
+      <c r="AI30" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.6711859764448096</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="AJ30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="AK30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -22729,35 +22869,35 @@
       </c>
       <c r="AO30" s="125">
         <f>MATCH($AN30 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AP30" s="125">
         <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AQ30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AR30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AS30" s="132">
         <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AT30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AU30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AV30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="14"/>
@@ -22838,38 +22978,38 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AC31" s="125">
+      <c r="AC31" s="141">
         <v>50</v>
       </c>
-      <c r="AD31" s="128" t="str">
+      <c r="AD31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AE31" s="128" t="str">
+      <c r="AE31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AF31" s="128" t="str">
+      <c r="AF31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AG31" s="128" t="str">
+      <c r="AG31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AH31" s="128">
+      <c r="AH31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.57308231992516367</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
         <v>0.57429199726605451</v>
       </c>
-      <c r="AJ31" s="128">
+      <c r="AJ31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.6711859764448096</v>
-      </c>
-      <c r="AK31" s="128" t="str">
+        <v>0.57308231992516367</v>
+      </c>
+      <c r="AK31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
@@ -22882,31 +23022,31 @@
       </c>
       <c r="AP31" s="125">
         <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AQ31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AR31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AS31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AT31" s="132">
         <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AU31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AV31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AY31" s="125">
         <v>50</v>
@@ -23000,15 +23140,15 @@
       </c>
       <c r="AH32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.6711859764448096</v>
-      </c>
-      <c r="AI32" s="128">
+        <v>0.57308231992516367</v>
+      </c>
+      <c r="AI32" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.71924695977549113</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="AJ32" s="129">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AK32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
@@ -23023,31 +23163,31 @@
       </c>
       <c r="AP32" s="125">
         <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AQ32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AR32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AS32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AT32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AU32" s="132">
         <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AV32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AY32" s="125">
         <v>100</v>
@@ -23143,7 +23283,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-      <c r="AI33" s="128" t="str">
+      <c r="AI33" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
@@ -23164,31 +23304,31 @@
       </c>
       <c r="AP33" s="125">
         <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ33" s="130">
         <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AR33" s="130">
         <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>138</v>
-      </c>
-      <c r="AS33" s="130">
+        <v>141</v>
+      </c>
+      <c r="AS33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>139</v>
-      </c>
-      <c r="AT33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AT33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>140</v>
-      </c>
-      <c r="AU33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AU33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>141</v>
+        <v>#N/A</v>
       </c>
       <c r="AV33" s="132">
         <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AY33" s="125">
         <v>200</v>
@@ -23209,17 +23349,17 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR33 - 1, 0)</f>
         <v>15045</v>
       </c>
-      <c r="BD33" s="130">
+      <c r="BD33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS33 - 1, 0)</f>
-        <v>15046</v>
-      </c>
-      <c r="BE33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BE33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT33 - 1, 0)</f>
-        <v>15047</v>
-      </c>
-      <c r="BF33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BF33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU33 - 1, 0)</f>
-        <v>15048</v>
+        <v>#N/A</v>
       </c>
       <c r="BG33" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV33 - 1, 0)</f>
@@ -23379,7 +23519,7 @@
       </c>
       <c r="C38" s="125">
         <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="125">
         <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23387,23 +23527,23 @@
       </c>
       <c r="E38" s="127">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F38" s="127">
         <f>IFERROR((E38 + Params!$B$3^2/(2 * C38))/(1 + Params!$B$3^2/C38), NA())</f>
-        <v>0.66889609512228076</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G38" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C38))*SQRT(E38*(1-E38)/C38 + (Params!$B$3/(2*C38))^2), 0)</f>
-        <v>0.2596262160196916</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H38" s="128">
         <f t="shared" si="1"/>
-        <v>0.40926987910258916</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I38" s="128">
         <f t="shared" si="2"/>
-        <v>0.92852231114197237</v>
+        <v>0.87941840131725713</v>
       </c>
       <c r="AA38" s="125" t="s">
         <v>10</v>
@@ -23485,7 +23625,7 @@
       </c>
       <c r="AG39" s="125">
         <f>MATCH(AF39, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AH39" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG39-1, 0)</f>
@@ -23548,7 +23688,7 @@
       </c>
       <c r="AG40" s="125">
         <f>MATCH(AF40, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AH40" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG40-1, 0)</f>
@@ -23621,6 +23761,13 @@
         <f ca="1">IFERROR(VLOOKUP(AH41, $B$1:$F1002, 5), "")</f>
         <v>0.16338328226733051</v>
       </c>
+      <c r="AJ41">
+        <v>11002</v>
+      </c>
+      <c r="AK41" s="128" t="str">
+        <f>IFERROR(VLOOKUP(AJ41, $B$1:$F1002, 5), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="125">
@@ -23631,31 +23778,31 @@
       </c>
       <c r="C42" s="125">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="125">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="127">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F42" s="127">
         <f>IFERROR((E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42), NA())</f>
-        <v>0.5</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G42" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C42))*SQRT(E42*(1-E42)/C42 + (Params!$B$3/(2*C42))^2), 0)</f>
-        <v>0.26341040638451269</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H42" s="128">
         <f t="shared" si="1"/>
-        <v>0.23658959361548731</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I42" s="128">
         <f t="shared" si="2"/>
-        <v>0.76341040638451263</v>
+        <v>0.78729042456011944</v>
       </c>
       <c r="AA42" s="125">
         <v>20</v>
@@ -23674,7 +23821,7 @@
       </c>
       <c r="AG42" s="125">
         <f>MATCH(AF42, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AH42" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG42-1, 0)</f>
@@ -23737,7 +23884,7 @@
       </c>
       <c r="AG43" s="125">
         <f>MATCH(AF43, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AH43" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG43-1, 0)</f>
@@ -23800,7 +23947,7 @@
       </c>
       <c r="AG44" s="125">
         <f>MATCH(AF44, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AH44" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG44-1, 0)</f>
@@ -23863,7 +24010,7 @@
       </c>
       <c r="AG45" s="125">
         <f>MATCH(AF45, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AH45" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG45-1, 0)</f>
@@ -23883,7 +24030,7 @@
       </c>
       <c r="C46" s="125">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="125">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23895,11 +24042,11 @@
       </c>
       <c r="F46" s="127">
         <f>IFERROR((E46 + Params!$B$3^2/(2 * C46))/(1 + Params!$B$3^2/C46), NA())</f>
-        <v>0.16220780975543844</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G46" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C46))*SQRT(E46*(1-E46)/C46 + (Params!$B$3/(2*C46))^2), 0)</f>
-        <v>0.16220780975543847</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H46" s="128">
         <f t="shared" si="1"/>
@@ -23907,7 +24054,7 @@
       </c>
       <c r="I46" s="128">
         <f t="shared" si="2"/>
-        <v>0.32441561951087694</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA46" s="125">
         <v>20</v>
@@ -23926,7 +24073,7 @@
       </c>
       <c r="AG46" s="125">
         <f>MATCH(AF46, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AH46" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG46-1, 0)</f>
@@ -23946,7 +24093,7 @@
       </c>
       <c r="C47" s="125">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="125">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23954,23 +24101,23 @@
       </c>
       <c r="E47" s="127">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F47" s="127">
         <f>IFERROR((E47 + Params!$B$3^2/(2 * C47))/(1 + Params!$B$3^2/C47), NA())</f>
-        <v>0.24665585731657882</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G47" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C47))*SQRT(E47*(1-E47)/C47 + (Params!$B$3/(2*C47))^2), 0)</f>
-        <v>0.22423894845328268</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H47" s="128">
         <f t="shared" si="1"/>
-        <v>2.2416908863296142E-2</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I47" s="128">
         <f t="shared" si="2"/>
-        <v>0.47089480576986154</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA47" s="125">
         <v>20</v>
@@ -23989,7 +24136,7 @@
       </c>
       <c r="AG47" s="125">
         <f>MATCH(AF47, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH47" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG47-1, 0)</f>
@@ -24052,7 +24199,7 @@
       </c>
       <c r="AG48" s="125">
         <f>MATCH(AF48, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH48" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG48-1, 0)</f>
@@ -24063,7 +24210,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:35" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="125">
         <v>20</v>
       </c>
@@ -24115,7 +24262,7 @@
       </c>
       <c r="AG49" s="125">
         <f>MATCH(AF49, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AH49" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG49-1, 0)</f>
@@ -24126,7 +24273,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:35" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="125">
         <v>20</v>
       </c>
@@ -24162,7 +24309,7 @@
         <v>0.69426214541619813</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="125">
         <v>20</v>
       </c>
@@ -24198,7 +24345,7 @@
         <v>0.47089480576986154</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="125">
         <v>20</v>
       </c>
@@ -24234,7 +24381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="125">
         <v>20</v>
       </c>
@@ -24297,7 +24444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="125">
         <v>20</v>
       </c>
@@ -24349,7 +24496,7 @@
       </c>
       <c r="AG54" s="125">
         <f>MATCH(AF54, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AH54" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG54-1, 0)</f>
@@ -24360,7 +24507,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="125">
         <v>20</v>
       </c>
@@ -24412,7 +24559,7 @@
       </c>
       <c r="AG55" s="125">
         <f>MATCH(AF55, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AH55" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG55-1, 0)</f>
@@ -24423,7 +24570,7 @@
         <v>0.20528680794408075</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="125">
         <v>20</v>
       </c>
@@ -24475,7 +24622,7 @@
       </c>
       <c r="AG56" s="125">
         <f>MATCH(AF56, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH56" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG56-1, 0)</f>
@@ -24485,8 +24632,15 @@
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$F1017, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ56">
+        <v>12002</v>
+      </c>
+      <c r="AK56" s="128">
+        <f>IFERROR(VLOOKUP(AJ56, $B$1:$F1017, 5), "")</f>
+        <v>0.17061466770220793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="125">
         <v>20</v>
       </c>
@@ -24538,7 +24692,7 @@
       </c>
       <c r="AG57" s="125">
         <f>MATCH(AF57, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AH57" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG57-1, 0)</f>
@@ -24549,7 +24703,7 @@
         <v>0.13594252746033506</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="125">
         <v>20</v>
       </c>
@@ -24601,7 +24755,7 @@
       </c>
       <c r="AG58" s="125">
         <f>MATCH(AF58, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AH58" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG58-1, 0)</f>
@@ -24612,7 +24766,7 @@
         <v>0.13594252746033506</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="125">
         <v>20</v>
       </c>
@@ -24664,7 +24818,7 @@
       </c>
       <c r="AG59" s="125">
         <f>MATCH(AF59, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH59" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG59-1, 0)</f>
@@ -24675,7 +24829,7 @@
         <v>0.17061466770220793</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="125">
         <v>20</v>
       </c>
@@ -24727,7 +24881,7 @@
       </c>
       <c r="AG60" s="125">
         <f>MATCH(AF60, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AH60" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG60-1, 0)</f>
@@ -24738,7 +24892,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="125">
         <v>20</v>
       </c>
@@ -24790,7 +24944,7 @@
       </c>
       <c r="AG61" s="125">
         <f>MATCH(AF61, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH61" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG61-1, 0)</f>
@@ -24801,7 +24955,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="125">
         <v>20</v>
       </c>
@@ -24853,7 +25007,7 @@
       </c>
       <c r="AG62" s="125">
         <f>MATCH(AF62, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AH62" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG62-1, 0)</f>
@@ -24864,7 +25018,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="125">
         <v>20</v>
       </c>
@@ -24916,7 +25070,7 @@
       </c>
       <c r="AG63" s="125">
         <f>MATCH(AF63, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH63" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG63-1, 0)</f>
@@ -24927,7 +25081,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="125">
         <v>20</v>
       </c>
@@ -24979,7 +25133,7 @@
       </c>
       <c r="AG64" s="125">
         <f>MATCH(AF64, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AH64" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG64-1, 0)</f>
@@ -26259,7 +26413,7 @@
       </c>
       <c r="C100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26271,11 +26425,11 @@
       </c>
       <c r="F100" s="127">
         <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="G100" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
-        <v>0.32881402355519035</v>
+        <v>0.28075304022450887</v>
       </c>
       <c r="H100" s="128">
         <f t="shared" si="18"/>
@@ -26283,7 +26437,7 @@
       </c>
       <c r="I100" s="128">
         <f t="shared" si="19"/>
-        <v>0.6576280471103807</v>
+        <v>0.56150608044901773</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26547,31 +26701,31 @@
       </c>
       <c r="C108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="127">
         <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F108" s="127">
         <f>IFERROR((E108 + Params!$B$3^2/(2 * C108))/(1 + Params!$B$3^2/C108), NA())</f>
-        <v>0.57308231992516367</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G108" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C108))*SQRT(E108*(1-E108)/C108 + (Params!$B$3/(2*C108))^2), 0)</f>
-        <v>0.36542736479867571</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H108" s="128">
         <f t="shared" si="18"/>
-        <v>0.20765495512648796</v>
+        <v>0.30063605244263658</v>
       </c>
       <c r="I108" s="128">
         <f t="shared" si="19"/>
-        <v>0.93850968472383944</v>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26583,7 +26737,7 @@
       </c>
       <c r="C109" s="125">
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109" s="125">
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26591,23 +26745,23 @@
       </c>
       <c r="E109" s="127">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F109" s="127">
         <f>IFERROR((E109 + Params!$B$3^2/(2 * C109))/(1 + Params!$B$3^2/C109), NA())</f>
-        <v>0.6711859764448096</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="G109" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C109))*SQRT(E109*(1-E109)/C109 + (Params!$B$3/(2*C109))^2), 0)</f>
-        <v>0.32881402355519035</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="H109" s="128">
         <f t="shared" si="18"/>
-        <v>0.34237195288961925</v>
+        <v>0.20765495512648796</v>
       </c>
       <c r="I109" s="128">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.93850968472383944</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -26943,31 +27097,31 @@
       </c>
       <c r="C119" s="125">
         <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119" s="125">
         <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119" s="127">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F119" s="127">
         <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
-        <v>0.6711859764448096</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G119" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C119))*SQRT(E119*(1-E119)/C119 + (Params!$B$3/(2*C119))^2), 0)</f>
-        <v>0.32881402355519035</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H119" s="128">
         <f t="shared" si="18"/>
-        <v>0.34237195288961925</v>
+        <v>0.30063605244263658</v>
       </c>
       <c r="I119" s="128">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27015,7 +27169,7 @@
       </c>
       <c r="C121" s="125">
         <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" s="125">
         <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27023,23 +27177,23 @@
       </c>
       <c r="E121" s="127">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F121" s="127">
         <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
-        <v>0.71924695977549113</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G121" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C121))*SQRT(E121*(1-E121)/C121 + (Params!$B$3/(2*C121))^2), 0)</f>
-        <v>0.28075304022450887</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H121" s="128">
         <f t="shared" si="18"/>
-        <v>0.43849391955098227</v>
+        <v>0.30063605244263658</v>
       </c>
       <c r="I121" s="128">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27159,31 +27313,31 @@
       </c>
       <c r="C125" s="125">
         <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" s="125">
         <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="127">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F125" s="127">
         <f>IFERROR((E125 + Params!$B$3^2/(2 * C125))/(1 + Params!$B$3^2/C125), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="G125" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C125))*SQRT(E125*(1-E125)/C125 + (Params!$B$3/(2*C125))^2), 0)</f>
-        <v>0.28075304022450887</v>
+        <v>0.32688894245636357</v>
       </c>
       <c r="H125" s="128">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4.5586062644636216E-2</v>
       </c>
       <c r="I125" s="128">
         <f t="shared" si="19"/>
-        <v>0.56150608044901773</v>
+        <v>0.69936394755736342</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27195,7 +27349,7 @@
       </c>
       <c r="C126" s="125">
         <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" s="125">
         <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27203,23 +27357,23 @@
       </c>
       <c r="E126" s="127">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F126" s="127">
         <f>IFERROR((E126 + Params!$B$3^2/(2 * C126))/(1 + Params!$B$3^2/C126), NA())</f>
-        <v>0.6711859764448096</v>
+        <v>0.57308231992516367</v>
       </c>
       <c r="G126" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C126))*SQRT(E126*(1-E126)/C126 + (Params!$B$3/(2*C126))^2), 0)</f>
-        <v>0.32881402355519035</v>
+        <v>0.36542736479867571</v>
       </c>
       <c r="H126" s="128">
         <f t="shared" si="18"/>
-        <v>0.34237195288961925</v>
+        <v>0.20765495512648796</v>
       </c>
       <c r="I126" s="128">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.93850968472383944</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27231,7 +27385,7 @@
       </c>
       <c r="C127" s="125">
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127" s="125">
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -27243,11 +27397,11 @@
       </c>
       <c r="F127" s="127">
         <f>IFERROR((E127 + Params!$B$3^2/(2 * C127))/(1 + Params!$B$3^2/C127), NA())</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G127" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C127))*SQRT(E127*(1-E127)/C127 + (Params!$B$3/(2*C127))^2), 0)</f>
-        <v>0.32881402355519035</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H127" s="128">
         <f t="shared" si="18"/>
@@ -27255,7 +27409,7 @@
       </c>
       <c r="I127" s="128">
         <f t="shared" si="19"/>
-        <v>0.6576280471103807</v>
+        <v>0.48990002040399916</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C13C2F-9A3B-40FA-AB1F-F70225C42C9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60926B-6D5B-4AFB-B998-2A36F1115026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="7" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -19328,7 +19328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -19378,14 +19378,14 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>8.3786538461538456</v>
+        <v>8.3128846153846165</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
       <c r="P1" s="139">
         <f ca="1">NOW() +N1</f>
-        <v>43724.561883707269</v>
+        <v>43724.517607300571</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19440,16 +19440,16 @@
         <v>15016</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="2">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -19467,7 +19467,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>52.15</v>
+        <v>48.73</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19746,7 +19746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="L2" s="137">
         <f>+'V4000'!N1</f>
-        <v>8.3786538461538456</v>
+        <v>8.3128846153846165</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -22999,7 +22999,7 @@
       </c>
       <c r="AH31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.62752499489900015</v>
+        <v>0.66965255157437564</v>
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
@@ -26701,31 +26701,31 @@
       </c>
       <c r="C108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="127">
         <f t="shared" si="17"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F108" s="127">
         <f>IFERROR((E108 + Params!$B$3^2/(2 * C108))/(1 + Params!$B$3^2/C108), NA())</f>
-        <v>0.62752499489900015</v>
+        <v>0.66965255157437564</v>
       </c>
       <c r="G108" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C108))*SQRT(E108*(1-E108)/C108 + (Params!$B$3/(2*C108))^2), 0)</f>
-        <v>0.32688894245636357</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H108" s="128">
         <f t="shared" si="18"/>
-        <v>0.30063605244263658</v>
+        <v>0.37552826411853873</v>
       </c>
       <c r="I108" s="128">
         <f t="shared" si="19"/>
-        <v>0.95441393735536373</v>
+        <v>0.96377683903021261</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60926B-6D5B-4AFB-B998-2A36F1115026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D55BA-1468-436C-8E48-390CC05A7632}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="63">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -7506,17 +7506,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="4" width="8.83984375" style="2"/>
     <col min="6" max="6" width="8.83984375" style="2"/>
-    <col min="9" max="9" width="22.05078125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9827,133 +9827,115 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B93">
-        <v>14000</v>
+        <v>13003</v>
       </c>
       <c r="C93" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E93">
+        <v>100</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G93">
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.1</v>
+        <v>20##0.2##100</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B94">
-        <v>14001</v>
+        <v>13004</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E94">
+        <v>0.2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G94">
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#1</v>
+        <v>20##0.2##0.2</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B95">
-        <v>14002</v>
+        <v>13005</v>
       </c>
       <c r="C95" s="2">
-        <v>10</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E95">
+        <v>0.5</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G95">
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#10</v>
+        <v>20##0.2##0.5</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B96">
-        <v>15000</v>
+        <v>13006</v>
       </c>
       <c r="C96" s="2">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F96" s="2">
         <v>0.2</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>10#10#0.2#0.2#10</v>
+        <v>20##0.2##2</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B97">
-        <v>15001</v>
+        <v>13007</v>
       </c>
       <c r="C97" s="2">
-        <v>10</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F97" s="2">
         <v>0.2</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>5#10#0.2#0.2#10</v>
+        <v>20##0.2##5</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
-        <v>15002</v>
+        <v>13008</v>
       </c>
       <c r="C98" s="2">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2">
         <v>0.2</v>
@@ -9962,97 +9944,79 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>20#10#0.2#0.2#10</v>
+        <v>20##0.2##20</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
-        <v>15003</v>
+        <v>13009</v>
       </c>
       <c r="C99" s="2">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2">
         <v>0.2</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>10#5#0.2#0.2#10</v>
+        <v>20##0.2##50</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
-        <v>15004</v>
+        <v>14000</v>
       </c>
       <c r="C100" s="2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D100" s="2">
         <v>0.2</v>
       </c>
       <c r="E100">
-        <v>5</v>
-      </c>
-      <c r="F100" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G100">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>5#5#0.2#0.2#10</v>
+        <v>#20##0.2#0.1</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
-        <v>15005</v>
+        <v>14001</v>
       </c>
       <c r="C101" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2">
         <v>0.2</v>
       </c>
       <c r="E101">
-        <v>5</v>
-      </c>
-      <c r="F101" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G101">
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>20#5#0.2#0.2#10</v>
+        <v>#20##0.2#1</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
-        <v>15006</v>
+        <v>14002</v>
       </c>
       <c r="C102" s="2">
         <v>10</v>
@@ -10063,26 +10027,20 @@
       <c r="E102">
         <v>20</v>
       </c>
-      <c r="F102" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G102">
-        <v>10</v>
-      </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>10#20#0.2#0.2#10</v>
+        <v>#20##0.2#10</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
-        <v>15007</v>
+        <v>14003</v>
       </c>
       <c r="C103" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D103" s="2">
         <v>0.2</v>
@@ -10090,26 +10048,20 @@
       <c r="E103">
         <v>20</v>
       </c>
-      <c r="F103" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>5#20#0.2#0.2#10</v>
+        <v>#20##0.2#100</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
-        <v>15008</v>
+        <v>14004</v>
       </c>
       <c r="C104" s="2">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="D104" s="2">
         <v>0.2</v>
@@ -10117,158 +10069,122 @@
       <c r="E104">
         <v>20</v>
       </c>
-      <c r="F104" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G104">
-        <v>20</v>
-      </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>20#20#0.2#0.2#10</v>
+        <v>#20##0.2#0.2</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
-        <v>15009</v>
+        <v>14005</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="D105" s="2">
         <v>0.2</v>
       </c>
       <c r="E105">
-        <v>10</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G105">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>2#10#0.2#0.2#10</v>
+        <v>#20##0.2#0.5</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
-        <v>15010</v>
+        <v>14006</v>
       </c>
       <c r="C106" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2">
         <v>0.2</v>
       </c>
       <c r="E106">
-        <v>10</v>
-      </c>
-      <c r="F106" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G106">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>50#10#0.2#0.2#10</v>
+        <v>#20##0.2#2</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
-        <v>15011</v>
+        <v>14007</v>
       </c>
       <c r="C107" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D107" s="2">
         <v>0.2</v>
       </c>
       <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G107">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>100#10#0.2#0.2#10</v>
+        <v>#20##0.2#5</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
-        <v>15012</v>
+        <v>14008</v>
       </c>
       <c r="C108" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2">
         <v>0.2</v>
       </c>
       <c r="E108">
-        <v>5</v>
-      </c>
-      <c r="F108" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>2#5#0.2#0.2#10</v>
+        <v>#20##0.2#20</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
-        <v>15013</v>
+        <v>14009</v>
       </c>
       <c r="C109" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D109" s="2">
         <v>0.2</v>
       </c>
       <c r="E109">
-        <v>5</v>
-      </c>
-      <c r="F109" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G109">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>50#5#0.2#0.2#10</v>
+        <v>#20##0.2#50</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
-        <v>15014</v>
+        <v>15000</v>
       </c>
       <c r="C110" s="2">
         <v>10</v>
@@ -10277,25 +10193,25 @@
         <v>0.2</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2">
         <v>0.2</v>
       </c>
       <c r="G110">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H110" t="s">
         <v>48</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>100#5#0.2#0.2#10</v>
+        <v>10#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
-        <v>15015</v>
+        <v>15001</v>
       </c>
       <c r="C111" s="2">
         <v>10</v>
@@ -10304,25 +10220,25 @@
         <v>0.2</v>
       </c>
       <c r="E111">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2">
         <v>0.2</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H111" t="s">
         <v>48</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>2#20#0.2#0.2#10</v>
+        <v>5#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
-        <v>15016</v>
+        <v>15002</v>
       </c>
       <c r="C112" s="2">
         <v>10</v>
@@ -10331,25 +10247,25 @@
         <v>0.2</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F112" s="2">
         <v>0.2</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
         <v>48</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>50#20#0.2#0.2#10</v>
+        <v>20#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
-        <v>15017</v>
+        <v>15003</v>
       </c>
       <c r="C113" s="2">
         <v>10</v>
@@ -10358,25 +10274,25 @@
         <v>0.2</v>
       </c>
       <c r="E113">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F113" s="2">
         <v>0.2</v>
       </c>
       <c r="G113">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H113" t="s">
         <v>48</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>100#20#0.2#0.2#10</v>
+        <v>10#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
-        <v>15018</v>
+        <v>15004</v>
       </c>
       <c r="C114" s="2">
         <v>10</v>
@@ -10385,25 +10301,25 @@
         <v>0.2</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F114" s="2">
         <v>0.2</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H114" t="s">
         <v>48</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>2#2#0.2#0.2#10</v>
+        <v>5#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
-        <v>15019</v>
+        <v>15005</v>
       </c>
       <c r="C115" s="2">
         <v>10</v>
@@ -10412,25 +10328,25 @@
         <v>0.2</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F115" s="2">
         <v>0.2</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
         <v>48</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>5#2#0.2#0.2#10</v>
+        <v>20#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
-        <v>15020</v>
+        <v>15006</v>
       </c>
       <c r="C116" s="2">
         <v>10</v>
@@ -10439,7 +10355,7 @@
         <v>0.2</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F116" s="2">
         <v>0.2</v>
@@ -10452,12 +10368,12 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>10#2#0.2#0.2#10</v>
+        <v>10#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
-        <v>15021</v>
+        <v>15007</v>
       </c>
       <c r="C117" s="2">
         <v>10</v>
@@ -10466,25 +10382,25 @@
         <v>0.2</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2">
         <v>0.2</v>
       </c>
       <c r="G117">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
         <v>48</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>20#2#0.2#0.2#10</v>
+        <v>5#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
-        <v>15022</v>
+        <v>15008</v>
       </c>
       <c r="C118" s="2">
         <v>10</v>
@@ -10493,25 +10409,25 @@
         <v>0.2</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F118" s="2">
         <v>0.2</v>
       </c>
       <c r="G118">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
         <v>48</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>50#2#0.2#0.2#10</v>
+        <v>20#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
-        <v>15023</v>
+        <v>15009</v>
       </c>
       <c r="C119" s="2">
         <v>10</v>
@@ -10520,25 +10436,25 @@
         <v>0.2</v>
       </c>
       <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G119">
         <v>2</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G119">
-        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>48</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>100#2#0.2#0.2#10</v>
+        <v>2#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
-        <v>15024</v>
+        <v>15010</v>
       </c>
       <c r="C120" s="2">
         <v>10</v>
@@ -10547,25 +10463,25 @@
         <v>0.2</v>
       </c>
       <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G120">
         <v>50</v>
-      </c>
-      <c r="F120" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G120">
-        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>48</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>2#50#0.2#0.2#10</v>
+        <v>50#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
-        <v>15025</v>
+        <v>15011</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
@@ -10574,25 +10490,25 @@
         <v>0.2</v>
       </c>
       <c r="E121">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F121" s="2">
         <v>0.2</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H121" t="s">
         <v>48</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>5#50#0.2#0.2#10</v>
+        <v>100#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
-        <v>15026</v>
+        <v>15012</v>
       </c>
       <c r="C122" s="2">
         <v>10</v>
@@ -10601,25 +10517,25 @@
         <v>0.2</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F122" s="2">
         <v>0.2</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H122" t="s">
         <v>48</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>10#50#0.2#0.2#10</v>
+        <v>2#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
-        <v>15027</v>
+        <v>15013</v>
       </c>
       <c r="C123" s="2">
         <v>10</v>
@@ -10628,25 +10544,25 @@
         <v>0.2</v>
       </c>
       <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G123">
         <v>50</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G123">
-        <v>20</v>
       </c>
       <c r="H123" t="s">
         <v>48</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>20#50#0.2#0.2#10</v>
+        <v>50#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
-        <v>15028</v>
+        <v>15014</v>
       </c>
       <c r="C124" s="2">
         <v>10</v>
@@ -10655,25 +10571,25 @@
         <v>0.2</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F124" s="2">
         <v>0.2</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
         <v>48</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>50#50#0.2#0.2#10</v>
+        <v>100#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <v>15029</v>
+        <v>15015</v>
       </c>
       <c r="C125" s="2">
         <v>10</v>
@@ -10682,25 +10598,25 @@
         <v>0.2</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F125" s="2">
         <v>0.2</v>
       </c>
       <c r="G125">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>48</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>100#50#0.2#0.2#10</v>
+        <v>2#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
-        <v>15030</v>
+        <v>15016</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -10709,25 +10625,25 @@
         <v>0.2</v>
       </c>
       <c r="E126">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F126" s="2">
         <v>0.2</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H126" t="s">
         <v>48</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>2#100#0.2#0.2#10</v>
+        <v>50#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
-        <v>15031</v>
+        <v>15017</v>
       </c>
       <c r="C127" s="2">
         <v>10</v>
@@ -10736,25 +10652,25 @@
         <v>0.2</v>
       </c>
       <c r="E127">
+        <v>20</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G127">
         <v>100</v>
-      </c>
-      <c r="F127" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G127">
-        <v>5</v>
       </c>
       <c r="H127" t="s">
         <v>48</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>5#100#0.2#0.2#10</v>
+        <v>100#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
-        <v>15032</v>
+        <v>15018</v>
       </c>
       <c r="C128" s="2">
         <v>10</v>
@@ -10763,25 +10679,25 @@
         <v>0.2</v>
       </c>
       <c r="E128">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2">
         <v>0.2</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>48</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>10#100#0.2#0.2#10</v>
+        <v>2#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
-        <v>15033</v>
+        <v>15019</v>
       </c>
       <c r="C129" s="2">
         <v>10</v>
@@ -10790,25 +10706,25 @@
         <v>0.2</v>
       </c>
       <c r="E129">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2">
         <v>0.2</v>
       </c>
       <c r="G129">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H129" t="s">
         <v>48</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>20#100#0.2#0.2#10</v>
+        <v>5#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
-        <v>15034</v>
+        <v>15020</v>
       </c>
       <c r="C130" s="2">
         <v>10</v>
@@ -10817,25 +10733,25 @@
         <v>0.2</v>
       </c>
       <c r="E130">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F130" s="2">
         <v>0.2</v>
       </c>
       <c r="G130">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H130" t="s">
         <v>48</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="1"/>
-        <v>50#100#0.2#0.2#10</v>
+        <v>10#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
-        <v>15035</v>
+        <v>15021</v>
       </c>
       <c r="C131" s="2">
         <v>10</v>
@@ -10844,25 +10760,25 @@
         <v>0.2</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F131" s="2">
         <v>0.2</v>
       </c>
       <c r="G131">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
         <v>48</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I142" si="2">IF(A131="", G131 &amp; "#" &amp; E131 &amp; "#" &amp; F131 &amp; "#" &amp; D131 &amp; "#" &amp; C131, "")</f>
-        <v>100#100#0.2#0.2#10</v>
+        <f t="shared" ref="I131:I159" si="2">IF(A131="", G131 &amp; "#" &amp; E131 &amp; "#" &amp; F131 &amp; "#" &amp; D131 &amp; "#" &amp; C131, "")</f>
+        <v>20#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
-        <v>15036</v>
+        <v>15022</v>
       </c>
       <c r="C132" s="2">
         <v>10</v>
@@ -10871,25 +10787,25 @@
         <v>0.2</v>
       </c>
       <c r="E132">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2">
         <v>0.2</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H132" t="s">
         <v>48</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>2#200#0.2#0.2#10</v>
+        <v>50#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
-        <v>15037</v>
+        <v>15023</v>
       </c>
       <c r="C133" s="2">
         <v>10</v>
@@ -10898,25 +10814,25 @@
         <v>0.2</v>
       </c>
       <c r="E133">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F133" s="2">
         <v>0.2</v>
       </c>
       <c r="G133">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H133" t="s">
         <v>48</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>5#200#0.2#0.2#10</v>
+        <v>100#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
-        <v>15038</v>
+        <v>15024</v>
       </c>
       <c r="C134" s="2">
         <v>10</v>
@@ -10925,25 +10841,25 @@
         <v>0.2</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2">
         <v>0.2</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
         <v>48</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>10#200#0.2#0.2#10</v>
+        <v>2#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
-        <v>15039</v>
+        <v>15025</v>
       </c>
       <c r="C135" s="2">
         <v>10</v>
@@ -10952,25 +10868,25 @@
         <v>0.2</v>
       </c>
       <c r="E135">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2">
         <v>0.2</v>
       </c>
       <c r="G135">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
         <v>48</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>20#200#0.2#0.2#10</v>
+        <v>5#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
-        <v>15040</v>
+        <v>15026</v>
       </c>
       <c r="C136" s="2">
         <v>10</v>
@@ -10979,25 +10895,25 @@
         <v>0.2</v>
       </c>
       <c r="E136">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F136" s="2">
         <v>0.2</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
         <v>48</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>50#200#0.2#0.2#10</v>
+        <v>10#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
-        <v>15041</v>
+        <v>15027</v>
       </c>
       <c r="C137" s="2">
         <v>10</v>
@@ -11006,25 +10922,25 @@
         <v>0.2</v>
       </c>
       <c r="E137">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F137" s="2">
         <v>0.2</v>
       </c>
       <c r="G137">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
         <v>48</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>100#200#0.2#0.2#10</v>
+        <v>20#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
-        <v>15042</v>
+        <v>15028</v>
       </c>
       <c r="C138" s="2">
         <v>10</v>
@@ -11033,25 +10949,25 @@
         <v>0.2</v>
       </c>
       <c r="E138">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2">
         <v>0.2</v>
       </c>
       <c r="G138">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H138" t="s">
         <v>48</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>200#200#0.2#0.2#10</v>
+        <v>50#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
-        <v>15043</v>
+        <v>15029</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -11060,25 +10976,25 @@
         <v>0.2</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F139" s="2">
         <v>0.2</v>
       </c>
       <c r="G139">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H139" t="s">
         <v>48</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>200#2#0.2#0.2#10</v>
+        <v>100#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
-        <v>15044</v>
+        <v>15030</v>
       </c>
       <c r="C140" s="2">
         <v>10</v>
@@ -11087,25 +11003,25 @@
         <v>0.2</v>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F140" s="2">
         <v>0.2</v>
       </c>
       <c r="G140">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>48</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>200#5#0.2#0.2#10</v>
+        <v>2#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
-        <v>15045</v>
+        <v>15031</v>
       </c>
       <c r="C141" s="2">
         <v>10</v>
@@ -11114,28 +11030,26 @@
         <v>0.2</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F141" s="2">
         <v>0.2</v>
       </c>
       <c r="G141">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="H141" t="s">
         <v>48</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>200#10#0.2#0.2#10</v>
+        <v>5#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="124">
-        <v>1</v>
-      </c>
+      <c r="A142" s="124"/>
       <c r="B142">
-        <v>15046</v>
+        <v>15032</v>
       </c>
       <c r="C142" s="2">
         <v>10</v>
@@ -11144,25 +11058,25 @@
         <v>0.2</v>
       </c>
       <c r="E142">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2">
         <v>0.2</v>
       </c>
       <c r="G142">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
         <v>48</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>10#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B143">
-        <v>15047</v>
+        <v>15033</v>
       </c>
       <c r="C143" s="2">
         <v>10</v>
@@ -11171,21 +11085,25 @@
         <v>0.2</v>
       </c>
       <c r="E143">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2">
         <v>0.2</v>
       </c>
       <c r="G143">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
         <v>48</v>
       </c>
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>20#100#0.2#0.2#10</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B144">
-        <v>15048</v>
+        <v>15034</v>
       </c>
       <c r="C144" s="2">
         <v>10</v>
@@ -11200,33 +11118,422 @@
         <v>0.2</v>
       </c>
       <c r="G144">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H144" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>50#100#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B145">
+        <v>15035</v>
+      </c>
+      <c r="C145" s="2">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+      <c r="H145" t="s">
+        <v>48</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>100#100#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146">
+        <v>15036</v>
+      </c>
+      <c r="C146" s="2">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E146">
+        <v>200</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146" t="s">
+        <v>48</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>2#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147">
+        <v>15037</v>
+      </c>
+      <c r="C147" s="2">
+        <v>10</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E147">
+        <v>200</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G147">
+        <v>5</v>
+      </c>
+      <c r="H147" t="s">
+        <v>48</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>5#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148">
+        <v>15038</v>
+      </c>
+      <c r="C148" s="2">
+        <v>10</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E148">
+        <v>200</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+      <c r="H148" t="s">
+        <v>48</v>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>10#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149">
+        <v>15039</v>
+      </c>
+      <c r="C149" s="2">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E149">
+        <v>200</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="H149" t="s">
+        <v>48</v>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>20#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150">
+        <v>15040</v>
+      </c>
+      <c r="C150" s="2">
+        <v>10</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E150">
+        <v>200</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G150">
+        <v>50</v>
+      </c>
+      <c r="H150" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>50#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151">
+        <v>15041</v>
+      </c>
+      <c r="C151" s="2">
+        <v>10</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E151">
+        <v>200</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+      <c r="H151" t="s">
+        <v>48</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>100#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B152">
+        <v>15042</v>
+      </c>
+      <c r="C152" s="2">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E152">
+        <v>200</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G152">
+        <v>200</v>
+      </c>
+      <c r="H152" t="s">
+        <v>48</v>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>200#200#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153">
+        <v>15043</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G153">
+        <v>200</v>
+      </c>
+      <c r="H153" t="s">
+        <v>48</v>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>200#2#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154">
+        <v>15044</v>
+      </c>
+      <c r="C154" s="2">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G154">
+        <v>200</v>
+      </c>
+      <c r="H154" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>200#5#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B155">
+        <v>15045</v>
+      </c>
+      <c r="C155" s="2">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G155">
+        <v>200</v>
+      </c>
+      <c r="H155" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>200#10#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B156">
+        <v>15046</v>
+      </c>
+      <c r="C156" s="2">
+        <v>10</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G156">
+        <v>200</v>
+      </c>
+      <c r="H156" t="s">
+        <v>48</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>200#20#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B157">
+        <v>15047</v>
+      </c>
+      <c r="C157" s="2">
+        <v>10</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E157">
+        <v>50</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G157">
+        <v>200</v>
+      </c>
+      <c r="H157" t="s">
+        <v>48</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>200#50#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B158">
+        <v>15048</v>
+      </c>
+      <c r="C158" s="2">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E158">
+        <v>100</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G158">
+        <v>200</v>
+      </c>
+      <c r="H158" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>200#100#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="124">
+        <v>1</v>
+      </c>
+      <c r="B159">
         <v>999000</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C159" s="2">
         <v>0.1</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D159" s="2">
         <v>0.3</v>
       </c>
-      <c r="E145">
+      <c r="E159">
         <v>20000</v>
       </c>
-      <c r="F145" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G145">
+      <c r="F159" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G159">
         <v>20000</v>
       </c>
-      <c r="H145" t="s">
-        <v>20</v>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -19328,7 +19635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -19378,14 +19687,14 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>8.3128846153846165</v>
+        <v>8.5311538461538454</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
       <c r="P1" s="139">
         <f ca="1">NOW() +N1</f>
-        <v>43724.517607300571</v>
+        <v>43724.777115535966</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19396,7 +19705,7 @@
         <v>15008</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -19405,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -19423,7 +19732,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <v>50.31</v>
+        <v>47.98</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
@@ -19554,16 +19863,16 @@
         <v>15028</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F6" s="2">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -19581,7 +19890,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>41.31</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19746,8 +20055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView tabSelected="1" topLeftCell="W34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK41" sqref="AK41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19847,7 +20156,7 @@
       </c>
       <c r="L2" s="137">
         <f>+'V4000'!N1</f>
-        <v>8.3128846153846165</v>
+        <v>8.5311538461538454</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -20027,35 +20336,35 @@
       </c>
       <c r="AN3" s="125"/>
       <c r="AO3" s="131" t="e">
-        <f>MATCH($AN3 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AP3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>64</v>
       </c>
       <c r="AQ3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>61</v>
       </c>
       <c r="AR3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>60</v>
       </c>
       <c r="AS3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>62</v>
       </c>
       <c r="AT3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>63</v>
       </c>
       <c r="AU3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>65</v>
       </c>
       <c r="AV3" s="125">
-        <f>MATCH($AN3 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN3 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN3 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>66</v>
       </c>
       <c r="AY3" s="125"/>
@@ -20191,35 +20500,35 @@
         <v>2</v>
       </c>
       <c r="AO4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>7</v>
       </c>
       <c r="AP4" s="131">
-        <f>MATCH($AN4 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>29</v>
       </c>
       <c r="AQ4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>23</v>
       </c>
       <c r="AR4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>20</v>
       </c>
       <c r="AS4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>26</v>
       </c>
       <c r="AT4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>35</v>
       </c>
       <c r="AU4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>41</v>
       </c>
       <c r="AV4" s="125">
-        <f>MATCH($AN4 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN4 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN4 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>47</v>
       </c>
       <c r="AY4" s="125"/>
@@ -20371,35 +20680,35 @@
         <v>5</v>
       </c>
       <c r="AO5" s="125">
-        <f>MATCH($AN5 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>5</v>
       </c>
       <c r="AP5" s="125">
-        <f>MATCH($AN5 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>30</v>
       </c>
       <c r="AQ5" s="132">
-        <f>MATCH($AN5 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>15</v>
       </c>
       <c r="AR5" s="130">
-        <f>MATCH($AN5 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>12</v>
       </c>
       <c r="AS5" s="130">
-        <f>MATCH($AN5 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>18</v>
       </c>
       <c r="AT5" s="130">
-        <f>MATCH($AN5 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>36</v>
       </c>
       <c r="AU5" s="130">
-        <f>MATCH($AN5 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>42</v>
       </c>
       <c r="AV5" s="130">
-        <f>MATCH($AN5 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN5 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>48</v>
       </c>
       <c r="AW5" t="str">
@@ -20561,35 +20870,35 @@
         <v>10</v>
       </c>
       <c r="AO6" s="125">
-        <f>MATCH($AN6 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>3</v>
       </c>
       <c r="AP6" s="125">
-        <f>MATCH($AN6 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>31</v>
       </c>
       <c r="AQ6" s="130">
-        <f>MATCH($AN6 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>14</v>
       </c>
       <c r="AR6" s="132">
-        <f>MATCH($AN6 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>11</v>
       </c>
       <c r="AS6" s="130">
-        <f>MATCH($AN6 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>17</v>
       </c>
       <c r="AT6" s="130">
-        <f>MATCH($AN6 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>37</v>
       </c>
       <c r="AU6" s="130">
-        <f>MATCH($AN6 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>43</v>
       </c>
       <c r="AV6" s="130">
-        <f>MATCH($AN6 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN6 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>49</v>
       </c>
       <c r="AW6" t="str">
@@ -20751,35 +21060,35 @@
         <v>20</v>
       </c>
       <c r="AO7" s="125">
-        <f>MATCH($AN7 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>4</v>
       </c>
       <c r="AP7" s="125">
-        <f>MATCH($AN7 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>32</v>
       </c>
       <c r="AQ7" s="130">
-        <f>MATCH($AN7 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>16</v>
       </c>
       <c r="AR7" s="130">
-        <f>MATCH($AN7 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>13</v>
       </c>
       <c r="AS7" s="132">
-        <f>MATCH($AN7 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>19</v>
       </c>
       <c r="AT7" s="130">
-        <f>MATCH($AN7 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>38</v>
       </c>
       <c r="AU7" s="130">
-        <f>MATCH($AN7 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>44</v>
       </c>
       <c r="AV7" s="130">
-        <f>MATCH($AN7 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN7 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>50</v>
       </c>
       <c r="AW7" t="str">
@@ -20927,35 +21236,35 @@
         <v>50</v>
       </c>
       <c r="AO8" s="125">
-        <f>MATCH($AN8 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>9</v>
       </c>
       <c r="AP8" s="125">
-        <f>MATCH($AN8 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>33</v>
       </c>
       <c r="AQ8" s="130">
-        <f>MATCH($AN8 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>24</v>
       </c>
       <c r="AR8" s="130">
-        <f>MATCH($AN8 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>21</v>
       </c>
       <c r="AS8" s="130">
-        <f>MATCH($AN8 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>27</v>
       </c>
       <c r="AT8" s="132">
-        <f>MATCH($AN8 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>39</v>
       </c>
       <c r="AU8" s="130">
-        <f>MATCH($AN8 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>45</v>
       </c>
       <c r="AV8" s="130">
-        <f>MATCH($AN8 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN8 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN8 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>51</v>
       </c>
       <c r="AY8" s="125">
@@ -21095,35 +21404,35 @@
         <v>100</v>
       </c>
       <c r="AO9" s="125">
-        <f>MATCH($AN9 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>8</v>
       </c>
       <c r="AP9" s="125">
-        <f>MATCH($AN9 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>34</v>
       </c>
       <c r="AQ9" s="130">
-        <f>MATCH($AN9 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>25</v>
       </c>
       <c r="AR9" s="130">
-        <f>MATCH($AN9 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>22</v>
       </c>
       <c r="AS9" s="130">
-        <f>MATCH($AN9 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>28</v>
       </c>
       <c r="AT9" s="130">
-        <f>MATCH($AN9 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>40</v>
       </c>
       <c r="AU9" s="132">
-        <f>MATCH($AN9 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>46</v>
       </c>
       <c r="AV9" s="130">
-        <f>MATCH($AN9 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN9 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN9 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>52</v>
       </c>
       <c r="AY9" s="125">
@@ -21263,35 +21572,35 @@
         <v>200</v>
       </c>
       <c r="AO10" s="125">
-        <f>MATCH($AN10 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>10</v>
       </c>
       <c r="AP10" s="125">
-        <f>MATCH($AN10 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>54</v>
       </c>
       <c r="AQ10" s="130">
-        <f>MATCH($AN10 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>55</v>
       </c>
       <c r="AR10" s="130">
-        <f>MATCH($AN10 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>56</v>
       </c>
       <c r="AS10" s="130">
-        <f>MATCH($AN10 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>57</v>
       </c>
       <c r="AT10" s="130">
-        <f>MATCH($AN10 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>58</v>
       </c>
       <c r="AU10" s="130">
-        <f>MATCH($AN10 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>59</v>
       </c>
       <c r="AV10" s="132">
-        <f>MATCH($AN10 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN10 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN10 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>53</v>
       </c>
       <c r="AY10" s="125">
@@ -22244,35 +22553,35 @@
       </c>
       <c r="AN26" s="125"/>
       <c r="AO26" s="131" t="e">
-        <f>MATCH($AN26 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>64</v>
       </c>
       <c r="AQ26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>61</v>
       </c>
       <c r="AR26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>60</v>
       </c>
       <c r="AS26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>62</v>
       </c>
       <c r="AT26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>63</v>
       </c>
       <c r="AU26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>65</v>
       </c>
       <c r="AV26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$300,0)</f>
+        <f>MATCH($AN26 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>66</v>
       </c>
       <c r="AY26" s="125"/>
@@ -22349,13 +22658,13 @@
       <c r="AC27" s="125">
         <v>2</v>
       </c>
-      <c r="AD27" s="128" t="str">
+      <c r="AD27" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ27, $B$1:$F1024, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AE27" s="129" t="str">
+        <v>5.5129500367376919E-2</v>
+      </c>
+      <c r="AE27" s="129">
         <f ca="1">IFERROR(VLOOKUP(BA27, $B$1:$F1024, 5), "")</f>
-        <v/>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="AF27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB27, $B$1:$F1024, 5), "")</f>
@@ -22373,9 +22682,9 @@
         <f ca="1">IFERROR(VLOOKUP(BE27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-      <c r="AJ27" s="128" t="str">
+      <c r="AJ27" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF27, $B$1:$F1024, 5), "")</f>
-        <v/>
+        <v>0.21101606750664662</v>
       </c>
       <c r="AK27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG27, $B$1:$F1024, 5), "")</f>
@@ -22386,72 +22695,72 @@
       <c r="AN27" s="125">
         <v>2</v>
       </c>
-      <c r="AO27" s="125" t="e">
-        <f>MATCH($AN27 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO27" s="125">
+        <f>MATCH($AN27 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>7</v>
       </c>
       <c r="AP27" s="131">
-        <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>114</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>29</v>
       </c>
       <c r="AQ27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>108</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>23</v>
       </c>
       <c r="AR27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>105</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>20</v>
       </c>
       <c r="AS27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>111</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>26</v>
       </c>
       <c r="AT27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>120</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>35</v>
       </c>
       <c r="AU27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>126</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>41</v>
       </c>
       <c r="AV27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>132</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>47</v>
       </c>
       <c r="AW27"/>
       <c r="AX27"/>
       <c r="AY27" s="125"/>
-      <c r="AZ27" s="125" t="e">
+      <c r="AZ27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO27 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7004</v>
       </c>
       <c r="BA27" s="131">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP27 - 1, 0)</f>
-        <v>15018</v>
+        <v>9018</v>
       </c>
       <c r="BB27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ27 - 1, 0)</f>
-        <v>15012</v>
+        <v>9012</v>
       </c>
       <c r="BC27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR27 - 1, 0)</f>
-        <v>15009</v>
+        <v>9009</v>
       </c>
       <c r="BD27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS27 - 1, 0)</f>
-        <v>15015</v>
+        <v>9015</v>
       </c>
       <c r="BE27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT27 - 1, 0)</f>
-        <v>15024</v>
+        <v>9024</v>
       </c>
       <c r="BF27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU27 - 1, 0)</f>
-        <v>15030</v>
+        <v>9030</v>
       </c>
       <c r="BG27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV27 - 1, 0)</f>
-        <v>15036</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -22498,37 +22807,37 @@
       <c r="AC28" s="125">
         <v>5</v>
       </c>
-      <c r="AD28" s="128" t="str">
+      <c r="AD28" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ28, $B$1:$F1025, 5), "")</f>
-        <v/>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="AE28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-      <c r="AF28" s="129" t="str">
+      <c r="AF28" s="129">
         <f ca="1">IFERROR(VLOOKUP(BB28, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG28" s="128" t="str">
+        <v>0.18488571855392891</v>
+      </c>
+      <c r="AG28" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC28, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AH28" s="128" t="str">
+        <v>0.18930442430499786</v>
+      </c>
+      <c r="AH28" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD28, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AI28" s="142" t="str">
+        <v>0.30880272264922948</v>
+      </c>
+      <c r="AI28" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE28, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ28" s="128" t="str">
+        <v>0.17883496742101909</v>
+      </c>
+      <c r="AJ28" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF28, $B$1:$F1025, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AK28" s="128" t="str">
+        <v>0.22744829304759534</v>
+      </c>
+      <c r="AK28" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG28, $B$1:$F1025, 5), "")</f>
-        <v/>
+        <v>0.14957637677547969</v>
       </c>
       <c r="AL28" t="str">
         <f>+AA28</f>
@@ -22541,37 +22850,37 @@
       <c r="AN28" s="125">
         <v>5</v>
       </c>
-      <c r="AO28" s="125" t="e">
-        <f>MATCH($AN28 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO28" s="125">
+        <f>MATCH($AN28 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>5</v>
       </c>
       <c r="AP28" s="125">
-        <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>115</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>30</v>
       </c>
       <c r="AQ28" s="132">
-        <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>100</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>15</v>
       </c>
       <c r="AR28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>97</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>12</v>
       </c>
       <c r="AS28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>103</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>18</v>
       </c>
       <c r="AT28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>121</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>36</v>
       </c>
       <c r="AU28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>127</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>42</v>
       </c>
       <c r="AV28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>133</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>48</v>
       </c>
       <c r="AW28" t="str">
         <f>+AL28</f>
@@ -22584,37 +22893,37 @@
       <c r="AY28" s="125">
         <v>5</v>
       </c>
-      <c r="AZ28" s="125" t="e">
+      <c r="AZ28" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO28 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7002</v>
       </c>
       <c r="BA28" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP28 - 1, 0)</f>
-        <v>15019</v>
+        <v>9019</v>
       </c>
       <c r="BB28" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ28 - 1, 0)</f>
-        <v>15004</v>
+        <v>9004</v>
       </c>
       <c r="BC28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR28 - 1, 0)</f>
-        <v>15001</v>
+        <v>9001</v>
       </c>
       <c r="BD28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS28 - 1, 0)</f>
-        <v>15007</v>
+        <v>9007</v>
       </c>
       <c r="BE28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT28 - 1, 0)</f>
-        <v>15025</v>
+        <v>9025</v>
       </c>
       <c r="BF28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU28 - 1, 0)</f>
-        <v>15031</v>
+        <v>9031</v>
       </c>
       <c r="BG28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV28 - 1, 0)</f>
-        <v>15037</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -22661,37 +22970,37 @@
       <c r="AC29" s="125">
         <v>10</v>
       </c>
-      <c r="AD29" s="128" t="str">
+      <c r="AD29" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ29, $B$1:$F1026, 5), "")</f>
-        <v/>
+        <v>0.14004200921492455</v>
       </c>
       <c r="AE29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
-      <c r="AF29" s="128" t="str">
+      <c r="AF29" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB29, $B$1:$F1026, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG29" s="129" t="str">
+        <v>0.23710374364269049</v>
+      </c>
+      <c r="AG29" s="129">
         <f ca="1">IFERROR(VLOOKUP(BC29, $B$1:$F1026, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AH29" s="128" t="str">
+        <v>0.23156931580519868</v>
+      </c>
+      <c r="AH29" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD29, $B$1:$F1026, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AI29" s="142" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="AI29" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE29, $B$1:$F1026, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ29" s="128" t="str">
+        <v>0.44292353275428198</v>
+      </c>
+      <c r="AJ29" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF29, $B$1:$F1026, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AK29" s="128" t="str">
+        <v>0.53893595813605788</v>
+      </c>
+      <c r="AK29" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG29, $B$1:$F1026, 5), "")</f>
-        <v/>
+        <v>0.22744829304759534</v>
       </c>
       <c r="AL29" t="str">
         <f t="shared" ref="AL29:AL30" si="13">+AA29</f>
@@ -22704,37 +23013,37 @@
       <c r="AN29" s="125">
         <v>10</v>
       </c>
-      <c r="AO29" s="125" t="e">
-        <f>MATCH($AN29 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO29" s="125">
+        <f>MATCH($AN29 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>3</v>
       </c>
       <c r="AP29" s="125">
-        <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>116</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>31</v>
       </c>
       <c r="AQ29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>99</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>14</v>
       </c>
       <c r="AR29" s="132">
-        <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>96</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>11</v>
       </c>
       <c r="AS29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>102</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>17</v>
       </c>
       <c r="AT29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>122</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>37</v>
       </c>
       <c r="AU29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>128</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>43</v>
       </c>
       <c r="AV29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>134</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>49</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" ref="AW29:AW30" si="14">+AL29</f>
@@ -22747,37 +23056,37 @@
       <c r="AY29" s="125">
         <v>10</v>
       </c>
-      <c r="AZ29" s="125" t="e">
+      <c r="AZ29" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO29 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7000</v>
       </c>
       <c r="BA29" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP29 - 1, 0)</f>
-        <v>15020</v>
+        <v>9020</v>
       </c>
       <c r="BB29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ29 - 1, 0)</f>
-        <v>15003</v>
+        <v>9003</v>
       </c>
       <c r="BC29" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR29 - 1, 0)</f>
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="BD29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS29 - 1, 0)</f>
-        <v>15006</v>
+        <v>9006</v>
       </c>
       <c r="BE29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT29 - 1, 0)</f>
-        <v>15026</v>
+        <v>9026</v>
       </c>
       <c r="BF29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU29 - 1, 0)</f>
-        <v>15032</v>
+        <v>9032</v>
       </c>
       <c r="BG29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV29 - 1, 0)</f>
-        <v>15038</v>
+        <v>9038</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -22826,35 +23135,35 @@
       </c>
       <c r="AD30" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ30, $B$1:$F1027, 5), "")</f>
-        <v>0.30930322866969934</v>
+        <v>0.16338328226733051</v>
       </c>
       <c r="AE30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA30, $B$1:$F1027, 5), "")</f>
         <v/>
       </c>
-      <c r="AF30" s="128" t="str">
+      <c r="AF30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB30, $B$1:$F1027, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG30" s="128" t="str">
+        <v>0.18488571855392891</v>
+      </c>
+      <c r="AG30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC30, $B$1:$F1027, 5), "")</f>
-        <v/>
+        <v>0.37162010755900804</v>
       </c>
       <c r="AH30" s="129">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.28075304022450887</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AI30" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.62752499489900015</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="AJ30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.37247500510099979</v>
-      </c>
-      <c r="AK30" s="128" t="str">
+        <v>0.53368909012505383</v>
+      </c>
+      <c r="AK30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
-        <v/>
+        <v>0.58444804756114044</v>
       </c>
       <c r="AL30" t="str">
         <f t="shared" si="13"/>
@@ -22868,36 +23177,36 @@
         <v>20</v>
       </c>
       <c r="AO30" s="125">
-        <f>MATCH($AN30 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>92</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>4</v>
       </c>
       <c r="AP30" s="125">
-        <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>117</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>32</v>
       </c>
       <c r="AQ30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>101</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>16</v>
       </c>
       <c r="AR30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>98</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>13</v>
       </c>
       <c r="AS30" s="132">
-        <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>104</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>19</v>
       </c>
       <c r="AT30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>123</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>38</v>
       </c>
       <c r="AU30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>129</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>44</v>
       </c>
       <c r="AV30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>135</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>50</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="14"/>
@@ -22912,35 +23221,35 @@
       </c>
       <c r="AZ30" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO30 - 1, 0)</f>
-        <v>13002</v>
+        <v>7001</v>
       </c>
       <c r="BA30" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP30 - 1, 0)</f>
-        <v>15021</v>
+        <v>9021</v>
       </c>
       <c r="BB30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ30 - 1, 0)</f>
-        <v>15005</v>
+        <v>9005</v>
       </c>
       <c r="BC30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR30 - 1, 0)</f>
-        <v>15002</v>
+        <v>9002</v>
       </c>
       <c r="BD30" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS30 - 1, 0)</f>
-        <v>15008</v>
+        <v>9008</v>
       </c>
       <c r="BE30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT30 - 1, 0)</f>
-        <v>15027</v>
+        <v>9027</v>
       </c>
       <c r="BF30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU30 - 1, 0)</f>
-        <v>15033</v>
+        <v>9033</v>
       </c>
       <c r="BG30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV30 - 1, 0)</f>
-        <v>15039</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -22981,107 +23290,107 @@
       <c r="AC31" s="141">
         <v>50</v>
       </c>
-      <c r="AD31" s="142" t="str">
+      <c r="AD31" s="142">
         <f ca="1">IFERROR(VLOOKUP(AZ31, $B$1:$F1028, 5), "")</f>
-        <v/>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AE31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AF31" s="142" t="str">
+      <c r="AF31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BB31, $B$1:$F1028, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG31" s="142" t="str">
+        <v>0.37950523581459533</v>
+      </c>
+      <c r="AG31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BC31, $B$1:$F1028, 5), "")</f>
-        <v/>
+        <v>0.39218889520253264</v>
       </c>
       <c r="AH31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.66965255157437564</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.57429199726605451</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AJ31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.57308231992516367</v>
-      </c>
-      <c r="AK31" s="142" t="str">
+        <v>0.63835596221959856</v>
+      </c>
+      <c r="AK31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
-        <v/>
+        <v>0.45388134592680052</v>
       </c>
       <c r="AN31" s="125">
         <v>50</v>
       </c>
-      <c r="AO31" s="125" t="e">
-        <f>MATCH($AN31 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO31" s="125">
+        <f>MATCH($AN31 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>9</v>
       </c>
       <c r="AP31" s="125">
-        <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>118</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>33</v>
       </c>
       <c r="AQ31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>109</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>24</v>
       </c>
       <c r="AR31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>106</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>21</v>
       </c>
       <c r="AS31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>112</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>27</v>
       </c>
       <c r="AT31" s="132">
-        <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>124</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>39</v>
       </c>
       <c r="AU31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>130</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>45</v>
       </c>
       <c r="AV31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>136</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>51</v>
       </c>
       <c r="AY31" s="125">
         <v>50</v>
       </c>
-      <c r="AZ31" s="125" t="e">
+      <c r="AZ31" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO31 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7006</v>
       </c>
       <c r="BA31" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP31 - 1, 0)</f>
-        <v>15022</v>
+        <v>9022</v>
       </c>
       <c r="BB31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ31 - 1, 0)</f>
-        <v>15013</v>
+        <v>9013</v>
       </c>
       <c r="BC31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR31 - 1, 0)</f>
-        <v>15010</v>
+        <v>9010</v>
       </c>
       <c r="BD31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS31 - 1, 0)</f>
-        <v>15016</v>
+        <v>9016</v>
       </c>
       <c r="BE31" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT31 - 1, 0)</f>
-        <v>15028</v>
+        <v>9028</v>
       </c>
       <c r="BF31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU31 - 1, 0)</f>
-        <v>15034</v>
+        <v>9034</v>
       </c>
       <c r="BG31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV31 - 1, 0)</f>
-        <v>15040</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23122,107 +23431,107 @@
       <c r="AC32" s="125">
         <v>100</v>
       </c>
-      <c r="AD32" s="128" t="str">
+      <c r="AD32" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ32, $B$1:$F1029, 5), "")</f>
-        <v/>
+        <v>0.1699347905951506</v>
       </c>
       <c r="AE32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA32, $B$1:$F1029, 5), "")</f>
         <v/>
       </c>
-      <c r="AF32" s="128" t="str">
+      <c r="AF32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB32, $B$1:$F1029, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG32" s="128" t="str">
+        <v>0.41555195243885962</v>
+      </c>
+      <c r="AG32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC32, $B$1:$F1029, 5), "")</f>
-        <v/>
+        <v>0.53368909012505383</v>
       </c>
       <c r="AH32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.57308231992516367</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="AI32" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.62752499489900015</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="AJ32" s="129">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.24495001020199958</v>
-      </c>
-      <c r="AK32" s="128" t="str">
+        <v>0.40713500341743192</v>
+      </c>
+      <c r="AK32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
-        <v/>
+        <v>0.41555195243885962</v>
       </c>
       <c r="AN32" s="125">
         <v>100</v>
       </c>
-      <c r="AO32" s="125" t="e">
-        <f>MATCH($AN32 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO32" s="125">
+        <f>MATCH($AN32 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>8</v>
       </c>
       <c r="AP32" s="125">
-        <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>119</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>34</v>
       </c>
       <c r="AQ32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>110</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>25</v>
       </c>
       <c r="AR32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>107</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>22</v>
       </c>
       <c r="AS32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>113</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>28</v>
       </c>
       <c r="AT32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>125</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>40</v>
       </c>
       <c r="AU32" s="132">
-        <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>131</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>46</v>
       </c>
       <c r="AV32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>137</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>52</v>
       </c>
       <c r="AY32" s="125">
         <v>100</v>
       </c>
-      <c r="AZ32" s="125" t="e">
+      <c r="AZ32" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO32 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7005</v>
       </c>
       <c r="BA32" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP32 - 1, 0)</f>
-        <v>15023</v>
+        <v>9023</v>
       </c>
       <c r="BB32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ32 - 1, 0)</f>
-        <v>15014</v>
+        <v>9014</v>
       </c>
       <c r="BC32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR32 - 1, 0)</f>
-        <v>15011</v>
+        <v>9011</v>
       </c>
       <c r="BD32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS32 - 1, 0)</f>
-        <v>15017</v>
+        <v>9017</v>
       </c>
       <c r="BE32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT32 - 1, 0)</f>
-        <v>15029</v>
+        <v>9029</v>
       </c>
       <c r="BF32" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU32 - 1, 0)</f>
-        <v>15035</v>
+        <v>9035</v>
       </c>
       <c r="BG32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV32 - 1, 0)</f>
-        <v>15041</v>
+        <v>9041</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -23263,107 +23572,107 @@
       <c r="AC33" s="125">
         <v>200</v>
       </c>
-      <c r="AD33" s="128" t="str">
+      <c r="AD33" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ33, $B$1:$F1030, 5), "")</f>
-        <v/>
+        <v>0.22733743570903744</v>
       </c>
       <c r="AE33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-      <c r="AF33" s="128" t="str">
+      <c r="AF33" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB33, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AG33" s="128" t="str">
+        <v>0.33110390487771924</v>
+      </c>
+      <c r="AG33" s="128">
         <f ca="1">IFERROR(VLOOKUP(BC33, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AH33" s="128" t="str">
+        <v>0.38319212559182658</v>
+      </c>
+      <c r="AH33" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD33, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AI33" s="142" t="str">
+        <v>0.5722459831233383</v>
+      </c>
+      <c r="AI33" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE33, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AJ33" s="128" t="str">
+        <v>0.53893595813605788</v>
+      </c>
+      <c r="AJ33" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF33, $B$1:$F1030, 5), "")</f>
-        <v/>
-      </c>
-      <c r="AK33" s="129" t="str">
+        <v>0.33034744842562436</v>
+      </c>
+      <c r="AK33" s="129">
         <f ca="1">IFERROR(VLOOKUP(BG33, $B$1:$F1030, 5), "")</f>
-        <v/>
+        <v>0.24665585731657882</v>
       </c>
       <c r="AN33" s="125">
         <v>200</v>
       </c>
-      <c r="AO33" s="125" t="e">
-        <f>MATCH($AN33 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+      <c r="AO33" s="125">
+        <f>MATCH($AN33 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>10</v>
       </c>
       <c r="AP33" s="125">
-        <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>139</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>54</v>
       </c>
       <c r="AQ33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>140</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>55</v>
       </c>
       <c r="AR33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>141</v>
-      </c>
-      <c r="AS33" s="130" t="e">
-        <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT33" s="130" t="e">
-        <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU33" s="130" t="e">
-        <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>#N/A</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>56</v>
+      </c>
+      <c r="AS33" s="130">
+        <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>57</v>
+      </c>
+      <c r="AT33" s="130">
+        <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>58</v>
+      </c>
+      <c r="AU33" s="130">
+        <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>59</v>
       </c>
       <c r="AV33" s="132">
-        <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>138</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>53</v>
       </c>
       <c r="AY33" s="125">
         <v>200</v>
       </c>
-      <c r="AZ33" s="125" t="e">
+      <c r="AZ33" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO33 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>7007</v>
       </c>
       <c r="BA33" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP33 - 1, 0)</f>
-        <v>15043</v>
+        <v>9043</v>
       </c>
       <c r="BB33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ33 - 1, 0)</f>
-        <v>15044</v>
+        <v>9044</v>
       </c>
       <c r="BC33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR33 - 1, 0)</f>
-        <v>15045</v>
-      </c>
-      <c r="BD33" s="130" t="e">
+        <v>9045</v>
+      </c>
+      <c r="BD33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS33 - 1, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE33" s="130" t="e">
+        <v>9046</v>
+      </c>
+      <c r="BE33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT33 - 1, 0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF33" s="130" t="e">
+        <v>9047</v>
+      </c>
+      <c r="BF33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU33 - 1, 0)</f>
-        <v>#N/A</v>
+        <v>9048</v>
       </c>
       <c r="BG33" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV33 - 1, 0)</f>
-        <v>15042</v>
+        <v>9042</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.55000000000000004">
@@ -26413,7 +26722,7 @@
       </c>
       <c r="C100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -26425,11 +26734,11 @@
       </c>
       <c r="F100" s="127">
         <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="G100" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
-        <v>0.28075304022450887</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="H100" s="128">
         <f t="shared" si="18"/>
@@ -26437,7 +26746,7 @@
       </c>
       <c r="I100" s="128">
         <f t="shared" si="19"/>
-        <v>0.56150608044901773</v>
+        <v>0.48990002040399916</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -27133,31 +27442,31 @@
       </c>
       <c r="C120" s="125">
         <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D120" s="125">
         <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E120" s="127">
         <f t="shared" si="17"/>
-        <v>0.57999999999999996</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F120" s="127">
         <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
-        <v>0.57429199726605451</v>
+        <v>0.58205449877465287</v>
       </c>
       <c r="G120" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
-        <v>0.13196003038827617</v>
+        <v>0.13040357130047822</v>
       </c>
       <c r="H120" s="128">
         <f t="shared" si="18"/>
-        <v>0.44233196687777832</v>
+        <v>0.45165092747417468</v>
       </c>
       <c r="I120" s="128">
         <f t="shared" si="19"/>
-        <v>0.70625202765433071</v>
+        <v>0.71245807007513107</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D55BA-1468-436C-8E48-390CC05A7632}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597BBD0-92A6-448C-A166-F1C75C0F9FD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -1451,7 +1451,7 @@
                   <c:v>0.1699347905951506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22733743570903744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,7 +1541,7 @@
                   <c:v>8.3830822924320328E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3830822924320328E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1631,7 @@
                   <c:v>0.25376561351947091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31116825863335779</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7508,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19635,9 +19635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -19687,14 +19685,14 @@
       </c>
       <c r="N1" s="134">
         <f>SUM(L2:L1000)/52</f>
-        <v>8.5311538461538454</v>
+        <v>9.1376923076923067</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
       <c r="P1" s="139">
         <f ca="1">NOW() +N1</f>
-        <v>43724.777115535966</v>
+        <v>43725.504879460466</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19749,16 +19747,16 @@
         <v>15016</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.8</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F3" s="2">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -19776,7 +19774,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>48.73</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19787,16 +19785,16 @@
         <v>15017</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="2">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -19814,7 +19812,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="2">
-        <v>47.77</v>
+        <v>47.05</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19863,16 +19861,16 @@
         <v>15028</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="2">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -19890,7 +19888,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>54.99</v>
+        <v>51.92</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19901,16 +19899,16 @@
         <v>15029</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F7" s="2">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -19928,7 +19926,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="2">
-        <v>48.37</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -19977,16 +19975,16 @@
         <v>15034</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>0.66669999999999996</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -20004,7 +20002,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="2">
-        <v>43.44</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -20015,16 +20013,16 @@
         <v>15035</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -20042,7 +20040,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="2">
-        <v>42.26</v>
+        <v>50.47</v>
       </c>
     </row>
   </sheetData>
@@ -20053,10 +20051,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:BQ140"/>
+  <dimension ref="A1:BQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK41" sqref="AK41"/>
+    <sheetView tabSelected="1" topLeftCell="AA10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20120,7 +20118,7 @@
       <c r="A2" s="125">
         <v>20</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2">
         <v>7000</v>
       </c>
       <c r="C2" s="125">
@@ -20156,7 +20154,7 @@
       </c>
       <c r="L2" s="137">
         <f>+'V4000'!N1</f>
-        <v>8.5311538461538454</v>
+        <v>9.1376923076923067</v>
       </c>
       <c r="AC2" s="56" t="s">
         <v>42</v>
@@ -20263,7 +20261,7 @@
       <c r="A3" s="125">
         <v>20</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3">
         <v>7001</v>
       </c>
       <c r="C3" s="125">
@@ -20330,9 +20328,9 @@
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$F1000, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AK3" s="128">
+      <c r="AK3" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
-        <v>8.3830822924320328E-2</v>
+        <v/>
       </c>
       <c r="AN3" s="125"/>
       <c r="AO3" s="131" t="e">
@@ -20430,7 +20428,7 @@
       <c r="A4" s="125">
         <v>20</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4">
         <v>7002</v>
       </c>
       <c r="C4" s="125">
@@ -20596,7 +20594,7 @@
       <c r="A5" s="125">
         <v>20</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5">
         <v>7003</v>
       </c>
       <c r="C5" s="125">
@@ -20786,7 +20784,7 @@
       <c r="A6" s="125">
         <v>20</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6">
         <v>7004</v>
       </c>
       <c r="C6" s="125">
@@ -20976,7 +20974,7 @@
       <c r="A7" s="125">
         <v>20</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7">
         <v>7005</v>
       </c>
       <c r="C7" s="125">
@@ -21166,7 +21164,7 @@
       <c r="A8" s="125">
         <v>20</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8">
         <v>7006</v>
       </c>
       <c r="C8" s="125">
@@ -21334,36 +21332,36 @@
       <c r="A9" s="125">
         <v>20</v>
       </c>
-      <c r="B9" s="56">
-        <v>9000</v>
+      <c r="B9">
+        <v>7007</v>
       </c>
       <c r="C9" s="125">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D9" s="125">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="127">
+        <v>0</v>
+      </c>
+      <c r="E9" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.20512820512820512</v>
-      </c>
-      <c r="F9" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="127" t="e">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
-        <v>0.23156931580519868</v>
+        <v>#N/A</v>
       </c>
       <c r="G9" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C9))*SQRT(E9*(1-E9)/C9 + (Params!$B$3/(2*C9))^2), 0)</f>
-        <v>0.12377341382608752</v>
-      </c>
-      <c r="H9" s="128">
+        <v>0</v>
+      </c>
+      <c r="H9" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>0.10779590197911117</v>
-      </c>
-      <c r="I9" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.35534272963128621</v>
+        <v>#N/A</v>
       </c>
       <c r="AC9" s="125">
         <v>100</v>
@@ -21502,43 +21500,43 @@
       <c r="A10" s="125">
         <v>20</v>
       </c>
-      <c r="B10" s="56">
-        <v>9001</v>
+      <c r="B10">
+        <v>9000</v>
       </c>
       <c r="C10" s="125">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="125">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="127">
         <f t="shared" si="0"/>
-        <v>0.15789473684210525</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F10" s="127">
         <f>IFERROR((E10 + Params!$B$3^2/(2 * C10))/(1 + Params!$B$3^2/C10), NA())</f>
-        <v>0.18930442430499786</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G10" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C10))*SQRT(E10*(1-E10)/C10 + (Params!$B$3/(2*C10))^2), 0)</f>
-        <v>0.114866802067771</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H10" s="128">
         <f t="shared" si="1"/>
-        <v>7.4437622237226858E-2</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I10" s="128">
         <f t="shared" si="2"/>
-        <v>0.30417122637276883</v>
+        <v>0.35534272963128621</v>
       </c>
       <c r="AC10" s="125">
         <v>200</v>
       </c>
-      <c r="AD10" s="128">
+      <c r="AD10" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
-        <v>0.22733743570903744</v>
+        <v/>
       </c>
       <c r="AE10" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
@@ -21670,72 +21668,72 @@
       <c r="A11" s="125">
         <v>20</v>
       </c>
-      <c r="B11" s="56">
-        <v>9002</v>
+      <c r="B11">
+        <v>9001</v>
       </c>
       <c r="C11" s="125">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="125">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E11" s="127">
         <f t="shared" si="0"/>
-        <v>0.35897435897435898</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F11" s="127">
         <f>IFERROR((E11 + Params!$B$3^2/(2 * C11))/(1 + Params!$B$3^2/C11), NA())</f>
-        <v>0.37162010755900804</v>
+        <v>0.18930442430499786</v>
       </c>
       <c r="G11" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C11))*SQRT(E11*(1-E11)/C11 + (Params!$B$3/(2*C11))^2), 0)</f>
-        <v>0.14420126059409702</v>
+        <v>0.114866802067771</v>
       </c>
       <c r="H11" s="128">
         <f t="shared" si="1"/>
-        <v>0.22741884696491102</v>
+        <v>7.4437622237226858E-2</v>
       </c>
       <c r="I11" s="128">
         <f t="shared" si="2"/>
-        <v>0.51582136815310509</v>
+        <v>0.30417122637276883</v>
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="125">
         <v>20</v>
       </c>
-      <c r="B12" s="56">
-        <v>9003</v>
+      <c r="B12">
+        <v>9002</v>
       </c>
       <c r="C12" s="125">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="125">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E12" s="127">
         <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="F12" s="127">
         <f>IFERROR((E12 + Params!$B$3^2/(2 * C12))/(1 + Params!$B$3^2/C12), NA())</f>
-        <v>0.23710374364269049</v>
+        <v>0.37162010755900804</v>
       </c>
       <c r="G12" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C12))*SQRT(E12*(1-E12)/C12 + (Params!$B$3/(2*C12))^2), 0)</f>
-        <v>0.12635714012173116</v>
+        <v>0.14420126059409702</v>
       </c>
       <c r="H12" s="128">
         <f t="shared" si="1"/>
-        <v>0.11074660352095933</v>
+        <v>0.22741884696491102</v>
       </c>
       <c r="I12" s="128">
         <f t="shared" si="2"/>
-        <v>0.36346088376442165</v>
+        <v>0.51582136815310509</v>
       </c>
       <c r="AC12" t="s">
         <v>11</v>
@@ -21769,36 +21767,36 @@
       <c r="A13" s="125">
         <v>20</v>
       </c>
-      <c r="B13" s="56">
-        <v>9004</v>
+      <c r="B13">
+        <v>9003</v>
       </c>
       <c r="C13" s="125">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="125">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="127">
         <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F13" s="127">
         <f>IFERROR((E13 + Params!$B$3^2/(2 * C13))/(1 + Params!$B$3^2/C13), NA())</f>
-        <v>0.18488571855392891</v>
+        <v>0.23710374364269049</v>
       </c>
       <c r="G13" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C13))*SQRT(E13*(1-E13)/C13 + (Params!$B$3/(2*C13))^2), 0)</f>
-        <v>0.11241198010341422</v>
+        <v>0.12635714012173116</v>
       </c>
       <c r="H13" s="128">
         <f t="shared" si="1"/>
-        <v>7.2473738450514691E-2</v>
+        <v>0.11074660352095933</v>
       </c>
       <c r="I13" s="128">
         <f t="shared" si="2"/>
-        <v>0.29729769865734312</v>
+        <v>0.36346088376442165</v>
       </c>
       <c r="AC13">
         <v>2</v>
@@ -21830,8 +21828,8 @@
       <c r="A14" s="125">
         <v>20</v>
       </c>
-      <c r="B14" s="56">
-        <v>9005</v>
+      <c r="B14">
+        <v>9004</v>
       </c>
       <c r="C14" s="125">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -21891,36 +21889,36 @@
       <c r="A15" s="125">
         <v>20</v>
       </c>
-      <c r="B15" s="56">
-        <v>9006</v>
+      <c r="B15">
+        <v>9005</v>
       </c>
       <c r="C15" s="125">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="125">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E15" s="127">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F15" s="127">
         <f>IFERROR((E15 + Params!$B$3^2/(2 * C15))/(1 + Params!$B$3^2/C15), NA())</f>
-        <v>0.5</v>
+        <v>0.18488571855392891</v>
       </c>
       <c r="G15" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C15))*SQRT(E15*(1-E15)/C15 + (Params!$B$3/(2*C15))^2), 0)</f>
-        <v>0.15150324467139309</v>
+        <v>0.11241198010341422</v>
       </c>
       <c r="H15" s="128">
         <f t="shared" si="1"/>
-        <v>0.34849675532860691</v>
+        <v>7.2473738450514691E-2</v>
       </c>
       <c r="I15" s="128">
         <f t="shared" si="2"/>
-        <v>0.65150324467139309</v>
+        <v>0.29729769865734312</v>
       </c>
       <c r="AC15">
         <v>10</v>
@@ -21952,8 +21950,8 @@
       <c r="A16" s="125">
         <v>20</v>
       </c>
-      <c r="B16" s="56">
-        <v>9007</v>
+      <c r="B16">
+        <v>9006</v>
       </c>
       <c r="C16" s="125">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -21961,27 +21959,27 @@
       </c>
       <c r="D16" s="125">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16" s="127">
         <f t="shared" si="0"/>
-        <v>0.28947368421052633</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="127">
         <f>IFERROR((E16 + Params!$B$3^2/(2 * C16))/(1 + Params!$B$3^2/C16), NA())</f>
-        <v>0.30880272264922948</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C16))*SQRT(E16*(1-E16)/C16 + (Params!$B$3/(2*C16))^2), 0)</f>
-        <v>0.13877166001266816</v>
+        <v>0.15150324467139309</v>
       </c>
       <c r="H16" s="128">
         <f t="shared" si="1"/>
-        <v>0.17003106263656131</v>
+        <v>0.34849675532860691</v>
       </c>
       <c r="I16" s="128">
         <f t="shared" si="2"/>
-        <v>0.44757438266189764</v>
+        <v>0.65150324467139309</v>
       </c>
       <c r="AC16">
         <v>20</v>
@@ -22013,36 +22011,36 @@
       <c r="A17" s="125">
         <v>20</v>
       </c>
-      <c r="B17" s="56">
-        <v>9008</v>
+      <c r="B17">
+        <v>9007</v>
       </c>
       <c r="C17" s="125">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D17" s="125">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E17" s="127">
         <f t="shared" si="0"/>
-        <v>0.41772151898734178</v>
+        <v>0.28947368421052633</v>
       </c>
       <c r="F17" s="127">
         <f>IFERROR((E17 + Params!$B$3^2/(2 * C17))/(1 + Params!$B$3^2/C17), NA())</f>
-        <v>0.42153700556242274</v>
+        <v>0.30880272264922948</v>
       </c>
       <c r="G17" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C17))*SQRT(E17*(1-E17)/C17 + (Params!$B$3/(2*C17))^2), 0)</f>
-        <v>0.10627245507177599</v>
+        <v>0.13877166001266816</v>
       </c>
       <c r="H17" s="128">
         <f t="shared" si="1"/>
-        <v>0.31526455049064672</v>
+        <v>0.17003106263656131</v>
       </c>
       <c r="I17" s="128">
         <f t="shared" si="2"/>
-        <v>0.52780946063419876</v>
+        <v>0.44757438266189764</v>
       </c>
       <c r="AC17">
         <v>50</v>
@@ -22074,36 +22072,36 @@
       <c r="A18" s="125">
         <v>20</v>
       </c>
-      <c r="B18" s="56">
-        <v>9009</v>
+      <c r="B18">
+        <v>9008</v>
       </c>
       <c r="C18" s="125">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D18" s="125">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="127" t="e">
+        <v>33</v>
+      </c>
+      <c r="E18" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="127" t="e">
+        <v>0.41772151898734178</v>
+      </c>
+      <c r="F18" s="127">
         <f>IFERROR((E18 + Params!$B$3^2/(2 * C18))/(1 + Params!$B$3^2/C18), NA())</f>
-        <v>#N/A</v>
+        <v>0.42153700556242274</v>
       </c>
       <c r="G18" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C18))*SQRT(E18*(1-E18)/C18 + (Params!$B$3/(2*C18))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="128" t="e">
+        <v>0.10627245507177599</v>
+      </c>
+      <c r="H18" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="128" t="e">
+        <v>0.31526455049064672</v>
+      </c>
+      <c r="I18" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.52780946063419876</v>
       </c>
       <c r="AC18">
         <v>100</v>
@@ -22135,51 +22133,51 @@
       <c r="A19" s="125">
         <v>20</v>
       </c>
-      <c r="B19" s="56">
-        <v>9010</v>
+      <c r="B19">
+        <v>9009</v>
       </c>
       <c r="C19" s="125">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D19" s="125">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>29</v>
-      </c>
-      <c r="E19" s="127">
+        <v>0</v>
+      </c>
+      <c r="E19" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="F19" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="127" t="e">
         <f>IFERROR((E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19), NA())</f>
-        <v>0.39218889520253264</v>
+        <v>#N/A</v>
       </c>
       <c r="G19" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C19))*SQRT(E19*(1-E19)/C19 + (Params!$B$3/(2*C19))^2), 0)</f>
-        <v>0.10763841747619295</v>
-      </c>
-      <c r="H19" s="128">
+        <v>0</v>
+      </c>
+      <c r="H19" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>0.28455047772633968</v>
-      </c>
-      <c r="I19" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.4998273126787256</v>
+        <v>#N/A</v>
       </c>
       <c r="AC19">
         <v>200</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22733743570903744</v>
-      </c>
-      <c r="AE19" s="1">
+        <v/>
+      </c>
+      <c r="AE19" s="1" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3830822924320328E-2</v>
-      </c>
-      <c r="AF19" s="1">
+        <v/>
+      </c>
+      <c r="AF19" s="1" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31116825863335779</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -22190,216 +22188,216 @@
       <c r="A20" s="125">
         <v>20</v>
       </c>
-      <c r="B20" s="56">
-        <v>9011</v>
+      <c r="B20">
+        <v>9010</v>
       </c>
       <c r="C20" s="125">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D20" s="125">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E20" s="127">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.38666666666666666</v>
       </c>
       <c r="F20" s="127">
         <f>IFERROR((E20 + Params!$B$3^2/(2 * C20))/(1 + Params!$B$3^2/C20), NA())</f>
-        <v>0.53368909012505383</v>
+        <v>0.39218889520253264</v>
       </c>
       <c r="G20" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C20))*SQRT(E20*(1-E20)/C20 + (Params!$B$3/(2*C20))^2), 0)</f>
-        <v>0.25360133443506561</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H20" s="128">
         <f t="shared" si="1"/>
-        <v>0.28008775568998823</v>
+        <v>0.28455047772633968</v>
       </c>
       <c r="I20" s="128">
         <f t="shared" si="2"/>
-        <v>0.78729042456011944</v>
+        <v>0.4998273126787256</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="125">
         <v>20</v>
       </c>
-      <c r="B21" s="56">
-        <v>9012</v>
+      <c r="B21">
+        <v>9011</v>
       </c>
       <c r="C21" s="125">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D21" s="125">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="127" t="e">
+        <v>6</v>
+      </c>
+      <c r="E21" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="127" t="e">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="F21" s="127">
         <f>IFERROR((E21 + Params!$B$3^2/(2 * C21))/(1 + Params!$B$3^2/C21), NA())</f>
-        <v>#N/A</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G21" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C21))*SQRT(E21*(1-E21)/C21 + (Params!$B$3/(2*C21))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="128" t="e">
+        <v>0.25360133443506561</v>
+      </c>
+      <c r="H21" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" s="128" t="e">
+        <v>0.28008775568998823</v>
+      </c>
+      <c r="I21" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.78729042456011944</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="125">
         <v>20</v>
       </c>
-      <c r="B22" s="56">
-        <v>9013</v>
+      <c r="B22">
+        <v>9012</v>
       </c>
       <c r="C22" s="125">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D22" s="125">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="127" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="127" t="e">
+        <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" s="128" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="125">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>9013</v>
+      </c>
+      <c r="C23" s="125">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>75</v>
+      </c>
+      <c r="D23" s="125">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>28</v>
       </c>
-      <c r="E22" s="127">
+      <c r="E23" s="127">
         <f t="shared" si="0"/>
         <v>0.37333333333333335</v>
       </c>
-      <c r="F22" s="127">
-        <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
+      <c r="F23" s="127">
+        <f>IFERROR((E23 + Params!$B$3^2/(2 * C23))/(1 + Params!$B$3^2/C23), NA())</f>
         <v>0.37950523581459533</v>
       </c>
-      <c r="G22" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C22))*SQRT(E22*(1-E22)/C22 + (Params!$B$3/(2*C22))^2), 0)</f>
+      <c r="G23" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C23))*SQRT(E23*(1-E23)/C23 + (Params!$B$3/(2*C23))^2), 0)</f>
         <v>0.10694720446145395</v>
       </c>
-      <c r="H22" s="128">
+      <c r="H23" s="128">
         <f t="shared" si="1"/>
         <v>0.27255803135314138</v>
       </c>
-      <c r="I22" s="128">
+      <c r="I23" s="128">
         <f t="shared" si="2"/>
         <v>0.48645244027604928</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="125">
-        <v>20</v>
-      </c>
-      <c r="B23" s="56">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="125">
+        <v>20</v>
+      </c>
+      <c r="B24">
         <v>9014</v>
       </c>
-      <c r="C23" s="125">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+      <c r="C24" s="125">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="D23" s="125">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+      <c r="D24" s="125">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="127">
+      <c r="E24" s="127">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F23" s="127">
-        <f>IFERROR((E23 + Params!$B$3^2/(2 * C23))/(1 + Params!$B$3^2/C23), NA())</f>
+      <c r="F24" s="127">
+        <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
         <v>0.41555195243885962</v>
       </c>
-      <c r="G23" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C23))*SQRT(E23*(1-E23)/C23 + (Params!$B$3/(2*C23))^2), 0)</f>
+      <c r="G24" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), 0)</f>
         <v>0.27871019297733857</v>
       </c>
-      <c r="H23" s="128">
+      <c r="H24" s="128">
         <f t="shared" si="1"/>
         <v>0.13684175946152105</v>
       </c>
-      <c r="I23" s="128">
+      <c r="I24" s="128">
         <f t="shared" si="2"/>
         <v>0.69426214541619813</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="125">
-        <v>20</v>
-      </c>
-      <c r="B24" s="56">
-        <v>9015</v>
-      </c>
-      <c r="C24" s="125">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="125">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="127" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="127" t="e">
-        <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C24))*SQRT(E24*(1-E24)/C24 + (Params!$B$3/(2*C24))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="128" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I24" s="128" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="25" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="125">
         <v>20</v>
       </c>
-      <c r="B25" s="56">
-        <v>9016</v>
+      <c r="B25">
+        <v>9015</v>
       </c>
       <c r="C25" s="125">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D25" s="125">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>46</v>
-      </c>
-      <c r="E25" s="127">
+        <v>0</v>
+      </c>
+      <c r="E25" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0.61333333333333329</v>
-      </c>
-      <c r="F25" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="127" t="e">
         <f>IFERROR((E25 + Params!$B$3^2/(2 * C25))/(1 + Params!$B$3^2/C25), NA())</f>
-        <v>0.60781110479746725</v>
+        <v>#N/A</v>
       </c>
       <c r="G25" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C25))*SQRT(E25*(1-E25)/C25 + (Params!$B$3/(2*C25))^2), 0)</f>
-        <v>0.10763841747619295</v>
-      </c>
-      <c r="H25" s="128">
+        <v>0</v>
+      </c>
+      <c r="H25" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>0.50017268732127429</v>
-      </c>
-      <c r="I25" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.71544952227366021</v>
+        <v>#N/A</v>
       </c>
       <c r="AA25"/>
       <c r="AB25"/>
@@ -22487,184 +22485,184 @@
       <c r="A26" s="125">
         <v>20</v>
       </c>
-      <c r="B26" s="56">
-        <v>9017</v>
+      <c r="B26">
+        <v>9016</v>
       </c>
       <c r="C26" s="125">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D26" s="125">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E26" s="127">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="F26" s="127">
         <f>IFERROR((E26 + Params!$B$3^2/(2 * C26))/(1 + Params!$B$3^2/C26), NA())</f>
-        <v>0.35550803375332329</v>
+        <v>0.60781110479746725</v>
       </c>
       <c r="G26" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C26))*SQRT(E26*(1-E26)/C26 + (Params!$B$3/(2*C26))^2), 0)</f>
-        <v>0.24771874626711146</v>
+        <v>0.10763841747619295</v>
       </c>
       <c r="H26" s="128">
         <f t="shared" si="1"/>
-        <v>0.10778928748621183</v>
+        <v>0.50017268732127429</v>
       </c>
       <c r="I26" s="128">
         <f t="shared" si="2"/>
-        <v>0.60322678002043473</v>
+        <v>0.71544952227366021</v>
       </c>
       <c r="AC26" s="125"/>
       <c r="AD26" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ26, $B$1:$F1023, 5), "")</f>
         <v/>
       </c>
-      <c r="AE26" s="128">
+      <c r="AE26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA26, $B$1:$F1023, 5), "")</f>
-        <v>8.3830822924320328E-2</v>
-      </c>
-      <c r="AF26" s="128">
+        <v/>
+      </c>
+      <c r="AF26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB26, $B$1:$F1023, 5), "")</f>
-        <v>6.8176725425754411E-2</v>
-      </c>
-      <c r="AG26" s="128">
+        <v/>
+      </c>
+      <c r="AG26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC26, $B$1:$F1023, 5), "")</f>
-        <v>0.23156931580519868</v>
+        <v/>
       </c>
       <c r="AH26" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD26, $B$1:$F1023, 5), "")</f>
-        <v>0.19863611315209401</v>
-      </c>
-      <c r="AI26" s="142">
+        <v>0.34397536891157215</v>
+      </c>
+      <c r="AI26" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE26, $B$1:$F1023, 5), "")</f>
-        <v>0.1699347905951506</v>
-      </c>
-      <c r="AJ26" s="128">
+        <v/>
+      </c>
+      <c r="AJ26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BF26, $B$1:$F1023, 5), "")</f>
-        <v>8.3830822924320328E-2</v>
-      </c>
-      <c r="AK26" s="128">
+        <v/>
+      </c>
+      <c r="AK26" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG26, $B$1:$F1023, 5), "")</f>
-        <v>8.3830822924320328E-2</v>
+        <v/>
       </c>
       <c r="AN26" s="125"/>
       <c r="AO26" s="131" t="e">
-        <f>MATCH($AN26 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>64</v>
-      </c>
-      <c r="AQ26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>61</v>
-      </c>
-      <c r="AR26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>60</v>
+        <f>MATCH($AN26 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AS26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>62</v>
-      </c>
-      <c r="AT26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>63</v>
-      </c>
-      <c r="AU26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>65</v>
-      </c>
-      <c r="AV26" s="125">
-        <f>MATCH($AN26 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>66</v>
+        <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>102</v>
+      </c>
+      <c r="AT26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV26" s="125" t="e">
+        <f>MATCH($AN26 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AY26" s="125"/>
       <c r="AZ26" s="131" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO26 - 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA26" s="125">
+      <c r="BA26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP26 - 1, 0)</f>
-        <v>10004</v>
-      </c>
-      <c r="BB26" s="125">
+        <v>#N/A</v>
+      </c>
+      <c r="BB26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ26 - 1, 0)</f>
-        <v>10001</v>
-      </c>
-      <c r="BC26" s="125">
+        <v>#N/A</v>
+      </c>
+      <c r="BC26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR26 - 1, 0)</f>
-        <v>10000</v>
+        <v>#N/A</v>
       </c>
       <c r="BD26" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS26 - 1, 0)</f>
-        <v>10002</v>
-      </c>
-      <c r="BE26" s="125">
+        <v>14002</v>
+      </c>
+      <c r="BE26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT26 - 1, 0)</f>
-        <v>10003</v>
-      </c>
-      <c r="BF26" s="125">
+        <v>#N/A</v>
+      </c>
+      <c r="BF26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU26 - 1, 0)</f>
-        <v>10005</v>
-      </c>
-      <c r="BG26" s="125">
+        <v>#N/A</v>
+      </c>
+      <c r="BG26" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV26 - 1, 0)</f>
-        <v>10006</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="125">
         <v>20</v>
       </c>
-      <c r="B27" s="56">
-        <v>9018</v>
+      <c r="B27">
+        <v>9017</v>
       </c>
       <c r="C27" s="125">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D27" s="125">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="127">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="F27" s="127">
         <f>IFERROR((E27 + Params!$B$3^2/(2 * C27))/(1 + Params!$B$3^2/C27), NA())</f>
-        <v>7.2821015720186622E-2</v>
+        <v>0.35550803375332329</v>
       </c>
       <c r="G27" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C27))*SQRT(E27*(1-E27)/C27 + (Params!$B$3/(2*C27))^2), 0)</f>
-        <v>6.1782363059360045E-2</v>
+        <v>0.24771874626711146</v>
       </c>
       <c r="H27" s="128">
         <f t="shared" si="1"/>
-        <v>1.1038652660826577E-2</v>
+        <v>0.10778928748621183</v>
       </c>
       <c r="I27" s="128">
         <f t="shared" si="2"/>
-        <v>0.13460337877954667</v>
+        <v>0.60322678002043473</v>
       </c>
       <c r="AA27"/>
       <c r="AB27"/>
       <c r="AC27" s="125">
         <v>2</v>
       </c>
-      <c r="AD27" s="128">
+      <c r="AD27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ27, $B$1:$F1024, 5), "")</f>
-        <v>5.5129500367376919E-2</v>
-      </c>
-      <c r="AE27" s="129">
+        <v/>
+      </c>
+      <c r="AE27" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA27, $B$1:$F1024, 5), "")</f>
-        <v>7.2821015720186622E-2</v>
+        <v/>
       </c>
       <c r="AF27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB27, $B$1:$F1024, 5), "")</f>
@@ -22682,9 +22680,9 @@
         <f ca="1">IFERROR(VLOOKUP(BE27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-      <c r="AJ27" s="128">
+      <c r="AJ27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BF27, $B$1:$F1024, 5), "")</f>
-        <v>0.21101606750664662</v>
+        <v/>
       </c>
       <c r="AK27" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG27, $B$1:$F1024, 5), "")</f>
@@ -22695,108 +22693,108 @@
       <c r="AN27" s="125">
         <v>2</v>
       </c>
-      <c r="AO27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>7</v>
+      <c r="AO27" s="125" t="e">
+        <f>MATCH($AN27 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP27" s="131">
-        <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>29</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>128</v>
       </c>
       <c r="AQ27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>23</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>122</v>
       </c>
       <c r="AR27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>20</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>119</v>
       </c>
       <c r="AS27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>26</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>125</v>
       </c>
       <c r="AT27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>35</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>134</v>
       </c>
       <c r="AU27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>41</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>140</v>
       </c>
       <c r="AV27" s="125">
-        <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>47</v>
+        <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>146</v>
       </c>
       <c r="AW27"/>
       <c r="AX27"/>
       <c r="AY27" s="125"/>
-      <c r="AZ27" s="125">
+      <c r="AZ27" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO27 - 1, 0)</f>
-        <v>7004</v>
+        <v>#N/A</v>
       </c>
       <c r="BA27" s="131">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP27 - 1, 0)</f>
-        <v>9018</v>
+        <v>15018</v>
       </c>
       <c r="BB27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ27 - 1, 0)</f>
-        <v>9012</v>
+        <v>15012</v>
       </c>
       <c r="BC27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR27 - 1, 0)</f>
-        <v>9009</v>
+        <v>15009</v>
       </c>
       <c r="BD27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS27 - 1, 0)</f>
-        <v>9015</v>
+        <v>15015</v>
       </c>
       <c r="BE27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT27 - 1, 0)</f>
-        <v>9024</v>
+        <v>15024</v>
       </c>
       <c r="BF27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU27 - 1, 0)</f>
-        <v>9030</v>
+        <v>15030</v>
       </c>
       <c r="BG27" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV27 - 1, 0)</f>
-        <v>9036</v>
+        <v>15036</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="125">
         <v>20</v>
       </c>
-      <c r="B28" s="56">
-        <v>9019</v>
+      <c r="B28">
+        <v>9018</v>
       </c>
       <c r="C28" s="125">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D28" s="125">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="127" t="e">
+        <v>2</v>
+      </c>
+      <c r="E28" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="127" t="e">
+        <v>0.04</v>
+      </c>
+      <c r="F28" s="127">
         <f>IFERROR((E28 + Params!$B$3^2/(2 * C28))/(1 + Params!$B$3^2/C28), NA())</f>
-        <v>#N/A</v>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="G28" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C28))*SQRT(E28*(1-E28)/C28 + (Params!$B$3/(2*C28))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="128" t="e">
+        <v>6.1782363059360045E-2</v>
+      </c>
+      <c r="H28" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I28" s="128" t="e">
+        <v>1.1038652660826577E-2</v>
+      </c>
+      <c r="I28" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.13460337877954667</v>
       </c>
       <c r="AA28" t="s">
         <v>43</v>
@@ -22807,37 +22805,37 @@
       <c r="AC28" s="125">
         <v>5</v>
       </c>
-      <c r="AD28" s="128">
+      <c r="AD28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ28, $B$1:$F1025, 5), "")</f>
-        <v>6.8176725425754411E-2</v>
+        <v/>
       </c>
       <c r="AE28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-      <c r="AF28" s="129">
+      <c r="AF28" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB28, $B$1:$F1025, 5), "")</f>
-        <v>0.18488571855392891</v>
-      </c>
-      <c r="AG28" s="128">
+        <v/>
+      </c>
+      <c r="AG28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC28, $B$1:$F1025, 5), "")</f>
-        <v>0.18930442430499786</v>
-      </c>
-      <c r="AH28" s="128">
+        <v/>
+      </c>
+      <c r="AH28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BD28, $B$1:$F1025, 5), "")</f>
-        <v>0.30880272264922948</v>
-      </c>
-      <c r="AI28" s="142">
+        <v/>
+      </c>
+      <c r="AI28" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE28, $B$1:$F1025, 5), "")</f>
-        <v>0.17883496742101909</v>
-      </c>
-      <c r="AJ28" s="128">
+        <v/>
+      </c>
+      <c r="AJ28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BF28, $B$1:$F1025, 5), "")</f>
-        <v>0.22744829304759534</v>
-      </c>
-      <c r="AK28" s="128">
+        <v/>
+      </c>
+      <c r="AK28" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG28, $B$1:$F1025, 5), "")</f>
-        <v>0.14957637677547969</v>
+        <v/>
       </c>
       <c r="AL28" t="str">
         <f>+AA28</f>
@@ -22850,37 +22848,37 @@
       <c r="AN28" s="125">
         <v>5</v>
       </c>
-      <c r="AO28" s="125">
-        <f>MATCH($AN28 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>5</v>
+      <c r="AO28" s="125" t="e">
+        <f>MATCH($AN28 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP28" s="125">
-        <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>30</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>129</v>
       </c>
       <c r="AQ28" s="132">
-        <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>15</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>114</v>
       </c>
       <c r="AR28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>12</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>111</v>
       </c>
       <c r="AS28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>18</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>117</v>
       </c>
       <c r="AT28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>36</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>135</v>
       </c>
       <c r="AU28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>42</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>141</v>
       </c>
       <c r="AV28" s="130">
-        <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>48</v>
+        <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>147</v>
       </c>
       <c r="AW28" t="str">
         <f>+AL28</f>
@@ -22893,45 +22891,45 @@
       <c r="AY28" s="125">
         <v>5</v>
       </c>
-      <c r="AZ28" s="125">
+      <c r="AZ28" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO28 - 1, 0)</f>
-        <v>7002</v>
+        <v>#N/A</v>
       </c>
       <c r="BA28" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP28 - 1, 0)</f>
-        <v>9019</v>
+        <v>15019</v>
       </c>
       <c r="BB28" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ28 - 1, 0)</f>
-        <v>9004</v>
+        <v>15004</v>
       </c>
       <c r="BC28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR28 - 1, 0)</f>
-        <v>9001</v>
+        <v>15001</v>
       </c>
       <c r="BD28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS28 - 1, 0)</f>
-        <v>9007</v>
+        <v>15007</v>
       </c>
       <c r="BE28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT28 - 1, 0)</f>
-        <v>9025</v>
+        <v>15025</v>
       </c>
       <c r="BF28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU28 - 1, 0)</f>
-        <v>9031</v>
+        <v>15031</v>
       </c>
       <c r="BG28" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV28 - 1, 0)</f>
-        <v>9037</v>
+        <v>15037</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="125">
         <v>20</v>
       </c>
-      <c r="B29" s="56">
-        <v>9020</v>
+      <c r="B29">
+        <v>9019</v>
       </c>
       <c r="C29" s="125">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -22970,37 +22968,37 @@
       <c r="AC29" s="125">
         <v>10</v>
       </c>
-      <c r="AD29" s="128">
+      <c r="AD29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ29, $B$1:$F1026, 5), "")</f>
-        <v>0.14004200921492455</v>
+        <v/>
       </c>
       <c r="AE29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
-      <c r="AF29" s="128">
+      <c r="AF29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB29, $B$1:$F1026, 5), "")</f>
-        <v>0.23710374364269049</v>
-      </c>
-      <c r="AG29" s="129">
+        <v/>
+      </c>
+      <c r="AG29" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC29, $B$1:$F1026, 5), "")</f>
-        <v>0.23156931580519868</v>
-      </c>
-      <c r="AH29" s="128">
+        <v/>
+      </c>
+      <c r="AH29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BD29, $B$1:$F1026, 5), "")</f>
-        <v>0.5</v>
-      </c>
-      <c r="AI29" s="142">
+        <v/>
+      </c>
+      <c r="AI29" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE29, $B$1:$F1026, 5), "")</f>
-        <v>0.44292353275428198</v>
-      </c>
-      <c r="AJ29" s="128">
+        <v/>
+      </c>
+      <c r="AJ29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BF29, $B$1:$F1026, 5), "")</f>
-        <v>0.53893595813605788</v>
-      </c>
-      <c r="AK29" s="128">
+        <v/>
+      </c>
+      <c r="AK29" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG29, $B$1:$F1026, 5), "")</f>
-        <v>0.22744829304759534</v>
+        <v/>
       </c>
       <c r="AL29" t="str">
         <f t="shared" ref="AL29:AL30" si="13">+AA29</f>
@@ -23013,37 +23011,37 @@
       <c r="AN29" s="125">
         <v>10</v>
       </c>
-      <c r="AO29" s="125">
-        <f>MATCH($AN29 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>3</v>
+      <c r="AO29" s="125" t="e">
+        <f>MATCH($AN29 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP29" s="125">
-        <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>31</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>130</v>
       </c>
       <c r="AQ29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>14</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>113</v>
       </c>
       <c r="AR29" s="132">
-        <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>11</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>110</v>
       </c>
       <c r="AS29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>17</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>116</v>
       </c>
       <c r="AT29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>37</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>136</v>
       </c>
       <c r="AU29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>43</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>142</v>
       </c>
       <c r="AV29" s="130">
-        <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>49</v>
+        <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>148</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" ref="AW29:AW30" si="14">+AL29</f>
@@ -23056,45 +23054,45 @@
       <c r="AY29" s="125">
         <v>10</v>
       </c>
-      <c r="AZ29" s="125">
+      <c r="AZ29" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO29 - 1, 0)</f>
-        <v>7000</v>
+        <v>#N/A</v>
       </c>
       <c r="BA29" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP29 - 1, 0)</f>
-        <v>9020</v>
+        <v>15020</v>
       </c>
       <c r="BB29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ29 - 1, 0)</f>
-        <v>9003</v>
+        <v>15003</v>
       </c>
       <c r="BC29" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR29 - 1, 0)</f>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="BD29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS29 - 1, 0)</f>
-        <v>9006</v>
+        <v>15006</v>
       </c>
       <c r="BE29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT29 - 1, 0)</f>
-        <v>9026</v>
+        <v>15026</v>
       </c>
       <c r="BF29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU29 - 1, 0)</f>
-        <v>9032</v>
+        <v>15032</v>
       </c>
       <c r="BG29" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV29 - 1, 0)</f>
-        <v>9038</v>
+        <v>15038</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="125">
         <v>20</v>
       </c>
-      <c r="B30" s="56">
-        <v>9021</v>
+      <c r="B30">
+        <v>9020</v>
       </c>
       <c r="C30" s="125">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23135,35 +23133,35 @@
       </c>
       <c r="AD30" s="128">
         <f ca="1">IFERROR(VLOOKUP(AZ30, $B$1:$F1027, 5), "")</f>
-        <v>0.16338328226733051</v>
+        <v>0.30930322866969934</v>
       </c>
       <c r="AE30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA30, $B$1:$F1027, 5), "")</f>
         <v/>
       </c>
-      <c r="AF30" s="128">
+      <c r="AF30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB30, $B$1:$F1027, 5), "")</f>
-        <v>0.18488571855392891</v>
-      </c>
-      <c r="AG30" s="128">
+        <v/>
+      </c>
+      <c r="AG30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC30, $B$1:$F1027, 5), "")</f>
-        <v>0.37162010755900804</v>
+        <v/>
       </c>
       <c r="AH30" s="129">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.42153700556242274</v>
+        <v>0.24495001020199958</v>
       </c>
       <c r="AI30" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.45560719214221934</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="AJ30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.53368909012505383</v>
-      </c>
-      <c r="AK30" s="128">
+        <v>0.37247500510099979</v>
+      </c>
+      <c r="AK30" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
-        <v>0.58444804756114044</v>
+        <v/>
       </c>
       <c r="AL30" t="str">
         <f t="shared" si="13"/>
@@ -23177,36 +23175,36 @@
         <v>20</v>
       </c>
       <c r="AO30" s="125">
-        <f>MATCH($AN30 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>4</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>92</v>
       </c>
       <c r="AP30" s="125">
-        <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>32</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>131</v>
       </c>
       <c r="AQ30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>16</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>115</v>
       </c>
       <c r="AR30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>13</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>112</v>
       </c>
       <c r="AS30" s="132">
-        <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>19</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>118</v>
       </c>
       <c r="AT30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>38</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>137</v>
       </c>
       <c r="AU30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>44</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>143</v>
       </c>
       <c r="AV30" s="130">
-        <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>50</v>
+        <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>149</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="14"/>
@@ -23221,43 +23219,43 @@
       </c>
       <c r="AZ30" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO30 - 1, 0)</f>
-        <v>7001</v>
+        <v>13002</v>
       </c>
       <c r="BA30" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP30 - 1, 0)</f>
-        <v>9021</v>
+        <v>15021</v>
       </c>
       <c r="BB30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ30 - 1, 0)</f>
-        <v>9005</v>
+        <v>15005</v>
       </c>
       <c r="BC30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR30 - 1, 0)</f>
-        <v>9002</v>
+        <v>15002</v>
       </c>
       <c r="BD30" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS30 - 1, 0)</f>
-        <v>9008</v>
+        <v>15008</v>
       </c>
       <c r="BE30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT30 - 1, 0)</f>
-        <v>9027</v>
+        <v>15027</v>
       </c>
       <c r="BF30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU30 - 1, 0)</f>
-        <v>9033</v>
+        <v>15033</v>
       </c>
       <c r="BG30" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV30 - 1, 0)</f>
-        <v>9039</v>
+        <v>15039</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="125">
         <v>20</v>
       </c>
-      <c r="B31" s="56">
-        <v>9022</v>
+      <c r="B31">
+        <v>9021</v>
       </c>
       <c r="C31" s="125">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23290,115 +23288,115 @@
       <c r="AC31" s="141">
         <v>50</v>
       </c>
-      <c r="AD31" s="142">
+      <c r="AD31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ31, $B$1:$F1028, 5), "")</f>
-        <v>0.22733743570903744</v>
+        <v/>
       </c>
       <c r="AE31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AF31" s="142">
+      <c r="AF31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB31, $B$1:$F1028, 5), "")</f>
-        <v>0.37950523581459533</v>
-      </c>
-      <c r="AG31" s="142">
+        <v/>
+      </c>
+      <c r="AG31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC31, $B$1:$F1028, 5), "")</f>
-        <v>0.39218889520253264</v>
+        <v/>
       </c>
       <c r="AH31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.60781110479746725</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="AI31" s="129">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.54439280785778066</v>
+        <v>0.589538981691069</v>
       </c>
       <c r="AJ31" s="142">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
-        <v>0.63835596221959856</v>
-      </c>
-      <c r="AK31" s="142">
+        <v>0.60160949439115585</v>
+      </c>
+      <c r="AK31" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
-        <v>0.45388134592680052</v>
+        <v/>
       </c>
       <c r="AN31" s="125">
         <v>50</v>
       </c>
-      <c r="AO31" s="125">
-        <f>MATCH($AN31 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>9</v>
+      <c r="AO31" s="125" t="e">
+        <f>MATCH($AN31 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP31" s="125">
-        <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>33</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>132</v>
       </c>
       <c r="AQ31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>24</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>123</v>
       </c>
       <c r="AR31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>21</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>120</v>
       </c>
       <c r="AS31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>27</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>126</v>
       </c>
       <c r="AT31" s="132">
-        <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>39</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>138</v>
       </c>
       <c r="AU31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>45</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>144</v>
       </c>
       <c r="AV31" s="130">
-        <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>51</v>
+        <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>150</v>
       </c>
       <c r="AY31" s="125">
         <v>50</v>
       </c>
-      <c r="AZ31" s="125">
+      <c r="AZ31" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO31 - 1, 0)</f>
-        <v>7006</v>
+        <v>#N/A</v>
       </c>
       <c r="BA31" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP31 - 1, 0)</f>
-        <v>9022</v>
+        <v>15022</v>
       </c>
       <c r="BB31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ31 - 1, 0)</f>
-        <v>9013</v>
+        <v>15013</v>
       </c>
       <c r="BC31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR31 - 1, 0)</f>
-        <v>9010</v>
+        <v>15010</v>
       </c>
       <c r="BD31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS31 - 1, 0)</f>
-        <v>9016</v>
+        <v>15016</v>
       </c>
       <c r="BE31" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT31 - 1, 0)</f>
-        <v>9028</v>
+        <v>15028</v>
       </c>
       <c r="BF31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU31 - 1, 0)</f>
-        <v>9034</v>
+        <v>15034</v>
       </c>
       <c r="BG31" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV31 - 1, 0)</f>
-        <v>9040</v>
+        <v>15040</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="125">
         <v>20</v>
       </c>
-      <c r="B32" s="56">
-        <v>9023</v>
+      <c r="B32">
+        <v>9022</v>
       </c>
       <c r="C32" s="125">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23431,115 +23429,115 @@
       <c r="AC32" s="125">
         <v>100</v>
       </c>
-      <c r="AD32" s="128">
+      <c r="AD32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ32, $B$1:$F1029, 5), "")</f>
-        <v>0.1699347905951506</v>
+        <v/>
       </c>
       <c r="AE32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA32, $B$1:$F1029, 5), "")</f>
         <v/>
       </c>
-      <c r="AF32" s="128">
+      <c r="AF32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB32, $B$1:$F1029, 5), "")</f>
-        <v>0.41555195243885962</v>
-      </c>
-      <c r="AG32" s="128">
+        <v/>
+      </c>
+      <c r="AG32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC32, $B$1:$F1029, 5), "")</f>
-        <v>0.53368909012505383</v>
+        <v/>
       </c>
       <c r="AH32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.35550803375332329</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="AI32" s="142">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.61680787440817342</v>
+        <v>0.55655085052479192</v>
       </c>
       <c r="AJ32" s="129">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.40713500341743192</v>
-      </c>
-      <c r="AK32" s="128">
+        <v>0.33034744842562436</v>
+      </c>
+      <c r="AK32" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
-        <v>0.41555195243885962</v>
+        <v/>
       </c>
       <c r="AN32" s="125">
         <v>100</v>
       </c>
-      <c r="AO32" s="125">
-        <f>MATCH($AN32 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>8</v>
+      <c r="AO32" s="125" t="e">
+        <f>MATCH($AN32 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP32" s="125">
-        <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>34</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>133</v>
       </c>
       <c r="AQ32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>25</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>124</v>
       </c>
       <c r="AR32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>22</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>121</v>
       </c>
       <c r="AS32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>28</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>127</v>
       </c>
       <c r="AT32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>40</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>139</v>
       </c>
       <c r="AU32" s="132">
-        <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>46</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>145</v>
       </c>
       <c r="AV32" s="130">
-        <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>52</v>
+        <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>151</v>
       </c>
       <c r="AY32" s="125">
         <v>100</v>
       </c>
-      <c r="AZ32" s="125">
+      <c r="AZ32" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO32 - 1, 0)</f>
-        <v>7005</v>
+        <v>#N/A</v>
       </c>
       <c r="BA32" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP32 - 1, 0)</f>
-        <v>9023</v>
+        <v>15023</v>
       </c>
       <c r="BB32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ32 - 1, 0)</f>
-        <v>9014</v>
+        <v>15014</v>
       </c>
       <c r="BC32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR32 - 1, 0)</f>
-        <v>9011</v>
+        <v>15011</v>
       </c>
       <c r="BD32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS32 - 1, 0)</f>
-        <v>9017</v>
+        <v>15017</v>
       </c>
       <c r="BE32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT32 - 1, 0)</f>
-        <v>9029</v>
+        <v>15029</v>
       </c>
       <c r="BF32" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU32 - 1, 0)</f>
-        <v>9035</v>
+        <v>15035</v>
       </c>
       <c r="BG32" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV32 - 1, 0)</f>
-        <v>9041</v>
+        <v>15041</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="125">
         <v>20</v>
       </c>
-      <c r="B33" s="56">
-        <v>9024</v>
+      <c r="B33">
+        <v>9023</v>
       </c>
       <c r="C33" s="125">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23572,187 +23570,187 @@
       <c r="AC33" s="125">
         <v>200</v>
       </c>
-      <c r="AD33" s="128">
+      <c r="AD33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ33, $B$1:$F1030, 5), "")</f>
-        <v>0.22733743570903744</v>
+        <v/>
       </c>
       <c r="AE33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-      <c r="AF33" s="128">
+      <c r="AF33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB33, $B$1:$F1030, 5), "")</f>
-        <v>0.33110390487771924</v>
-      </c>
-      <c r="AG33" s="128">
+        <v/>
+      </c>
+      <c r="AG33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC33, $B$1:$F1030, 5), "")</f>
-        <v>0.38319212559182658</v>
-      </c>
-      <c r="AH33" s="128">
+        <v/>
+      </c>
+      <c r="AH33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BD33, $B$1:$F1030, 5), "")</f>
-        <v>0.5722459831233383</v>
-      </c>
-      <c r="AI33" s="142">
+        <v/>
+      </c>
+      <c r="AI33" s="142" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE33, $B$1:$F1030, 5), "")</f>
-        <v>0.53893595813605788</v>
-      </c>
-      <c r="AJ33" s="128">
+        <v/>
+      </c>
+      <c r="AJ33" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(BF33, $B$1:$F1030, 5), "")</f>
-        <v>0.33034744842562436</v>
-      </c>
-      <c r="AK33" s="129">
+        <v/>
+      </c>
+      <c r="AK33" s="129" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG33, $B$1:$F1030, 5), "")</f>
-        <v>0.24665585731657882</v>
+        <v/>
       </c>
       <c r="AN33" s="125">
         <v>200</v>
       </c>
-      <c r="AO33" s="125">
-        <f>MATCH($AN33 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>10</v>
+      <c r="AO33" s="125" t="e">
+        <f>MATCH($AN33 &amp;"#" &amp; AO$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AO$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="AP33" s="125">
-        <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>54</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>153</v>
       </c>
       <c r="AQ33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>55</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>154</v>
       </c>
       <c r="AR33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>56</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>155</v>
       </c>
       <c r="AS33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>57</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>156</v>
       </c>
       <c r="AT33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>58</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>157</v>
       </c>
       <c r="AU33" s="130">
-        <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>59</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>158</v>
       </c>
       <c r="AV33" s="132">
-        <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>53</v>
+        <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
+        <v>152</v>
       </c>
       <c r="AY33" s="125">
         <v>200</v>
       </c>
-      <c r="AZ33" s="125">
+      <c r="AZ33" s="125" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AO33 - 1, 0)</f>
-        <v>7007</v>
+        <v>#N/A</v>
       </c>
       <c r="BA33" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP33 - 1, 0)</f>
-        <v>9043</v>
+        <v>15043</v>
       </c>
       <c r="BB33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ33 - 1, 0)</f>
-        <v>9044</v>
+        <v>15044</v>
       </c>
       <c r="BC33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR33 - 1, 0)</f>
-        <v>9045</v>
+        <v>15045</v>
       </c>
       <c r="BD33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS33 - 1, 0)</f>
-        <v>9046</v>
+        <v>15046</v>
       </c>
       <c r="BE33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT33 - 1, 0)</f>
-        <v>9047</v>
+        <v>15047</v>
       </c>
       <c r="BF33" s="130">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU33 - 1, 0)</f>
-        <v>9048</v>
+        <v>15048</v>
       </c>
       <c r="BG33" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV33 - 1, 0)</f>
-        <v>9042</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="125">
         <v>20</v>
       </c>
-      <c r="B34" s="56">
-        <v>9025</v>
+      <c r="B34">
+        <v>9024</v>
       </c>
       <c r="C34" s="125">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D34" s="125">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="127" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="127" t="e">
+        <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C34))*SQRT(E34*(1-E34)/C34 + (Params!$B$3/(2*C34))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="128" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="125">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>9025</v>
+      </c>
+      <c r="C35" s="125">
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>74</v>
+      </c>
+      <c r="D35" s="125">
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="E34" s="127">
+      <c r="E35" s="127">
         <f t="shared" si="0"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="F34" s="127">
-        <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
+      <c r="F35" s="127">
+        <f>IFERROR((E35 + Params!$B$3^2/(2 * C35))/(1 + Params!$B$3^2/C35), NA())</f>
         <v>0.17883496742101909</v>
       </c>
-      <c r="G34" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C34))*SQRT(E34*(1-E34)/C34 + (Params!$B$3/(2*C34))^2), 0)</f>
+      <c r="G35" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C35))*SQRT(E35*(1-E35)/C35 + (Params!$B$3/(2*C35))^2), 0)</f>
         <v>8.356526699179713E-2</v>
       </c>
-      <c r="H34" s="128">
+      <c r="H35" s="128">
         <f t="shared" si="1"/>
         <v>9.5269700429221962E-2</v>
       </c>
-      <c r="I34" s="128">
+      <c r="I35" s="128">
         <f t="shared" si="2"/>
         <v>0.26240023441281624</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="125">
-        <v>20</v>
-      </c>
-      <c r="B35" s="56">
-        <v>9026</v>
-      </c>
-      <c r="C35" s="125">
-        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>75</v>
-      </c>
-      <c r="D35" s="125">
-        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>33</v>
-      </c>
-      <c r="E35" s="127">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="F35" s="127">
-        <f>IFERROR((E35 + Params!$B$3^2/(2 * C35))/(1 + Params!$B$3^2/C35), NA())</f>
-        <v>0.44292353275428198</v>
-      </c>
-      <c r="G35" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C35))*SQRT(E35*(1-E35)/C35 + (Params!$B$3/(2*C35))^2), 0)</f>
-        <v>0.10961077298643349</v>
-      </c>
-      <c r="H35" s="128">
-        <f t="shared" si="1"/>
-        <v>0.33331275976784847</v>
-      </c>
-      <c r="I35" s="128">
-        <f t="shared" si="2"/>
-        <v>0.55253430574071549</v>
-      </c>
-    </row>
     <row r="36" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="125">
         <v>20</v>
       </c>
-      <c r="B36" s="56">
-        <v>9027</v>
+      <c r="B36">
+        <v>9026</v>
       </c>
       <c r="C36" s="125">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23760,35 +23758,35 @@
       </c>
       <c r="D36" s="125">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="127">
         <f t="shared" si="0"/>
-        <v>0.45333333333333331</v>
+        <v>0.44</v>
       </c>
       <c r="F36" s="127">
         <f>IFERROR((E36 + Params!$B$3^2/(2 * C36))/(1 + Params!$B$3^2/C36), NA())</f>
-        <v>0.45560719214221934</v>
+        <v>0.44292353275428198</v>
       </c>
       <c r="G36" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C36))*SQRT(E36*(1-E36)/C36 + (Params!$B$3/(2*C36))^2), 0)</f>
-        <v>0.10991107086629816</v>
+        <v>0.10961077298643349</v>
       </c>
       <c r="H36" s="128">
         <f t="shared" si="1"/>
-        <v>0.3456961212759212</v>
+        <v>0.33331275976784847</v>
       </c>
       <c r="I36" s="128">
         <f t="shared" si="2"/>
-        <v>0.56551826300851749</v>
+        <v>0.55253430574071549</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="125">
         <v>20</v>
       </c>
-      <c r="B37" s="56">
-        <v>9028</v>
+      <c r="B37">
+        <v>9027</v>
       </c>
       <c r="C37" s="125">
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -23796,15 +23794,15 @@
       </c>
       <c r="D37" s="125">
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E37" s="127">
         <f t="shared" si="0"/>
-        <v>0.54666666666666663</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="F37" s="127">
         <f>IFERROR((E37 + Params!$B$3^2/(2 * C37))/(1 + Params!$B$3^2/C37), NA())</f>
-        <v>0.54439280785778066</v>
+        <v>0.45560719214221934</v>
       </c>
       <c r="G37" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C37))*SQRT(E37*(1-E37)/C37 + (Params!$B$3/(2*C37))^2), 0)</f>
@@ -23812,47 +23810,47 @@
       </c>
       <c r="H37" s="128">
         <f t="shared" si="1"/>
-        <v>0.43448173699148251</v>
+        <v>0.3456961212759212</v>
       </c>
       <c r="I37" s="128">
         <f t="shared" si="2"/>
-        <v>0.6543038787240788</v>
+        <v>0.56551826300851749</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="125">
         <v>20</v>
       </c>
-      <c r="B38" s="56">
-        <v>9029</v>
+      <c r="B38">
+        <v>9028</v>
       </c>
       <c r="C38" s="125">
         <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D38" s="125">
         <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E38" s="127">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.54666666666666663</v>
       </c>
       <c r="F38" s="127">
         <f>IFERROR((E38 + Params!$B$3^2/(2 * C38))/(1 + Params!$B$3^2/C38), NA())</f>
-        <v>0.61680787440817342</v>
+        <v>0.54439280785778066</v>
       </c>
       <c r="G38" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C38))*SQRT(E38*(1-E38)/C38 + (Params!$B$3/(2*C38))^2), 0)</f>
-        <v>0.26261052690908371</v>
+        <v>0.10991107086629816</v>
       </c>
       <c r="H38" s="128">
         <f t="shared" si="1"/>
-        <v>0.35419734749908971</v>
+        <v>0.43448173699148251</v>
       </c>
       <c r="I38" s="128">
         <f t="shared" si="2"/>
-        <v>0.87941840131725713</v>
+        <v>0.6543038787240788</v>
       </c>
       <c r="AA38" s="125" t="s">
         <v>10</v>
@@ -23886,36 +23884,36 @@
       <c r="A39" s="125">
         <v>20</v>
       </c>
-      <c r="B39" s="56">
-        <v>9030</v>
+      <c r="B39">
+        <v>9029</v>
       </c>
       <c r="C39" s="125">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="125">
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E39" s="127">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F39" s="127">
         <f>IFERROR((E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39), NA())</f>
-        <v>0.21101606750664662</v>
+        <v>0.61680787440817342</v>
       </c>
       <c r="G39" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C39))*SQRT(E39*(1-E39)/C39 + (Params!$B$3/(2*C39))^2), 0)</f>
-        <v>0.19314031799092549</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H39" s="128">
         <f t="shared" si="1"/>
-        <v>1.7875749515721129E-2</v>
+        <v>0.35419734749908971</v>
       </c>
       <c r="I39" s="128">
         <f t="shared" si="2"/>
-        <v>0.4041563854975721</v>
+        <v>0.87941840131725713</v>
       </c>
       <c r="AA39" s="125">
         <v>20</v>
@@ -23949,12 +23947,12 @@
       <c r="A40" s="125">
         <v>20</v>
       </c>
-      <c r="B40" s="56">
-        <v>9031</v>
+      <c r="B40">
+        <v>9030</v>
       </c>
       <c r="C40" s="125">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="125">
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -23962,23 +23960,23 @@
       </c>
       <c r="E40" s="127">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="F40" s="127">
         <f>IFERROR((E40 + Params!$B$3^2/(2 * C40))/(1 + Params!$B$3^2/C40), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.21101606750664662</v>
       </c>
       <c r="G40" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C40))*SQRT(E40*(1-E40)/C40 + (Params!$B$3/(2*C40))^2), 0)</f>
-        <v>0.20755792172046483</v>
+        <v>0.19314031799092549</v>
       </c>
       <c r="H40" s="128">
         <f t="shared" si="1"/>
-        <v>1.9890371327130507E-2</v>
+        <v>1.7875749515721129E-2</v>
       </c>
       <c r="I40" s="128">
         <f t="shared" si="2"/>
-        <v>0.43500621476806017</v>
+        <v>0.4041563854975721</v>
       </c>
       <c r="AA40" s="125">
         <v>20</v>
@@ -24012,8 +24010,8 @@
       <c r="A41" s="125">
         <v>20</v>
       </c>
-      <c r="B41" s="56">
-        <v>9032</v>
+      <c r="B41">
+        <v>9031</v>
       </c>
       <c r="C41" s="125">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -24021,27 +24019,27 @@
       </c>
       <c r="D41" s="125">
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41" s="127">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F41" s="127">
         <f>IFERROR((E41 + Params!$B$3^2/(2 * C41))/(1 + Params!$B$3^2/C41), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G41" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C41))*SQRT(E41*(1-E41)/C41 + (Params!$B$3/(2*C41))^2), 0)</f>
-        <v>0.27228861239202817</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H41" s="128">
         <f t="shared" si="1"/>
-        <v>0.26664734574402971</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I41" s="128">
         <f t="shared" si="2"/>
-        <v>0.81122457052808605</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA41" s="125">
         <v>20</v>
@@ -24082,36 +24080,36 @@
       <c r="A42" s="125">
         <v>20</v>
       </c>
-      <c r="B42" s="56">
-        <v>9033</v>
+      <c r="B42">
+        <v>9032</v>
       </c>
       <c r="C42" s="125">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="125">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="127">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F42" s="127">
         <f>IFERROR((E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42), NA())</f>
-        <v>0.53368909012505383</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="G42" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C42))*SQRT(E42*(1-E42)/C42 + (Params!$B$3/(2*C42))^2), 0)</f>
-        <v>0.25360133443506561</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H42" s="128">
         <f t="shared" si="1"/>
-        <v>0.28008775568998823</v>
+        <v>0.26664734574402971</v>
       </c>
       <c r="I42" s="128">
         <f t="shared" si="2"/>
-        <v>0.78729042456011944</v>
+        <v>0.81122457052808605</v>
       </c>
       <c r="AA42" s="125">
         <v>20</v>
@@ -24145,36 +24143,36 @@
       <c r="A43" s="125">
         <v>20</v>
       </c>
-      <c r="B43" s="56">
-        <v>9034</v>
+      <c r="B43">
+        <v>9033</v>
       </c>
       <c r="C43" s="125">
         <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D43" s="125">
         <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="127">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F43" s="127">
         <f>IFERROR((E43 + Params!$B$3^2/(2 * C43))/(1 + Params!$B$3^2/C43), NA())</f>
-        <v>0.63835596221959856</v>
+        <v>0.53368909012505383</v>
       </c>
       <c r="G43" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C43))*SQRT(E43*(1-E43)/C43 + (Params!$B$3/(2*C43))^2), 0)</f>
-        <v>0.27942687207138589</v>
+        <v>0.25360133443506561</v>
       </c>
       <c r="H43" s="128">
         <f t="shared" si="1"/>
-        <v>0.35892909014821267</v>
+        <v>0.28008775568998823</v>
       </c>
       <c r="I43" s="128">
         <f t="shared" si="2"/>
-        <v>0.9177828342909844</v>
+        <v>0.78729042456011944</v>
       </c>
       <c r="AA43" s="125">
         <v>20</v>
@@ -24208,36 +24206,36 @@
       <c r="A44" s="125">
         <v>20</v>
       </c>
-      <c r="B44" s="56">
-        <v>9035</v>
+      <c r="B44">
+        <v>9034</v>
       </c>
       <c r="C44" s="125">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D44" s="125">
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E44" s="127">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F44" s="127">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
-        <v>0.40713500341743192</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="G44" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C44))*SQRT(E44*(1-E44)/C44 + (Params!$B$3/(2*C44))^2), 0)</f>
-        <v>0.13105310555497438</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H44" s="128">
         <f t="shared" si="1"/>
-        <v>0.27608189786245751</v>
+        <v>0.35892909014821267</v>
       </c>
       <c r="I44" s="128">
         <f t="shared" si="2"/>
-        <v>0.53818810897240632</v>
+        <v>0.9177828342909844</v>
       </c>
       <c r="AA44" s="125">
         <v>20</v>
@@ -24271,36 +24269,36 @@
       <c r="A45" s="125">
         <v>20</v>
       </c>
-      <c r="B45" s="56">
-        <v>9036</v>
+      <c r="B45">
+        <v>9035</v>
       </c>
       <c r="C45" s="125">
         <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D45" s="125">
         <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="127" t="e">
+        <v>20</v>
+      </c>
+      <c r="E45" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F45" s="127" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="127">
         <f>IFERROR((E45 + Params!$B$3^2/(2 * C45))/(1 + Params!$B$3^2/C45), NA())</f>
-        <v>#N/A</v>
+        <v>0.40713500341743192</v>
       </c>
       <c r="G45" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C45))*SQRT(E45*(1-E45)/C45 + (Params!$B$3/(2*C45))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="128" t="e">
+        <v>0.13105310555497438</v>
+      </c>
+      <c r="H45" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I45" s="128" t="e">
+        <v>0.27608189786245751</v>
+      </c>
+      <c r="I45" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.53818810897240632</v>
       </c>
       <c r="AA45" s="125">
         <v>20</v>
@@ -24334,36 +24332,36 @@
       <c r="A46" s="125">
         <v>20</v>
       </c>
-      <c r="B46" s="56">
-        <v>9037</v>
+      <c r="B46">
+        <v>9036</v>
       </c>
       <c r="C46" s="125">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D46" s="125">
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="127">
+      <c r="E46" s="127" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F46" s="127" t="e">
         <f>IFERROR((E46 + Params!$B$3^2/(2 * C46))/(1 + Params!$B$3^2/C46), NA())</f>
-        <v>0.14957637677547969</v>
+        <v>#N/A</v>
       </c>
       <c r="G46" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C46))*SQRT(E46*(1-E46)/C46 + (Params!$B$3/(2*C46))^2), 0)</f>
-        <v>0.14957637677547969</v>
-      </c>
-      <c r="H46" s="128">
+        <v>0</v>
+      </c>
+      <c r="H46" s="128" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I46" s="128" t="e">
         <f t="shared" si="2"/>
-        <v>0.29915275355095938</v>
+        <v>#N/A</v>
       </c>
       <c r="AA46" s="125">
         <v>20</v>
@@ -24397,8 +24395,8 @@
       <c r="A47" s="125">
         <v>20</v>
       </c>
-      <c r="B47" s="56">
-        <v>9038</v>
+      <c r="B47">
+        <v>9037</v>
       </c>
       <c r="C47" s="125">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -24406,27 +24404,27 @@
       </c>
       <c r="D47" s="125">
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="127">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="F47" s="127">
         <f>IFERROR((E47 + Params!$B$3^2/(2 * C47))/(1 + Params!$B$3^2/C47), NA())</f>
-        <v>0.22744829304759534</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="G47" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C47))*SQRT(E47*(1-E47)/C47 + (Params!$B$3/(2*C47))^2), 0)</f>
-        <v>0.20755792172046483</v>
+        <v>0.14957637677547969</v>
       </c>
       <c r="H47" s="128">
         <f t="shared" si="1"/>
-        <v>1.9890371327130507E-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="128">
         <f t="shared" si="2"/>
-        <v>0.43500621476806017</v>
+        <v>0.29915275355095938</v>
       </c>
       <c r="AA47" s="125">
         <v>20</v>
@@ -24460,36 +24458,36 @@
       <c r="A48" s="125">
         <v>20</v>
       </c>
-      <c r="B48" s="56">
-        <v>9039</v>
+      <c r="B48">
+        <v>9038</v>
       </c>
       <c r="C48" s="125">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="125">
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48" s="127">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F48" s="127">
         <f>IFERROR((E48 + Params!$B$3^2/(2 * C48))/(1 + Params!$B$3^2/C48), NA())</f>
-        <v>0.58444804756114044</v>
+        <v>0.22744829304759534</v>
       </c>
       <c r="G48" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C48))*SQRT(E48*(1-E48)/C48 + (Params!$B$3/(2*C48))^2), 0)</f>
-        <v>0.27871019297733857</v>
+        <v>0.20755792172046483</v>
       </c>
       <c r="H48" s="128">
         <f t="shared" si="1"/>
-        <v>0.30573785458380187</v>
+        <v>1.9890371327130507E-2</v>
       </c>
       <c r="I48" s="128">
         <f t="shared" si="2"/>
-        <v>0.863158240538479</v>
+        <v>0.43500621476806017</v>
       </c>
       <c r="AA48" s="125">
         <v>20</v>
@@ -24523,36 +24521,36 @@
       <c r="A49" s="125">
         <v>20</v>
       </c>
-      <c r="B49" s="56">
-        <v>9040</v>
+      <c r="B49">
+        <v>9039</v>
       </c>
       <c r="C49" s="125">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="125">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" s="127">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.625</v>
       </c>
       <c r="F49" s="127">
         <f>IFERROR((E49 + Params!$B$3^2/(2 * C49))/(1 + Params!$B$3^2/C49), NA())</f>
-        <v>0.45388134592680052</v>
+        <v>0.58444804756114044</v>
       </c>
       <c r="G49" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C49))*SQRT(E49*(1-E49)/C49 + (Params!$B$3/(2*C49))^2), 0)</f>
-        <v>0.29566442366417367</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="H49" s="128">
         <f t="shared" si="1"/>
-        <v>0.15821692226262685</v>
+        <v>0.30573785458380187</v>
       </c>
       <c r="I49" s="128">
         <f t="shared" si="2"/>
-        <v>0.74954576959097419</v>
+        <v>0.863158240538479</v>
       </c>
       <c r="AA49" s="125">
         <v>20</v>
@@ -24586,12 +24584,12 @@
       <c r="A50" s="125">
         <v>20</v>
       </c>
-      <c r="B50" s="56">
-        <v>9041</v>
+      <c r="B50">
+        <v>9040</v>
       </c>
       <c r="C50" s="125">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="125">
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
@@ -24599,31 +24597,31 @@
       </c>
       <c r="E50" s="127">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F50" s="127">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
-        <v>0.41555195243885962</v>
+        <v>0.45388134592680052</v>
       </c>
       <c r="G50" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C50))*SQRT(E50*(1-E50)/C50 + (Params!$B$3/(2*C50))^2), 0)</f>
-        <v>0.27871019297733857</v>
+        <v>0.29566442366417367</v>
       </c>
       <c r="H50" s="128">
         <f t="shared" si="1"/>
-        <v>0.13684175946152105</v>
+        <v>0.15821692226262685</v>
       </c>
       <c r="I50" s="128">
         <f t="shared" si="2"/>
-        <v>0.69426214541619813</v>
+        <v>0.74954576959097419</v>
       </c>
     </row>
     <row r="51" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="125">
         <v>20</v>
       </c>
-      <c r="B51" s="56">
-        <v>9042</v>
+      <c r="B51">
+        <v>9041</v>
       </c>
       <c r="C51" s="125">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -24631,162 +24629,162 @@
       </c>
       <c r="D51" s="125">
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="127">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F51" s="127">
         <f>IFERROR((E51 + Params!$B$3^2/(2 * C51))/(1 + Params!$B$3^2/C51), NA())</f>
-        <v>0.24665585731657882</v>
+        <v>0.41555195243885962</v>
       </c>
       <c r="G51" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C51))*SQRT(E51*(1-E51)/C51 + (Params!$B$3/(2*C51))^2), 0)</f>
-        <v>0.22423894845328268</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="H51" s="128">
         <f t="shared" si="1"/>
-        <v>2.2416908863296142E-2</v>
+        <v>0.13684175946152105</v>
       </c>
       <c r="I51" s="128">
         <f t="shared" si="2"/>
-        <v>0.47089480576986154</v>
+        <v>0.69426214541619813</v>
       </c>
     </row>
     <row r="52" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="125">
         <v>20</v>
       </c>
-      <c r="B52" s="56">
-        <v>9043</v>
+      <c r="B52">
+        <v>9042</v>
       </c>
       <c r="C52" s="125">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D52" s="125">
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="127" t="e">
+        <v>1</v>
+      </c>
+      <c r="E52" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="127" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="F52" s="127">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
-        <v>#N/A</v>
+        <v>0.24665585731657882</v>
       </c>
       <c r="G52" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C52))*SQRT(E52*(1-E52)/C52 + (Params!$B$3/(2*C52))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="128" t="e">
+        <v>0.22423894845328268</v>
+      </c>
+      <c r="H52" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I52" s="128" t="e">
+        <v>2.2416908863296142E-2</v>
+      </c>
+      <c r="I52" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.47089480576986154</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="125">
         <v>20</v>
       </c>
-      <c r="B53" s="56">
-        <v>9044</v>
+      <c r="B53">
+        <v>9043</v>
       </c>
       <c r="C53" s="125">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D53" s="125">
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="127" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="127" t="e">
+        <f>IFERROR((E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G53" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C53))*SQRT(E53*(1-E53)/C53 + (Params!$B$3/(2*C53))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I53" s="128" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA53" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB53" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC53" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD53" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE53" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF53" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG53" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH53" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI53" s="125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="125">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>9044</v>
+      </c>
+      <c r="C54" s="125">
+        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>8</v>
+      </c>
+      <c r="D54" s="125">
+        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E53" s="127">
+      <c r="E54" s="127">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F53" s="127">
-        <f>IFERROR((E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53), NA())</f>
+      <c r="F54" s="127">
+        <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
         <v>0.33110390487771924</v>
       </c>
-      <c r="G53" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C53))*SQRT(E53*(1-E53)/C53 + (Params!$B$3/(2*C53))^2), 0)</f>
+      <c r="G54" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), 0)</f>
         <v>0.2596262160196916</v>
       </c>
-      <c r="H53" s="128">
+      <c r="H54" s="128">
         <f t="shared" si="1"/>
         <v>7.1477688858027633E-2</v>
       </c>
-      <c r="I53" s="128">
+      <c r="I54" s="128">
         <f t="shared" si="2"/>
         <v>0.59073012089741084</v>
-      </c>
-      <c r="AA53" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB53" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC53" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD53" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE53" s="125" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF53" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG53" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH53" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI53" s="125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="125">
-        <v>20</v>
-      </c>
-      <c r="B54" s="56">
-        <v>9045</v>
-      </c>
-      <c r="C54" s="125">
-        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
-      </c>
-      <c r="D54" s="125">
-        <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E54" s="127">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F54" s="127">
-        <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
-        <v>0.38319212559182658</v>
-      </c>
-      <c r="G54" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C54))*SQRT(E54*(1-E54)/C54 + (Params!$B$3/(2*C54))^2), 0)</f>
-        <v>0.26261052690908371</v>
-      </c>
-      <c r="H54" s="128">
-        <f t="shared" si="1"/>
-        <v>0.12058159868274287</v>
-      </c>
-      <c r="I54" s="128">
-        <f t="shared" si="2"/>
-        <v>0.64580265250091029</v>
       </c>
       <c r="AA54" s="125"/>
       <c r="AB54" s="133"/>
@@ -24820,36 +24818,36 @@
       <c r="A55" s="125">
         <v>20</v>
       </c>
-      <c r="B55" s="56">
-        <v>9046</v>
+      <c r="B55">
+        <v>9045</v>
       </c>
       <c r="C55" s="125">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="125">
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="127">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F55" s="127">
         <f>IFERROR((E55 + Params!$B$3^2/(2 * C55))/(1 + Params!$B$3^2/C55), NA())</f>
-        <v>0.5722459831233383</v>
+        <v>0.38319212559182658</v>
       </c>
       <c r="G55" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C55))*SQRT(E55*(1-E55)/C55 + (Params!$B$3/(2*C55))^2), 0)</f>
-        <v>0.25957643567315197</v>
+        <v>0.26261052690908371</v>
       </c>
       <c r="H55" s="128">
         <f t="shared" si="1"/>
-        <v>0.31266954745018632</v>
+        <v>0.12058159868274287</v>
       </c>
       <c r="I55" s="128">
         <f t="shared" si="2"/>
-        <v>0.83182241879649021</v>
+        <v>0.64580265250091029</v>
       </c>
       <c r="AA55" s="125"/>
       <c r="AB55" s="133"/>
@@ -24883,36 +24881,36 @@
       <c r="A56" s="125">
         <v>20</v>
       </c>
-      <c r="B56" s="56">
-        <v>9047</v>
+      <c r="B56">
+        <v>9046</v>
       </c>
       <c r="C56" s="125">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="125">
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="127">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="F56" s="127">
         <f>IFERROR((E56 + Params!$B$3^2/(2 * C56))/(1 + Params!$B$3^2/C56), NA())</f>
-        <v>0.53893595813605788</v>
+        <v>0.5722459831233383</v>
       </c>
       <c r="G56" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C56))*SQRT(E56*(1-E56)/C56 + (Params!$B$3/(2*C56))^2), 0)</f>
-        <v>0.27228861239202817</v>
+        <v>0.25957643567315197</v>
       </c>
       <c r="H56" s="128">
         <f t="shared" si="1"/>
-        <v>0.26664734574402971</v>
+        <v>0.31266954745018632</v>
       </c>
       <c r="I56" s="128">
         <f t="shared" si="2"/>
-        <v>0.81122457052808605</v>
+        <v>0.83182241879649021</v>
       </c>
       <c r="AA56" s="125"/>
       <c r="AB56" s="133"/>
@@ -24953,36 +24951,36 @@
       <c r="A57" s="125">
         <v>20</v>
       </c>
-      <c r="B57" s="56">
-        <v>9048</v>
+      <c r="B57">
+        <v>9047</v>
       </c>
       <c r="C57" s="125">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D57" s="125">
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" s="127">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F57" s="127">
         <f>IFERROR((E57 + Params!$B$3^2/(2 * C57))/(1 + Params!$B$3^2/C57), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="G57" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C57))*SQRT(E57*(1-E57)/C57 + (Params!$B$3/(2*C57))^2), 0)</f>
-        <v>0.29412428745583691</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H57" s="128">
         <f t="shared" si="1"/>
-        <v>3.6223160969787449E-2</v>
+        <v>0.26664734574402971</v>
       </c>
       <c r="I57" s="128">
         <f t="shared" si="2"/>
-        <v>0.62447173588146132</v>
+        <v>0.81122457052808605</v>
       </c>
       <c r="AA57" s="125"/>
       <c r="AB57" s="133"/>
@@ -25016,36 +25014,36 @@
       <c r="A58" s="125">
         <v>20</v>
       </c>
-      <c r="B58" s="56">
-        <v>10000</v>
+      <c r="B58">
+        <v>9048</v>
       </c>
       <c r="C58" s="125">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D58" s="125">
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E58" s="127">
         <f t="shared" si="0"/>
-        <v>0.20512820512820512</v>
+        <v>0.2</v>
       </c>
       <c r="F58" s="127">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
-        <v>0.23156931580519868</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G58" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C58))*SQRT(E58*(1-E58)/C58 + (Params!$B$3/(2*C58))^2), 0)</f>
-        <v>0.12377341382608752</v>
+        <v>0.29412428745583691</v>
       </c>
       <c r="H58" s="128">
         <f t="shared" si="1"/>
-        <v>0.10779590197911117</v>
+        <v>3.6223160969787449E-2</v>
       </c>
       <c r="I58" s="128">
         <f t="shared" si="2"/>
-        <v>0.35534272963128621</v>
+        <v>0.62447173588146132</v>
       </c>
       <c r="AA58" s="125"/>
       <c r="AB58" s="133"/>
@@ -25079,8 +25077,8 @@
       <c r="A59" s="125">
         <v>20</v>
       </c>
-      <c r="B59" s="56">
-        <v>10001</v>
+      <c r="B59">
+        <v>10000</v>
       </c>
       <c r="C59" s="125">
         <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25088,27 +25086,27 @@
       </c>
       <c r="D59" s="125">
         <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59" s="127">
         <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="F59" s="127">
         <f>IFERROR((E59 + Params!$B$3^2/(2 * C59))/(1 + Params!$B$3^2/C59), NA())</f>
-        <v>6.8176725425754411E-2</v>
+        <v>0.23156931580519868</v>
       </c>
       <c r="G59" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C59))*SQRT(E59*(1-E59)/C59 + (Params!$B$3/(2*C59))^2), 0)</f>
-        <v>6.3636139360517041E-2</v>
+        <v>0.12377341382608752</v>
       </c>
       <c r="H59" s="128">
         <f t="shared" si="1"/>
-        <v>4.5405860652373703E-3</v>
+        <v>0.10779590197911117</v>
       </c>
       <c r="I59" s="128">
         <f t="shared" si="2"/>
-        <v>0.13181286478627147</v>
+        <v>0.35534272963128621</v>
       </c>
       <c r="AA59" s="125"/>
       <c r="AB59" s="133"/>
@@ -25142,36 +25140,36 @@
       <c r="A60" s="125">
         <v>20</v>
       </c>
-      <c r="B60" s="56">
-        <v>10002</v>
+      <c r="B60">
+        <v>10001</v>
       </c>
       <c r="C60" s="125">
         <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D60" s="125">
         <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" s="127">
         <f t="shared" si="0"/>
-        <v>0.16129032258064516</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="F60" s="127">
         <f>IFERROR((E60 + Params!$B$3^2/(2 * C60))/(1 + Params!$B$3^2/C60), NA())</f>
-        <v>0.19863611315209401</v>
+        <v>6.8176725425754411E-2</v>
       </c>
       <c r="G60" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C60))*SQRT(E60*(1-E60)/C60 + (Params!$B$3/(2*C60))^2), 0)</f>
-        <v>0.12771091409769464</v>
+        <v>6.3636139360517041E-2</v>
       </c>
       <c r="H60" s="128">
         <f t="shared" si="1"/>
-        <v>7.0925199054399368E-2</v>
+        <v>4.5405860652373703E-3</v>
       </c>
       <c r="I60" s="128">
         <f t="shared" si="2"/>
-        <v>0.32634702724978865</v>
+        <v>0.13181286478627147</v>
       </c>
       <c r="AA60" s="125"/>
       <c r="AB60" s="133"/>
@@ -25205,8 +25203,8 @@
       <c r="A61" s="125">
         <v>20</v>
       </c>
-      <c r="B61" s="56">
-        <v>10003</v>
+      <c r="B61">
+        <v>10002</v>
       </c>
       <c r="C61" s="125">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25214,27 +25212,27 @@
       </c>
       <c r="D61" s="125">
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="127">
         <f t="shared" si="0"/>
-        <v>0.12903225806451613</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F61" s="127">
         <f>IFERROR((E61 + Params!$B$3^2/(2 * C61))/(1 + Params!$B$3^2/C61), NA())</f>
-        <v>0.1699347905951506</v>
+        <v>0.19863611315209401</v>
       </c>
       <c r="G61" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C61))*SQRT(E61*(1-E61)/C61 + (Params!$B$3/(2*C61))^2), 0)</f>
-        <v>0.11859277894870295</v>
+        <v>0.12771091409769464</v>
       </c>
       <c r="H61" s="128">
         <f t="shared" si="1"/>
-        <v>5.1342011646447652E-2</v>
+        <v>7.0925199054399368E-2</v>
       </c>
       <c r="I61" s="128">
         <f t="shared" si="2"/>
-        <v>0.28852756954385356</v>
+        <v>0.32634702724978865</v>
       </c>
       <c r="AA61" s="125"/>
       <c r="AB61" s="133"/>
@@ -25268,8 +25266,8 @@
       <c r="A62" s="125">
         <v>20</v>
       </c>
-      <c r="B62" s="56">
-        <v>10004</v>
+      <c r="B62">
+        <v>10003</v>
       </c>
       <c r="C62" s="125">
         <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25277,27 +25275,27 @@
       </c>
       <c r="D62" s="125">
         <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62" s="127">
         <f t="shared" si="0"/>
-        <v>3.2258064516129031E-2</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F62" s="127">
         <f>IFERROR((E62 + Params!$B$3^2/(2 * C62))/(1 + Params!$B$3^2/C62), NA())</f>
-        <v>8.3830822924320328E-2</v>
+        <v>0.1699347905951506</v>
       </c>
       <c r="G62" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C62))*SQRT(E62*(1-E62)/C62 + (Params!$B$3/(2*C62))^2), 0)</f>
-        <v>7.8113748837375874E-2</v>
+        <v>0.11859277894870295</v>
       </c>
       <c r="H62" s="128">
         <f t="shared" si="1"/>
-        <v>5.7170740869444542E-3</v>
+        <v>5.1342011646447652E-2</v>
       </c>
       <c r="I62" s="128">
         <f t="shared" si="2"/>
-        <v>0.16194457176169619</v>
+        <v>0.28852756954385356</v>
       </c>
       <c r="AA62" s="125"/>
       <c r="AB62" s="133"/>
@@ -25331,8 +25329,8 @@
       <c r="A63" s="125">
         <v>20</v>
       </c>
-      <c r="B63" s="56">
-        <v>10005</v>
+      <c r="B63">
+        <v>10004</v>
       </c>
       <c r="C63" s="125">
         <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25394,36 +25392,36 @@
       <c r="A64" s="125">
         <v>20</v>
       </c>
-      <c r="B64" s="56">
-        <v>11000</v>
+      <c r="B64">
+        <v>10005</v>
       </c>
       <c r="C64" s="125">
         <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D64" s="125">
         <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="127" t="e">
+        <v>1</v>
+      </c>
+      <c r="E64" s="127">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F64" s="127" t="e">
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F64" s="127">
         <f>IFERROR((E64 + Params!$B$3^2/(2 * C64))/(1 + Params!$B$3^2/C64), NA())</f>
-        <v>#N/A</v>
+        <v>8.3830822924320328E-2</v>
       </c>
       <c r="G64" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C64))*SQRT(E64*(1-E64)/C64 + (Params!$B$3/(2*C64))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="128" t="e">
+        <v>7.8113748837375874E-2</v>
+      </c>
+      <c r="H64" s="128">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I64" s="128" t="e">
+        <v>5.7170740869444542E-3</v>
+      </c>
+      <c r="I64" s="128">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.16194457176169619</v>
       </c>
       <c r="AA64" s="125"/>
       <c r="AB64" s="133"/>
@@ -25457,8 +25455,8 @@
       <c r="A65" s="125">
         <v>20</v>
       </c>
-      <c r="B65" s="56">
-        <v>11001</v>
+      <c r="B65">
+        <v>10006</v>
       </c>
       <c r="C65" s="125">
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25493,8 +25491,8 @@
       <c r="A66" s="125">
         <v>20</v>
       </c>
-      <c r="B66" s="56">
-        <v>11002</v>
+      <c r="B66">
+        <v>10007</v>
       </c>
       <c r="C66" s="125">
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25529,224 +25527,224 @@
       <c r="A67" s="125">
         <v>20</v>
       </c>
-      <c r="B67" s="56">
-        <v>11003</v>
+      <c r="B67">
+        <v>11000</v>
       </c>
       <c r="C67" s="125">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D67" s="125">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>6</v>
-      </c>
-      <c r="E67" s="127">
+        <v>0</v>
+      </c>
+      <c r="E67" s="127" t="e">
         <f t="shared" ref="E67:E130" si="17">IFERROR(D67/C67, NA())</f>
-        <v>0.24</v>
-      </c>
-      <c r="F67" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="127" t="e">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>0.27463108842782646</v>
+        <v>#N/A</v>
       </c>
       <c r="G67" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), 0)</f>
-        <v>0.15966951112455921</v>
-      </c>
-      <c r="H67" s="128">
+        <v>0</v>
+      </c>
+      <c r="H67" s="128" t="e">
         <f t="shared" ref="H67:H130" si="18">F67-G67</f>
-        <v>0.11496157730326725</v>
-      </c>
-      <c r="I67" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I67" s="128" t="e">
         <f t="shared" ref="I67:I130" si="19">F67+G67</f>
-        <v>0.43430059955238565</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="125">
         <v>20</v>
       </c>
-      <c r="B68" s="56">
-        <v>11004</v>
+      <c r="B68">
+        <v>11001</v>
       </c>
       <c r="C68" s="125">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D68" s="125">
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="E68" s="127">
+        <v>0</v>
+      </c>
+      <c r="E68" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.2</v>
-      </c>
-      <c r="F68" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="127" t="e">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
-        <v>0.23995894818595365</v>
+        <v>#N/A</v>
       </c>
       <c r="G68" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C68))*SQRT(E68*(1-E68)/C68 + (Params!$B$3/(2*C68))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I68" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="125">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>11002</v>
+      </c>
+      <c r="C69" s="125">
+        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="125">
+        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="127" t="e">
+        <f>IFERROR((E69 + Params!$B$3^2/(2 * C69))/(1 + Params!$B$3^2/C69), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G69" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C69))*SQRT(E69*(1-E69)/C69 + (Params!$B$3/(2*C69))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I69" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="125">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>11003</v>
+      </c>
+      <c r="C70" s="125">
+        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D70" s="125">
+        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="E70" s="127">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="F70" s="127">
+        <f>IFERROR((E70 + Params!$B$3^2/(2 * C70))/(1 + Params!$B$3^2/C70), NA())</f>
+        <v>0.27463108842782646</v>
+      </c>
+      <c r="G70" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C70))*SQRT(E70*(1-E70)/C70 + (Params!$B$3/(2*C70))^2), 0)</f>
+        <v>0.15966951112455921</v>
+      </c>
+      <c r="H70" s="128">
+        <f t="shared" si="18"/>
+        <v>0.11496157730326725</v>
+      </c>
+      <c r="I70" s="128">
+        <f t="shared" si="19"/>
+        <v>0.43430059955238565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="125">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>11004</v>
+      </c>
+      <c r="C71" s="125">
+        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D71" s="125">
+        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="E71" s="127">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="127">
+        <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
+        <v>0.23995894818595365</v>
+      </c>
+      <c r="G71" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C71))*SQRT(E71*(1-E71)/C71 + (Params!$B$3/(2*C71))^2), 0)</f>
         <v>0.1513544071794288</v>
       </c>
-      <c r="H68" s="128">
+      <c r="H71" s="128">
         <f t="shared" si="18"/>
         <v>8.8604541006524845E-2</v>
       </c>
-      <c r="I68" s="128">
+      <c r="I71" s="128">
         <f t="shared" si="19"/>
         <v>0.39131335536538248</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="125">
-        <v>20</v>
-      </c>
-      <c r="B69" s="56">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="125">
+        <v>20</v>
+      </c>
+      <c r="B72">
         <v>11005</v>
       </c>
-      <c r="C69" s="125">
-        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+      <c r="C72" s="125">
+        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D69" s="125">
-        <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+      <c r="D72" s="125">
+        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E69" s="127">
+      <c r="E72" s="127">
         <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
-      <c r="F69" s="127">
-        <f>IFERROR((E69 + Params!$B$3^2/(2 * C69))/(1 + Params!$B$3^2/C69), NA())</f>
+      <c r="F72" s="127">
+        <f>IFERROR((E72 + Params!$B$3^2/(2 * C72))/(1 + Params!$B$3^2/C72), NA())</f>
         <v>0.13594252746033506</v>
       </c>
-      <c r="G69" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C69))*SQRT(E69*(1-E69)/C69 + (Params!$B$3/(2*C69))^2), 0)</f>
+      <c r="G72" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C72))*SQRT(E72*(1-E72)/C72 + (Params!$B$3/(2*C72))^2), 0)</f>
         <v>0.11372259376924314</v>
       </c>
-      <c r="H69" s="128">
+      <c r="H72" s="128">
         <f t="shared" si="18"/>
         <v>2.2219933691091917E-2</v>
       </c>
-      <c r="I69" s="128">
+      <c r="I72" s="128">
         <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="125">
-        <v>20</v>
-      </c>
-      <c r="B70" s="56">
-        <v>11006</v>
-      </c>
-      <c r="C70" s="125">
-        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="125">
-        <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F70" s="127" t="e">
-        <f>IFERROR((E70 + Params!$B$3^2/(2 * C70))/(1 + Params!$B$3^2/C70), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C70))*SQRT(E70*(1-E70)/C70 + (Params!$B$3/(2*C70))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I70" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="125">
-        <v>20</v>
-      </c>
-      <c r="B71" s="56">
-        <v>11007</v>
-      </c>
-      <c r="C71" s="125">
-        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="125">
-        <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F71" s="127" t="e">
-        <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G71" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C71))*SQRT(E71*(1-E71)/C71 + (Params!$B$3/(2*C71))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I71" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="125">
-        <v>20</v>
-      </c>
-      <c r="B72" s="56">
-        <v>11008</v>
-      </c>
-      <c r="C72" s="125">
-        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="125">
-        <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F72" s="127" t="e">
-        <f>IFERROR((E72 + Params!$B$3^2/(2 * C72))/(1 + Params!$B$3^2/C72), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G72" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C72))*SQRT(E72*(1-E72)/C72 + (Params!$B$3/(2*C72))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I72" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="125">
         <v>20</v>
       </c>
-      <c r="B73" s="56">
-        <v>11009</v>
+      <c r="B73">
+        <v>11006</v>
       </c>
       <c r="C73" s="125">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25781,8 +25779,8 @@
       <c r="A74" s="125">
         <v>20</v>
       </c>
-      <c r="B74" s="56">
-        <v>11010</v>
+      <c r="B74">
+        <v>11007</v>
       </c>
       <c r="C74" s="125">
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25817,8 +25815,8 @@
       <c r="A75" s="125">
         <v>20</v>
       </c>
-      <c r="B75" s="56">
-        <v>12000</v>
+      <c r="B75">
+        <v>11008</v>
       </c>
       <c r="C75" s="125">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25853,116 +25851,116 @@
       <c r="A76" s="125">
         <v>20</v>
       </c>
-      <c r="B76" s="56">
-        <v>12001</v>
+      <c r="B76">
+        <v>11009</v>
       </c>
       <c r="C76" s="125">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D76" s="125">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E76" s="127">
+        <v>0</v>
+      </c>
+      <c r="E76" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.16</v>
-      </c>
-      <c r="F76" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="127" t="e">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>0.20528680794408075</v>
+        <v>#N/A</v>
       </c>
       <c r="G76" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), 0)</f>
-        <v>0.14125333185830088</v>
-      </c>
-      <c r="H76" s="128">
+        <v>0</v>
+      </c>
+      <c r="H76" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>6.4033476085779861E-2</v>
-      </c>
-      <c r="I76" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.34654013980238163</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="125">
         <v>20</v>
       </c>
-      <c r="B77" s="56">
-        <v>12002</v>
+      <c r="B77">
+        <v>11010</v>
       </c>
       <c r="C77" s="125">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D77" s="125">
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E77" s="127">
+        <v>0</v>
+      </c>
+      <c r="E77" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.12</v>
-      </c>
-      <c r="F77" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="127" t="e">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
-        <v>0.17061466770220793</v>
+        <v>#N/A</v>
       </c>
       <c r="G77" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C77))*SQRT(E77*(1-E77)/C77 + (Params!$B$3/(2*C77))^2), 0)</f>
-        <v>0.12894725413152699</v>
-      </c>
-      <c r="H77" s="128">
+        <v>0</v>
+      </c>
+      <c r="H77" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>4.1667413570680933E-2</v>
-      </c>
-      <c r="I77" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I77" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.29956192183373492</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="125">
         <v>20</v>
       </c>
-      <c r="B78" s="56">
-        <v>12003</v>
+      <c r="B78">
+        <v>12000</v>
       </c>
       <c r="C78" s="125">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D78" s="125">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E78" s="127">
+        <v>0</v>
+      </c>
+      <c r="E78" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.08</v>
-      </c>
-      <c r="F78" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="127" t="e">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>#N/A</v>
       </c>
       <c r="G78" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), 0)</f>
-        <v>0.11372259376924314</v>
-      </c>
-      <c r="H78" s="128">
+        <v>0</v>
+      </c>
+      <c r="H78" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>2.2219933691091917E-2</v>
-      </c>
-      <c r="I78" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I78" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.24966512122957818</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="125">
         <v>20</v>
       </c>
-      <c r="B79" s="56">
-        <v>12004</v>
+      <c r="B79">
+        <v>12001</v>
       </c>
       <c r="C79" s="125">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -25970,35 +25968,35 @@
       </c>
       <c r="D79" s="125">
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79" s="127">
         <f t="shared" si="17"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="F79" s="127">
         <f>IFERROR((E79 + Params!$B$3^2/(2 * C79))/(1 + Params!$B$3^2/C79), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>0.20528680794408075</v>
       </c>
       <c r="G79" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C79))*SQRT(E79*(1-E79)/C79 + (Params!$B$3/(2*C79))^2), 0)</f>
-        <v>0.11372259376924314</v>
+        <v>0.14125333185830088</v>
       </c>
       <c r="H79" s="128">
         <f t="shared" si="18"/>
-        <v>2.2219933691091917E-2</v>
+        <v>6.4033476085779861E-2</v>
       </c>
       <c r="I79" s="128">
         <f t="shared" si="19"/>
-        <v>0.24966512122957818</v>
+        <v>0.34654013980238163</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="125">
         <v>20</v>
       </c>
-      <c r="B80" s="56">
-        <v>12005</v>
+      <c r="B80">
+        <v>12002</v>
       </c>
       <c r="C80" s="125">
         <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26033,116 +26031,116 @@
       <c r="A81" s="125">
         <v>20</v>
       </c>
-      <c r="B81" s="56">
-        <v>12006</v>
+      <c r="B81">
+        <v>12003</v>
       </c>
       <c r="C81" s="125">
         <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D81" s="125">
         <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="127" t="e">
+        <v>2</v>
+      </c>
+      <c r="E81" s="127">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F81" s="127" t="e">
+        <v>0.08</v>
+      </c>
+      <c r="F81" s="127">
         <f>IFERROR((E81 + Params!$B$3^2/(2 * C81))/(1 + Params!$B$3^2/C81), NA())</f>
-        <v>#N/A</v>
+        <v>0.13594252746033506</v>
       </c>
       <c r="G81" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C81))*SQRT(E81*(1-E81)/C81 + (Params!$B$3/(2*C81))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="128" t="e">
+        <v>0.11372259376924314</v>
+      </c>
+      <c r="H81" s="128">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I81" s="128" t="e">
+        <v>2.2219933691091917E-2</v>
+      </c>
+      <c r="I81" s="128">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.24966512122957818</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="125">
         <v>20</v>
       </c>
-      <c r="B82" s="56">
-        <v>12007</v>
+      <c r="B82">
+        <v>12004</v>
       </c>
       <c r="C82" s="125">
         <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D82" s="125">
         <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="127" t="e">
+        <v>2</v>
+      </c>
+      <c r="E82" s="127">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F82" s="127" t="e">
+        <v>0.08</v>
+      </c>
+      <c r="F82" s="127">
         <f>IFERROR((E82 + Params!$B$3^2/(2 * C82))/(1 + Params!$B$3^2/C82), NA())</f>
-        <v>#N/A</v>
+        <v>0.13594252746033506</v>
       </c>
       <c r="G82" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C82))*SQRT(E82*(1-E82)/C82 + (Params!$B$3/(2*C82))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="128" t="e">
+        <v>0.11372259376924314</v>
+      </c>
+      <c r="H82" s="128">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I82" s="128" t="e">
+        <v>2.2219933691091917E-2</v>
+      </c>
+      <c r="I82" s="128">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.24966512122957818</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="125">
         <v>20</v>
       </c>
-      <c r="B83" s="56">
-        <v>12008</v>
+      <c r="B83">
+        <v>12005</v>
       </c>
       <c r="C83" s="125">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D83" s="125">
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="127" t="e">
+        <v>3</v>
+      </c>
+      <c r="E83" s="127">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F83" s="127" t="e">
+        <v>0.12</v>
+      </c>
+      <c r="F83" s="127">
         <f>IFERROR((E83 + Params!$B$3^2/(2 * C83))/(1 + Params!$B$3^2/C83), NA())</f>
-        <v>#N/A</v>
+        <v>0.17061466770220793</v>
       </c>
       <c r="G83" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C83))*SQRT(E83*(1-E83)/C83 + (Params!$B$3/(2*C83))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="128" t="e">
+        <v>0.12894725413152699</v>
+      </c>
+      <c r="H83" s="128">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I83" s="128" t="e">
+        <v>4.1667413570680933E-2</v>
+      </c>
+      <c r="I83" s="128">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.29956192183373492</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="125">
         <v>20</v>
       </c>
-      <c r="B84" s="56">
-        <v>12009</v>
+      <c r="B84">
+        <v>12006</v>
       </c>
       <c r="C84" s="125">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26177,8 +26175,8 @@
       <c r="A85" s="125">
         <v>20</v>
       </c>
-      <c r="B85" s="56">
-        <v>12010</v>
+      <c r="B85">
+        <v>12007</v>
       </c>
       <c r="C85" s="125">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26213,116 +26211,116 @@
       <c r="A86" s="125">
         <v>20</v>
       </c>
-      <c r="B86" s="56">
-        <v>13000</v>
+      <c r="B86">
+        <v>12008</v>
       </c>
       <c r="C86" s="125">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D86" s="125">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E86" s="127">
+        <v>0</v>
+      </c>
+      <c r="E86" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.08</v>
-      </c>
-      <c r="F86" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="127" t="e">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>0.13594252746033506</v>
+        <v>#N/A</v>
       </c>
       <c r="G86" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), 0)</f>
-        <v>0.11372259376924314</v>
-      </c>
-      <c r="H86" s="128">
+        <v>0</v>
+      </c>
+      <c r="H86" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>2.2219933691091917E-2</v>
-      </c>
-      <c r="I86" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I86" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.24966512122957818</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="125">
         <v>20</v>
       </c>
-      <c r="B87" s="56">
-        <v>13001</v>
+      <c r="B87">
+        <v>12009</v>
       </c>
       <c r="C87" s="125">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D87" s="125">
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="E87" s="127">
+        <v>0</v>
+      </c>
+      <c r="E87" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.2</v>
-      </c>
-      <c r="F87" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="127" t="e">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
-        <v>0.23995894818595365</v>
+        <v>#N/A</v>
       </c>
       <c r="G87" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C87))*SQRT(E87*(1-E87)/C87 + (Params!$B$3/(2*C87))^2), 0)</f>
-        <v>0.1513544071794288</v>
-      </c>
-      <c r="H87" s="128">
+        <v>0</v>
+      </c>
+      <c r="H87" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>8.8604541006524845E-2</v>
-      </c>
-      <c r="I87" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.39131335536538248</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="125">
         <v>20</v>
       </c>
-      <c r="B88" s="56">
-        <v>13002</v>
+      <c r="B88">
+        <v>12010</v>
       </c>
       <c r="C88" s="125">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D88" s="125">
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>7</v>
-      </c>
-      <c r="E88" s="127">
+        <v>0</v>
+      </c>
+      <c r="E88" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F88" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="127" t="e">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
-        <v>0.30930322866969934</v>
+        <v>#N/A</v>
       </c>
       <c r="G88" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C88))*SQRT(E88*(1-E88)/C88 + (Params!$B$3/(2*C88))^2), 0)</f>
-        <v>0.16646649029588362</v>
-      </c>
-      <c r="H88" s="128">
+        <v>0</v>
+      </c>
+      <c r="H88" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>0.14283673837381572</v>
-      </c>
-      <c r="I88" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.47576971896558296</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="125">
         <v>20</v>
       </c>
-      <c r="B89" s="56">
-        <v>14000</v>
+      <c r="B89">
+        <v>13000</v>
       </c>
       <c r="C89" s="125">
         <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26330,35 +26328,35 @@
       </c>
       <c r="D89" s="125">
         <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" s="127">
         <f t="shared" si="17"/>
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F89" s="127">
         <f>IFERROR((E89 + Params!$B$3^2/(2 * C89))/(1 + Params!$B$3^2/C89), NA())</f>
-        <v>0.17061466770220793</v>
+        <v>0.13594252746033506</v>
       </c>
       <c r="G89" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C89))*SQRT(E89*(1-E89)/C89 + (Params!$B$3/(2*C89))^2), 0)</f>
-        <v>0.12894725413152699</v>
+        <v>0.11372259376924314</v>
       </c>
       <c r="H89" s="128">
         <f t="shared" si="18"/>
-        <v>4.1667413570680933E-2</v>
+        <v>2.2219933691091917E-2</v>
       </c>
       <c r="I89" s="128">
         <f t="shared" si="19"/>
-        <v>0.29956192183373492</v>
+        <v>0.24966512122957818</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="125">
         <v>20</v>
       </c>
-      <c r="B90" s="56">
-        <v>14001</v>
+      <c r="B90">
+        <v>13001</v>
       </c>
       <c r="C90" s="125">
         <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26366,35 +26364,35 @@
       </c>
       <c r="D90" s="125">
         <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E90" s="127">
         <f t="shared" si="17"/>
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F90" s="127">
         <f>IFERROR((E90 + Params!$B$3^2/(2 * C90))/(1 + Params!$B$3^2/C90), NA())</f>
-        <v>0.20528680794408075</v>
+        <v>0.23995894818595365</v>
       </c>
       <c r="G90" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C90))*SQRT(E90*(1-E90)/C90 + (Params!$B$3/(2*C90))^2), 0)</f>
-        <v>0.14125333185830088</v>
+        <v>0.1513544071794288</v>
       </c>
       <c r="H90" s="128">
         <f t="shared" si="18"/>
-        <v>6.4033476085779861E-2</v>
+        <v>8.8604541006524845E-2</v>
       </c>
       <c r="I90" s="128">
         <f t="shared" si="19"/>
-        <v>0.34654013980238163</v>
+        <v>0.39131335536538248</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="125">
         <v>20</v>
       </c>
-      <c r="B91" s="56">
-        <v>14002</v>
+      <c r="B91">
+        <v>13002</v>
       </c>
       <c r="C91" s="125">
         <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26402,35 +26400,35 @@
       </c>
       <c r="D91" s="125">
         <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" s="127">
         <f t="shared" si="17"/>
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F91" s="127">
         <f>IFERROR((E91 + Params!$B$3^2/(2 * C91))/(1 + Params!$B$3^2/C91), NA())</f>
-        <v>0.34397536891157215</v>
+        <v>0.30930322866969934</v>
       </c>
       <c r="G91" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C91))*SQRT(E91*(1-E91)/C91 + (Params!$B$3/(2*C91))^2), 0)</f>
-        <v>0.17192549374266075</v>
+        <v>0.16646649029588362</v>
       </c>
       <c r="H91" s="128">
         <f t="shared" si="18"/>
-        <v>0.1720498751689114</v>
+        <v>0.14283673837381572</v>
       </c>
       <c r="I91" s="128">
         <f t="shared" si="19"/>
-        <v>0.51590086265423296</v>
+        <v>0.47576971896558296</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="125">
         <v>20</v>
       </c>
-      <c r="B92" s="56">
-        <v>15000</v>
+      <c r="B92">
+        <v>13003</v>
       </c>
       <c r="C92" s="125">
         <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26465,8 +26463,8 @@
       <c r="A93" s="125">
         <v>20</v>
       </c>
-      <c r="B93" s="56">
-        <v>15001</v>
+      <c r="B93">
+        <v>13004</v>
       </c>
       <c r="C93" s="125">
         <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26501,8 +26499,8 @@
       <c r="A94" s="125">
         <v>20</v>
       </c>
-      <c r="B94" s="56">
-        <v>15002</v>
+      <c r="B94">
+        <v>13005</v>
       </c>
       <c r="C94" s="125">
         <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26537,8 +26535,8 @@
       <c r="A95" s="125">
         <v>20</v>
       </c>
-      <c r="B95" s="56">
-        <v>15003</v>
+      <c r="B95">
+        <v>13006</v>
       </c>
       <c r="C95" s="125">
         <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26573,8 +26571,8 @@
       <c r="A96" s="125">
         <v>20</v>
       </c>
-      <c r="B96" s="56">
-        <v>15004</v>
+      <c r="B96">
+        <v>13007</v>
       </c>
       <c r="C96" s="125">
         <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26609,8 +26607,8 @@
       <c r="A97" s="125">
         <v>20</v>
       </c>
-      <c r="B97" s="56">
-        <v>15005</v>
+      <c r="B97">
+        <v>13008</v>
       </c>
       <c r="C97" s="125">
         <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26645,8 +26643,8 @@
       <c r="A98" s="125">
         <v>20</v>
       </c>
-      <c r="B98" s="56">
-        <v>15006</v>
+      <c r="B98">
+        <v>13009</v>
       </c>
       <c r="C98" s="125">
         <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26681,116 +26679,116 @@
       <c r="A99" s="125">
         <v>20</v>
       </c>
-      <c r="B99" s="56">
-        <v>15007</v>
+      <c r="B99">
+        <v>14000</v>
       </c>
       <c r="C99" s="125">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D99" s="125">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="127" t="e">
+        <v>3</v>
+      </c>
+      <c r="E99" s="127">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="127" t="e">
+        <v>0.12</v>
+      </c>
+      <c r="F99" s="127">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
-        <v>#N/A</v>
+        <v>0.17061466770220793</v>
       </c>
       <c r="G99" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="128" t="e">
+        <v>0.12894725413152699</v>
+      </c>
+      <c r="H99" s="128">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" s="128" t="e">
+        <v>4.1667413570680933E-2</v>
+      </c>
+      <c r="I99" s="128">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.29956192183373492</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="125">
         <v>20</v>
       </c>
-      <c r="B100" s="56">
-        <v>15008</v>
+      <c r="B100">
+        <v>14001</v>
       </c>
       <c r="C100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D100" s="125">
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E100" s="127">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F100" s="127">
         <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.20528680794408075</v>
       </c>
       <c r="G100" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
-        <v>0.24495001020199958</v>
+        <v>0.14125333185830088</v>
       </c>
       <c r="H100" s="128">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.4033476085779861E-2</v>
       </c>
       <c r="I100" s="128">
         <f t="shared" si="19"/>
-        <v>0.48990002040399916</v>
+        <v>0.34654013980238163</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="125">
         <v>20</v>
       </c>
-      <c r="B101" s="56">
-        <v>15009</v>
+      <c r="B101">
+        <v>14002</v>
       </c>
       <c r="C101" s="125">
         <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D101" s="125">
         <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="127" t="e">
+        <v>8</v>
+      </c>
+      <c r="E101" s="127">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="127" t="e">
+        <v>0.32</v>
+      </c>
+      <c r="F101" s="127">
         <f>IFERROR((E101 + Params!$B$3^2/(2 * C101))/(1 + Params!$B$3^2/C101), NA())</f>
-        <v>#N/A</v>
+        <v>0.34397536891157215</v>
       </c>
       <c r="G101" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C101))*SQRT(E101*(1-E101)/C101 + (Params!$B$3/(2*C101))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="128" t="e">
+        <v>0.17192549374266075</v>
+      </c>
+      <c r="H101" s="128">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" s="128" t="e">
+        <v>0.1720498751689114</v>
+      </c>
+      <c r="I101" s="128">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.51590086265423296</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="125">
         <v>20</v>
       </c>
-      <c r="B102" s="56">
-        <v>15010</v>
+      <c r="B102">
+        <v>14003</v>
       </c>
       <c r="C102" s="125">
         <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26825,8 +26823,8 @@
       <c r="A103" s="125">
         <v>20</v>
       </c>
-      <c r="B103" s="56">
-        <v>15011</v>
+      <c r="B103">
+        <v>14004</v>
       </c>
       <c r="C103" s="125">
         <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26861,8 +26859,8 @@
       <c r="A104" s="125">
         <v>20</v>
       </c>
-      <c r="B104" s="56">
-        <v>15012</v>
+      <c r="B104">
+        <v>14005</v>
       </c>
       <c r="C104" s="125">
         <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26897,8 +26895,8 @@
       <c r="A105" s="125">
         <v>20</v>
       </c>
-      <c r="B105" s="56">
-        <v>15013</v>
+      <c r="B105">
+        <v>14006</v>
       </c>
       <c r="C105" s="125">
         <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26933,8 +26931,8 @@
       <c r="A106" s="125">
         <v>20</v>
       </c>
-      <c r="B106" s="56">
-        <v>15014</v>
+      <c r="B106">
+        <v>14007</v>
       </c>
       <c r="C106" s="125">
         <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -26969,8 +26967,8 @@
       <c r="A107" s="125">
         <v>20</v>
       </c>
-      <c r="B107" s="56">
-        <v>15015</v>
+      <c r="B107">
+        <v>14008</v>
       </c>
       <c r="C107" s="125">
         <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27005,728 +27003,728 @@
       <c r="A108" s="125">
         <v>20</v>
       </c>
-      <c r="B108" s="56">
-        <v>15016</v>
+      <c r="B108">
+        <v>14009</v>
       </c>
       <c r="C108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E108" s="127">
+        <v>0</v>
+      </c>
+      <c r="E108" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.8</v>
-      </c>
-      <c r="F108" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="127" t="e">
         <f>IFERROR((E108 + Params!$B$3^2/(2 * C108))/(1 + Params!$B$3^2/C108), NA())</f>
-        <v>0.66965255157437564</v>
+        <v>#N/A</v>
       </c>
       <c r="G108" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C108))*SQRT(E108*(1-E108)/C108 + (Params!$B$3/(2*C108))^2), 0)</f>
-        <v>0.29412428745583691</v>
-      </c>
-      <c r="H108" s="128">
+        <v>0</v>
+      </c>
+      <c r="H108" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>0.37552826411853873</v>
-      </c>
-      <c r="I108" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I108" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.96377683903021261</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="125">
         <v>20</v>
       </c>
-      <c r="B109" s="56">
-        <v>15017</v>
+      <c r="B109">
+        <v>15000</v>
       </c>
       <c r="C109" s="125">
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D109" s="125">
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E109" s="127">
+        <v>0</v>
+      </c>
+      <c r="E109" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="127" t="e">
+        <f>IFERROR((E109 + Params!$B$3^2/(2 * C109))/(1 + Params!$B$3^2/C109), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C109))*SQRT(E109*(1-E109)/C109 + (Params!$B$3/(2*C109))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I109" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="125">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>15001</v>
+      </c>
+      <c r="C110" s="125">
+        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="125">
+        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="127" t="e">
+        <f>IFERROR((E110 + Params!$B$3^2/(2 * C110))/(1 + Params!$B$3^2/C110), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G110" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C110))*SQRT(E110*(1-E110)/C110 + (Params!$B$3/(2*C110))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I110" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="125">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>15002</v>
+      </c>
+      <c r="C111" s="125">
+        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="125">
+        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="127" t="e">
+        <f>IFERROR((E111 + Params!$B$3^2/(2 * C111))/(1 + Params!$B$3^2/C111), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C111))*SQRT(E111*(1-E111)/C111 + (Params!$B$3/(2*C111))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I111" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="125">
+        <v>20</v>
+      </c>
+      <c r="B112">
+        <v>15003</v>
+      </c>
+      <c r="C112" s="125">
+        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="125">
+        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="127" t="e">
+        <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I112" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="125">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>15004</v>
+      </c>
+      <c r="C113" s="125">
+        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="125">
+        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="127" t="e">
+        <f>IFERROR((E113 + Params!$B$3^2/(2 * C113))/(1 + Params!$B$3^2/C113), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C113))*SQRT(E113*(1-E113)/C113 + (Params!$B$3/(2*C113))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I113" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="125">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <v>15005</v>
+      </c>
+      <c r="C114" s="125">
+        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="125">
+        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="127" t="e">
+        <f>IFERROR((E114 + Params!$B$3^2/(2 * C114))/(1 + Params!$B$3^2/C114), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C114))*SQRT(E114*(1-E114)/C114 + (Params!$B$3/(2*C114))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I114" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="125">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>15006</v>
+      </c>
+      <c r="C115" s="125">
+        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="125">
+        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" s="127" t="e">
+        <f>IFERROR((E115 + Params!$B$3^2/(2 * C115))/(1 + Params!$B$3^2/C115), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G115" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C115))*SQRT(E115*(1-E115)/C115 + (Params!$B$3/(2*C115))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I115" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="125">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>15007</v>
+      </c>
+      <c r="C116" s="125">
+        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="125">
+        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" s="127" t="e">
+        <f>IFERROR((E116 + Params!$B$3^2/(2 * C116))/(1 + Params!$B$3^2/C116), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G116" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C116))*SQRT(E116*(1-E116)/C116 + (Params!$B$3/(2*C116))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I116" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="125">
+        <v>20</v>
+      </c>
+      <c r="B117">
+        <v>15008</v>
+      </c>
+      <c r="C117" s="125">
+        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D117" s="125">
+        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="127">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="127">
+        <f>IFERROR((E117 + Params!$B$3^2/(2 * C117))/(1 + Params!$B$3^2/C117), NA())</f>
+        <v>0.24495001020199958</v>
+      </c>
+      <c r="G117" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C117))*SQRT(E117*(1-E117)/C117 + (Params!$B$3/(2*C117))^2), 0)</f>
+        <v>0.24495001020199958</v>
+      </c>
+      <c r="H117" s="128">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="128">
+        <f t="shared" si="19"/>
+        <v>0.48990002040399916</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="125">
+        <v>20</v>
+      </c>
+      <c r="B118">
+        <v>15009</v>
+      </c>
+      <c r="C118" s="125">
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="125">
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="127" t="e">
+        <f>IFERROR((E118 + Params!$B$3^2/(2 * C118))/(1 + Params!$B$3^2/C118), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C118))*SQRT(E118*(1-E118)/C118 + (Params!$B$3/(2*C118))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I118" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="125">
+        <v>20</v>
+      </c>
+      <c r="B119">
+        <v>15010</v>
+      </c>
+      <c r="C119" s="125">
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="125">
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="127" t="e">
+        <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C119))*SQRT(E119*(1-E119)/C119 + (Params!$B$3/(2*C119))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I119" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="125">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>15011</v>
+      </c>
+      <c r="C120" s="125">
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="125">
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="127" t="e">
+        <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="125">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>15012</v>
+      </c>
+      <c r="C121" s="125">
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="125">
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="127" t="e">
+        <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C121))*SQRT(E121*(1-E121)/C121 + (Params!$B$3/(2*C121))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I121" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="125">
+        <v>20</v>
+      </c>
+      <c r="B122">
+        <v>15013</v>
+      </c>
+      <c r="C122" s="125">
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="125">
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="127" t="e">
+        <f>IFERROR((E122 + Params!$B$3^2/(2 * C122))/(1 + Params!$B$3^2/C122), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G122" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C122))*SQRT(E122*(1-E122)/C122 + (Params!$B$3/(2*C122))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I122" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="125">
+        <v>20</v>
+      </c>
+      <c r="B123">
+        <v>15014</v>
+      </c>
+      <c r="C123" s="125">
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="125">
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F123" s="127" t="e">
+        <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G123" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I123" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="125">
+        <v>20</v>
+      </c>
+      <c r="B124">
+        <v>15015</v>
+      </c>
+      <c r="C124" s="125">
+        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="125">
+        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F124" s="127" t="e">
+        <f>IFERROR((E124 + Params!$B$3^2/(2 * C124))/(1 + Params!$B$3^2/C124), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G124" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C124))*SQRT(E124*(1-E124)/C124 + (Params!$B$3/(2*C124))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I124" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="125">
+        <v>20</v>
+      </c>
+      <c r="B125">
+        <v>15016</v>
+      </c>
+      <c r="C125" s="125">
+        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="D125" s="125">
+        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="E125" s="127">
         <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F109" s="127">
-        <f>IFERROR((E109 + Params!$B$3^2/(2 * C109))/(1 + Params!$B$3^2/C109), NA())</f>
-        <v>0.57308231992516367</v>
-      </c>
-      <c r="G109" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C109))*SQRT(E109*(1-E109)/C109 + (Params!$B$3/(2*C109))^2), 0)</f>
-        <v>0.36542736479867571</v>
-      </c>
-      <c r="H109" s="128">
+      <c r="F125" s="127">
+        <f>IFERROR((E125 + Params!$B$3^2/(2 * C125))/(1 + Params!$B$3^2/C125), NA())</f>
+        <v>0.60160949439115585</v>
+      </c>
+      <c r="G125" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C125))*SQRT(E125*(1-E125)/C125 + (Params!$B$3/(2*C125))^2), 0)</f>
+        <v>0.30162117304962721</v>
+      </c>
+      <c r="H125" s="128">
         <f t="shared" si="18"/>
-        <v>0.20765495512648796</v>
-      </c>
-      <c r="I109" s="128">
+        <v>0.29998832134152864</v>
+      </c>
+      <c r="I125" s="128">
         <f t="shared" si="19"/>
-        <v>0.93850968472383944</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="125">
-        <v>20</v>
-      </c>
-      <c r="B110" s="56">
-        <v>15018</v>
-      </c>
-      <c r="C110" s="125">
-        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="125">
-        <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="127" t="e">
-        <f>IFERROR((E110 + Params!$B$3^2/(2 * C110))/(1 + Params!$B$3^2/C110), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C110))*SQRT(E110*(1-E110)/C110 + (Params!$B$3/(2*C110))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="125">
-        <v>20</v>
-      </c>
-      <c r="B111" s="56">
-        <v>15019</v>
-      </c>
-      <c r="C111" s="125">
-        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="125">
-        <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="127" t="e">
-        <f>IFERROR((E111 + Params!$B$3^2/(2 * C111))/(1 + Params!$B$3^2/C111), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C111))*SQRT(E111*(1-E111)/C111 + (Params!$B$3/(2*C111))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="125">
-        <v>20</v>
-      </c>
-      <c r="B112" s="56">
-        <v>15020</v>
-      </c>
-      <c r="C112" s="125">
-        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="125">
-        <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="127" t="e">
-        <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C112))*SQRT(E112*(1-E112)/C112 + (Params!$B$3/(2*C112))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="125">
-        <v>20</v>
-      </c>
-      <c r="B113" s="56">
-        <v>15021</v>
-      </c>
-      <c r="C113" s="125">
-        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="125">
-        <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E113" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" s="127" t="e">
-        <f>IFERROR((E113 + Params!$B$3^2/(2 * C113))/(1 + Params!$B$3^2/C113), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C113))*SQRT(E113*(1-E113)/C113 + (Params!$B$3/(2*C113))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="125">
-        <v>20</v>
-      </c>
-      <c r="B114" s="56">
-        <v>15022</v>
-      </c>
-      <c r="C114" s="125">
-        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="125">
-        <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" s="127" t="e">
-        <f>IFERROR((E114 + Params!$B$3^2/(2 * C114))/(1 + Params!$B$3^2/C114), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C114))*SQRT(E114*(1-E114)/C114 + (Params!$B$3/(2*C114))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="125">
-        <v>20</v>
-      </c>
-      <c r="B115" s="56">
-        <v>15023</v>
-      </c>
-      <c r="C115" s="125">
-        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="125">
-        <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E115" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F115" s="127" t="e">
-        <f>IFERROR((E115 + Params!$B$3^2/(2 * C115))/(1 + Params!$B$3^2/C115), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G115" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C115))*SQRT(E115*(1-E115)/C115 + (Params!$B$3/(2*C115))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I115" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="125">
-        <v>20</v>
-      </c>
-      <c r="B116" s="56">
-        <v>15024</v>
-      </c>
-      <c r="C116" s="125">
-        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D116" s="125">
-        <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E116" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F116" s="127" t="e">
-        <f>IFERROR((E116 + Params!$B$3^2/(2 * C116))/(1 + Params!$B$3^2/C116), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G116" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C116))*SQRT(E116*(1-E116)/C116 + (Params!$B$3/(2*C116))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I116" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="125">
-        <v>20</v>
-      </c>
-      <c r="B117" s="56">
-        <v>15025</v>
-      </c>
-      <c r="C117" s="125">
-        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="125">
-        <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F117" s="127" t="e">
-        <f>IFERROR((E117 + Params!$B$3^2/(2 * C117))/(1 + Params!$B$3^2/C117), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G117" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C117))*SQRT(E117*(1-E117)/C117 + (Params!$B$3/(2*C117))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I117" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="125">
-        <v>20</v>
-      </c>
-      <c r="B118" s="56">
-        <v>15026</v>
-      </c>
-      <c r="C118" s="125">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="125">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F118" s="127" t="e">
-        <f>IFERROR((E118 + Params!$B$3^2/(2 * C118))/(1 + Params!$B$3^2/C118), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G118" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C118))*SQRT(E118*(1-E118)/C118 + (Params!$B$3/(2*C118))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="125">
-        <v>20</v>
-      </c>
-      <c r="B119" s="56">
-        <v>15027</v>
-      </c>
-      <c r="C119" s="125">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0.90323066744078306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="125">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>15017</v>
+      </c>
+      <c r="C126" s="125">
+        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="D119" s="125">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+      <c r="D126" s="125">
+        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E119" s="127">
+      <c r="E126" s="127">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="F119" s="127">
-        <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
+      <c r="F126" s="127">
+        <f>IFERROR((E126 + Params!$B$3^2/(2 * C126))/(1 + Params!$B$3^2/C126), NA())</f>
         <v>0.62752499489900015</v>
       </c>
-      <c r="G119" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C119))*SQRT(E119*(1-E119)/C119 + (Params!$B$3/(2*C119))^2), 0)</f>
+      <c r="G126" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C126))*SQRT(E126*(1-E126)/C126 + (Params!$B$3/(2*C126))^2), 0)</f>
         <v>0.32688894245636357</v>
       </c>
-      <c r="H119" s="128">
+      <c r="H126" s="128">
         <f t="shared" si="18"/>
         <v>0.30063605244263658</v>
       </c>
-      <c r="I119" s="128">
+      <c r="I126" s="128">
         <f t="shared" si="19"/>
         <v>0.95441393735536373</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="125">
-        <v>20</v>
-      </c>
-      <c r="B120" s="56">
-        <v>15028</v>
-      </c>
-      <c r="C120" s="125">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>51</v>
-      </c>
-      <c r="D120" s="125">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>30</v>
-      </c>
-      <c r="E120" s="127">
-        <f t="shared" si="17"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="F120" s="127">
-        <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
-        <v>0.58205449877465287</v>
-      </c>
-      <c r="G120" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
-        <v>0.13040357130047822</v>
-      </c>
-      <c r="H120" s="128">
-        <f t="shared" si="18"/>
-        <v>0.45165092747417468</v>
-      </c>
-      <c r="I120" s="128">
-        <f t="shared" si="19"/>
-        <v>0.71245807007513107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="125">
-        <v>20</v>
-      </c>
-      <c r="B121" s="56">
-        <v>15029</v>
-      </c>
-      <c r="C121" s="125">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="D121" s="125">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E121" s="127">
-        <f t="shared" si="17"/>
-        <v>0.75</v>
-      </c>
-      <c r="F121" s="127">
-        <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
-        <v>0.62752499489900015</v>
-      </c>
-      <c r="G121" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C121))*SQRT(E121*(1-E121)/C121 + (Params!$B$3/(2*C121))^2), 0)</f>
-        <v>0.32688894245636357</v>
-      </c>
-      <c r="H121" s="128">
-        <f t="shared" si="18"/>
-        <v>0.30063605244263658</v>
-      </c>
-      <c r="I121" s="128">
-        <f t="shared" si="19"/>
-        <v>0.95441393735536373</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="125">
-        <v>20</v>
-      </c>
-      <c r="B122" s="56">
-        <v>15030</v>
-      </c>
-      <c r="C122" s="125">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D122" s="125">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="127" t="e">
-        <f>IFERROR((E122 + Params!$B$3^2/(2 * C122))/(1 + Params!$B$3^2/C122), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C122))*SQRT(E122*(1-E122)/C122 + (Params!$B$3/(2*C122))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="125">
-        <v>20</v>
-      </c>
-      <c r="B123" s="56">
-        <v>15031</v>
-      </c>
-      <c r="C123" s="125">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D123" s="125">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F123" s="127" t="e">
-        <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="125">
-        <v>20</v>
-      </c>
-      <c r="B124" s="56">
-        <v>15032</v>
-      </c>
-      <c r="C124" s="125">
-        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D124" s="125">
-        <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F124" s="127" t="e">
-        <f>IFERROR((E124 + Params!$B$3^2/(2 * C124))/(1 + Params!$B$3^2/C124), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G124" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C124))*SQRT(E124*(1-E124)/C124 + (Params!$B$3/(2*C124))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="125">
-        <v>20</v>
-      </c>
-      <c r="B125" s="56">
-        <v>15033</v>
-      </c>
-      <c r="C125" s="125">
-        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="D125" s="125">
-        <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E125" s="127">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="F125" s="127">
-        <f>IFERROR((E125 + Params!$B$3^2/(2 * C125))/(1 + Params!$B$3^2/C125), NA())</f>
-        <v>0.37247500510099979</v>
-      </c>
-      <c r="G125" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C125))*SQRT(E125*(1-E125)/C125 + (Params!$B$3/(2*C125))^2), 0)</f>
-        <v>0.32688894245636357</v>
-      </c>
-      <c r="H125" s="128">
-        <f t="shared" si="18"/>
-        <v>4.5586062644636216E-2</v>
-      </c>
-      <c r="I125" s="128">
-        <f t="shared" si="19"/>
-        <v>0.69936394755736342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="125">
-        <v>20</v>
-      </c>
-      <c r="B126" s="56">
-        <v>15034</v>
-      </c>
-      <c r="C126" s="125">
-        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="D126" s="125">
-        <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E126" s="127">
-        <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F126" s="127">
-        <f>IFERROR((E126 + Params!$B$3^2/(2 * C126))/(1 + Params!$B$3^2/C126), NA())</f>
-        <v>0.57308231992516367</v>
-      </c>
-      <c r="G126" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C126))*SQRT(E126*(1-E126)/C126 + (Params!$B$3/(2*C126))^2), 0)</f>
-        <v>0.36542736479867571</v>
-      </c>
-      <c r="H126" s="128">
-        <f t="shared" si="18"/>
-        <v>0.20765495512648796</v>
-      </c>
-      <c r="I126" s="128">
-        <f t="shared" si="19"/>
-        <v>0.93850968472383944</v>
-      </c>
-    </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="125">
         <v>20</v>
       </c>
-      <c r="B127" s="56">
-        <v>15035</v>
+      <c r="B127">
+        <v>15018</v>
       </c>
       <c r="C127" s="125">
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127" s="125">
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E127" s="127">
+      <c r="E127" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="127" t="e">
         <f>IFERROR((E127 + Params!$B$3^2/(2 * C127))/(1 + Params!$B$3^2/C127), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>#N/A</v>
       </c>
       <c r="G127" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C127))*SQRT(E127*(1-E127)/C127 + (Params!$B$3/(2*C127))^2), 0)</f>
-        <v>0.24495001020199958</v>
-      </c>
-      <c r="H127" s="128">
+        <v>0</v>
+      </c>
+      <c r="H127" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I127" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.48990002040399916</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="125">
         <v>20</v>
       </c>
-      <c r="B128" s="56">
-        <v>15036</v>
+      <c r="B128">
+        <v>15019</v>
       </c>
       <c r="C128" s="125">
         <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27761,8 +27759,8 @@
       <c r="A129" s="125">
         <v>20</v>
       </c>
-      <c r="B129" s="56">
-        <v>15037</v>
+      <c r="B129">
+        <v>15020</v>
       </c>
       <c r="C129" s="125">
         <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27797,8 +27795,8 @@
       <c r="A130" s="125">
         <v>20</v>
       </c>
-      <c r="B130" s="56">
-        <v>15038</v>
+      <c r="B130">
+        <v>15021</v>
       </c>
       <c r="C130" s="125">
         <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27833,8 +27831,8 @@
       <c r="A131" s="125">
         <v>20</v>
       </c>
-      <c r="B131" s="56">
-        <v>15039</v>
+      <c r="B131">
+        <v>15022</v>
       </c>
       <c r="C131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27869,8 +27867,8 @@
       <c r="A132" s="125">
         <v>20</v>
       </c>
-      <c r="B132" s="56">
-        <v>15040</v>
+      <c r="B132">
+        <v>15023</v>
       </c>
       <c r="C132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27905,8 +27903,8 @@
       <c r="A133" s="125">
         <v>20</v>
       </c>
-      <c r="B133" s="56">
-        <v>15041</v>
+      <c r="B133">
+        <v>15024</v>
       </c>
       <c r="C133" s="125">
         <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27941,8 +27939,8 @@
       <c r="A134" s="125">
         <v>20</v>
       </c>
-      <c r="B134" s="56">
-        <v>15042</v>
+      <c r="B134">
+        <v>15025</v>
       </c>
       <c r="C134" s="125">
         <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -27977,8 +27975,8 @@
       <c r="A135" s="125">
         <v>20</v>
       </c>
-      <c r="B135" s="56">
-        <v>15043</v>
+      <c r="B135">
+        <v>15026</v>
       </c>
       <c r="C135" s="125">
         <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -28013,116 +28011,116 @@
       <c r="A136" s="125">
         <v>20</v>
       </c>
-      <c r="B136" s="56">
-        <v>15044</v>
+      <c r="B136">
+        <v>15027</v>
       </c>
       <c r="C136" s="125">
         <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D136" s="125">
         <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E136" s="127" t="e">
+        <v>3</v>
+      </c>
+      <c r="E136" s="127">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F136" s="127" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="F136" s="127">
         <f>IFERROR((E136 + Params!$B$3^2/(2 * C136))/(1 + Params!$B$3^2/C136), NA())</f>
-        <v>#N/A</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G136" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C136))*SQRT(E136*(1-E136)/C136 + (Params!$B$3/(2*C136))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="128" t="e">
+        <v>0.32688894245636357</v>
+      </c>
+      <c r="H136" s="128">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I136" s="128" t="e">
+        <v>0.30063605244263658</v>
+      </c>
+      <c r="I136" s="128">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="125">
         <v>20</v>
       </c>
-      <c r="B137" s="56">
-        <v>15045</v>
+      <c r="B137">
+        <v>15028</v>
       </c>
       <c r="C137" s="125">
         <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D137" s="125">
         <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E137" s="127" t="e">
+        <v>31</v>
+      </c>
+      <c r="E137" s="127">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F137" s="127" t="e">
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="F137" s="127">
         <f>IFERROR((E137 + Params!$B$3^2/(2 * C137))/(1 + Params!$B$3^2/C137), NA())</f>
-        <v>#N/A</v>
+        <v>0.589538981691069</v>
       </c>
       <c r="G137" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C137))*SQRT(E137*(1-E137)/C137 + (Params!$B$3/(2*C137))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="128" t="e">
+        <v>0.12886566406610814</v>
+      </c>
+      <c r="H137" s="128">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I137" s="128" t="e">
+        <v>0.46067331762496089</v>
+      </c>
+      <c r="I137" s="128">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>0.71840464575717711</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="125">
         <v>20</v>
       </c>
-      <c r="B138" s="56">
-        <v>15046</v>
+      <c r="B138">
+        <v>15029</v>
       </c>
       <c r="C138" s="125">
         <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D138" s="125">
         <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E138" s="127" t="e">
+        <v>3</v>
+      </c>
+      <c r="E138" s="127">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F138" s="127" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="F138" s="127">
         <f>IFERROR((E138 + Params!$B$3^2/(2 * C138))/(1 + Params!$B$3^2/C138), NA())</f>
-        <v>#N/A</v>
+        <v>0.55655085052479192</v>
       </c>
       <c r="G138" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C138))*SQRT(E138*(1-E138)/C138 + (Params!$B$3/(2*C138))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="128" t="e">
+        <v>0.32583091831595484</v>
+      </c>
+      <c r="H138" s="128">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I138" s="128" t="e">
+        <v>0.23071993220883708</v>
+      </c>
+      <c r="I138" s="128">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>0.88238176884074671</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="125">
         <v>20</v>
       </c>
-      <c r="B139" s="56">
-        <v>15047</v>
+      <c r="B139">
+        <v>15030</v>
       </c>
       <c r="C139" s="125">
         <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -28157,8 +28155,8 @@
       <c r="A140" s="125">
         <v>20</v>
       </c>
-      <c r="B140" s="56">
-        <v>15048</v>
+      <c r="B140">
+        <v>15031</v>
       </c>
       <c r="C140" s="125">
         <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -28189,9 +28187,621 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="125">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>15032</v>
+      </c>
+      <c r="C141" s="125">
+        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="125">
+        <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="127" t="e">
+        <f t="shared" ref="E141:E157" si="23">IFERROR(D141/C141, NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F141" s="127" t="e">
+        <f>IFERROR((E141 + Params!$B$3^2/(2 * C141))/(1 + Params!$B$3^2/C141), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G141" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C141))*SQRT(E141*(1-E141)/C141 + (Params!$B$3/(2*C141))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H141" s="128" t="e">
+        <f t="shared" ref="H141:H157" si="24">F141-G141</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I141" s="128" t="e">
+        <f t="shared" ref="I141:I157" si="25">F141+G141</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="125">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>15033</v>
+      </c>
+      <c r="C142" s="125">
+        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D142" s="125">
+        <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E142" s="127">
+        <f t="shared" si="23"/>
+        <v>0.25</v>
+      </c>
+      <c r="F142" s="127">
+        <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
+        <v>0.37247500510099979</v>
+      </c>
+      <c r="G142" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), 0)</f>
+        <v>0.32688894245636357</v>
+      </c>
+      <c r="H142" s="128">
+        <f t="shared" si="24"/>
+        <v>4.5586062644636216E-2</v>
+      </c>
+      <c r="I142" s="128">
+        <f t="shared" si="25"/>
+        <v>0.69936394755736342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="125">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>15034</v>
+      </c>
+      <c r="C143" s="125">
+        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="D143" s="125">
+        <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="E143" s="127">
+        <f t="shared" si="23"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F143" s="127">
+        <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
+        <v>0.60160949439115585</v>
+      </c>
+      <c r="G143" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), 0)</f>
+        <v>0.30162117304962721</v>
+      </c>
+      <c r="H143" s="128">
+        <f t="shared" si="24"/>
+        <v>0.29998832134152864</v>
+      </c>
+      <c r="I143" s="128">
+        <f t="shared" si="25"/>
+        <v>0.90323066744078306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="125">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>15035</v>
+      </c>
+      <c r="C144" s="125">
+        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D144" s="125">
+        <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E144" s="127">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="F144" s="127">
+        <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
+        <v>0.33034744842562436</v>
+      </c>
+      <c r="G144" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), 0)</f>
+        <v>0.29412428745583691</v>
+      </c>
+      <c r="H144" s="128">
+        <f t="shared" si="24"/>
+        <v>3.6223160969787449E-2</v>
+      </c>
+      <c r="I144" s="128">
+        <f t="shared" si="25"/>
+        <v>0.62447173588146132</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="125">
+        <v>20</v>
+      </c>
+      <c r="B145">
+        <v>15036</v>
+      </c>
+      <c r="C145" s="125">
+        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="125">
+        <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E145" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F145" s="127" t="e">
+        <f>IFERROR((E145 + Params!$B$3^2/(2 * C145))/(1 + Params!$B$3^2/C145), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G145" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C145))*SQRT(E145*(1-E145)/C145 + (Params!$B$3/(2*C145))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I145" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="125">
+        <v>20</v>
+      </c>
+      <c r="B146">
+        <v>15037</v>
+      </c>
+      <c r="C146" s="125">
+        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="125">
+        <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E146" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F146" s="127" t="e">
+        <f>IFERROR((E146 + Params!$B$3^2/(2 * C146))/(1 + Params!$B$3^2/C146), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G146" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C146))*SQRT(E146*(1-E146)/C146 + (Params!$B$3/(2*C146))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I146" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="125">
+        <v>20</v>
+      </c>
+      <c r="B147">
+        <v>15038</v>
+      </c>
+      <c r="C147" s="125">
+        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D147" s="125">
+        <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F147" s="127" t="e">
+        <f>IFERROR((E147 + Params!$B$3^2/(2 * C147))/(1 + Params!$B$3^2/C147), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G147" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C147))*SQRT(E147*(1-E147)/C147 + (Params!$B$3/(2*C147))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I147" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="125">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>15039</v>
+      </c>
+      <c r="C148" s="125">
+        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="125">
+        <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F148" s="127" t="e">
+        <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G148" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I148" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="125">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>15040</v>
+      </c>
+      <c r="C149" s="125">
+        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="125">
+        <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F149" s="127" t="e">
+        <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G149" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I149" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="125">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>15041</v>
+      </c>
+      <c r="C150" s="125">
+        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="125">
+        <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F150" s="127" t="e">
+        <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G150" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I150" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="125">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>15042</v>
+      </c>
+      <c r="C151" s="125">
+        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="125">
+        <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F151" s="127" t="e">
+        <f>IFERROR((E151 + Params!$B$3^2/(2 * C151))/(1 + Params!$B$3^2/C151), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G151" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C151))*SQRT(E151*(1-E151)/C151 + (Params!$B$3/(2*C151))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I151" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="125">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>15043</v>
+      </c>
+      <c r="C152" s="125">
+        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D152" s="125">
+        <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E152" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F152" s="127" t="e">
+        <f>IFERROR((E152 + Params!$B$3^2/(2 * C152))/(1 + Params!$B$3^2/C152), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G152" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C152))*SQRT(E152*(1-E152)/C152 + (Params!$B$3/(2*C152))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I152" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="125">
+        <v>20</v>
+      </c>
+      <c r="B153">
+        <v>15044</v>
+      </c>
+      <c r="C153" s="125">
+        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="125">
+        <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F153" s="127" t="e">
+        <f>IFERROR((E153 + Params!$B$3^2/(2 * C153))/(1 + Params!$B$3^2/C153), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G153" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C153))*SQRT(E153*(1-E153)/C153 + (Params!$B$3/(2*C153))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I153" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="125">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>15045</v>
+      </c>
+      <c r="C154" s="125">
+        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="125">
+        <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E154" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F154" s="127" t="e">
+        <f>IFERROR((E154 + Params!$B$3^2/(2 * C154))/(1 + Params!$B$3^2/C154), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G154" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C154))*SQRT(E154*(1-E154)/C154 + (Params!$B$3/(2*C154))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I154" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="125">
+        <v>20</v>
+      </c>
+      <c r="B155">
+        <v>15046</v>
+      </c>
+      <c r="C155" s="125">
+        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D155" s="125">
+        <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E155" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F155" s="127" t="e">
+        <f>IFERROR((E155 + Params!$B$3^2/(2 * C155))/(1 + Params!$B$3^2/C155), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G155" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C155))*SQRT(E155*(1-E155)/C155 + (Params!$B$3/(2*C155))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I155" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="125">
+        <v>20</v>
+      </c>
+      <c r="B156">
+        <v>15047</v>
+      </c>
+      <c r="C156" s="125">
+        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D156" s="125">
+        <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E156" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F156" s="127" t="e">
+        <f>IFERROR((E156 + Params!$B$3^2/(2 * C156))/(1 + Params!$B$3^2/C156), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G156" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C156))*SQRT(E156*(1-E156)/C156 + (Params!$B$3/(2*C156))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I156" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="125">
+        <v>20</v>
+      </c>
+      <c r="B157">
+        <v>15048</v>
+      </c>
+      <c r="C157" s="125">
+        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D157" s="125">
+        <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E157" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F157" s="127" t="e">
+        <f>IFERROR((E157 + Params!$B$3^2/(2 * C157))/(1 + Params!$B$3^2/C157), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G157" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C157))*SQRT(E157*(1-E157)/C157 + (Params!$B$3/(2*C157))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="128" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I157" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E1:E140 E158:E1048576">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -28203,7 +28813,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F140">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141:E157">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:F157">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597BBD0-92A6-448C-A166-F1C75C0F9FD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA6CD3-AD1A-4EBE-8289-4643DA751A98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="65">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -234,11 +234,20 @@
   <si>
     <t>Est on 9/7/2919</t>
   </si>
+  <si>
+    <t>wd pct</t>
+  </si>
+  <si>
+    <t>ws pct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -678,6 +687,7 @@
     <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2653,6 +2663,582 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AI$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wd pct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$AE$69:$AE$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AI$69:$AI$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16338328226733051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23995894818595365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30930322866969934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B480-438D-A3ED-A08DB6969DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1802080096"/>
+        <c:axId val="1801523216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1802080096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801523216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1801523216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1802080096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AI$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ws pct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$AE$84:$AE$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AI$84:$AI$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19863611315209401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20528680794408075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34397536891157215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC07-4FF5-BDE8-D77314582478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1915293680"/>
+        <c:axId val="1801521968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1915293680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801521968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1801521968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915293680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
@@ -3110,7 +3696,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3841,6 +4427,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5919,6 +6585,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6434,7 +8106,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7050,15 +8722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>118110</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7078,6 +8750,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F1ACB9-836A-4FE0-A993-7FE260473819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2884AD31-9948-4780-A8D2-640663DFDDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19692,7 +21436,7 @@
       </c>
       <c r="P1" s="139">
         <f ca="1">NOW() +N1</f>
-        <v>43725.504879460466</v>
+        <v>43725.516489645655</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -20053,8 +21797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView tabSelected="1" topLeftCell="N70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R83" sqref="R83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -23923,7 +25667,7 @@
       </c>
       <c r="AC39" s="125"/>
       <c r="AD39" s="125"/>
-      <c r="AE39" s="125">
+      <c r="AE39" s="143">
         <v>0.1</v>
       </c>
       <c r="AF39" s="125" t="str">
@@ -23986,7 +25730,7 @@
       </c>
       <c r="AC40" s="125"/>
       <c r="AD40" s="125"/>
-      <c r="AE40" s="125">
+      <c r="AE40" s="143">
         <v>0.1</v>
       </c>
       <c r="AF40" s="125" t="str">
@@ -24049,7 +25793,7 @@
       </c>
       <c r="AC41" s="56"/>
       <c r="AD41" s="56"/>
-      <c r="AE41" s="125">
+      <c r="AE41" s="143">
         <v>0.1</v>
       </c>
       <c r="AF41" s="125" t="str">
@@ -24119,7 +25863,7 @@
       </c>
       <c r="AC42" s="125"/>
       <c r="AD42" s="125"/>
-      <c r="AE42" s="125">
+      <c r="AE42" s="143">
         <v>0.1</v>
       </c>
       <c r="AF42" s="125" t="str">
@@ -24182,7 +25926,7 @@
       </c>
       <c r="AC43" s="125"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="125">
+      <c r="AE43" s="143">
         <v>0.1</v>
       </c>
       <c r="AF43" s="125" t="str">
@@ -24245,7 +25989,7 @@
       </c>
       <c r="AC44" s="125"/>
       <c r="AD44" s="125"/>
-      <c r="AE44" s="125">
+      <c r="AE44" s="143">
         <v>0.1</v>
       </c>
       <c r="AF44" s="125" t="str">
@@ -24308,7 +26052,7 @@
       </c>
       <c r="AC45" s="125"/>
       <c r="AD45" s="125"/>
-      <c r="AE45" s="125">
+      <c r="AE45" s="143">
         <v>0.1</v>
       </c>
       <c r="AF45" s="125" t="str">
@@ -24371,7 +26115,7 @@
       </c>
       <c r="AC46" s="125"/>
       <c r="AD46" s="125"/>
-      <c r="AE46" s="125">
+      <c r="AE46" s="143">
         <v>0.1</v>
       </c>
       <c r="AF46" s="125" t="str">
@@ -24434,7 +26178,7 @@
       </c>
       <c r="AC47" s="125"/>
       <c r="AD47" s="125"/>
-      <c r="AE47" s="125">
+      <c r="AE47" s="143">
         <v>0.1</v>
       </c>
       <c r="AF47" s="125" t="str">
@@ -24497,7 +26241,7 @@
       </c>
       <c r="AC48" s="125"/>
       <c r="AD48" s="125"/>
-      <c r="AE48" s="125">
+      <c r="AE48" s="143">
         <v>0.1</v>
       </c>
       <c r="AF48" s="125" t="str">
@@ -24560,7 +26304,7 @@
       </c>
       <c r="AC49" s="125"/>
       <c r="AD49" s="125"/>
-      <c r="AE49" s="125">
+      <c r="AE49" s="143">
         <v>0.1</v>
       </c>
       <c r="AF49" s="125" t="str">
@@ -24794,7 +26538,7 @@
       <c r="AD54" s="133">
         <v>0</v>
       </c>
-      <c r="AE54" s="125">
+      <c r="AE54" s="143">
         <v>0.1</v>
       </c>
       <c r="AF54" s="125" t="str">
@@ -24857,7 +26601,7 @@
       <c r="AD55" s="133">
         <v>0.1</v>
       </c>
-      <c r="AE55" s="125">
+      <c r="AE55" s="143">
         <v>0.1</v>
       </c>
       <c r="AF55" s="125" t="str">
@@ -24920,7 +26664,7 @@
       <c r="AD56" s="133">
         <v>0.2</v>
       </c>
-      <c r="AE56" s="125">
+      <c r="AE56" s="143">
         <v>0.1</v>
       </c>
       <c r="AF56" s="125" t="str">
@@ -24990,7 +26734,7 @@
       <c r="AD57" s="133">
         <v>0.3</v>
       </c>
-      <c r="AE57" s="125">
+      <c r="AE57" s="143">
         <v>0.1</v>
       </c>
       <c r="AF57" s="125" t="str">
@@ -25053,7 +26797,7 @@
       <c r="AD58" s="133">
         <v>0.4</v>
       </c>
-      <c r="AE58" s="125">
+      <c r="AE58" s="143">
         <v>0.1</v>
       </c>
       <c r="AF58" s="125" t="str">
@@ -25116,7 +26860,7 @@
       <c r="AD59" s="133">
         <v>0.5</v>
       </c>
-      <c r="AE59" s="125">
+      <c r="AE59" s="143">
         <v>0.1</v>
       </c>
       <c r="AF59" s="125" t="str">
@@ -25179,7 +26923,7 @@
       <c r="AD60" s="133">
         <v>0.6</v>
       </c>
-      <c r="AE60" s="125">
+      <c r="AE60" s="143">
         <v>0.1</v>
       </c>
       <c r="AF60" s="125" t="str">
@@ -25242,7 +26986,7 @@
       <c r="AD61" s="133">
         <v>0.7</v>
       </c>
-      <c r="AE61" s="125">
+      <c r="AE61" s="143">
         <v>0.1</v>
       </c>
       <c r="AF61" s="125" t="str">
@@ -25305,7 +27049,7 @@
       <c r="AD62" s="133">
         <v>0.8</v>
       </c>
-      <c r="AE62" s="125">
+      <c r="AE62" s="143">
         <v>0.1</v>
       </c>
       <c r="AF62" s="125" t="str">
@@ -25368,7 +27112,7 @@
       <c r="AD63" s="133">
         <v>0.9</v>
       </c>
-      <c r="AE63" s="125">
+      <c r="AE63" s="143">
         <v>0.1</v>
       </c>
       <c r="AF63" s="125" t="str">
@@ -25431,7 +27175,7 @@
       <c r="AD64" s="133">
         <v>1</v>
       </c>
-      <c r="AE64" s="125">
+      <c r="AE64" s="143">
         <v>0.1</v>
       </c>
       <c r="AF64" s="125" t="str">
@@ -25451,7 +27195,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="125">
         <v>20</v>
       </c>
@@ -25487,7 +27231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="125">
         <v>20</v>
       </c>
@@ -25523,7 +27267,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="125">
         <v>20</v>
       </c>
@@ -25559,7 +27303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="125">
         <v>20</v>
       </c>
@@ -25594,8 +27338,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA68" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB68" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC68" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD68" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE68" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF68" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG68" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH68" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI68" s="125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="125">
         <v>20</v>
       </c>
@@ -25630,8 +27401,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA69" s="125">
+        <v>20</v>
+      </c>
+      <c r="AB69" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AC69" s="125"/>
+      <c r="AD69" s="125"/>
+      <c r="AE69" s="143">
+        <v>0.1</v>
+      </c>
+      <c r="AF69" s="125" t="str">
+        <f>AA69 &amp; "#" &amp;  AC69 &amp; "#" &amp; AB69 &amp; "#" &amp;AD69 &amp; "#" &amp; AE69</f>
+        <v>20##0.2##0.1</v>
+      </c>
+      <c r="AG69" s="125">
+        <f>MATCH(AF69, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AH69" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG69-1, 0)</f>
+        <v>7001</v>
+      </c>
+      <c r="AI69" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
+        <v>0.16338328226733051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="125">
         <v>20</v>
       </c>
@@ -25666,8 +27464,35 @@
         <f t="shared" si="19"/>
         <v>0.43430059955238565</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA70" s="125">
+        <v>20</v>
+      </c>
+      <c r="AB70" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AC70" s="125"/>
+      <c r="AD70" s="125"/>
+      <c r="AE70" s="143">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="125" t="str">
+        <f t="shared" ref="AF70:AF79" si="20">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
+        <v>20##0.2##1</v>
+      </c>
+      <c r="AG70" s="125">
+        <f>MATCH(AF70, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>91</v>
+      </c>
+      <c r="AH70" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG70-1, 0)</f>
+        <v>13001</v>
+      </c>
+      <c r="AI70" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$F1031, 5), "")</f>
+        <v>0.23995894818595365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="125">
         <v>20</v>
       </c>
@@ -25702,8 +27527,35 @@
         <f t="shared" si="19"/>
         <v>0.39131335536538248</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA71" s="125">
+        <v>20</v>
+      </c>
+      <c r="AB71" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AC71" s="56"/>
+      <c r="AD71" s="56"/>
+      <c r="AE71" s="143">
+        <v>10</v>
+      </c>
+      <c r="AF71" s="125" t="str">
+        <f t="shared" si="20"/>
+        <v>20##0.2##10</v>
+      </c>
+      <c r="AG71" s="125">
+        <f>MATCH(AF71, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>92</v>
+      </c>
+      <c r="AH71" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG71-1, 0)</f>
+        <v>13002</v>
+      </c>
+      <c r="AI71" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$F1032, 5), "")</f>
+        <v>0.30930322866969934</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="125">
         <v>20</v>
       </c>
@@ -25738,8 +27590,35 @@
         <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA72" s="125">
+        <v>20</v>
+      </c>
+      <c r="AB72" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AC72" s="125"/>
+      <c r="AD72" s="125"/>
+      <c r="AE72" s="143">
+        <v>100</v>
+      </c>
+      <c r="AF72" s="125" t="str">
+        <f t="shared" si="20"/>
+        <v>20##0.2##100</v>
+      </c>
+      <c r="AG72" s="125">
+        <f>MATCH(AF72, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>93</v>
+      </c>
+      <c r="AH72" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG72-1, 0)</f>
+        <v>13003</v>
+      </c>
+      <c r="AI72" s="128" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$F1033, 5), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="125">
         <v>20</v>
       </c>
@@ -25774,8 +27653,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA73" s="125"/>
+      <c r="AB73" s="133"/>
+      <c r="AC73" s="125"/>
+      <c r="AD73" s="125"/>
+      <c r="AE73" s="143"/>
+      <c r="AF73" s="125"/>
+      <c r="AG73" s="125"/>
+      <c r="AH73" s="125"/>
+      <c r="AI73" s="128"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="125">
         <v>20</v>
       </c>
@@ -25810,8 +27698,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA74" s="125"/>
+      <c r="AB74" s="133"/>
+      <c r="AC74" s="125"/>
+      <c r="AD74" s="125"/>
+      <c r="AE74" s="143"/>
+      <c r="AF74" s="125"/>
+      <c r="AG74" s="125"/>
+      <c r="AH74" s="125"/>
+      <c r="AI74" s="128"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="125">
         <v>20</v>
       </c>
@@ -25846,8 +27743,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA75" s="125"/>
+      <c r="AB75" s="133"/>
+      <c r="AC75" s="125"/>
+      <c r="AD75" s="125"/>
+      <c r="AE75" s="143"/>
+      <c r="AF75" s="125"/>
+      <c r="AG75" s="125"/>
+      <c r="AH75" s="125"/>
+      <c r="AI75" s="128"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="125">
         <v>20</v>
       </c>
@@ -25882,8 +27788,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA76" s="125"/>
+      <c r="AB76" s="133"/>
+      <c r="AC76" s="125"/>
+      <c r="AD76" s="125"/>
+      <c r="AE76" s="143"/>
+      <c r="AF76" s="125"/>
+      <c r="AG76" s="125"/>
+      <c r="AH76" s="125"/>
+      <c r="AI76" s="128"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="125">
         <v>20</v>
       </c>
@@ -25918,8 +27833,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA77" s="125"/>
+      <c r="AB77" s="133"/>
+      <c r="AC77" s="125"/>
+      <c r="AD77" s="125"/>
+      <c r="AE77" s="143"/>
+      <c r="AF77" s="125"/>
+      <c r="AG77" s="125"/>
+      <c r="AH77" s="125"/>
+      <c r="AI77" s="128"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="125">
         <v>20</v>
       </c>
@@ -25954,8 +27878,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA78" s="125"/>
+      <c r="AB78" s="133"/>
+      <c r="AC78" s="125"/>
+      <c r="AD78" s="125"/>
+      <c r="AE78" s="143"/>
+      <c r="AF78" s="125"/>
+      <c r="AG78" s="125"/>
+      <c r="AH78" s="125"/>
+      <c r="AI78" s="128"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="125">
         <v>20</v>
       </c>
@@ -25990,8 +27923,17 @@
         <f t="shared" si="19"/>
         <v>0.34654013980238163</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA79" s="125"/>
+      <c r="AB79" s="133"/>
+      <c r="AC79" s="125"/>
+      <c r="AD79" s="125"/>
+      <c r="AE79" s="143"/>
+      <c r="AF79" s="125"/>
+      <c r="AG79" s="125"/>
+      <c r="AH79" s="125"/>
+      <c r="AI79" s="128"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="125">
         <v>20</v>
       </c>
@@ -26027,7 +27969,7 @@
         <v>0.29956192183373492</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="125">
         <v>20</v>
       </c>
@@ -26063,7 +28005,7 @@
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="125">
         <v>20</v>
       </c>
@@ -26099,7 +28041,7 @@
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="125">
         <v>20</v>
       </c>
@@ -26134,8 +28076,35 @@
         <f t="shared" si="19"/>
         <v>0.29956192183373492</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA83" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB83" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC83" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD83" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE83" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF83" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG83" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH83" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI83" s="125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="125">
         <v>20</v>
       </c>
@@ -26170,8 +28139,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA84" s="125"/>
+      <c r="AB84" s="133"/>
+      <c r="AC84" s="125">
+        <v>20</v>
+      </c>
+      <c r="AD84" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AE84" s="143">
+        <v>0.1</v>
+      </c>
+      <c r="AF84" s="125" t="str">
+        <f>AA84 &amp; "#" &amp;  AC84 &amp; "#" &amp; AB84 &amp; "#" &amp;AD84 &amp; "#" &amp; AE84</f>
+        <v>#20##0.2#0.1</v>
+      </c>
+      <c r="AG84" s="125">
+        <f>MATCH(AF84, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>62</v>
+      </c>
+      <c r="AH84" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG84-1, 0)</f>
+        <v>10002</v>
+      </c>
+      <c r="AI84" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
+        <v>0.19863611315209401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="125">
         <v>20</v>
       </c>
@@ -26206,8 +28202,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA85" s="125"/>
+      <c r="AB85" s="133"/>
+      <c r="AC85" s="125">
+        <v>20</v>
+      </c>
+      <c r="AD85" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AE85" s="143">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="125" t="str">
+        <f t="shared" ref="AF85:AF94" si="21">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
+        <v>#20##0.2#1</v>
+      </c>
+      <c r="AG85" s="125">
+        <f>MATCH(AF85, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>101</v>
+      </c>
+      <c r="AH85" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG85-1, 0)</f>
+        <v>14001</v>
+      </c>
+      <c r="AI85" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$F1046, 5), "")</f>
+        <v>0.20528680794408075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="125">
         <v>20</v>
       </c>
@@ -26242,8 +28265,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA86" s="125"/>
+      <c r="AB86" s="133"/>
+      <c r="AC86" s="125">
+        <v>20</v>
+      </c>
+      <c r="AD86" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AE86" s="143">
+        <v>10</v>
+      </c>
+      <c r="AF86" s="125" t="str">
+        <f t="shared" si="21"/>
+        <v>#20##0.2#10</v>
+      </c>
+      <c r="AG86" s="125">
+        <f>MATCH(AF86, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>102</v>
+      </c>
+      <c r="AH86" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG86-1, 0)</f>
+        <v>14002</v>
+      </c>
+      <c r="AI86" s="128">
+        <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$F1047, 5), "")</f>
+        <v>0.34397536891157215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="125">
         <v>20</v>
       </c>
@@ -26278,8 +28328,35 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA87" s="125"/>
+      <c r="AB87" s="133"/>
+      <c r="AC87" s="125">
+        <v>20</v>
+      </c>
+      <c r="AD87" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AE87" s="143">
+        <v>100</v>
+      </c>
+      <c r="AF87" s="125" t="str">
+        <f t="shared" si="21"/>
+        <v>#20##0.2#100</v>
+      </c>
+      <c r="AG87" s="125">
+        <f>MATCH(AF87, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>103</v>
+      </c>
+      <c r="AH87" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG87-1, 0)</f>
+        <v>14003</v>
+      </c>
+      <c r="AI87" s="128" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$F1048, 5), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="125">
         <v>20</v>
       </c>
@@ -26314,8 +28391,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA88" s="125"/>
+      <c r="AB88" s="133"/>
+      <c r="AC88" s="125"/>
+      <c r="AD88" s="133"/>
+      <c r="AE88" s="143"/>
+      <c r="AF88" s="125"/>
+      <c r="AG88" s="125"/>
+      <c r="AH88" s="125"/>
+      <c r="AI88" s="128"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="125">
         <v>20</v>
       </c>
@@ -26350,8 +28436,17 @@
         <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA89" s="125"/>
+      <c r="AB89" s="133"/>
+      <c r="AC89" s="125"/>
+      <c r="AD89" s="133"/>
+      <c r="AE89" s="143"/>
+      <c r="AF89" s="125"/>
+      <c r="AG89" s="125"/>
+      <c r="AH89" s="125"/>
+      <c r="AI89" s="128"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="125">
         <v>20</v>
       </c>
@@ -26386,8 +28481,17 @@
         <f t="shared" si="19"/>
         <v>0.39131335536538248</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA90" s="125"/>
+      <c r="AB90" s="133"/>
+      <c r="AC90" s="125"/>
+      <c r="AD90" s="133"/>
+      <c r="AE90" s="143"/>
+      <c r="AF90" s="125"/>
+      <c r="AG90" s="125"/>
+      <c r="AH90" s="125"/>
+      <c r="AI90" s="128"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="125">
         <v>20</v>
       </c>
@@ -26422,8 +28526,17 @@
         <f t="shared" si="19"/>
         <v>0.47576971896558296</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA91" s="125"/>
+      <c r="AB91" s="133"/>
+      <c r="AC91" s="125"/>
+      <c r="AD91" s="133"/>
+      <c r="AE91" s="143"/>
+      <c r="AF91" s="125"/>
+      <c r="AG91" s="125"/>
+      <c r="AH91" s="125"/>
+      <c r="AI91" s="128"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="125">
         <v>20</v>
       </c>
@@ -26458,8 +28571,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA92" s="125"/>
+      <c r="AB92" s="133"/>
+      <c r="AC92" s="125"/>
+      <c r="AD92" s="133"/>
+      <c r="AE92" s="143"/>
+      <c r="AF92" s="125"/>
+      <c r="AG92" s="125"/>
+      <c r="AH92" s="125"/>
+      <c r="AI92" s="128"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="125">
         <v>20</v>
       </c>
@@ -26494,8 +28616,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA93" s="125"/>
+      <c r="AB93" s="133"/>
+      <c r="AC93" s="125"/>
+      <c r="AD93" s="133"/>
+      <c r="AE93" s="143"/>
+      <c r="AF93" s="125"/>
+      <c r="AG93" s="125"/>
+      <c r="AH93" s="125"/>
+      <c r="AI93" s="128"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="125">
         <v>20</v>
       </c>
@@ -26530,8 +28661,17 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA94" s="125"/>
+      <c r="AB94" s="133"/>
+      <c r="AC94" s="125"/>
+      <c r="AD94" s="133"/>
+      <c r="AE94" s="143"/>
+      <c r="AF94" s="125"/>
+      <c r="AG94" s="125"/>
+      <c r="AH94" s="125"/>
+      <c r="AI94" s="128"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="125">
         <v>20</v>
       </c>
@@ -26567,7 +28707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="125">
         <v>20</v>
       </c>
@@ -27843,7 +29983,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="127" t="e">
-        <f t="shared" ref="E131:E140" si="20">IFERROR(D131/C131, NA())</f>
+        <f t="shared" ref="E131:E140" si="22">IFERROR(D131/C131, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F131" s="127" t="e">
@@ -27855,11 +29995,11 @@
         <v>0</v>
       </c>
       <c r="H131" s="128" t="e">
-        <f t="shared" ref="H131:H140" si="21">F131-G131</f>
+        <f t="shared" ref="H131:H140" si="23">F131-G131</f>
         <v>#N/A</v>
       </c>
       <c r="I131" s="128" t="e">
-        <f t="shared" ref="I131:I140" si="22">F131+G131</f>
+        <f t="shared" ref="I131:I140" si="24">F131+G131</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -27879,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F132" s="127" t="e">
@@ -27891,11 +30031,11 @@
         <v>0</v>
       </c>
       <c r="H132" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I132" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -27915,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F133" s="127" t="e">
@@ -27927,11 +30067,11 @@
         <v>0</v>
       </c>
       <c r="H133" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I133" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -27951,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F134" s="127" t="e">
@@ -27963,11 +30103,11 @@
         <v>0</v>
       </c>
       <c r="H134" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I134" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -27987,7 +30127,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F135" s="127" t="e">
@@ -27999,11 +30139,11 @@
         <v>0</v>
       </c>
       <c r="H135" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I135" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28023,7 +30163,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="F136" s="127">
@@ -28035,11 +30175,11 @@
         <v>0.32688894245636357</v>
       </c>
       <c r="H136" s="128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.30063605244263658</v>
       </c>
       <c r="I136" s="128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.95441393735536373</v>
       </c>
     </row>
@@ -28059,7 +30199,7 @@
         <v>31</v>
       </c>
       <c r="E137" s="127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.59615384615384615</v>
       </c>
       <c r="F137" s="127">
@@ -28071,11 +30211,11 @@
         <v>0.12886566406610814</v>
       </c>
       <c r="H137" s="128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.46067331762496089</v>
       </c>
       <c r="I137" s="128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.71840464575717711</v>
       </c>
     </row>
@@ -28095,7 +30235,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.6</v>
       </c>
       <c r="F138" s="127">
@@ -28107,11 +30247,11 @@
         <v>0.32583091831595484</v>
       </c>
       <c r="H138" s="128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23071993220883708</v>
       </c>
       <c r="I138" s="128">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.88238176884074671</v>
       </c>
     </row>
@@ -28131,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F139" s="127" t="e">
@@ -28143,11 +30283,11 @@
         <v>0</v>
       </c>
       <c r="H139" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I139" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28167,7 +30307,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="127" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="F140" s="127" t="e">
@@ -28179,11 +30319,11 @@
         <v>0</v>
       </c>
       <c r="H140" s="128" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="I140" s="128" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28203,7 +30343,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="127" t="e">
-        <f t="shared" ref="E141:E157" si="23">IFERROR(D141/C141, NA())</f>
+        <f t="shared" ref="E141:E157" si="25">IFERROR(D141/C141, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F141" s="127" t="e">
@@ -28215,11 +30355,11 @@
         <v>0</v>
       </c>
       <c r="H141" s="128" t="e">
-        <f t="shared" ref="H141:H157" si="24">F141-G141</f>
+        <f t="shared" ref="H141:H157" si="26">F141-G141</f>
         <v>#N/A</v>
       </c>
       <c r="I141" s="128" t="e">
-        <f t="shared" ref="I141:I157" si="25">F141+G141</f>
+        <f t="shared" ref="I141:I157" si="27">F141+G141</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28239,7 +30379,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="F142" s="127">
@@ -28251,11 +30391,11 @@
         <v>0.32688894245636357</v>
       </c>
       <c r="H142" s="128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.5586062644636216E-2</v>
       </c>
       <c r="I142" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.69936394755736342</v>
       </c>
     </row>
@@ -28275,7 +30415,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F143" s="127">
@@ -28287,11 +30427,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H143" s="128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.29998832134152864</v>
       </c>
       <c r="I143" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.90323066744078306</v>
       </c>
     </row>
@@ -28311,7 +30451,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="127">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="F144" s="127">
@@ -28323,11 +30463,11 @@
         <v>0.29412428745583691</v>
       </c>
       <c r="H144" s="128">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.6223160969787449E-2</v>
       </c>
       <c r="I144" s="128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.62447173588146132</v>
       </c>
     </row>
@@ -28347,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F145" s="127" t="e">
@@ -28359,11 +30499,11 @@
         <v>0</v>
       </c>
       <c r="H145" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I145" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28383,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F146" s="127" t="e">
@@ -28395,11 +30535,11 @@
         <v>0</v>
       </c>
       <c r="H146" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I146" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28419,7 +30559,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F147" s="127" t="e">
@@ -28431,11 +30571,11 @@
         <v>0</v>
       </c>
       <c r="H147" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I147" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28455,7 +30595,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F148" s="127" t="e">
@@ -28467,11 +30607,11 @@
         <v>0</v>
       </c>
       <c r="H148" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I148" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28491,7 +30631,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F149" s="127" t="e">
@@ -28503,11 +30643,11 @@
         <v>0</v>
       </c>
       <c r="H149" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I149" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28527,7 +30667,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F150" s="127" t="e">
@@ -28539,11 +30679,11 @@
         <v>0</v>
       </c>
       <c r="H150" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I150" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28563,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F151" s="127" t="e">
@@ -28575,11 +30715,11 @@
         <v>0</v>
       </c>
       <c r="H151" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I151" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28599,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F152" s="127" t="e">
@@ -28611,11 +30751,11 @@
         <v>0</v>
       </c>
       <c r="H152" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I152" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28635,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F153" s="127" t="e">
@@ -28647,11 +30787,11 @@
         <v>0</v>
       </c>
       <c r="H153" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I153" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28671,7 +30811,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F154" s="127" t="e">
@@ -28683,11 +30823,11 @@
         <v>0</v>
       </c>
       <c r="H154" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I154" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28707,7 +30847,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F155" s="127" t="e">
@@ -28719,11 +30859,11 @@
         <v>0</v>
       </c>
       <c r="H155" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I155" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28743,7 +30883,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F156" s="127" t="e">
@@ -28755,11 +30895,11 @@
         <v>0</v>
       </c>
       <c r="H156" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I156" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -28779,7 +30919,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="127" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="F157" s="127" t="e">
@@ -28791,11 +30931,11 @@
         <v>0</v>
       </c>
       <c r="H157" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="I157" s="128" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA6CD3-AD1A-4EBE-8289-4643DA751A98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556735D-2236-4ACC-B191-A73EE2F3FFBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="65">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -335,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -527,15 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -679,7 +670,6 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -688,6 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2695,20 +2686,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TOTAL!$AE$69:$AE$72</c:f>
+              <c:f>TOTAL!$AE$69:$AE$73</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2716,20 +2710,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AI$69:$AI$72</c:f>
+              <c:f>TOTAL!$AI$69:$AI$73</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.16338328226733051</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.23995894818595365</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.30930322866969934</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2737,7 +2734,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B480-438D-A3ED-A08DB6969DF9}"/>
+              <c16:uniqueId val="{00000000-23B8-4A1E-9832-5589EF040BB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2751,17 +2748,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1802080096"/>
-        <c:axId val="1801523216"/>
+        <c:axId val="1997698495"/>
+        <c:axId val="1841343855"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1802080096"/>
+        <c:axId val="1997698495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2798,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801523216"/>
+        <c:crossAx val="1841343855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2806,7 +2803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801523216"/>
+        <c:axId val="1841343855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802080096"/>
+        <c:crossAx val="1997698495"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,43 +2978,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AE$84:$AE$87</c:f>
+              <c:f>TOTAL!$AI$84:$AI$88</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.19863611315209401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0.20528680794408075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TOTAL!$AI$84:$AI$87</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.19863611315209401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20528680794408075</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.34397536891157215</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3025,7 +3004,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC07-4FF5-BDE8-D77314582478}"/>
+              <c16:uniqueId val="{00000000-F50C-4069-92B7-DF9EA02508B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3039,17 +3018,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1915293680"/>
-        <c:axId val="1801521968"/>
+        <c:axId val="1999062159"/>
+        <c:axId val="1833325087"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1915293680"/>
+        <c:axId val="1999062159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3086,7 +3065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1801521968"/>
+        <c:crossAx val="1833325087"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +3073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1801521968"/>
+        <c:axId val="1833325087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1915293680"/>
+        <c:crossAx val="1999062159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8758,22 +8737,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F1ACB9-836A-4FE0-A993-7FE260473819}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8B1319-0A9A-4B05-B05A-8F09BC277D43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8794,22 +8773,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2884AD31-9948-4780-A8D2-640663DFDDE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B019888-19AD-4310-B7E0-D1BD2AB94705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9250,10 +9229,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B158"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11718,73 +11697,73 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B100">
-        <v>14000</v>
+        <v>13010</v>
       </c>
       <c r="C100" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E100">
+        <v>0.01</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G100">
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.1</v>
+        <v>20##0.2##0.01</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B101">
-        <v>14001</v>
+        <v>13011</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E101">
+        <v>0.02</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G101">
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#1</v>
+        <v>20##0.2##0.02</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B102">
-        <v>14002</v>
+        <v>13012</v>
       </c>
       <c r="C102" s="2">
-        <v>10</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E102">
+        <v>0.05</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G102">
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#10</v>
+        <v>20##0.2##0.05</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B103">
-        <v>14003</v>
+        <v>14000</v>
       </c>
       <c r="C103" s="2">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="D103" s="2">
         <v>0.2</v>
@@ -11797,15 +11776,15 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#100</v>
+        <v>#20##0.2#0.1</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B104">
-        <v>14004</v>
+        <v>14001</v>
       </c>
       <c r="C104" s="2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2">
         <v>0.2</v>
@@ -11818,15 +11797,15 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.2</v>
+        <v>#20##0.2#1</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B105">
-        <v>14005</v>
+        <v>14002</v>
       </c>
       <c r="C105" s="2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2">
         <v>0.2</v>
@@ -11839,15 +11818,15 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#0.5</v>
+        <v>#20##0.2#10</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B106">
-        <v>14006</v>
+        <v>14003</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D106" s="2">
         <v>0.2</v>
@@ -11860,15 +11839,15 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#2</v>
+        <v>#20##0.2#100</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B107">
-        <v>14007</v>
+        <v>14004</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="D107" s="2">
         <v>0.2</v>
@@ -11881,15 +11860,15 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#5</v>
+        <v>#20##0.2#0.2</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B108">
-        <v>14008</v>
+        <v>14005</v>
       </c>
       <c r="C108" s="2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="D108" s="2">
         <v>0.2</v>
@@ -11902,15 +11881,15 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#20</v>
+        <v>#20##0.2#0.5</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B109">
-        <v>14009</v>
+        <v>14006</v>
       </c>
       <c r="C109" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D109" s="2">
         <v>0.2</v>
@@ -11923,174 +11902,138 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>#20##0.2#50</v>
+        <v>#20##0.2#2</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B110">
-        <v>15000</v>
+        <v>14007</v>
       </c>
       <c r="C110" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D110" s="2">
         <v>0.2</v>
       </c>
       <c r="E110">
-        <v>10</v>
-      </c>
-      <c r="F110" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G110">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>10#10#0.2#0.2#10</v>
+        <v>#20##0.2#5</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B111">
-        <v>15001</v>
+        <v>14008</v>
       </c>
       <c r="C111" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2">
         <v>0.2</v>
       </c>
       <c r="E111">
-        <v>10</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G111">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>5#10#0.2#0.2#10</v>
+        <v>#20##0.2#20</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B112">
-        <v>15002</v>
+        <v>14009</v>
       </c>
       <c r="C112" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D112" s="2">
         <v>0.2</v>
       </c>
       <c r="E112">
-        <v>10</v>
-      </c>
-      <c r="F112" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G112">
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>20#10#0.2#0.2#10</v>
+        <v>#20##0.2#50</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B113">
-        <v>15003</v>
+        <v>14010</v>
       </c>
       <c r="C113" s="2">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="D113" s="2">
         <v>0.2</v>
       </c>
       <c r="E113">
-        <v>5</v>
-      </c>
-      <c r="F113" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G113">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>10#5#0.2#0.2#10</v>
+        <v>#20##0.2#0.01</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B114">
-        <v>15004</v>
+        <v>14011</v>
       </c>
       <c r="C114" s="2">
-        <v>10</v>
+        <v>0.02</v>
       </c>
       <c r="D114" s="2">
         <v>0.2</v>
       </c>
       <c r="E114">
-        <v>5</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G114">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>5#5#0.2#0.2#10</v>
+        <v>#20##0.2#0.02</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B115">
-        <v>15005</v>
+        <v>14012</v>
       </c>
       <c r="C115" s="2">
-        <v>10</v>
+        <v>0.05</v>
       </c>
       <c r="D115" s="2">
         <v>0.2</v>
       </c>
       <c r="E115">
-        <v>5</v>
-      </c>
-      <c r="F115" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G115">
         <v>20</v>
       </c>
       <c r="H115" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>20#5#0.2#0.2#10</v>
+        <v>#20##0.2#0.05</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B116">
-        <v>15006</v>
+        <v>15000</v>
       </c>
       <c r="C116" s="2">
         <v>10</v>
@@ -12099,7 +12042,7 @@
         <v>0.2</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2">
         <v>0.2</v>
@@ -12112,12 +12055,12 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>10#20#0.2#0.2#10</v>
+        <v>10#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B117">
-        <v>15007</v>
+        <v>15001</v>
       </c>
       <c r="C117" s="2">
         <v>10</v>
@@ -12126,7 +12069,7 @@
         <v>0.2</v>
       </c>
       <c r="E117">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F117" s="2">
         <v>0.2</v>
@@ -12139,12 +12082,12 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>5#20#0.2#0.2#10</v>
+        <v>5#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B118">
-        <v>15008</v>
+        <v>15002</v>
       </c>
       <c r="C118" s="2">
         <v>10</v>
@@ -12153,7 +12096,7 @@
         <v>0.2</v>
       </c>
       <c r="E118">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2">
         <v>0.2</v>
@@ -12166,12 +12109,12 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>20#20#0.2#0.2#10</v>
+        <v>20#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B119">
-        <v>15009</v>
+        <v>15003</v>
       </c>
       <c r="C119" s="2">
         <v>10</v>
@@ -12180,25 +12123,25 @@
         <v>0.2</v>
       </c>
       <c r="E119">
+        <v>5</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G119">
         <v>10</v>
-      </c>
-      <c r="F119" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G119">
-        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>48</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>2#10#0.2#0.2#10</v>
+        <v>10#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B120">
-        <v>15010</v>
+        <v>15004</v>
       </c>
       <c r="C120" s="2">
         <v>10</v>
@@ -12207,25 +12150,25 @@
         <v>0.2</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2">
         <v>0.2</v>
       </c>
       <c r="G120">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H120" t="s">
         <v>48</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>50#10#0.2#0.2#10</v>
+        <v>5#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B121">
-        <v>15011</v>
+        <v>15005</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
@@ -12234,25 +12177,25 @@
         <v>0.2</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F121" s="2">
         <v>0.2</v>
       </c>
       <c r="G121">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
         <v>48</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>100#10#0.2#0.2#10</v>
+        <v>20#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B122">
-        <v>15012</v>
+        <v>15006</v>
       </c>
       <c r="C122" s="2">
         <v>10</v>
@@ -12261,25 +12204,25 @@
         <v>0.2</v>
       </c>
       <c r="E122">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2">
         <v>0.2</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
         <v>48</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>2#5#0.2#0.2#10</v>
+        <v>10#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B123">
-        <v>15013</v>
+        <v>15007</v>
       </c>
       <c r="C123" s="2">
         <v>10</v>
@@ -12288,25 +12231,25 @@
         <v>0.2</v>
       </c>
       <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G123">
         <v>5</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G123">
-        <v>50</v>
       </c>
       <c r="H123" t="s">
         <v>48</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>50#5#0.2#0.2#10</v>
+        <v>5#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B124">
-        <v>15014</v>
+        <v>15008</v>
       </c>
       <c r="C124" s="2">
         <v>10</v>
@@ -12315,25 +12258,25 @@
         <v>0.2</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F124" s="2">
         <v>0.2</v>
       </c>
       <c r="G124">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
         <v>48</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>100#5#0.2#0.2#10</v>
+        <v>20#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B125">
-        <v>15015</v>
+        <v>15009</v>
       </c>
       <c r="C125" s="2">
         <v>10</v>
@@ -12342,7 +12285,7 @@
         <v>0.2</v>
       </c>
       <c r="E125">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2">
         <v>0.2</v>
@@ -12355,12 +12298,12 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>2#20#0.2#0.2#10</v>
+        <v>2#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B126">
-        <v>15016</v>
+        <v>15010</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -12369,7 +12312,7 @@
         <v>0.2</v>
       </c>
       <c r="E126">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2">
         <v>0.2</v>
@@ -12382,12 +12325,12 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>50#20#0.2#0.2#10</v>
+        <v>50#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B127">
-        <v>15017</v>
+        <v>15011</v>
       </c>
       <c r="C127" s="2">
         <v>10</v>
@@ -12396,7 +12339,7 @@
         <v>0.2</v>
       </c>
       <c r="E127">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2">
         <v>0.2</v>
@@ -12409,12 +12352,12 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>100#20#0.2#0.2#10</v>
+        <v>100#10#0.2#0.2#10</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B128">
-        <v>15018</v>
+        <v>15012</v>
       </c>
       <c r="C128" s="2">
         <v>10</v>
@@ -12423,7 +12366,7 @@
         <v>0.2</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F128" s="2">
         <v>0.2</v>
@@ -12436,12 +12379,12 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>2#2#0.2#0.2#10</v>
+        <v>2#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B129">
-        <v>15019</v>
+        <v>15013</v>
       </c>
       <c r="C129" s="2">
         <v>10</v>
@@ -12450,25 +12393,25 @@
         <v>0.2</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F129" s="2">
         <v>0.2</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H129" t="s">
         <v>48</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>5#2#0.2#0.2#10</v>
+        <v>50#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B130">
-        <v>15020</v>
+        <v>15014</v>
       </c>
       <c r="C130" s="2">
         <v>10</v>
@@ -12477,25 +12420,25 @@
         <v>0.2</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F130" s="2">
         <v>0.2</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H130" t="s">
         <v>48</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="1"/>
-        <v>10#2#0.2#0.2#10</v>
+        <v>100#5#0.2#0.2#10</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B131">
-        <v>15021</v>
+        <v>15015</v>
       </c>
       <c r="C131" s="2">
         <v>10</v>
@@ -12504,25 +12447,25 @@
         <v>0.2</v>
       </c>
       <c r="E131">
+        <v>20</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G131">
         <v>2</v>
-      </c>
-      <c r="F131" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G131">
-        <v>20</v>
       </c>
       <c r="H131" t="s">
         <v>48</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" ref="I131:I159" si="2">IF(A131="", G131 &amp; "#" &amp; E131 &amp; "#" &amp; F131 &amp; "#" &amp; D131 &amp; "#" &amp; C131, "")</f>
-        <v>20#2#0.2#0.2#10</v>
+        <v>2#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B132">
-        <v>15022</v>
+        <v>15016</v>
       </c>
       <c r="C132" s="2">
         <v>10</v>
@@ -12531,7 +12474,7 @@
         <v>0.2</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F132" s="2">
         <v>0.2</v>
@@ -12544,12 +12487,12 @@
       </c>
       <c r="I132" t="str">
         <f t="shared" si="2"/>
-        <v>50#2#0.2#0.2#10</v>
+        <v>50#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B133">
-        <v>15023</v>
+        <v>15017</v>
       </c>
       <c r="C133" s="2">
         <v>10</v>
@@ -12558,7 +12501,7 @@
         <v>0.2</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2">
         <v>0.2</v>
@@ -12571,12 +12514,12 @@
       </c>
       <c r="I133" t="str">
         <f t="shared" si="2"/>
-        <v>100#2#0.2#0.2#10</v>
+        <v>100#20#0.2#0.2#10</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B134">
-        <v>15024</v>
+        <v>15018</v>
       </c>
       <c r="C134" s="2">
         <v>10</v>
@@ -12585,7 +12528,7 @@
         <v>0.2</v>
       </c>
       <c r="E134">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F134" s="2">
         <v>0.2</v>
@@ -12598,12 +12541,12 @@
       </c>
       <c r="I134" t="str">
         <f t="shared" si="2"/>
-        <v>2#50#0.2#0.2#10</v>
+        <v>2#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B135">
-        <v>15025</v>
+        <v>15019</v>
       </c>
       <c r="C135" s="2">
         <v>10</v>
@@ -12612,7 +12555,7 @@
         <v>0.2</v>
       </c>
       <c r="E135">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F135" s="2">
         <v>0.2</v>
@@ -12625,12 +12568,12 @@
       </c>
       <c r="I135" t="str">
         <f t="shared" si="2"/>
-        <v>5#50#0.2#0.2#10</v>
+        <v>5#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B136">
-        <v>15026</v>
+        <v>15020</v>
       </c>
       <c r="C136" s="2">
         <v>10</v>
@@ -12639,7 +12582,7 @@
         <v>0.2</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
         <v>0.2</v>
@@ -12652,12 +12595,12 @@
       </c>
       <c r="I136" t="str">
         <f t="shared" si="2"/>
-        <v>10#50#0.2#0.2#10</v>
+        <v>10#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B137">
-        <v>15027</v>
+        <v>15021</v>
       </c>
       <c r="C137" s="2">
         <v>10</v>
@@ -12666,7 +12609,7 @@
         <v>0.2</v>
       </c>
       <c r="E137">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F137" s="2">
         <v>0.2</v>
@@ -12679,12 +12622,12 @@
       </c>
       <c r="I137" t="str">
         <f t="shared" si="2"/>
-        <v>20#50#0.2#0.2#10</v>
+        <v>20#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B138">
-        <v>15028</v>
+        <v>15022</v>
       </c>
       <c r="C138" s="2">
         <v>10</v>
@@ -12693,7 +12636,7 @@
         <v>0.2</v>
       </c>
       <c r="E138">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F138" s="2">
         <v>0.2</v>
@@ -12706,12 +12649,12 @@
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
-        <v>50#50#0.2#0.2#10</v>
+        <v>50#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B139">
-        <v>15029</v>
+        <v>15023</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
@@ -12720,7 +12663,7 @@
         <v>0.2</v>
       </c>
       <c r="E139">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
         <v>0.2</v>
@@ -12733,12 +12676,12 @@
       </c>
       <c r="I139" t="str">
         <f t="shared" si="2"/>
-        <v>100#50#0.2#0.2#10</v>
+        <v>100#2#0.2#0.2#10</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B140">
-        <v>15030</v>
+        <v>15024</v>
       </c>
       <c r="C140" s="2">
         <v>10</v>
@@ -12747,7 +12690,7 @@
         <v>0.2</v>
       </c>
       <c r="E140">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F140" s="2">
         <v>0.2</v>
@@ -12760,12 +12703,12 @@
       </c>
       <c r="I140" t="str">
         <f t="shared" si="2"/>
-        <v>2#100#0.2#0.2#10</v>
+        <v>2#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B141">
-        <v>15031</v>
+        <v>15025</v>
       </c>
       <c r="C141" s="2">
         <v>10</v>
@@ -12774,7 +12717,7 @@
         <v>0.2</v>
       </c>
       <c r="E141">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2">
         <v>0.2</v>
@@ -12787,13 +12730,13 @@
       </c>
       <c r="I141" t="str">
         <f t="shared" si="2"/>
-        <v>5#100#0.2#0.2#10</v>
+        <v>5#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="124"/>
       <c r="B142">
-        <v>15032</v>
+        <v>15026</v>
       </c>
       <c r="C142" s="2">
         <v>10</v>
@@ -12802,7 +12745,7 @@
         <v>0.2</v>
       </c>
       <c r="E142">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2">
         <v>0.2</v>
@@ -12815,12 +12758,12 @@
       </c>
       <c r="I142" t="str">
         <f t="shared" si="2"/>
-        <v>10#100#0.2#0.2#10</v>
+        <v>10#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B143">
-        <v>15033</v>
+        <v>15027</v>
       </c>
       <c r="C143" s="2">
         <v>10</v>
@@ -12829,7 +12772,7 @@
         <v>0.2</v>
       </c>
       <c r="E143">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F143" s="2">
         <v>0.2</v>
@@ -12842,12 +12785,12 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" si="2"/>
-        <v>20#100#0.2#0.2#10</v>
+        <v>20#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B144">
-        <v>15034</v>
+        <v>15028</v>
       </c>
       <c r="C144" s="2">
         <v>10</v>
@@ -12856,7 +12799,7 @@
         <v>0.2</v>
       </c>
       <c r="E144">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F144" s="2">
         <v>0.2</v>
@@ -12869,12 +12812,12 @@
       </c>
       <c r="I144" t="str">
         <f t="shared" si="2"/>
-        <v>50#100#0.2#0.2#10</v>
+        <v>50#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B145">
-        <v>15035</v>
+        <v>15029</v>
       </c>
       <c r="C145" s="2">
         <v>10</v>
@@ -12883,7 +12826,7 @@
         <v>0.2</v>
       </c>
       <c r="E145">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F145" s="2">
         <v>0.2</v>
@@ -12896,12 +12839,12 @@
       </c>
       <c r="I145" t="str">
         <f t="shared" si="2"/>
-        <v>100#100#0.2#0.2#10</v>
+        <v>100#50#0.2#0.2#10</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B146">
-        <v>15036</v>
+        <v>15030</v>
       </c>
       <c r="C146" s="2">
         <v>10</v>
@@ -12910,7 +12853,7 @@
         <v>0.2</v>
       </c>
       <c r="E146">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2">
         <v>0.2</v>
@@ -12923,12 +12866,12 @@
       </c>
       <c r="I146" t="str">
         <f t="shared" si="2"/>
-        <v>2#200#0.2#0.2#10</v>
+        <v>2#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B147">
-        <v>15037</v>
+        <v>15031</v>
       </c>
       <c r="C147" s="2">
         <v>10</v>
@@ -12937,7 +12880,7 @@
         <v>0.2</v>
       </c>
       <c r="E147">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F147" s="2">
         <v>0.2</v>
@@ -12950,12 +12893,12 @@
       </c>
       <c r="I147" t="str">
         <f t="shared" si="2"/>
-        <v>5#200#0.2#0.2#10</v>
+        <v>5#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B148">
-        <v>15038</v>
+        <v>15032</v>
       </c>
       <c r="C148" s="2">
         <v>10</v>
@@ -12964,7 +12907,7 @@
         <v>0.2</v>
       </c>
       <c r="E148">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2">
         <v>0.2</v>
@@ -12977,12 +12920,12 @@
       </c>
       <c r="I148" t="str">
         <f t="shared" si="2"/>
-        <v>10#200#0.2#0.2#10</v>
+        <v>10#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B149">
-        <v>15039</v>
+        <v>15033</v>
       </c>
       <c r="C149" s="2">
         <v>10</v>
@@ -12991,7 +12934,7 @@
         <v>0.2</v>
       </c>
       <c r="E149">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2">
         <v>0.2</v>
@@ -13004,12 +12947,12 @@
       </c>
       <c r="I149" t="str">
         <f t="shared" si="2"/>
-        <v>20#200#0.2#0.2#10</v>
+        <v>20#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B150">
-        <v>15040</v>
+        <v>15034</v>
       </c>
       <c r="C150" s="2">
         <v>10</v>
@@ -13018,7 +12961,7 @@
         <v>0.2</v>
       </c>
       <c r="E150">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F150" s="2">
         <v>0.2</v>
@@ -13031,12 +12974,12 @@
       </c>
       <c r="I150" t="str">
         <f t="shared" si="2"/>
-        <v>50#200#0.2#0.2#10</v>
+        <v>50#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B151">
-        <v>15041</v>
+        <v>15035</v>
       </c>
       <c r="C151" s="2">
         <v>10</v>
@@ -13045,7 +12988,7 @@
         <v>0.2</v>
       </c>
       <c r="E151">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2">
         <v>0.2</v>
@@ -13058,12 +13001,12 @@
       </c>
       <c r="I151" t="str">
         <f t="shared" si="2"/>
-        <v>100#200#0.2#0.2#10</v>
+        <v>100#100#0.2#0.2#10</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B152">
-        <v>15042</v>
+        <v>15036</v>
       </c>
       <c r="C152" s="2">
         <v>10</v>
@@ -13078,19 +13021,19 @@
         <v>0.2</v>
       </c>
       <c r="G152">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>48</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="2"/>
-        <v>200#200#0.2#0.2#10</v>
+        <v>2#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B153">
-        <v>15043</v>
+        <v>15037</v>
       </c>
       <c r="C153" s="2">
         <v>10</v>
@@ -13099,25 +13042,25 @@
         <v>0.2</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="F153" s="2">
         <v>0.2</v>
       </c>
       <c r="G153">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
         <v>48</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="2"/>
-        <v>200#2#0.2#0.2#10</v>
+        <v>5#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B154">
-        <v>15044</v>
+        <v>15038</v>
       </c>
       <c r="C154" s="2">
         <v>10</v>
@@ -13126,25 +13069,25 @@
         <v>0.2</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F154" s="2">
         <v>0.2</v>
       </c>
       <c r="G154">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H154" t="s">
         <v>48</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="2"/>
-        <v>200#5#0.2#0.2#10</v>
+        <v>10#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B155">
-        <v>15045</v>
+        <v>15039</v>
       </c>
       <c r="C155" s="2">
         <v>10</v>
@@ -13153,25 +13096,25 @@
         <v>0.2</v>
       </c>
       <c r="E155">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F155" s="2">
         <v>0.2</v>
       </c>
       <c r="G155">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="H155" t="s">
         <v>48</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="2"/>
-        <v>200#10#0.2#0.2#10</v>
+        <v>20#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B156">
-        <v>15046</v>
+        <v>15040</v>
       </c>
       <c r="C156" s="2">
         <v>10</v>
@@ -13180,25 +13123,25 @@
         <v>0.2</v>
       </c>
       <c r="E156">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F156" s="2">
         <v>0.2</v>
       </c>
       <c r="G156">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H156" t="s">
         <v>48</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="2"/>
-        <v>200#20#0.2#0.2#10</v>
+        <v>50#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B157">
-        <v>15047</v>
+        <v>15041</v>
       </c>
       <c r="C157" s="2">
         <v>10</v>
@@ -13207,25 +13150,25 @@
         <v>0.2</v>
       </c>
       <c r="E157">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F157" s="2">
         <v>0.2</v>
       </c>
       <c r="G157">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H157" t="s">
         <v>48</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="2"/>
-        <v>200#50#0.2#0.2#10</v>
+        <v>100#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B158">
-        <v>15048</v>
+        <v>15042</v>
       </c>
       <c r="C158" s="2">
         <v>10</v>
@@ -13234,7 +13177,7 @@
         <v>0.2</v>
       </c>
       <c r="E158">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F158" s="2">
         <v>0.2</v>
@@ -13247,37 +13190,176 @@
       </c>
       <c r="I158" t="str">
         <f t="shared" si="2"/>
-        <v>200#100#0.2#0.2#10</v>
+        <v>200#200#0.2#0.2#10</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="124">
-        <v>1</v>
-      </c>
+      <c r="A159" s="124"/>
       <c r="B159">
-        <v>999000</v>
+        <v>15043</v>
       </c>
       <c r="C159" s="2">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E159">
-        <v>20000</v>
+        <v>2</v>
       </c>
       <c r="F159" s="2">
         <v>0.2</v>
       </c>
       <c r="G159">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>200#2#0.2#0.2#10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160">
+        <v>15044</v>
+      </c>
+      <c r="C160" s="2">
+        <v>10</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G160">
+        <v>200</v>
+      </c>
+      <c r="H160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161">
+        <v>15045</v>
+      </c>
+      <c r="C161" s="2">
+        <v>10</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G161">
+        <v>200</v>
+      </c>
+      <c r="H161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B162">
+        <v>15046</v>
+      </c>
+      <c r="C162" s="2">
+        <v>10</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G162">
+        <v>200</v>
+      </c>
+      <c r="H162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B163">
+        <v>15047</v>
+      </c>
+      <c r="C163" s="2">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E163">
+        <v>50</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G163">
+        <v>200</v>
+      </c>
+      <c r="H163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B164">
+        <v>15048</v>
+      </c>
+      <c r="C164" s="2">
+        <v>10</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E164">
+        <v>100</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G164">
+        <v>200</v>
+      </c>
+      <c r="H164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="124">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>999000</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E165">
+        <v>20000</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G165">
+        <v>20000</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -21434,9 +21516,9 @@
       <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="139">
+      <c r="P1" s="138">
         <f ca="1">NOW() +N1</f>
-        <v>43725.516489645655</v>
+        <v>43725.525438603989</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -21479,7 +21561,7 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="140">
+      <c r="P2" s="139">
         <v>43723.118290286679</v>
       </c>
     </row>
@@ -21795,10 +21877,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:BQ157"/>
+  <dimension ref="A1:BQ163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21809,7 +21891,8 @@
     <col min="28" max="28" width="4.62890625" customWidth="1"/>
     <col min="29" max="29" width="10.7890625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="6.5234375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.734375" customWidth="1"/>
+    <col min="33" max="33" width="6.62890625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="7.41796875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.15625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="6.62890625" bestFit="1" customWidth="1"/>
@@ -21825,9 +21908,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="125" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="125"/>
       <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
@@ -21852,17 +21933,15 @@
       <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="136" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="135" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="125">
-        <v>20</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="125"/>
+      <c r="B2" s="56">
         <v>7000</v>
       </c>
       <c r="C2" s="125">
@@ -21896,7 +21975,7 @@
       <c r="K2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="137">
+      <c r="L2" s="136">
         <f>+'V4000'!N1</f>
         <v>9.1376923076923067</v>
       </c>
@@ -21916,7 +21995,7 @@
       <c r="AH2" s="56">
         <v>20</v>
       </c>
-      <c r="AI2" s="141">
+      <c r="AI2" s="140">
         <v>50</v>
       </c>
       <c r="AJ2" s="56">
@@ -22002,10 +22081,8 @@
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="125">
-        <v>20</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="125"/>
+      <c r="B3" s="56">
         <v>7001</v>
       </c>
       <c r="C3" s="125">
@@ -22039,7 +22116,7 @@
       <c r="K3" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="137">
+      <c r="L3" s="136">
         <f>+THUNDER_3200!N1</f>
         <v>17.119423076923077</v>
       </c>
@@ -22064,7 +22141,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-      <c r="AI3" s="142">
+      <c r="AI3" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
@@ -22138,7 +22215,7 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,AU3 - 1, 0)</f>
         <v>10005</v>
       </c>
-      <c r="BG3" s="138">
+      <c r="BG3" s="137">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AV3 - 1, 0)</f>
         <v>10006</v>
       </c>
@@ -22169,10 +22246,8 @@
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="125">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="125"/>
+      <c r="B4" s="56">
         <v>7002</v>
       </c>
       <c r="C4" s="125">
@@ -22226,7 +22301,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AI4" s="142" t="str">
+      <c r="AI4" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
@@ -22335,10 +22410,8 @@
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="125">
-        <v>20</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="125"/>
+      <c r="B5" s="56">
         <v>7003</v>
       </c>
       <c r="C5" s="125">
@@ -22398,7 +22471,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD5, $B$1:$F1002, 5), "")</f>
         <v>0.30880272264922948</v>
       </c>
-      <c r="AI5" s="142">
+      <c r="AI5" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE5, $B$1:$F1002, 5), "")</f>
         <v>0.17883496742101909</v>
       </c>
@@ -22525,10 +22598,8 @@
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="125">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="125"/>
+      <c r="B6" s="56">
         <v>7004</v>
       </c>
       <c r="C6" s="125">
@@ -22588,7 +22659,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD6, $B$1:$F1003, 5), "")</f>
         <v>0.5</v>
       </c>
-      <c r="AI6" s="142">
+      <c r="AI6" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE6, $B$1:$F1003, 5), "")</f>
         <v>0.44292353275428198</v>
       </c>
@@ -22715,10 +22786,8 @@
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="125">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="125"/>
+      <c r="B7" s="56">
         <v>7005</v>
       </c>
       <c r="C7" s="125">
@@ -22778,7 +22847,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$F1004, 5), "")</f>
         <v>0.42153700556242274</v>
       </c>
-      <c r="AI7" s="142">
+      <c r="AI7" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE7, $B$1:$F1004, 5), "")</f>
         <v>0.45560719214221934</v>
       </c>
@@ -22905,10 +22974,8 @@
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="125">
-        <v>20</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="125"/>
+      <c r="B8" s="56">
         <v>7006</v>
       </c>
       <c r="C8" s="125">
@@ -22939,26 +23006,26 @@
         <f t="shared" si="2"/>
         <v>0.36280603555459856</v>
       </c>
-      <c r="AC8" s="141">
+      <c r="AC8" s="140">
         <v>50</v>
       </c>
-      <c r="AD8" s="142">
+      <c r="AD8" s="141">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$F1005, 5), "")</f>
         <v>0.22733743570903744</v>
       </c>
-      <c r="AE8" s="142" t="str">
+      <c r="AE8" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
         <v/>
       </c>
-      <c r="AF8" s="142">
+      <c r="AF8" s="141">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
         <v>0.37950523581459533</v>
       </c>
-      <c r="AG8" s="142">
+      <c r="AG8" s="141">
         <f ca="1">IFERROR(VLOOKUP(BC8, $B$1:$F1005, 5), "")</f>
         <v>0.39218889520253264</v>
       </c>
-      <c r="AH8" s="142">
+      <c r="AH8" s="141">
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$F1005, 5), "")</f>
         <v>0.60781110479746725</v>
       </c>
@@ -22966,11 +23033,11 @@
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$F1005, 5), "")</f>
         <v>0.54439280785778066</v>
       </c>
-      <c r="AJ8" s="142">
+      <c r="AJ8" s="141">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
         <v>0.63835596221959856</v>
       </c>
-      <c r="AK8" s="142">
+      <c r="AK8" s="141">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
         <v>0.45388134592680052</v>
       </c>
@@ -23073,10 +23140,8 @@
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="125">
-        <v>20</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="125"/>
+      <c r="B9" s="56">
         <v>7007</v>
       </c>
       <c r="C9" s="125">
@@ -23130,7 +23195,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
         <v>0.35550803375332329</v>
       </c>
-      <c r="AI9" s="142">
+      <c r="AI9" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
         <v>0.61680787440817342</v>
       </c>
@@ -23241,10 +23306,8 @@
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="125">
-        <v>20</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="125"/>
+      <c r="B10" s="56">
         <v>9000</v>
       </c>
       <c r="C10" s="125">
@@ -23298,7 +23361,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
         <v>0.5722459831233383</v>
       </c>
-      <c r="AI10" s="142">
+      <c r="AI10" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
         <v>0.53893595813605788</v>
       </c>
@@ -23348,7 +23411,7 @@
       <c r="AY10" s="125">
         <v>200</v>
       </c>
-      <c r="AZ10" s="138">
+      <c r="AZ10" s="137">
         <f ca="1">OFFSET(Defaults_4000!$B$1,AO10 - 1, 0)</f>
         <v>7007</v>
       </c>
@@ -23409,10 +23472,8 @@
       </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="125">
-        <v>20</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="125"/>
+      <c r="B11" s="56">
         <v>9001</v>
       </c>
       <c r="C11" s="125">
@@ -23445,10 +23506,8 @@
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="125">
-        <v>20</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="125"/>
+      <c r="B12" s="56">
         <v>9002</v>
       </c>
       <c r="C12" s="125">
@@ -23508,10 +23567,8 @@
       </c>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="125">
-        <v>20</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="125"/>
+      <c r="B13" s="56">
         <v>9003</v>
       </c>
       <c r="C13" s="125">
@@ -23569,10 +23626,8 @@
       <c r="AP13" s="1"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="125">
-        <v>20</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="125"/>
+      <c r="B14" s="56">
         <v>9004</v>
       </c>
       <c r="C14" s="125">
@@ -23630,10 +23685,8 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="125">
-        <v>20</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="125"/>
+      <c r="B15" s="56">
         <v>9005</v>
       </c>
       <c r="C15" s="125">
@@ -23691,10 +23744,8 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="125">
-        <v>20</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="125"/>
+      <c r="B16" s="56">
         <v>9006</v>
       </c>
       <c r="C16" s="125">
@@ -23752,10 +23803,8 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="125">
-        <v>20</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="125"/>
+      <c r="B17" s="56">
         <v>9007</v>
       </c>
       <c r="C17" s="125">
@@ -23813,10 +23862,8 @@
       <c r="AP17" s="1"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="125">
-        <v>20</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="125"/>
+      <c r="B18" s="56">
         <v>9008</v>
       </c>
       <c r="C18" s="125">
@@ -23874,10 +23921,8 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="125">
-        <v>20</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="125"/>
+      <c r="B19" s="56">
         <v>9009</v>
       </c>
       <c r="C19" s="125">
@@ -23929,10 +23974,8 @@
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="125">
-        <v>20</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="125"/>
+      <c r="B20" s="56">
         <v>9010</v>
       </c>
       <c r="C20" s="125">
@@ -23965,10 +24008,8 @@
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="125">
-        <v>20</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="125"/>
+      <c r="B21" s="56">
         <v>9011</v>
       </c>
       <c r="C21" s="125">
@@ -24001,10 +24042,8 @@
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="125">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="125"/>
+      <c r="B22" s="56">
         <v>9012</v>
       </c>
       <c r="C22" s="125">
@@ -24037,10 +24076,8 @@
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="125">
-        <v>20</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="125"/>
+      <c r="B23" s="56">
         <v>9013</v>
       </c>
       <c r="C23" s="125">
@@ -24073,10 +24110,8 @@
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="125">
-        <v>20</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="125"/>
+      <c r="B24" s="56">
         <v>9014</v>
       </c>
       <c r="C24" s="125">
@@ -24109,10 +24144,8 @@
       </c>
     </row>
     <row r="25" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="125">
-        <v>20</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="125"/>
+      <c r="B25" s="56">
         <v>9015</v>
       </c>
       <c r="C25" s="125">
@@ -24161,7 +24194,7 @@
       <c r="AH25" s="125">
         <v>20</v>
       </c>
-      <c r="AI25" s="141">
+      <c r="AI25" s="140">
         <v>50</v>
       </c>
       <c r="AJ25" s="125">
@@ -24226,10 +24259,8 @@
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="125">
-        <v>20</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="125"/>
+      <c r="B26" s="56">
         <v>9016</v>
       </c>
       <c r="C26" s="125">
@@ -24281,7 +24312,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD26, $B$1:$F1023, 5), "")</f>
         <v>0.34397536891157215</v>
       </c>
-      <c r="AI26" s="142" t="str">
+      <c r="AI26" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE26, $B$1:$F1023, 5), "")</f>
         <v/>
       </c>
@@ -24312,7 +24343,7 @@
       </c>
       <c r="AS26" s="125">
         <f>MATCH($AN26 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AT26" s="125" t="e">
         <f>MATCH($AN26 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN26 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
@@ -24361,10 +24392,8 @@
       </c>
     </row>
     <row r="27" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="125">
-        <v>20</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="125"/>
+      <c r="B27" s="56">
         <v>9017</v>
       </c>
       <c r="C27" s="125">
@@ -24420,7 +24449,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-      <c r="AI27" s="142" t="str">
+      <c r="AI27" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
@@ -24443,31 +24472,31 @@
       </c>
       <c r="AP27" s="131">
         <f>MATCH($AN27 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AQ27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AR27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AS27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AT27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AU27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AV27" s="125">
         <f>MATCH($AN27 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN27 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AW27"/>
       <c r="AX27"/>
@@ -24506,10 +24535,8 @@
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="125">
-        <v>20</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="125"/>
+      <c r="B28" s="56">
         <v>9018</v>
       </c>
       <c r="C28" s="125">
@@ -24569,7 +24596,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-      <c r="AI28" s="142" t="str">
+      <c r="AI28" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
@@ -24598,31 +24625,31 @@
       </c>
       <c r="AP28" s="125">
         <f>MATCH($AN28 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AQ28" s="132">
         <f>MATCH($AN28 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AR28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AS28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AT28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AU28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AV28" s="130">
         <f>MATCH($AN28 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN28 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AW28" t="str">
         <f>+AL28</f>
@@ -24669,10 +24696,8 @@
       </c>
     </row>
     <row r="29" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="125">
-        <v>20</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="125"/>
+      <c r="B29" s="56">
         <v>9019</v>
       </c>
       <c r="C29" s="125">
@@ -24732,7 +24757,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
-      <c r="AI29" s="142" t="str">
+      <c r="AI29" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
@@ -24761,31 +24786,31 @@
       </c>
       <c r="AP29" s="125">
         <f>MATCH($AN29 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AQ29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AR29" s="132">
         <f>MATCH($AN29 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AS29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AT29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AU29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AV29" s="130">
         <f>MATCH($AN29 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN29 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AW29" t="str">
         <f t="shared" ref="AW29:AW30" si="14">+AL29</f>
@@ -24832,10 +24857,8 @@
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="125">
-        <v>20</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="125"/>
+      <c r="B30" s="56">
         <v>9020</v>
       </c>
       <c r="C30" s="125">
@@ -24895,7 +24918,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
         <v>0.24495001020199958</v>
       </c>
-      <c r="AI30" s="142">
+      <c r="AI30" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
         <v>0.62752499489900015</v>
       </c>
@@ -24924,31 +24947,31 @@
       </c>
       <c r="AP30" s="125">
         <f>MATCH($AN30 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AQ30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AR30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AS30" s="132">
         <f>MATCH($AN30 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AT30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AU30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AV30" s="130">
         <f>MATCH($AN30 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN30 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AW30" t="str">
         <f t="shared" si="14"/>
@@ -24995,10 +25018,8 @@
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="125">
-        <v>20</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="125"/>
+      <c r="B31" s="56">
         <v>9021</v>
       </c>
       <c r="C31" s="125">
@@ -25029,26 +25050,26 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AC31" s="141">
+      <c r="AC31" s="140">
         <v>50</v>
       </c>
-      <c r="AD31" s="142" t="str">
+      <c r="AD31" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AE31" s="142" t="str">
+      <c r="AE31" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AF31" s="142" t="str">
+      <c r="AF31" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AG31" s="142" t="str">
+      <c r="AG31" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AH31" s="142">
+      <c r="AH31" s="141">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
         <v>0.60160949439115585</v>
       </c>
@@ -25056,11 +25077,11 @@
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
         <v>0.589538981691069</v>
       </c>
-      <c r="AJ31" s="142">
+      <c r="AJ31" s="141">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
         <v>0.60160949439115585</v>
       </c>
-      <c r="AK31" s="142" t="str">
+      <c r="AK31" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
@@ -25073,31 +25094,31 @@
       </c>
       <c r="AP31" s="125">
         <f>MATCH($AN31 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AQ31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AR31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AS31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AT31" s="132">
         <f>MATCH($AN31 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AU31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AV31" s="130">
         <f>MATCH($AN31 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN31 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY31" s="125">
         <v>50</v>
@@ -25136,10 +25157,8 @@
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="125">
-        <v>20</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="125"/>
+      <c r="B32" s="56">
         <v>9022</v>
       </c>
       <c r="C32" s="125">
@@ -25193,7 +25212,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
         <v>0.62752499489900015</v>
       </c>
-      <c r="AI32" s="142">
+      <c r="AI32" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
         <v>0.55655085052479192</v>
       </c>
@@ -25214,31 +25233,31 @@
       </c>
       <c r="AP32" s="125">
         <f>MATCH($AN32 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AQ32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AR32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AS32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AT32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AU32" s="132">
         <f>MATCH($AN32 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AV32" s="130">
         <f>MATCH($AN32 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN32 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AY32" s="125">
         <v>100</v>
@@ -25277,10 +25296,8 @@
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="125">
-        <v>20</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="125"/>
+      <c r="B33" s="56">
         <v>9023</v>
       </c>
       <c r="C33" s="125">
@@ -25334,7 +25351,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-      <c r="AI33" s="142" t="str">
+      <c r="AI33" s="141" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
@@ -25355,31 +25372,31 @@
       </c>
       <c r="AP33" s="125">
         <f>MATCH($AN33 &amp;"#" &amp; AP$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AP$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>153</v>
-      </c>
-      <c r="AQ33" s="130">
+        <v>159</v>
+      </c>
+      <c r="AQ33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AQ$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AQ$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>154</v>
-      </c>
-      <c r="AR33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AR33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AR$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AR$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>155</v>
-      </c>
-      <c r="AS33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AS33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AS$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AS$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>156</v>
-      </c>
-      <c r="AT33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AT33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AT$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AT$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>157</v>
-      </c>
-      <c r="AU33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="AU33" s="130" t="e">
         <f>MATCH($AN33 &amp;"#" &amp; AU$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AU$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>158</v>
+        <v>#N/A</v>
       </c>
       <c r="AV33" s="132">
         <f>MATCH($AN33 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN33 &lt;&gt; "", $AM$28, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$29, "") &amp;"#" &amp; $AM$30, Defaults_4000!$I$1:$I$1000,0)</f>
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AY33" s="125">
         <v>200</v>
@@ -25392,25 +25409,25 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AP33 - 1, 0)</f>
         <v>15043</v>
       </c>
-      <c r="BB33" s="130">
+      <c r="BB33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AQ33 - 1, 0)</f>
-        <v>15044</v>
-      </c>
-      <c r="BC33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BC33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AR33 - 1, 0)</f>
-        <v>15045</v>
-      </c>
-      <c r="BD33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BD33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AS33 - 1, 0)</f>
-        <v>15046</v>
-      </c>
-      <c r="BE33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BE33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AT33 - 1, 0)</f>
-        <v>15047</v>
-      </c>
-      <c r="BF33" s="130">
+        <v>#N/A</v>
+      </c>
+      <c r="BF33" s="130" t="e">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AU33 - 1, 0)</f>
-        <v>15048</v>
+        <v>#N/A</v>
       </c>
       <c r="BG33" s="132">
         <f ca="1">OFFSET(Defaults_4000!$B$1,TOTAL!AV33 - 1, 0)</f>
@@ -25418,10 +25435,8 @@
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="125">
-        <v>20</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="125"/>
+      <c r="B34" s="56">
         <v>9024</v>
       </c>
       <c r="C34" s="125">
@@ -25454,10 +25469,8 @@
       </c>
     </row>
     <row r="35" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="125">
-        <v>20</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="125"/>
+      <c r="B35" s="56">
         <v>9025</v>
       </c>
       <c r="C35" s="125">
@@ -25490,10 +25503,8 @@
       </c>
     </row>
     <row r="36" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="125">
-        <v>20</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="125"/>
+      <c r="B36" s="56">
         <v>9026</v>
       </c>
       <c r="C36" s="125">
@@ -25526,10 +25537,8 @@
       </c>
     </row>
     <row r="37" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="125">
-        <v>20</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="125"/>
+      <c r="B37" s="56">
         <v>9027</v>
       </c>
       <c r="C37" s="125">
@@ -25562,10 +25571,8 @@
       </c>
     </row>
     <row r="38" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="125">
-        <v>20</v>
-      </c>
-      <c r="B38">
+      <c r="A38" s="125"/>
+      <c r="B38" s="56">
         <v>9028</v>
       </c>
       <c r="C38" s="125">
@@ -25625,10 +25632,8 @@
       </c>
     </row>
     <row r="39" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="125">
-        <v>20</v>
-      </c>
-      <c r="B39">
+      <c r="A39" s="125"/>
+      <c r="B39" s="56">
         <v>9029</v>
       </c>
       <c r="C39" s="125">
@@ -25667,7 +25672,7 @@
       </c>
       <c r="AC39" s="125"/>
       <c r="AD39" s="125"/>
-      <c r="AE39" s="143">
+      <c r="AE39" s="142">
         <v>0.1</v>
       </c>
       <c r="AF39" s="125" t="str">
@@ -25688,10 +25693,8 @@
       </c>
     </row>
     <row r="40" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="125">
-        <v>20</v>
-      </c>
-      <c r="B40">
+      <c r="A40" s="125"/>
+      <c r="B40" s="56">
         <v>9030</v>
       </c>
       <c r="C40" s="125">
@@ -25730,7 +25733,7 @@
       </c>
       <c r="AC40" s="125"/>
       <c r="AD40" s="125"/>
-      <c r="AE40" s="143">
+      <c r="AE40" s="142">
         <v>0.1</v>
       </c>
       <c r="AF40" s="125" t="str">
@@ -25751,10 +25754,8 @@
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="125">
-        <v>20</v>
-      </c>
-      <c r="B41">
+      <c r="A41" s="125"/>
+      <c r="B41" s="56">
         <v>9031</v>
       </c>
       <c r="C41" s="125">
@@ -25793,7 +25794,7 @@
       </c>
       <c r="AC41" s="56"/>
       <c r="AD41" s="56"/>
-      <c r="AE41" s="143">
+      <c r="AE41" s="142">
         <v>0.1</v>
       </c>
       <c r="AF41" s="125" t="str">
@@ -25821,10 +25822,8 @@
       </c>
     </row>
     <row r="42" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="125">
-        <v>20</v>
-      </c>
-      <c r="B42">
+      <c r="A42" s="125"/>
+      <c r="B42" s="56">
         <v>9032</v>
       </c>
       <c r="C42" s="125">
@@ -25863,7 +25862,7 @@
       </c>
       <c r="AC42" s="125"/>
       <c r="AD42" s="125"/>
-      <c r="AE42" s="143">
+      <c r="AE42" s="142">
         <v>0.1</v>
       </c>
       <c r="AF42" s="125" t="str">
@@ -25884,10 +25883,8 @@
       </c>
     </row>
     <row r="43" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="125">
-        <v>20</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="125"/>
+      <c r="B43" s="56">
         <v>9033</v>
       </c>
       <c r="C43" s="125">
@@ -25926,7 +25923,7 @@
       </c>
       <c r="AC43" s="125"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="143">
+      <c r="AE43" s="142">
         <v>0.1</v>
       </c>
       <c r="AF43" s="125" t="str">
@@ -25947,10 +25944,8 @@
       </c>
     </row>
     <row r="44" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="125">
-        <v>20</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="125"/>
+      <c r="B44" s="56">
         <v>9034</v>
       </c>
       <c r="C44" s="125">
@@ -25989,7 +25984,7 @@
       </c>
       <c r="AC44" s="125"/>
       <c r="AD44" s="125"/>
-      <c r="AE44" s="143">
+      <c r="AE44" s="142">
         <v>0.1</v>
       </c>
       <c r="AF44" s="125" t="str">
@@ -26010,10 +26005,8 @@
       </c>
     </row>
     <row r="45" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="125">
-        <v>20</v>
-      </c>
-      <c r="B45">
+      <c r="A45" s="125"/>
+      <c r="B45" s="56">
         <v>9035</v>
       </c>
       <c r="C45" s="125">
@@ -26052,7 +26045,7 @@
       </c>
       <c r="AC45" s="125"/>
       <c r="AD45" s="125"/>
-      <c r="AE45" s="143">
+      <c r="AE45" s="142">
         <v>0.1</v>
       </c>
       <c r="AF45" s="125" t="str">
@@ -26073,10 +26066,8 @@
       </c>
     </row>
     <row r="46" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="125">
-        <v>20</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="125"/>
+      <c r="B46" s="56">
         <v>9036</v>
       </c>
       <c r="C46" s="125">
@@ -26115,7 +26106,7 @@
       </c>
       <c r="AC46" s="125"/>
       <c r="AD46" s="125"/>
-      <c r="AE46" s="143">
+      <c r="AE46" s="142">
         <v>0.1</v>
       </c>
       <c r="AF46" s="125" t="str">
@@ -26136,10 +26127,8 @@
       </c>
     </row>
     <row r="47" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="125">
-        <v>20</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="125"/>
+      <c r="B47" s="56">
         <v>9037</v>
       </c>
       <c r="C47" s="125">
@@ -26178,7 +26167,7 @@
       </c>
       <c r="AC47" s="125"/>
       <c r="AD47" s="125"/>
-      <c r="AE47" s="143">
+      <c r="AE47" s="142">
         <v>0.1</v>
       </c>
       <c r="AF47" s="125" t="str">
@@ -26199,10 +26188,8 @@
       </c>
     </row>
     <row r="48" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="125">
-        <v>20</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="125"/>
+      <c r="B48" s="56">
         <v>9038</v>
       </c>
       <c r="C48" s="125">
@@ -26241,7 +26228,7 @@
       </c>
       <c r="AC48" s="125"/>
       <c r="AD48" s="125"/>
-      <c r="AE48" s="143">
+      <c r="AE48" s="142">
         <v>0.1</v>
       </c>
       <c r="AF48" s="125" t="str">
@@ -26262,10 +26249,8 @@
       </c>
     </row>
     <row r="49" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="125">
-        <v>20</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="125"/>
+      <c r="B49" s="56">
         <v>9039</v>
       </c>
       <c r="C49" s="125">
@@ -26304,7 +26289,7 @@
       </c>
       <c r="AC49" s="125"/>
       <c r="AD49" s="125"/>
-      <c r="AE49" s="143">
+      <c r="AE49" s="142">
         <v>0.1</v>
       </c>
       <c r="AF49" s="125" t="str">
@@ -26325,10 +26310,8 @@
       </c>
     </row>
     <row r="50" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="125">
-        <v>20</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="125"/>
+      <c r="B50" s="56">
         <v>9040</v>
       </c>
       <c r="C50" s="125">
@@ -26361,10 +26344,8 @@
       </c>
     </row>
     <row r="51" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="125">
-        <v>20</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="125"/>
+      <c r="B51" s="56">
         <v>9041</v>
       </c>
       <c r="C51" s="125">
@@ -26397,10 +26378,8 @@
       </c>
     </row>
     <row r="52" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="125">
-        <v>20</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="125"/>
+      <c r="B52" s="56">
         <v>9042</v>
       </c>
       <c r="C52" s="125">
@@ -26433,10 +26412,8 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="125">
-        <v>20</v>
-      </c>
-      <c r="B53">
+      <c r="A53" s="125"/>
+      <c r="B53" s="56">
         <v>9043</v>
       </c>
       <c r="C53" s="125">
@@ -26496,10 +26473,8 @@
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="125">
-        <v>20</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="125"/>
+      <c r="B54" s="56">
         <v>9044</v>
       </c>
       <c r="C54" s="125">
@@ -26538,7 +26513,7 @@
       <c r="AD54" s="133">
         <v>0</v>
       </c>
-      <c r="AE54" s="143">
+      <c r="AE54" s="142">
         <v>0.1</v>
       </c>
       <c r="AF54" s="125" t="str">
@@ -26559,10 +26534,8 @@
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="125">
-        <v>20</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="125"/>
+      <c r="B55" s="56">
         <v>9045</v>
       </c>
       <c r="C55" s="125">
@@ -26601,7 +26574,7 @@
       <c r="AD55" s="133">
         <v>0.1</v>
       </c>
-      <c r="AE55" s="143">
+      <c r="AE55" s="142">
         <v>0.1</v>
       </c>
       <c r="AF55" s="125" t="str">
@@ -26622,10 +26595,8 @@
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="125">
-        <v>20</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="125"/>
+      <c r="B56" s="56">
         <v>9046</v>
       </c>
       <c r="C56" s="125">
@@ -26664,7 +26635,7 @@
       <c r="AD56" s="133">
         <v>0.2</v>
       </c>
-      <c r="AE56" s="143">
+      <c r="AE56" s="142">
         <v>0.1</v>
       </c>
       <c r="AF56" s="125" t="str">
@@ -26692,10 +26663,8 @@
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="125">
-        <v>20</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="125"/>
+      <c r="B57" s="56">
         <v>9047</v>
       </c>
       <c r="C57" s="125">
@@ -26734,7 +26703,7 @@
       <c r="AD57" s="133">
         <v>0.3</v>
       </c>
-      <c r="AE57" s="143">
+      <c r="AE57" s="142">
         <v>0.1</v>
       </c>
       <c r="AF57" s="125" t="str">
@@ -26755,10 +26724,8 @@
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="125">
-        <v>20</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="125"/>
+      <c r="B58" s="56">
         <v>9048</v>
       </c>
       <c r="C58" s="125">
@@ -26797,7 +26764,7 @@
       <c r="AD58" s="133">
         <v>0.4</v>
       </c>
-      <c r="AE58" s="143">
+      <c r="AE58" s="142">
         <v>0.1</v>
       </c>
       <c r="AF58" s="125" t="str">
@@ -26818,10 +26785,8 @@
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="125">
-        <v>20</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="125"/>
+      <c r="B59" s="56">
         <v>10000</v>
       </c>
       <c r="C59" s="125">
@@ -26860,7 +26825,7 @@
       <c r="AD59" s="133">
         <v>0.5</v>
       </c>
-      <c r="AE59" s="143">
+      <c r="AE59" s="142">
         <v>0.1</v>
       </c>
       <c r="AF59" s="125" t="str">
@@ -26881,10 +26846,8 @@
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="125">
-        <v>20</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="125"/>
+      <c r="B60" s="56">
         <v>10001</v>
       </c>
       <c r="C60" s="125">
@@ -26923,7 +26886,7 @@
       <c r="AD60" s="133">
         <v>0.6</v>
       </c>
-      <c r="AE60" s="143">
+      <c r="AE60" s="142">
         <v>0.1</v>
       </c>
       <c r="AF60" s="125" t="str">
@@ -26944,10 +26907,8 @@
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="125">
-        <v>20</v>
-      </c>
-      <c r="B61">
+      <c r="A61" s="125"/>
+      <c r="B61" s="56">
         <v>10002</v>
       </c>
       <c r="C61" s="125">
@@ -26986,7 +26947,7 @@
       <c r="AD61" s="133">
         <v>0.7</v>
       </c>
-      <c r="AE61" s="143">
+      <c r="AE61" s="142">
         <v>0.1</v>
       </c>
       <c r="AF61" s="125" t="str">
@@ -27007,10 +26968,8 @@
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="125">
-        <v>20</v>
-      </c>
-      <c r="B62">
+      <c r="A62" s="125"/>
+      <c r="B62" s="56">
         <v>10003</v>
       </c>
       <c r="C62" s="125">
@@ -27049,7 +27008,7 @@
       <c r="AD62" s="133">
         <v>0.8</v>
       </c>
-      <c r="AE62" s="143">
+      <c r="AE62" s="142">
         <v>0.1</v>
       </c>
       <c r="AF62" s="125" t="str">
@@ -27070,10 +27029,8 @@
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="125">
-        <v>20</v>
-      </c>
-      <c r="B63">
+      <c r="A63" s="125"/>
+      <c r="B63" s="56">
         <v>10004</v>
       </c>
       <c r="C63" s="125">
@@ -27112,7 +27069,7 @@
       <c r="AD63" s="133">
         <v>0.9</v>
       </c>
-      <c r="AE63" s="143">
+      <c r="AE63" s="142">
         <v>0.1</v>
       </c>
       <c r="AF63" s="125" t="str">
@@ -27133,10 +27090,8 @@
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="125">
-        <v>20</v>
-      </c>
-      <c r="B64">
+      <c r="A64" s="125"/>
+      <c r="B64" s="56">
         <v>10005</v>
       </c>
       <c r="C64" s="125">
@@ -27175,7 +27130,7 @@
       <c r="AD64" s="133">
         <v>1</v>
       </c>
-      <c r="AE64" s="143">
+      <c r="AE64" s="142">
         <v>0.1</v>
       </c>
       <c r="AF64" s="125" t="str">
@@ -27196,10 +27151,8 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="125">
-        <v>20</v>
-      </c>
-      <c r="B65">
+      <c r="A65" s="125"/>
+      <c r="B65" s="56">
         <v>10006</v>
       </c>
       <c r="C65" s="125">
@@ -27232,10 +27185,8 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="125">
-        <v>20</v>
-      </c>
-      <c r="B66">
+      <c r="A66" s="125"/>
+      <c r="B66" s="56">
         <v>10007</v>
       </c>
       <c r="C66" s="125">
@@ -27268,10 +27219,8 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="125">
-        <v>20</v>
-      </c>
-      <c r="B67">
+      <c r="A67" s="125"/>
+      <c r="B67" s="56">
         <v>11000</v>
       </c>
       <c r="C67" s="125">
@@ -27304,10 +27253,8 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="125">
-        <v>20</v>
-      </c>
-      <c r="B68">
+      <c r="A68" s="125"/>
+      <c r="B68" s="56">
         <v>11001</v>
       </c>
       <c r="C68" s="125">
@@ -27367,10 +27314,8 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="125">
-        <v>20</v>
-      </c>
-      <c r="B69">
+      <c r="A69" s="125"/>
+      <c r="B69" s="56">
         <v>11002</v>
       </c>
       <c r="C69" s="125">
@@ -27410,30 +27355,28 @@
       <c r="AC69" s="125"/>
       <c r="AD69" s="125"/>
       <c r="AE69" s="143">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF69" s="125" t="str">
         <f>AA69 &amp; "#" &amp;  AC69 &amp; "#" &amp; AB69 &amp; "#" &amp;AD69 &amp; "#" &amp; AE69</f>
-        <v>20##0.2##0.1</v>
+        <v>20##0.2##0.01</v>
       </c>
       <c r="AG69" s="125">
         <f>MATCH(AF69, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH69" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG69-1, 0)</f>
-        <v>7001</v>
-      </c>
-      <c r="AI69" s="128">
+        <v>13010</v>
+      </c>
+      <c r="AI69" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
-        <v>0.16338328226733051</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="125">
-        <v>20</v>
-      </c>
-      <c r="B70">
+      <c r="A70" s="125"/>
+      <c r="B70" s="56">
         <v>11003</v>
       </c>
       <c r="C70" s="125">
@@ -27473,30 +27416,28 @@
       <c r="AC70" s="125"/>
       <c r="AD70" s="125"/>
       <c r="AE70" s="143">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF70" s="125" t="str">
-        <f t="shared" ref="AF70:AF79" si="20">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
-        <v>20##0.2##1</v>
+        <f t="shared" ref="AF70:AF72" si="20">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
+        <v>20##0.2##0.1</v>
       </c>
       <c r="AG70" s="125">
         <f>MATCH(AF70, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="AH70" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG70-1, 0)</f>
-        <v>13001</v>
+        <v>7001</v>
       </c>
       <c r="AI70" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$F1031, 5), "")</f>
-        <v>0.23995894818595365</v>
+        <v>0.16338328226733051</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="125">
-        <v>20</v>
-      </c>
-      <c r="B71">
+      <c r="A71" s="125"/>
+      <c r="B71" s="56">
         <v>11004</v>
       </c>
       <c r="C71" s="125">
@@ -27536,30 +27477,28 @@
       <c r="AC71" s="56"/>
       <c r="AD71" s="56"/>
       <c r="AE71" s="143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF71" s="125" t="str">
         <f t="shared" si="20"/>
-        <v>20##0.2##10</v>
+        <v>20##0.2##1</v>
       </c>
       <c r="AG71" s="125">
         <f>MATCH(AF71, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG71-1, 0)</f>
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="AI71" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$F1032, 5), "")</f>
-        <v>0.30930322866969934</v>
+        <v>0.23995894818595365</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="125">
-        <v>20</v>
-      </c>
-      <c r="B72">
+      <c r="A72" s="125"/>
+      <c r="B72" s="56">
         <v>11005</v>
       </c>
       <c r="C72" s="125">
@@ -27599,30 +27538,28 @@
       <c r="AC72" s="125"/>
       <c r="AD72" s="125"/>
       <c r="AE72" s="143">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF72" s="125" t="str">
         <f t="shared" si="20"/>
-        <v>20##0.2##100</v>
+        <v>20##0.2##10</v>
       </c>
       <c r="AG72" s="125">
         <f>MATCH(AF72, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH72" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG72-1, 0)</f>
-        <v>13003</v>
-      </c>
-      <c r="AI72" s="128" t="str">
+        <v>13002</v>
+      </c>
+      <c r="AI72" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$F1033, 5), "")</f>
-        <v/>
+        <v>0.30930322866969934</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="125">
-        <v>20</v>
-      </c>
-      <c r="B73">
+      <c r="A73" s="125"/>
+      <c r="B73" s="56">
         <v>11006</v>
       </c>
       <c r="C73" s="125">
@@ -27653,21 +27590,37 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="AA73" s="125"/>
-      <c r="AB73" s="133"/>
+      <c r="AA73" s="125">
+        <v>20</v>
+      </c>
+      <c r="AB73" s="133">
+        <v>0.2</v>
+      </c>
       <c r="AC73" s="125"/>
       <c r="AD73" s="125"/>
-      <c r="AE73" s="143"/>
-      <c r="AF73" s="125"/>
-      <c r="AG73" s="125"/>
-      <c r="AH73" s="125"/>
-      <c r="AI73" s="128"/>
+      <c r="AE73" s="143">
+        <v>100</v>
+      </c>
+      <c r="AF73" s="125" t="str">
+        <f t="shared" ref="AF73" si="21">AA73 &amp; "#" &amp;  AC73 &amp; "#" &amp; AB73 &amp; "#" &amp;AD73 &amp; "#" &amp; AE73</f>
+        <v>20##0.2##100</v>
+      </c>
+      <c r="AG73" s="125">
+        <f>MATCH(AF73, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>93</v>
+      </c>
+      <c r="AH73" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG73-1, 0)</f>
+        <v>13003</v>
+      </c>
+      <c r="AI73" s="128" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$F1034, 5), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="125">
-        <v>20</v>
-      </c>
-      <c r="B74">
+      <c r="A74" s="125"/>
+      <c r="B74" s="56">
         <v>11007</v>
       </c>
       <c r="C74" s="125">
@@ -27709,10 +27662,8 @@
       <c r="AI74" s="128"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="125">
-        <v>20</v>
-      </c>
-      <c r="B75">
+      <c r="A75" s="125"/>
+      <c r="B75" s="56">
         <v>11008</v>
       </c>
       <c r="C75" s="125">
@@ -27754,10 +27705,8 @@
       <c r="AI75" s="128"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="125">
-        <v>20</v>
-      </c>
-      <c r="B76">
+      <c r="A76" s="125"/>
+      <c r="B76" s="56">
         <v>11009</v>
       </c>
       <c r="C76" s="125">
@@ -27799,10 +27748,8 @@
       <c r="AI76" s="128"/>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="125">
-        <v>20</v>
-      </c>
-      <c r="B77">
+      <c r="A77" s="125"/>
+      <c r="B77" s="56">
         <v>11010</v>
       </c>
       <c r="C77" s="125">
@@ -27844,10 +27791,8 @@
       <c r="AI77" s="128"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="125">
-        <v>20</v>
-      </c>
-      <c r="B78">
+      <c r="A78" s="125"/>
+      <c r="B78" s="56">
         <v>12000</v>
       </c>
       <c r="C78" s="125">
@@ -27889,10 +27834,8 @@
       <c r="AI78" s="128"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="125">
-        <v>20</v>
-      </c>
-      <c r="B79">
+      <c r="A79" s="125"/>
+      <c r="B79" s="56">
         <v>12001</v>
       </c>
       <c r="C79" s="125">
@@ -27934,10 +27877,8 @@
       <c r="AI79" s="128"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="125">
-        <v>20</v>
-      </c>
-      <c r="B80">
+      <c r="A80" s="125"/>
+      <c r="B80" s="56">
         <v>12002</v>
       </c>
       <c r="C80" s="125">
@@ -27970,10 +27911,8 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="125">
-        <v>20</v>
-      </c>
-      <c r="B81">
+      <c r="A81" s="125"/>
+      <c r="B81" s="56">
         <v>12003</v>
       </c>
       <c r="C81" s="125">
@@ -28006,10 +27945,8 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="125">
-        <v>20</v>
-      </c>
-      <c r="B82">
+      <c r="A82" s="125"/>
+      <c r="B82" s="56">
         <v>12004</v>
       </c>
       <c r="C82" s="125">
@@ -28042,10 +27979,8 @@
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="125">
-        <v>20</v>
-      </c>
-      <c r="B83">
+      <c r="A83" s="125"/>
+      <c r="B83" s="56">
         <v>12005</v>
       </c>
       <c r="C83" s="125">
@@ -28105,10 +28040,8 @@
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="125">
-        <v>20</v>
-      </c>
-      <c r="B84">
+      <c r="A84" s="125"/>
+      <c r="B84" s="56">
         <v>12006</v>
       </c>
       <c r="C84" s="125">
@@ -28148,30 +28081,28 @@
         <v>0.2</v>
       </c>
       <c r="AE84" s="143">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF84" s="125" t="str">
         <f>AA84 &amp; "#" &amp;  AC84 &amp; "#" &amp; AB84 &amp; "#" &amp;AD84 &amp; "#" &amp; AE84</f>
-        <v>#20##0.2#0.1</v>
+        <v>#20##0.2#0.01</v>
       </c>
       <c r="AG84" s="125">
         <f>MATCH(AF84, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="AH84" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG84-1, 0)</f>
-        <v>10002</v>
-      </c>
-      <c r="AI84" s="128">
+        <v>14010</v>
+      </c>
+      <c r="AI84" s="128" t="str">
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
-        <v>0.19863611315209401</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="125">
-        <v>20</v>
-      </c>
-      <c r="B85">
+      <c r="A85" s="125"/>
+      <c r="B85" s="56">
         <v>12007</v>
       </c>
       <c r="C85" s="125">
@@ -28211,30 +28142,28 @@
         <v>0.2</v>
       </c>
       <c r="AE85" s="143">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AF85" s="125" t="str">
-        <f t="shared" ref="AF85:AF94" si="21">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
-        <v>#20##0.2#1</v>
+        <f t="shared" ref="AF85:AF88" si="22">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
+        <v>#20##0.2#0.1</v>
       </c>
       <c r="AG85" s="125">
         <f>MATCH(AF85, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AH85" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG85-1, 0)</f>
-        <v>14001</v>
+        <v>10002</v>
       </c>
       <c r="AI85" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$F1046, 5), "")</f>
-        <v>0.20528680794408075</v>
+        <v>0.19863611315209401</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="125">
-        <v>20</v>
-      </c>
-      <c r="B86">
+      <c r="A86" s="125"/>
+      <c r="B86" s="56">
         <v>12008</v>
       </c>
       <c r="C86" s="125">
@@ -28274,30 +28203,28 @@
         <v>0.2</v>
       </c>
       <c r="AE86" s="143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF86" s="125" t="str">
-        <f t="shared" si="21"/>
-        <v>#20##0.2#10</v>
+        <f t="shared" si="22"/>
+        <v>#20##0.2#1</v>
       </c>
       <c r="AG86" s="125">
         <f>MATCH(AF86, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH86" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG86-1, 0)</f>
-        <v>14002</v>
+        <v>14001</v>
       </c>
       <c r="AI86" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$F1047, 5), "")</f>
-        <v>0.34397536891157215</v>
+        <v>0.20528680794408075</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="125">
-        <v>20</v>
-      </c>
-      <c r="B87">
+      <c r="A87" s="125"/>
+      <c r="B87" s="56">
         <v>12009</v>
       </c>
       <c r="C87" s="125">
@@ -28337,30 +28264,28 @@
         <v>0.2</v>
       </c>
       <c r="AE87" s="143">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF87" s="125" t="str">
-        <f t="shared" si="21"/>
-        <v>#20##0.2#100</v>
+        <f t="shared" si="22"/>
+        <v>#20##0.2#10</v>
       </c>
       <c r="AG87" s="125">
         <f>MATCH(AF87, Defaults_4000!$I$1:$I$300,0)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH87" s="125">
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG87-1, 0)</f>
-        <v>14003</v>
-      </c>
-      <c r="AI87" s="128" t="str">
+        <v>14002</v>
+      </c>
+      <c r="AI87" s="128">
         <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$F1048, 5), "")</f>
-        <v/>
+        <v>0.34397536891157215</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="125">
-        <v>20</v>
-      </c>
-      <c r="B88">
+      <c r="A88" s="125"/>
+      <c r="B88" s="56">
         <v>12010</v>
       </c>
       <c r="C88" s="125">
@@ -28393,19 +28318,35 @@
       </c>
       <c r="AA88" s="125"/>
       <c r="AB88" s="133"/>
-      <c r="AC88" s="125"/>
-      <c r="AD88" s="133"/>
-      <c r="AE88" s="143"/>
-      <c r="AF88" s="125"/>
-      <c r="AG88" s="125"/>
-      <c r="AH88" s="125"/>
-      <c r="AI88" s="128"/>
+      <c r="AC88" s="125">
+        <v>20</v>
+      </c>
+      <c r="AD88" s="133">
+        <v>0.2</v>
+      </c>
+      <c r="AE88" s="143">
+        <v>100</v>
+      </c>
+      <c r="AF88" s="125" t="str">
+        <f t="shared" si="22"/>
+        <v>#20##0.2#100</v>
+      </c>
+      <c r="AG88" s="125">
+        <f>MATCH(AF88, Defaults_4000!$I$1:$I$300,0)</f>
+        <v>106</v>
+      </c>
+      <c r="AH88" s="125">
+        <f ca="1">OFFSET(Defaults_4000!$B$1, AG88-1, 0)</f>
+        <v>14003</v>
+      </c>
+      <c r="AI88" s="128" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH88, $B$1:$F1049, 5), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="125">
-        <v>20</v>
-      </c>
-      <c r="B89">
+      <c r="A89" s="125"/>
+      <c r="B89" s="56">
         <v>13000</v>
       </c>
       <c r="C89" s="125">
@@ -28440,17 +28381,15 @@
       <c r="AB89" s="133"/>
       <c r="AC89" s="125"/>
       <c r="AD89" s="133"/>
-      <c r="AE89" s="143"/>
+      <c r="AE89" s="142"/>
       <c r="AF89" s="125"/>
       <c r="AG89" s="125"/>
       <c r="AH89" s="125"/>
       <c r="AI89" s="128"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="125">
-        <v>20</v>
-      </c>
-      <c r="B90">
+      <c r="A90" s="125"/>
+      <c r="B90" s="56">
         <v>13001</v>
       </c>
       <c r="C90" s="125">
@@ -28485,17 +28424,15 @@
       <c r="AB90" s="133"/>
       <c r="AC90" s="125"/>
       <c r="AD90" s="133"/>
-      <c r="AE90" s="143"/>
+      <c r="AE90" s="142"/>
       <c r="AF90" s="125"/>
       <c r="AG90" s="125"/>
       <c r="AH90" s="125"/>
       <c r="AI90" s="128"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="125">
-        <v>20</v>
-      </c>
-      <c r="B91">
+      <c r="A91" s="125"/>
+      <c r="B91" s="56">
         <v>13002</v>
       </c>
       <c r="C91" s="125">
@@ -28530,17 +28467,15 @@
       <c r="AB91" s="133"/>
       <c r="AC91" s="125"/>
       <c r="AD91" s="133"/>
-      <c r="AE91" s="143"/>
+      <c r="AE91" s="142"/>
       <c r="AF91" s="125"/>
       <c r="AG91" s="125"/>
       <c r="AH91" s="125"/>
       <c r="AI91" s="128"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="125">
-        <v>20</v>
-      </c>
-      <c r="B92">
+      <c r="A92" s="125"/>
+      <c r="B92" s="56">
         <v>13003</v>
       </c>
       <c r="C92" s="125">
@@ -28575,17 +28510,15 @@
       <c r="AB92" s="133"/>
       <c r="AC92" s="125"/>
       <c r="AD92" s="133"/>
-      <c r="AE92" s="143"/>
+      <c r="AE92" s="142"/>
       <c r="AF92" s="125"/>
       <c r="AG92" s="125"/>
       <c r="AH92" s="125"/>
       <c r="AI92" s="128"/>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="125">
-        <v>20</v>
-      </c>
-      <c r="B93">
+      <c r="A93" s="125"/>
+      <c r="B93" s="56">
         <v>13004</v>
       </c>
       <c r="C93" s="125">
@@ -28620,17 +28553,15 @@
       <c r="AB93" s="133"/>
       <c r="AC93" s="125"/>
       <c r="AD93" s="133"/>
-      <c r="AE93" s="143"/>
+      <c r="AE93" s="142"/>
       <c r="AF93" s="125"/>
       <c r="AG93" s="125"/>
       <c r="AH93" s="125"/>
       <c r="AI93" s="128"/>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="125">
-        <v>20</v>
-      </c>
-      <c r="B94">
+      <c r="A94" s="125"/>
+      <c r="B94" s="56">
         <v>13005</v>
       </c>
       <c r="C94" s="125">
@@ -28665,17 +28596,15 @@
       <c r="AB94" s="133"/>
       <c r="AC94" s="125"/>
       <c r="AD94" s="133"/>
-      <c r="AE94" s="143"/>
+      <c r="AE94" s="142"/>
       <c r="AF94" s="125"/>
       <c r="AG94" s="125"/>
       <c r="AH94" s="125"/>
       <c r="AI94" s="128"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="125">
-        <v>20</v>
-      </c>
-      <c r="B95">
+      <c r="A95" s="125"/>
+      <c r="B95" s="56">
         <v>13006</v>
       </c>
       <c r="C95" s="125">
@@ -28708,10 +28637,8 @@
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="125">
-        <v>20</v>
-      </c>
-      <c r="B96">
+      <c r="A96" s="125"/>
+      <c r="B96" s="56">
         <v>13007</v>
       </c>
       <c r="C96" s="125">
@@ -28744,10 +28671,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="125">
-        <v>20</v>
-      </c>
-      <c r="B97">
+      <c r="A97" s="125"/>
+      <c r="B97" s="56">
         <v>13008</v>
       </c>
       <c r="C97" s="125">
@@ -28780,10 +28705,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="125">
-        <v>20</v>
-      </c>
-      <c r="B98">
+      <c r="A98" s="125"/>
+      <c r="B98" s="56">
         <v>13009</v>
       </c>
       <c r="C98" s="125">
@@ -28816,227 +28739,213 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="125">
-        <v>20</v>
-      </c>
-      <c r="B99">
-        <v>14000</v>
+      <c r="A99" s="125"/>
+      <c r="B99" s="56">
+        <v>13010</v>
       </c>
       <c r="C99" s="125">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D99" s="125">
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="127" t="e">
+        <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="125"/>
+      <c r="B100" s="56">
+        <v>13011</v>
+      </c>
+      <c r="C100" s="125">
+        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="125">
+        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="127" t="e">
+        <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="125"/>
+      <c r="B101" s="56">
+        <v>13012</v>
+      </c>
+      <c r="C101" s="125">
+        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="125">
+        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="127" t="e">
+        <f>IFERROR((E101 + Params!$B$3^2/(2 * C101))/(1 + Params!$B$3^2/C101), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C101))*SQRT(E101*(1-E101)/C101 + (Params!$B$3/(2*C101))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="125"/>
+      <c r="B102" s="56">
+        <v>14000</v>
+      </c>
+      <c r="C102" s="125">
+        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D102" s="125">
+        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E99" s="127">
+      <c r="E102" s="127">
         <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
-      <c r="F99" s="127">
-        <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
+      <c r="F102" s="127">
+        <f>IFERROR((E102 + Params!$B$3^2/(2 * C102))/(1 + Params!$B$3^2/C102), NA())</f>
         <v>0.17061466770220793</v>
       </c>
-      <c r="G99" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C99))*SQRT(E99*(1-E99)/C99 + (Params!$B$3/(2*C99))^2), 0)</f>
+      <c r="G102" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C102))*SQRT(E102*(1-E102)/C102 + (Params!$B$3/(2*C102))^2), 0)</f>
         <v>0.12894725413152699</v>
       </c>
-      <c r="H99" s="128">
+      <c r="H102" s="128">
         <f t="shared" si="18"/>
         <v>4.1667413570680933E-2</v>
       </c>
-      <c r="I99" s="128">
+      <c r="I102" s="128">
         <f t="shared" si="19"/>
         <v>0.29956192183373492</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="125">
-        <v>20</v>
-      </c>
-      <c r="B100">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="125"/>
+      <c r="B103" s="56">
         <v>14001</v>
       </c>
-      <c r="C100" s="125">
-        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+      <c r="C103" s="125">
+        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D100" s="125">
-        <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+      <c r="D103" s="125">
+        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E100" s="127">
+      <c r="E103" s="127">
         <f t="shared" si="17"/>
         <v>0.16</v>
       </c>
-      <c r="F100" s="127">
-        <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
+      <c r="F103" s="127">
+        <f>IFERROR((E103 + Params!$B$3^2/(2 * C103))/(1 + Params!$B$3^2/C103), NA())</f>
         <v>0.20528680794408075</v>
       </c>
-      <c r="G100" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C100))*SQRT(E100*(1-E100)/C100 + (Params!$B$3/(2*C100))^2), 0)</f>
+      <c r="G103" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C103))*SQRT(E103*(1-E103)/C103 + (Params!$B$3/(2*C103))^2), 0)</f>
         <v>0.14125333185830088</v>
       </c>
-      <c r="H100" s="128">
+      <c r="H103" s="128">
         <f t="shared" si="18"/>
         <v>6.4033476085779861E-2</v>
       </c>
-      <c r="I100" s="128">
+      <c r="I103" s="128">
         <f t="shared" si="19"/>
         <v>0.34654013980238163</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="125">
-        <v>20</v>
-      </c>
-      <c r="B101">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="125"/>
+      <c r="B104" s="56">
         <v>14002</v>
       </c>
-      <c r="C101" s="125">
-        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+      <c r="C104" s="125">
+        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D101" s="125">
-        <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+      <c r="D104" s="125">
+        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E101" s="127">
+      <c r="E104" s="127">
         <f t="shared" si="17"/>
         <v>0.32</v>
       </c>
-      <c r="F101" s="127">
-        <f>IFERROR((E101 + Params!$B$3^2/(2 * C101))/(1 + Params!$B$3^2/C101), NA())</f>
+      <c r="F104" s="127">
+        <f>IFERROR((E104 + Params!$B$3^2/(2 * C104))/(1 + Params!$B$3^2/C104), NA())</f>
         <v>0.34397536891157215</v>
       </c>
-      <c r="G101" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C101))*SQRT(E101*(1-E101)/C101 + (Params!$B$3/(2*C101))^2), 0)</f>
+      <c r="G104" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C104))*SQRT(E104*(1-E104)/C104 + (Params!$B$3/(2*C104))^2), 0)</f>
         <v>0.17192549374266075</v>
       </c>
-      <c r="H101" s="128">
+      <c r="H104" s="128">
         <f t="shared" si="18"/>
         <v>0.1720498751689114</v>
       </c>
-      <c r="I101" s="128">
+      <c r="I104" s="128">
         <f t="shared" si="19"/>
         <v>0.51590086265423296</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="125">
-        <v>20</v>
-      </c>
-      <c r="B102">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="125"/>
+      <c r="B105" s="56">
         <v>14003</v>
-      </c>
-      <c r="C102" s="125">
-        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="125">
-        <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E102" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F102" s="127" t="e">
-        <f>IFERROR((E102 + Params!$B$3^2/(2 * C102))/(1 + Params!$B$3^2/C102), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G102" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C102))*SQRT(E102*(1-E102)/C102 + (Params!$B$3/(2*C102))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="125">
-        <v>20</v>
-      </c>
-      <c r="B103">
-        <v>14004</v>
-      </c>
-      <c r="C103" s="125">
-        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="125">
-        <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F103" s="127" t="e">
-        <f>IFERROR((E103 + Params!$B$3^2/(2 * C103))/(1 + Params!$B$3^2/C103), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G103" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C103))*SQRT(E103*(1-E103)/C103 + (Params!$B$3/(2*C103))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="125">
-        <v>20</v>
-      </c>
-      <c r="B104">
-        <v>14005</v>
-      </c>
-      <c r="C104" s="125">
-        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="125">
-        <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" s="127" t="e">
-        <f>IFERROR((E104 + Params!$B$3^2/(2 * C104))/(1 + Params!$B$3^2/C104), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C104))*SQRT(E104*(1-E104)/C104 + (Params!$B$3/(2*C104))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="125">
-        <v>20</v>
-      </c>
-      <c r="B105">
-        <v>14006</v>
       </c>
       <c r="C105" s="125">
         <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29068,11 +28977,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="125">
-        <v>20</v>
-      </c>
-      <c r="B106">
-        <v>14007</v>
+      <c r="A106" s="125"/>
+      <c r="B106" s="56">
+        <v>14004</v>
       </c>
       <c r="C106" s="125">
         <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29104,11 +29011,9 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="125">
-        <v>20</v>
-      </c>
-      <c r="B107">
-        <v>14008</v>
+      <c r="A107" s="125"/>
+      <c r="B107" s="56">
+        <v>14005</v>
       </c>
       <c r="C107" s="125">
         <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29140,11 +29045,9 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="125">
-        <v>20</v>
-      </c>
-      <c r="B108">
-        <v>14009</v>
+      <c r="A108" s="125"/>
+      <c r="B108" s="56">
+        <v>14006</v>
       </c>
       <c r="C108" s="125">
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29176,11 +29079,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="125">
-        <v>20</v>
-      </c>
-      <c r="B109">
-        <v>15000</v>
+      <c r="A109" s="125"/>
+      <c r="B109" s="56">
+        <v>14007</v>
       </c>
       <c r="C109" s="125">
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29212,11 +29113,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="125">
-        <v>20</v>
-      </c>
-      <c r="B110">
-        <v>15001</v>
+      <c r="A110" s="125"/>
+      <c r="B110" s="56">
+        <v>14008</v>
       </c>
       <c r="C110" s="125">
         <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29248,11 +29147,9 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="125">
-        <v>20</v>
-      </c>
-      <c r="B111">
-        <v>15002</v>
+      <c r="A111" s="125"/>
+      <c r="B111" s="56">
+        <v>14009</v>
       </c>
       <c r="C111" s="125">
         <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29284,11 +29181,9 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="125">
-        <v>20</v>
-      </c>
-      <c r="B112">
-        <v>15003</v>
+      <c r="A112" s="125"/>
+      <c r="B112" s="56">
+        <v>14010</v>
       </c>
       <c r="C112" s="125">
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29320,11 +29215,9 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="125">
-        <v>20</v>
-      </c>
-      <c r="B113">
-        <v>15004</v>
+      <c r="A113" s="125"/>
+      <c r="B113" s="56">
+        <v>14011</v>
       </c>
       <c r="C113" s="125">
         <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29356,11 +29249,9 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="125">
-        <v>20</v>
-      </c>
-      <c r="B114">
-        <v>15005</v>
+      <c r="A114" s="125"/>
+      <c r="B114" s="56">
+        <v>14012</v>
       </c>
       <c r="C114" s="125">
         <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29392,11 +29283,9 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="125">
-        <v>20</v>
-      </c>
-      <c r="B115">
-        <v>15006</v>
+      <c r="A115" s="125"/>
+      <c r="B115" s="56">
+        <v>15000</v>
       </c>
       <c r="C115" s="125">
         <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29428,11 +29317,9 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="125">
-        <v>20</v>
-      </c>
-      <c r="B116">
-        <v>15007</v>
+      <c r="A116" s="125"/>
+      <c r="B116" s="56">
+        <v>15001</v>
       </c>
       <c r="C116" s="125">
         <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29464,263 +29351,247 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="125">
-        <v>20</v>
-      </c>
-      <c r="B117">
-        <v>15008</v>
+      <c r="A117" s="125"/>
+      <c r="B117" s="56">
+        <v>15002</v>
       </c>
       <c r="C117" s="125">
         <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117" s="125">
         <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E117" s="127">
+      <c r="E117" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F117" s="127" t="e">
         <f>IFERROR((E117 + Params!$B$3^2/(2 * C117))/(1 + Params!$B$3^2/C117), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>#N/A</v>
       </c>
       <c r="G117" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C117))*SQRT(E117*(1-E117)/C117 + (Params!$B$3/(2*C117))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I117" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="125"/>
+      <c r="B118" s="56">
+        <v>15003</v>
+      </c>
+      <c r="C118" s="125">
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="125">
+        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="127" t="e">
+        <f>IFERROR((E118 + Params!$B$3^2/(2 * C118))/(1 + Params!$B$3^2/C118), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G118" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C118))*SQRT(E118*(1-E118)/C118 + (Params!$B$3/(2*C118))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I118" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="125"/>
+      <c r="B119" s="56">
+        <v>15004</v>
+      </c>
+      <c r="C119" s="125">
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="125">
+        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="127" t="e">
+        <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G119" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C119))*SQRT(E119*(1-E119)/C119 + (Params!$B$3/(2*C119))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I119" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="125"/>
+      <c r="B120" s="56">
+        <v>15005</v>
+      </c>
+      <c r="C120" s="125">
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="125">
+        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="127" t="e">
+        <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G120" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I120" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="125"/>
+      <c r="B121" s="56">
+        <v>15006</v>
+      </c>
+      <c r="C121" s="125">
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="125">
+        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="127" t="e">
+        <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G121" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C121))*SQRT(E121*(1-E121)/C121 + (Params!$B$3/(2*C121))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I121" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="125"/>
+      <c r="B122" s="56">
+        <v>15007</v>
+      </c>
+      <c r="C122" s="125">
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D122" s="125">
+        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="127" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="127" t="e">
+        <f>IFERROR((E122 + Params!$B$3^2/(2 * C122))/(1 + Params!$B$3^2/C122), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G122" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C122))*SQRT(E122*(1-E122)/C122 + (Params!$B$3/(2*C122))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="128" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I122" s="128" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="125"/>
+      <c r="B123" s="56">
+        <v>15008</v>
+      </c>
+      <c r="C123" s="125">
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D123" s="125">
+        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="127">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="127">
+        <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
         <v>0.24495001020199958</v>
       </c>
-      <c r="H117" s="128">
+      <c r="G123" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), 0)</f>
+        <v>0.24495001020199958</v>
+      </c>
+      <c r="H123" s="128">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I117" s="128">
+      <c r="I123" s="128">
         <f t="shared" si="19"/>
         <v>0.48990002040399916</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="125">
-        <v>20</v>
-      </c>
-      <c r="B118">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="125"/>
+      <c r="B124" s="56">
         <v>15009</v>
-      </c>
-      <c r="C118" s="125">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="125">
-        <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F118" s="127" t="e">
-        <f>IFERROR((E118 + Params!$B$3^2/(2 * C118))/(1 + Params!$B$3^2/C118), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G118" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C118))*SQRT(E118*(1-E118)/C118 + (Params!$B$3/(2*C118))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="125">
-        <v>20</v>
-      </c>
-      <c r="B119">
-        <v>15010</v>
-      </c>
-      <c r="C119" s="125">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="125">
-        <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F119" s="127" t="e">
-        <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G119" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C119))*SQRT(E119*(1-E119)/C119 + (Params!$B$3/(2*C119))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="125">
-        <v>20</v>
-      </c>
-      <c r="B120">
-        <v>15011</v>
-      </c>
-      <c r="C120" s="125">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D120" s="125">
-        <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F120" s="127" t="e">
-        <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G120" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C120))*SQRT(E120*(1-E120)/C120 + (Params!$B$3/(2*C120))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="125">
-        <v>20</v>
-      </c>
-      <c r="B121">
-        <v>15012</v>
-      </c>
-      <c r="C121" s="125">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D121" s="125">
-        <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F121" s="127" t="e">
-        <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G121" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C121))*SQRT(E121*(1-E121)/C121 + (Params!$B$3/(2*C121))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="125">
-        <v>20</v>
-      </c>
-      <c r="B122">
-        <v>15013</v>
-      </c>
-      <c r="C122" s="125">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D122" s="125">
-        <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="127" t="e">
-        <f>IFERROR((E122 + Params!$B$3^2/(2 * C122))/(1 + Params!$B$3^2/C122), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C122))*SQRT(E122*(1-E122)/C122 + (Params!$B$3/(2*C122))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="125">
-        <v>20</v>
-      </c>
-      <c r="B123">
-        <v>15014</v>
-      </c>
-      <c r="C123" s="125">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D123" s="125">
-        <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="127" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F123" s="127" t="e">
-        <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" s="128">
-        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="128" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" s="128" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="125">
-        <v>20</v>
-      </c>
-      <c r="B124">
-        <v>15015</v>
       </c>
       <c r="C124" s="125">
         <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29752,83 +29623,77 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="125">
-        <v>20</v>
-      </c>
-      <c r="B125">
-        <v>15016</v>
+      <c r="A125" s="125"/>
+      <c r="B125" s="56">
+        <v>15010</v>
       </c>
       <c r="C125" s="125">
         <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" s="125">
         <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E125" s="127">
+        <v>0</v>
+      </c>
+      <c r="E125" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F125" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F125" s="127" t="e">
         <f>IFERROR((E125 + Params!$B$3^2/(2 * C125))/(1 + Params!$B$3^2/C125), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>#N/A</v>
       </c>
       <c r="G125" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C125))*SQRT(E125*(1-E125)/C125 + (Params!$B$3/(2*C125))^2), 0)</f>
-        <v>0.30162117304962721</v>
-      </c>
-      <c r="H125" s="128">
+        <v>0</v>
+      </c>
+      <c r="H125" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>0.29998832134152864</v>
-      </c>
-      <c r="I125" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I125" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.90323066744078306</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="125">
-        <v>20</v>
-      </c>
-      <c r="B126">
-        <v>15017</v>
+      <c r="A126" s="125"/>
+      <c r="B126" s="56">
+        <v>15011</v>
       </c>
       <c r="C126" s="125">
         <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D126" s="125">
         <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E126" s="127">
+        <v>0</v>
+      </c>
+      <c r="E126" s="127" t="e">
         <f t="shared" si="17"/>
-        <v>0.75</v>
-      </c>
-      <c r="F126" s="127">
+        <v>#N/A</v>
+      </c>
+      <c r="F126" s="127" t="e">
         <f>IFERROR((E126 + Params!$B$3^2/(2 * C126))/(1 + Params!$B$3^2/C126), NA())</f>
-        <v>0.62752499489900015</v>
+        <v>#N/A</v>
       </c>
       <c r="G126" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C126))*SQRT(E126*(1-E126)/C126 + (Params!$B$3/(2*C126))^2), 0)</f>
-        <v>0.32688894245636357</v>
-      </c>
-      <c r="H126" s="128">
+        <v>0</v>
+      </c>
+      <c r="H126" s="128" t="e">
         <f t="shared" si="18"/>
-        <v>0.30063605244263658</v>
-      </c>
-      <c r="I126" s="128">
+        <v>#N/A</v>
+      </c>
+      <c r="I126" s="128" t="e">
         <f t="shared" si="19"/>
-        <v>0.95441393735536373</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="125">
-        <v>20</v>
-      </c>
-      <c r="B127">
-        <v>15018</v>
+      <c r="A127" s="125"/>
+      <c r="B127" s="56">
+        <v>15012</v>
       </c>
       <c r="C127" s="125">
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29860,11 +29725,9 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="125">
-        <v>20</v>
-      </c>
-      <c r="B128">
-        <v>15019</v>
+      <c r="A128" s="125"/>
+      <c r="B128" s="56">
+        <v>15013</v>
       </c>
       <c r="C128" s="125">
         <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29896,11 +29759,9 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="125">
-        <v>20</v>
-      </c>
-      <c r="B129">
-        <v>15020</v>
+      <c r="A129" s="125"/>
+      <c r="B129" s="56">
+        <v>15014</v>
       </c>
       <c r="C129" s="125">
         <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29932,11 +29793,9 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="125">
-        <v>20</v>
-      </c>
-      <c r="B130">
-        <v>15021</v>
+      <c r="A130" s="125"/>
+      <c r="B130" s="56">
+        <v>15015</v>
       </c>
       <c r="C130" s="125">
         <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -29968,83 +29827,77 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="125">
-        <v>20</v>
-      </c>
-      <c r="B131">
-        <v>15022</v>
+      <c r="A131" s="125"/>
+      <c r="B131" s="56">
+        <v>15016</v>
       </c>
       <c r="C131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="127" t="e">
-        <f t="shared" ref="E131:E140" si="22">IFERROR(D131/C131, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F131" s="127" t="e">
+        <v>4</v>
+      </c>
+      <c r="E131" s="127">
+        <f t="shared" ref="E131:E140" si="23">IFERROR(D131/C131, NA())</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F131" s="127">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>#N/A</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="G131" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="128" t="e">
-        <f t="shared" ref="H131:H140" si="23">F131-G131</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I131" s="128" t="e">
-        <f t="shared" ref="I131:I140" si="24">F131+G131</f>
-        <v>#N/A</v>
+        <v>0.30162117304962721</v>
+      </c>
+      <c r="H131" s="128">
+        <f t="shared" ref="H131:H140" si="24">F131-G131</f>
+        <v>0.29998832134152864</v>
+      </c>
+      <c r="I131" s="128">
+        <f t="shared" ref="I131:I140" si="25">F131+G131</f>
+        <v>0.90323066744078306</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="125">
-        <v>20</v>
-      </c>
-      <c r="B132">
-        <v>15023</v>
+      <c r="A132" s="125"/>
+      <c r="B132" s="56">
+        <v>15017</v>
       </c>
       <c r="C132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E132" s="127" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F132" s="127" t="e">
+        <v>3</v>
+      </c>
+      <c r="E132" s="127">
+        <f t="shared" si="23"/>
+        <v>0.75</v>
+      </c>
+      <c r="F132" s="127">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>#N/A</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G132" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="128" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I132" s="128" t="e">
+        <v>0.32688894245636357</v>
+      </c>
+      <c r="H132" s="128">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>0.30063605244263658</v>
+      </c>
+      <c r="I132" s="128">
+        <f t="shared" si="25"/>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="125">
-        <v>20</v>
-      </c>
-      <c r="B133">
-        <v>15024</v>
+      <c r="A133" s="125"/>
+      <c r="B133" s="56">
+        <v>15018</v>
       </c>
       <c r="C133" s="125">
         <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30055,7 +29908,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F133" s="127" t="e">
@@ -30067,20 +29920,18 @@
         <v>0</v>
       </c>
       <c r="H133" s="128" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I133" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="125">
-        <v>20</v>
-      </c>
-      <c r="B134">
-        <v>15025</v>
+      <c r="A134" s="125"/>
+      <c r="B134" s="56">
+        <v>15019</v>
       </c>
       <c r="C134" s="125">
         <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30091,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F134" s="127" t="e">
@@ -30103,20 +29954,18 @@
         <v>0</v>
       </c>
       <c r="H134" s="128" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I134" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="125">
-        <v>20</v>
-      </c>
-      <c r="B135">
-        <v>15026</v>
+      <c r="A135" s="125"/>
+      <c r="B135" s="56">
+        <v>15020</v>
       </c>
       <c r="C135" s="125">
         <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30127,7 +29976,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F135" s="127" t="e">
@@ -30139,128 +29988,120 @@
         <v>0</v>
       </c>
       <c r="H135" s="128" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I135" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="125">
-        <v>20</v>
-      </c>
-      <c r="B136">
-        <v>15027</v>
+      <c r="A136" s="125"/>
+      <c r="B136" s="56">
+        <v>15021</v>
       </c>
       <c r="C136" s="125">
         <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D136" s="125">
         <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E136" s="127">
-        <f t="shared" si="22"/>
-        <v>0.75</v>
-      </c>
-      <c r="F136" s="127">
+        <v>0</v>
+      </c>
+      <c r="E136" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F136" s="127" t="e">
         <f>IFERROR((E136 + Params!$B$3^2/(2 * C136))/(1 + Params!$B$3^2/C136), NA())</f>
-        <v>0.62752499489900015</v>
+        <v>#N/A</v>
       </c>
       <c r="G136" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C136))*SQRT(E136*(1-E136)/C136 + (Params!$B$3/(2*C136))^2), 0)</f>
-        <v>0.32688894245636357</v>
-      </c>
-      <c r="H136" s="128">
-        <f t="shared" si="23"/>
-        <v>0.30063605244263658</v>
-      </c>
-      <c r="I136" s="128">
+        <v>0</v>
+      </c>
+      <c r="H136" s="128" t="e">
         <f t="shared" si="24"/>
-        <v>0.95441393735536373</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I136" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="125">
-        <v>20</v>
-      </c>
-      <c r="B137">
-        <v>15028</v>
+      <c r="A137" s="125"/>
+      <c r="B137" s="56">
+        <v>15022</v>
       </c>
       <c r="C137" s="125">
         <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D137" s="125">
         <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>31</v>
-      </c>
-      <c r="E137" s="127">
-        <f t="shared" si="22"/>
-        <v>0.59615384615384615</v>
-      </c>
-      <c r="F137" s="127">
+        <v>0</v>
+      </c>
+      <c r="E137" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F137" s="127" t="e">
         <f>IFERROR((E137 + Params!$B$3^2/(2 * C137))/(1 + Params!$B$3^2/C137), NA())</f>
-        <v>0.589538981691069</v>
+        <v>#N/A</v>
       </c>
       <c r="G137" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C137))*SQRT(E137*(1-E137)/C137 + (Params!$B$3/(2*C137))^2), 0)</f>
-        <v>0.12886566406610814</v>
-      </c>
-      <c r="H137" s="128">
-        <f t="shared" si="23"/>
-        <v>0.46067331762496089</v>
-      </c>
-      <c r="I137" s="128">
+        <v>0</v>
+      </c>
+      <c r="H137" s="128" t="e">
         <f t="shared" si="24"/>
-        <v>0.71840464575717711</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I137" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="125">
-        <v>20</v>
-      </c>
-      <c r="B138">
-        <v>15029</v>
+      <c r="A138" s="125"/>
+      <c r="B138" s="56">
+        <v>15023</v>
       </c>
       <c r="C138" s="125">
         <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D138" s="125">
         <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E138" s="127">
-        <f t="shared" si="22"/>
-        <v>0.6</v>
-      </c>
-      <c r="F138" s="127">
+        <v>0</v>
+      </c>
+      <c r="E138" s="127" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F138" s="127" t="e">
         <f>IFERROR((E138 + Params!$B$3^2/(2 * C138))/(1 + Params!$B$3^2/C138), NA())</f>
-        <v>0.55655085052479192</v>
+        <v>#N/A</v>
       </c>
       <c r="G138" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C138))*SQRT(E138*(1-E138)/C138 + (Params!$B$3/(2*C138))^2), 0)</f>
-        <v>0.32583091831595484</v>
-      </c>
-      <c r="H138" s="128">
-        <f t="shared" si="23"/>
-        <v>0.23071993220883708</v>
-      </c>
-      <c r="I138" s="128">
+        <v>0</v>
+      </c>
+      <c r="H138" s="128" t="e">
         <f t="shared" si="24"/>
-        <v>0.88238176884074671</v>
+        <v>#N/A</v>
+      </c>
+      <c r="I138" s="128" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="125">
-        <v>20</v>
-      </c>
-      <c r="B139">
-        <v>15030</v>
+      <c r="A139" s="125"/>
+      <c r="B139" s="56">
+        <v>15024</v>
       </c>
       <c r="C139" s="125">
         <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30271,7 +30112,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F139" s="127" t="e">
@@ -30283,20 +30124,18 @@
         <v>0</v>
       </c>
       <c r="H139" s="128" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I139" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="125">
-        <v>20</v>
-      </c>
-      <c r="B140">
-        <v>15031</v>
+      <c r="A140" s="125"/>
+      <c r="B140" s="56">
+        <v>15025</v>
       </c>
       <c r="C140" s="125">
         <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30307,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F140" s="127" t="e">
@@ -30319,20 +30158,18 @@
         <v>0</v>
       </c>
       <c r="H140" s="128" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I140" s="128" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="125">
-        <v>20</v>
-      </c>
-      <c r="B141">
-        <v>15032</v>
+      <c r="A141" s="125"/>
+      <c r="B141" s="56">
+        <v>15026</v>
       </c>
       <c r="C141" s="125">
         <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30343,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="127" t="e">
-        <f t="shared" ref="E141:E157" si="25">IFERROR(D141/C141, NA())</f>
+        <f t="shared" ref="E141:E157" si="26">IFERROR(D141/C141, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F141" s="127" t="e">
@@ -30355,20 +30192,18 @@
         <v>0</v>
       </c>
       <c r="H141" s="128" t="e">
-        <f t="shared" ref="H141:H157" si="26">F141-G141</f>
+        <f t="shared" ref="H141:H157" si="27">F141-G141</f>
         <v>#N/A</v>
       </c>
       <c r="I141" s="128" t="e">
-        <f t="shared" ref="I141:I157" si="27">F141+G141</f>
+        <f t="shared" ref="I141:I157" si="28">F141+G141</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="125">
-        <v>20</v>
-      </c>
-      <c r="B142">
-        <v>15033</v>
+      <c r="A142" s="125"/>
+      <c r="B142" s="56">
+        <v>15027</v>
       </c>
       <c r="C142" s="125">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30376,71 +30211,67 @@
       </c>
       <c r="D142" s="125">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142" s="127">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
+        <f t="shared" si="26"/>
+        <v>0.75</v>
       </c>
       <c r="F142" s="127">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.37247500510099979</v>
+        <v>0.62752499489900015</v>
       </c>
       <c r="G142" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), 0)</f>
         <v>0.32688894245636357</v>
       </c>
       <c r="H142" s="128">
-        <f t="shared" si="26"/>
-        <v>4.5586062644636216E-2</v>
+        <f t="shared" si="27"/>
+        <v>0.30063605244263658</v>
       </c>
       <c r="I142" s="128">
-        <f t="shared" si="27"/>
-        <v>0.69936394755736342</v>
+        <f t="shared" si="28"/>
+        <v>0.95441393735536373</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="125">
-        <v>20</v>
-      </c>
-      <c r="B143">
-        <v>15034</v>
+      <c r="A143" s="125"/>
+      <c r="B143" s="56">
+        <v>15028</v>
       </c>
       <c r="C143" s="125">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D143" s="125">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E143" s="127">
-        <f t="shared" si="25"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="26"/>
+        <v>0.59615384615384615</v>
       </c>
       <c r="F143" s="127">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>0.589538981691069</v>
       </c>
       <c r="G143" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), 0)</f>
-        <v>0.30162117304962721</v>
+        <v>0.12886566406610814</v>
       </c>
       <c r="H143" s="128">
-        <f t="shared" si="26"/>
-        <v>0.29998832134152864</v>
+        <f t="shared" si="27"/>
+        <v>0.46067331762496089</v>
       </c>
       <c r="I143" s="128">
-        <f t="shared" si="27"/>
-        <v>0.90323066744078306</v>
+        <f t="shared" si="28"/>
+        <v>0.71840464575717711</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="125">
-        <v>20</v>
-      </c>
-      <c r="B144">
-        <v>15035</v>
+      <c r="A144" s="125"/>
+      <c r="B144" s="56">
+        <v>15029</v>
       </c>
       <c r="C144" s="125">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30448,35 +30279,33 @@
       </c>
       <c r="D144" s="125">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" s="127">
-        <f t="shared" si="25"/>
-        <v>0.2</v>
+        <f t="shared" si="26"/>
+        <v>0.6</v>
       </c>
       <c r="F144" s="127">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.55655085052479192</v>
       </c>
       <c r="G144" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), 0)</f>
-        <v>0.29412428745583691</v>
+        <v>0.32583091831595484</v>
       </c>
       <c r="H144" s="128">
-        <f t="shared" si="26"/>
-        <v>3.6223160969787449E-2</v>
+        <f t="shared" si="27"/>
+        <v>0.23071993220883708</v>
       </c>
       <c r="I144" s="128">
-        <f t="shared" si="27"/>
-        <v>0.62447173588146132</v>
+        <f t="shared" si="28"/>
+        <v>0.88238176884074671</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="125">
-        <v>20</v>
-      </c>
-      <c r="B145">
-        <v>15036</v>
+      <c r="A145" s="125"/>
+      <c r="B145" s="56">
+        <v>15030</v>
       </c>
       <c r="C145" s="125">
         <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30487,7 +30316,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F145" s="127" t="e">
@@ -30499,20 +30328,18 @@
         <v>0</v>
       </c>
       <c r="H145" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I145" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="125">
-        <v>20</v>
-      </c>
-      <c r="B146">
-        <v>15037</v>
+      <c r="A146" s="125"/>
+      <c r="B146" s="56">
+        <v>15031</v>
       </c>
       <c r="C146" s="125">
         <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30523,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F146" s="127" t="e">
@@ -30535,20 +30362,18 @@
         <v>0</v>
       </c>
       <c r="H146" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I146" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="125">
-        <v>20</v>
-      </c>
-      <c r="B147">
-        <v>15038</v>
+      <c r="A147" s="125"/>
+      <c r="B147" s="56">
+        <v>15032</v>
       </c>
       <c r="C147" s="125">
         <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30559,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F147" s="127" t="e">
@@ -30571,128 +30396,120 @@
         <v>0</v>
       </c>
       <c r="H147" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I147" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="125">
-        <v>20</v>
-      </c>
-      <c r="B148">
-        <v>15039</v>
+      <c r="A148" s="125"/>
+      <c r="B148" s="56">
+        <v>15033</v>
       </c>
       <c r="C148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E148" s="127" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F148" s="127" t="e">
+        <v>1</v>
+      </c>
+      <c r="E148" s="127">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="F148" s="127">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>#N/A</v>
+        <v>0.37247500510099979</v>
       </c>
       <c r="G148" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H148" s="128" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I148" s="128" t="e">
+        <v>0.32688894245636357</v>
+      </c>
+      <c r="H148" s="128">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>4.5586062644636216E-2</v>
+      </c>
+      <c r="I148" s="128">
+        <f t="shared" si="28"/>
+        <v>0.69936394755736342</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="125">
-        <v>20</v>
-      </c>
-      <c r="B149">
-        <v>15040</v>
+      <c r="A149" s="125"/>
+      <c r="B149" s="56">
+        <v>15034</v>
       </c>
       <c r="C149" s="125">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D149" s="125">
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E149" s="127" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F149" s="127" t="e">
+        <v>4</v>
+      </c>
+      <c r="E149" s="127">
+        <f t="shared" si="26"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F149" s="127">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
-        <v>#N/A</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="G149" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C149))*SQRT(E149*(1-E149)/C149 + (Params!$B$3/(2*C149))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="128" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I149" s="128" t="e">
+        <v>0.30162117304962721</v>
+      </c>
+      <c r="H149" s="128">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>0.29998832134152864</v>
+      </c>
+      <c r="I149" s="128">
+        <f t="shared" si="28"/>
+        <v>0.90323066744078306</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="125">
-        <v>20</v>
-      </c>
-      <c r="B150">
-        <v>15041</v>
+      <c r="A150" s="125"/>
+      <c r="B150" s="56">
+        <v>15035</v>
       </c>
       <c r="C150" s="125">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D150" s="125">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E150" s="127" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F150" s="127" t="e">
+        <v>1</v>
+      </c>
+      <c r="E150" s="127">
+        <f t="shared" si="26"/>
+        <v>0.2</v>
+      </c>
+      <c r="F150" s="127">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
-        <v>#N/A</v>
+        <v>0.33034744842562436</v>
       </c>
       <c r="G150" s="128">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H150" s="128" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I150" s="128" t="e">
+        <v>0.29412428745583691</v>
+      </c>
+      <c r="H150" s="128">
         <f t="shared" si="27"/>
-        <v>#N/A</v>
+        <v>3.6223160969787449E-2</v>
+      </c>
+      <c r="I150" s="128">
+        <f t="shared" si="28"/>
+        <v>0.62447173588146132</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="125">
-        <v>20</v>
-      </c>
-      <c r="B151">
-        <v>15042</v>
+      <c r="A151" s="125"/>
+      <c r="B151" s="56">
+        <v>15036</v>
       </c>
       <c r="C151" s="125">
         <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30703,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F151" s="127" t="e">
@@ -30715,20 +30532,18 @@
         <v>0</v>
       </c>
       <c r="H151" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I151" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="125">
-        <v>20</v>
-      </c>
-      <c r="B152">
-        <v>15043</v>
+      <c r="A152" s="125"/>
+      <c r="B152" s="56">
+        <v>15037</v>
       </c>
       <c r="C152" s="125">
         <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30739,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F152" s="127" t="e">
@@ -30751,20 +30566,18 @@
         <v>0</v>
       </c>
       <c r="H152" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I152" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="125">
-        <v>20</v>
-      </c>
-      <c r="B153">
-        <v>15044</v>
+      <c r="A153" s="125"/>
+      <c r="B153" s="56">
+        <v>15038</v>
       </c>
       <c r="C153" s="125">
         <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30775,7 +30588,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F153" s="127" t="e">
@@ -30787,20 +30600,18 @@
         <v>0</v>
       </c>
       <c r="H153" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I153" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="125">
-        <v>20</v>
-      </c>
-      <c r="B154">
-        <v>15045</v>
+      <c r="A154" s="125"/>
+      <c r="B154" s="56">
+        <v>15039</v>
       </c>
       <c r="C154" s="125">
         <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30811,7 +30622,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F154" s="127" t="e">
@@ -30823,20 +30634,18 @@
         <v>0</v>
       </c>
       <c r="H154" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I154" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="125">
-        <v>20</v>
-      </c>
-      <c r="B155">
-        <v>15046</v>
+      <c r="A155" s="125"/>
+      <c r="B155" s="56">
+        <v>15040</v>
       </c>
       <c r="C155" s="125">
         <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30847,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F155" s="127" t="e">
@@ -30859,20 +30668,18 @@
         <v>0</v>
       </c>
       <c r="H155" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I155" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="125">
-        <v>20</v>
-      </c>
-      <c r="B156">
-        <v>15047</v>
+      <c r="A156" s="125"/>
+      <c r="B156" s="56">
+        <v>15041</v>
       </c>
       <c r="C156" s="125">
         <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30883,7 +30690,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F156" s="127" t="e">
@@ -30895,20 +30702,18 @@
         <v>0</v>
       </c>
       <c r="H156" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I156" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="125">
-        <v>20</v>
-      </c>
-      <c r="B157">
-        <v>15048</v>
+      <c r="A157" s="125"/>
+      <c r="B157" s="56">
+        <v>15042</v>
       </c>
       <c r="C157" s="125">
         <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
@@ -30919,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F157" s="127" t="e">
@@ -30931,17 +30736,221 @@
         <v>0</v>
       </c>
       <c r="H157" s="128" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I157" s="128" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="125"/>
+      <c r="B158" s="56">
+        <v>15043</v>
+      </c>
+      <c r="C158" s="125">
+        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D158" s="125">
+        <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E158" s="127" t="e">
+        <f t="shared" ref="E158:E163" si="29">IFERROR(D158/C158, NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F158" s="127" t="e">
+        <f>IFERROR((E158 + Params!$B$3^2/(2 * C158))/(1 + Params!$B$3^2/C158), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G158" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C158))*SQRT(E158*(1-E158)/C158 + (Params!$B$3/(2*C158))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="128" t="e">
+        <f t="shared" ref="H158:H163" si="30">F158-G158</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I158" s="128" t="e">
+        <f t="shared" ref="I158:I163" si="31">F158+G158</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="125"/>
+      <c r="B159" s="56">
+        <v>15044</v>
+      </c>
+      <c r="C159" s="125">
+        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="125">
+        <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="127" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F159" s="127" t="e">
+        <f>IFERROR((E159 + Params!$B$3^2/(2 * C159))/(1 + Params!$B$3^2/C159), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G159" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C159))*SQRT(E159*(1-E159)/C159 + (Params!$B$3/(2*C159))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="128" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I159" s="128" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="125"/>
+      <c r="B160" s="56">
+        <v>15045</v>
+      </c>
+      <c r="C160" s="125">
+        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D160" s="125">
+        <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E160" s="127" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F160" s="127" t="e">
+        <f>IFERROR((E160 + Params!$B$3^2/(2 * C160))/(1 + Params!$B$3^2/C160), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G160" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C160))*SQRT(E160*(1-E160)/C160 + (Params!$B$3/(2*C160))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="128" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I160" s="128" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="125"/>
+      <c r="B161" s="56">
+        <v>15046</v>
+      </c>
+      <c r="C161" s="125">
+        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="125">
+        <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E161" s="127" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F161" s="127" t="e">
+        <f>IFERROR((E161 + Params!$B$3^2/(2 * C161))/(1 + Params!$B$3^2/C161), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G161" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C161))*SQRT(E161*(1-E161)/C161 + (Params!$B$3/(2*C161))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="128" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I161" s="128" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="125"/>
+      <c r="B162" s="56">
+        <v>15047</v>
+      </c>
+      <c r="C162" s="125">
+        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D162" s="125">
+        <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="127" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F162" s="127" t="e">
+        <f>IFERROR((E162 + Params!$B$3^2/(2 * C162))/(1 + Params!$B$3^2/C162), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G162" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C162))*SQRT(E162*(1-E162)/C162 + (Params!$B$3/(2*C162))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H162" s="128" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I162" s="128" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="125"/>
+      <c r="B163" s="56">
+        <v>15048</v>
+      </c>
+      <c r="C163" s="125">
+        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D163" s="125">
+        <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E163" s="127" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F163" s="127" t="e">
+        <f>IFERROR((E163 + Params!$B$3^2/(2 * C163))/(1 + Params!$B$3^2/C163), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G163" s="128">
+        <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C163))*SQRT(E163*(1-E163)/C163 + (Params!$B$3/(2*C163))^2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="128" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I163" s="128" t="e">
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E140 E158:E1048576">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E1:E140 E164:E1048576">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30953,7 +30962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F140">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30965,6 +30974,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141:E157">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:F157">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158:E163">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -30976,7 +31009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:F157">
+  <conditionalFormatting sqref="F158:F163">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A64FA6-528A-45F5-B243-A4D85FCFD6A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400806A2-9639-4526-A994-D4D7D598C732}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -20097,7 +20097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -21876,7 +21878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -21926,14 +21930,14 @@
       </c>
       <c r="N1" s="133">
         <f>SUM(L2:L1000)/52</f>
-        <v>9.1376923076923067</v>
+        <v>9.6690384615384612</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
       <c r="P1" s="137">
         <f ca="1">NOW() +N1</f>
-        <v>43725.558670316947</v>
+        <v>43726.133331169869</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -21944,7 +21948,7 @@
         <v>15008</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -21953,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -21971,7 +21975,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="2">
-        <v>47.98</v>
+        <v>47.28</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
@@ -21988,16 +21992,16 @@
         <v>15016</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F3" s="2">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -22015,7 +22019,7 @@
         <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>54.66</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22026,16 +22030,16 @@
         <v>15017</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F4" s="2">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -22053,7 +22057,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="2">
-        <v>47.05</v>
+        <v>55.93</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22102,16 +22106,16 @@
         <v>15028</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="2">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -22129,7 +22133,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>51.92</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22140,16 +22144,16 @@
         <v>15029</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.6</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F7" s="2">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -22167,7 +22171,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="2">
-        <v>55.42</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22178,16 +22182,16 @@
         <v>15033</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="2">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -22205,7 +22209,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>52.16</v>
+        <v>59.77</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22254,16 +22258,16 @@
         <v>15035</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.2</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -22281,7 +22285,7 @@
         <v>100</v>
       </c>
       <c r="L10" s="2">
-        <v>50.47</v>
+        <v>57.12</v>
       </c>
     </row>
   </sheetData>
@@ -22294,8 +22298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR23" sqref="AR23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22395,7 +22399,7 @@
       </c>
       <c r="L2" s="135">
         <f>+'V4000'!N1</f>
-        <v>9.1376923076923067</v>
+        <v>9.6690384615384612</v>
       </c>
       <c r="AC2" s="175" t="s">
         <v>42</v>
@@ -25751,11 +25755,11 @@
         <v>2</v>
       </c>
       <c r="R30" s="1">
-        <f ca="1">+AD4</f>
+        <f t="shared" ref="R30:R36" ca="1" si="11">+AD4</f>
         <v>5.5129500367376919E-2</v>
       </c>
       <c r="S30" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R30)-ROW($R$30))</f>
+        <f t="shared" ref="S30:S36" ca="1" si="12">+OFFSET($AE$3, 0, ROW(R30)-ROW($R$30))</f>
         <v>8.3830822924320328E-2</v>
       </c>
       <c r="T30" s="1">
@@ -25763,7 +25767,7 @@
         <v>0.13896032329169725</v>
       </c>
       <c r="U30" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T30)-ROW($R$30), ROW(T30)-ROW($R$30))</f>
+        <f t="shared" ref="U30:U36" ca="1" si="13">+OFFSET($AE$4, ROW(T30)-ROW($R$30), ROW(T30)-ROW($R$30))</f>
         <v>7.2821015720186622E-2</v>
       </c>
       <c r="V30" s="1"/>
@@ -25797,7 +25801,7 @@
       </c>
       <c r="AH30" s="128">
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="AI30" s="140">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
@@ -25805,7 +25809,7 @@
       </c>
       <c r="AJ30" s="127">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.37247500510099979</v>
+        <v>0.44344914947520814</v>
       </c>
       <c r="AK30" s="127" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -25935,19 +25939,19 @@
         <v>5</v>
       </c>
       <c r="R31" s="1">
-        <f ca="1">+AD5</f>
+        <f t="shared" ca="1" si="11"/>
         <v>6.8176725425754411E-2</v>
       </c>
       <c r="S31" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R31)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>6.8176725425754411E-2</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" ref="T31:T36" ca="1" si="11">+R31+S31</f>
+        <f t="shared" ref="T31:T36" ca="1" si="14">+R31+S31</f>
         <v>0.13635345085150882</v>
       </c>
       <c r="U31" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T31)-ROW($R$30), ROW(T31)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.18488571855392891</v>
       </c>
       <c r="V31" s="1"/>
@@ -25975,11 +25979,11 @@
       </c>
       <c r="AH31" s="140">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="AI31" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
-        <v>0.589538981691069</v>
+        <v>0.57916737037662547</v>
       </c>
       <c r="AJ31" s="140">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
@@ -26097,19 +26101,19 @@
         <v>10</v>
       </c>
       <c r="R32" s="1">
-        <f ca="1">+AD6</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.14004200921492455</v>
       </c>
       <c r="S32" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R32)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0.23156931580519868</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.37161132502012323</v>
       </c>
       <c r="U32" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T32)-ROW($R$30), ROW(T32)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.23156931580519868</v>
       </c>
       <c r="V32" s="1"/>
@@ -26137,15 +26141,15 @@
       </c>
       <c r="AH32" s="127">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.62752499489900015</v>
+        <v>0.55655085052479192</v>
       </c>
       <c r="AI32" s="140">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
-        <v>0.55655085052479192</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="AJ32" s="128">
         <f ca="1">IFERROR(VLOOKUP(BF32, $B$1:$F1029, 5), "")</f>
-        <v>0.33034744842562436</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="AK32" s="127" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG32, $B$1:$F1029, 5), "")</f>
@@ -26259,19 +26263,19 @@
         <v>20</v>
       </c>
       <c r="R33" s="1">
-        <f ca="1">+AD7</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.16338328226733051</v>
       </c>
       <c r="S33" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R33)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0.19863611315209401</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.36201939541942452</v>
       </c>
       <c r="U33" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T33)-ROW($R$30), ROW(T33)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.42153700556242274</v>
       </c>
       <c r="V33" s="1"/>
@@ -26421,19 +26425,19 @@
         <v>50</v>
       </c>
       <c r="R34" s="1">
-        <f ca="1">+AD8</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.22733743570903744</v>
       </c>
       <c r="S34" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R34)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0.1699347905951506</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.39727222630418801</v>
       </c>
       <c r="U34" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T34)-ROW($R$30), ROW(T34)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.54439280785778066</v>
       </c>
       <c r="V34" s="1"/>
@@ -26478,19 +26482,19 @@
         <v>100</v>
       </c>
       <c r="R35" s="1">
-        <f ca="1">+AD9</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0.1699347905951506</v>
       </c>
       <c r="S35" s="1">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R35)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>8.3830822924320328E-2</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.25376561351947091</v>
       </c>
       <c r="U35" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T35)-ROW($R$30), ROW(T35)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.40713500341743192</v>
       </c>
       <c r="V35" s="1"/>
@@ -26535,19 +26539,19 @@
         <v>200</v>
       </c>
       <c r="R36" s="1" t="str">
-        <f ca="1">+AD10</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S36" s="1" t="str">
-        <f ca="1">+OFFSET($AE$3, 0, ROW(R36)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T36" s="1" t="e">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="U36" s="1">
-        <f ca="1">+OFFSET($AE$4, ROW(T36)-ROW($R$30), ROW(T36)-ROW($R$30))</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0.24665585731657882</v>
       </c>
       <c r="V36"/>
@@ -26756,7 +26760,7 @@
         <v>0.1</v>
       </c>
       <c r="AF40" s="125" t="str">
-        <f t="shared" ref="AF40:AF49" si="12">AA40 &amp; "#" &amp;  AC40 &amp; "#" &amp; AB40 &amp; "#" &amp;AD40 &amp; "#" &amp; AE40</f>
+        <f t="shared" ref="AF40:AF49" si="15">AA40 &amp; "#" &amp;  AC40 &amp; "#" &amp; AB40 &amp; "#" &amp;AD40 &amp; "#" &amp; AE40</f>
         <v>20##0.1##0.1</v>
       </c>
       <c r="AG40" s="125">
@@ -26817,7 +26821,7 @@
         <v>0.1</v>
       </c>
       <c r="AF41" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.2##0.1</v>
       </c>
       <c r="AG41" s="125">
@@ -26885,7 +26889,7 @@
         <v>0.1</v>
       </c>
       <c r="AF42" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.3##0.1</v>
       </c>
       <c r="AG42" s="125">
@@ -26946,7 +26950,7 @@
         <v>0.1</v>
       </c>
       <c r="AF43" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.4##0.1</v>
       </c>
       <c r="AG43" s="125">
@@ -27007,7 +27011,7 @@
         <v>0.1</v>
       </c>
       <c r="AF44" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.5##0.1</v>
       </c>
       <c r="AG44" s="125">
@@ -27068,7 +27072,7 @@
         <v>0.1</v>
       </c>
       <c r="AF45" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.6##0.1</v>
       </c>
       <c r="AG45" s="125">
@@ -27129,7 +27133,7 @@
         <v>0.1</v>
       </c>
       <c r="AF46" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.7##0.1</v>
       </c>
       <c r="AG46" s="125">
@@ -27190,7 +27194,7 @@
         <v>0.1</v>
       </c>
       <c r="AF47" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.8##0.1</v>
       </c>
       <c r="AG47" s="125">
@@ -27251,7 +27255,7 @@
         <v>0.1</v>
       </c>
       <c r="AF48" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##0.9##0.1</v>
       </c>
       <c r="AG48" s="125">
@@ -27312,7 +27316,7 @@
         <v>0.1</v>
       </c>
       <c r="AF49" s="125" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20##1##0.1</v>
       </c>
       <c r="AG49" s="125">
@@ -27597,7 +27601,7 @@
         <v>0.1</v>
       </c>
       <c r="AF55" s="125" t="str">
-        <f t="shared" ref="AF55:AF64" si="13">AA55 &amp; "#" &amp;  AC55 &amp; "#" &amp; AB55 &amp; "#" &amp;AD55 &amp; "#" &amp; AE55</f>
+        <f t="shared" ref="AF55:AF64" si="16">AA55 &amp; "#" &amp;  AC55 &amp; "#" &amp; AB55 &amp; "#" &amp;AD55 &amp; "#" &amp; AE55</f>
         <v>#20##0.1#0.1</v>
       </c>
       <c r="AG55" s="125">
@@ -27658,7 +27662,7 @@
         <v>0.1</v>
       </c>
       <c r="AF56" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.2#0.1</v>
       </c>
       <c r="AG56" s="125">
@@ -27726,7 +27730,7 @@
         <v>0.1</v>
       </c>
       <c r="AF57" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.3#0.1</v>
       </c>
       <c r="AG57" s="125">
@@ -27787,7 +27791,7 @@
         <v>0.1</v>
       </c>
       <c r="AF58" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.4#0.1</v>
       </c>
       <c r="AG58" s="125">
@@ -27848,7 +27852,7 @@
         <v>0.1</v>
       </c>
       <c r="AF59" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.5#0.1</v>
       </c>
       <c r="AG59" s="125">
@@ -27909,7 +27913,7 @@
         <v>0.1</v>
       </c>
       <c r="AF60" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.6#0.1</v>
       </c>
       <c r="AG60" s="125">
@@ -27970,7 +27974,7 @@
         <v>0.1</v>
       </c>
       <c r="AF61" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.7#0.1</v>
       </c>
       <c r="AG61" s="125">
@@ -28031,7 +28035,7 @@
         <v>0.1</v>
       </c>
       <c r="AF62" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.8#0.1</v>
       </c>
       <c r="AG62" s="125">
@@ -28092,7 +28096,7 @@
         <v>0.1</v>
       </c>
       <c r="AF63" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##0.9#0.1</v>
       </c>
       <c r="AG63" s="125">
@@ -28153,7 +28157,7 @@
         <v>0.1</v>
       </c>
       <c r="AF64" s="125" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#20##1#0.1</v>
       </c>
       <c r="AG64" s="125">
@@ -28251,7 +28255,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="143" t="e">
-        <f t="shared" ref="E67:E130" si="14">IFERROR(D67/C67, NA())</f>
+        <f t="shared" ref="E67:E130" si="17">IFERROR(D67/C67, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F67" s="143" t="e">
@@ -28263,11 +28267,11 @@
         <v>#N/A</v>
       </c>
       <c r="H67" s="127" t="e">
-        <f t="shared" ref="H67:H130" si="15">F67-G67</f>
+        <f t="shared" ref="H67:H130" si="18">F67-G67</f>
         <v>#N/A</v>
       </c>
       <c r="I67" s="127" t="e">
-        <f t="shared" ref="I67:I130" si="16">F67+G67</f>
+        <f t="shared" ref="I67:I130" si="19">F67+G67</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -28285,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F68" s="143" t="e">
@@ -28297,11 +28301,11 @@
         <v>#N/A</v>
       </c>
       <c r="H68" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I68" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="125" t="s">
@@ -28346,7 +28350,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F69" s="143" t="e">
@@ -28358,11 +28362,11 @@
         <v>#N/A</v>
       </c>
       <c r="H69" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I69" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="125">
@@ -28407,7 +28411,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.24</v>
       </c>
       <c r="F70" s="143">
@@ -28419,11 +28423,11 @@
         <v>0.15966951112455921</v>
       </c>
       <c r="H70" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.11496157730326725</v>
       </c>
       <c r="I70" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.43430059955238565</v>
       </c>
       <c r="AA70" s="125">
@@ -28438,7 +28442,7 @@
         <v>0.1</v>
       </c>
       <c r="AF70" s="125" t="str">
-        <f t="shared" ref="AF70:AF72" si="17">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
+        <f t="shared" ref="AF70:AF72" si="20">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
         <v>20##0.2##0.1</v>
       </c>
       <c r="AG70" s="125">
@@ -28468,7 +28472,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="F71" s="143">
@@ -28480,11 +28484,11 @@
         <v>0.1513544071794288</v>
       </c>
       <c r="H71" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8604541006524845E-2</v>
       </c>
       <c r="I71" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.39131335536538248</v>
       </c>
       <c r="AA71" s="125">
@@ -28499,7 +28503,7 @@
         <v>1</v>
       </c>
       <c r="AF71" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20##0.2##1</v>
       </c>
       <c r="AG71" s="125">
@@ -28529,7 +28533,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="F72" s="143">
@@ -28541,11 +28545,11 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H72" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I72" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
       <c r="AA72" s="125">
@@ -28560,7 +28564,7 @@
         <v>10</v>
       </c>
       <c r="AF72" s="125" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20##0.2##10</v>
       </c>
       <c r="AG72" s="125">
@@ -28590,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F73" s="143" t="e">
@@ -28602,11 +28606,11 @@
         <v>#N/A</v>
       </c>
       <c r="H73" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I73" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA73" s="125">
@@ -28621,7 +28625,7 @@
         <v>100</v>
       </c>
       <c r="AF73" s="125" t="str">
-        <f t="shared" ref="AF73" si="18">AA73 &amp; "#" &amp;  AC73 &amp; "#" &amp; AB73 &amp; "#" &amp;AD73 &amp; "#" &amp; AE73</f>
+        <f t="shared" ref="AF73" si="21">AA73 &amp; "#" &amp;  AC73 &amp; "#" &amp; AB73 &amp; "#" &amp;AD73 &amp; "#" &amp; AE73</f>
         <v>20##0.2##100</v>
       </c>
       <c r="AG73" s="125">
@@ -28651,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F74" s="143" t="e">
@@ -28663,11 +28667,11 @@
         <v>#N/A</v>
       </c>
       <c r="H74" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I74" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA74" s="125"/>
@@ -28694,7 +28698,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F75" s="143" t="e">
@@ -28706,11 +28710,11 @@
         <v>#N/A</v>
       </c>
       <c r="H75" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I75" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA75" s="125"/>
@@ -28737,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F76" s="143" t="e">
@@ -28749,11 +28753,11 @@
         <v>#N/A</v>
       </c>
       <c r="H76" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I76" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA76" s="125"/>
@@ -28780,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F77" s="143" t="e">
@@ -28792,11 +28796,11 @@
         <v>#N/A</v>
       </c>
       <c r="H77" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I77" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA77" s="125"/>
@@ -28823,7 +28827,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F78" s="143" t="e">
@@ -28835,11 +28839,11 @@
         <v>#N/A</v>
       </c>
       <c r="H78" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I78" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA78" s="125"/>
@@ -28866,7 +28870,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16</v>
       </c>
       <c r="F79" s="143">
@@ -28878,11 +28882,11 @@
         <v>0.14125333185830088</v>
       </c>
       <c r="H79" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.4033476085779861E-2</v>
       </c>
       <c r="I79" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.34654013980238163</v>
       </c>
       <c r="AA79" s="125"/>
@@ -28909,7 +28913,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="F80" s="143">
@@ -28921,11 +28925,11 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H80" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I80" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.29956192183373492</v>
       </c>
     </row>
@@ -28943,7 +28947,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="F81" s="143">
@@ -28955,11 +28959,11 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H81" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I81" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
     </row>
@@ -28977,7 +28981,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="F82" s="143">
@@ -28989,11 +28993,11 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H82" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I82" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
     </row>
@@ -29011,7 +29015,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="F83" s="143">
@@ -29023,11 +29027,11 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H83" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I83" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.29956192183373492</v>
       </c>
       <c r="AA83" s="125" t="s">
@@ -29072,7 +29076,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F84" s="143" t="e">
@@ -29084,11 +29088,11 @@
         <v>#N/A</v>
       </c>
       <c r="H84" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I84" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA84" s="125"/>
@@ -29133,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F85" s="143" t="e">
@@ -29145,11 +29149,11 @@
         <v>#N/A</v>
       </c>
       <c r="H85" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I85" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA85" s="125"/>
@@ -29164,7 +29168,7 @@
         <v>0.1</v>
       </c>
       <c r="AF85" s="125" t="str">
-        <f t="shared" ref="AF85:AF88" si="19">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
+        <f t="shared" ref="AF85:AF88" si="22">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
         <v>#20##0.2#0.1</v>
       </c>
       <c r="AG85" s="125">
@@ -29194,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F86" s="143" t="e">
@@ -29206,11 +29210,11 @@
         <v>#N/A</v>
       </c>
       <c r="H86" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I86" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA86" s="125"/>
@@ -29225,7 +29229,7 @@
         <v>1</v>
       </c>
       <c r="AF86" s="125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#20##0.2#1</v>
       </c>
       <c r="AG86" s="125">
@@ -29255,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F87" s="143" t="e">
@@ -29267,11 +29271,11 @@
         <v>#N/A</v>
       </c>
       <c r="H87" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I87" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA87" s="125"/>
@@ -29286,7 +29290,7 @@
         <v>10</v>
       </c>
       <c r="AF87" s="125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#20##0.2#10</v>
       </c>
       <c r="AG87" s="125">
@@ -29316,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F88" s="143" t="e">
@@ -29328,11 +29332,11 @@
         <v>#N/A</v>
       </c>
       <c r="H88" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I88" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA88" s="125"/>
@@ -29347,7 +29351,7 @@
         <v>100</v>
       </c>
       <c r="AF88" s="125" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#20##0.2#100</v>
       </c>
       <c r="AG88" s="125">
@@ -29377,7 +29381,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
       <c r="F89" s="143">
@@ -29389,11 +29393,11 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H89" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I89" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.24966512122957818</v>
       </c>
       <c r="AA89" s="125"/>
@@ -29420,7 +29424,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="F90" s="143">
@@ -29432,11 +29436,11 @@
         <v>0.1513544071794288</v>
       </c>
       <c r="H90" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8604541006524845E-2</v>
       </c>
       <c r="I90" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.39131335536538248</v>
       </c>
       <c r="AA90" s="125"/>
@@ -29463,7 +29467,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F91" s="143">
@@ -29475,11 +29479,11 @@
         <v>0.16646649029588362</v>
       </c>
       <c r="H91" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.14283673837381572</v>
       </c>
       <c r="I91" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.47576971896558296</v>
       </c>
       <c r="AA91" s="125"/>
@@ -29506,7 +29510,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F92" s="143" t="e">
@@ -29518,11 +29522,11 @@
         <v>#N/A</v>
       </c>
       <c r="H92" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I92" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA92" s="125"/>
@@ -29549,7 +29553,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F93" s="143" t="e">
@@ -29561,11 +29565,11 @@
         <v>#N/A</v>
       </c>
       <c r="H93" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I93" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA93" s="125"/>
@@ -29592,7 +29596,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F94" s="143" t="e">
@@ -29604,11 +29608,11 @@
         <v>#N/A</v>
       </c>
       <c r="H94" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I94" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="AA94" s="125"/>
@@ -29635,7 +29639,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F95" s="143" t="e">
@@ -29647,11 +29651,11 @@
         <v>#N/A</v>
       </c>
       <c r="H95" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I95" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29669,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F96" s="143" t="e">
@@ -29681,11 +29685,11 @@
         <v>#N/A</v>
       </c>
       <c r="H96" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I96" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29703,7 +29707,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F97" s="143" t="e">
@@ -29715,11 +29719,11 @@
         <v>#N/A</v>
       </c>
       <c r="H97" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I97" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29737,7 +29741,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F98" s="143" t="e">
@@ -29749,11 +29753,11 @@
         <v>#N/A</v>
       </c>
       <c r="H98" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I98" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29771,7 +29775,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F99" s="143" t="e">
@@ -29783,11 +29787,11 @@
         <v>#N/A</v>
       </c>
       <c r="H99" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I99" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29805,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F100" s="143" t="e">
@@ -29817,11 +29821,11 @@
         <v>#N/A</v>
       </c>
       <c r="H100" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I100" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29839,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F101" s="143" t="e">
@@ -29851,11 +29855,11 @@
         <v>#N/A</v>
       </c>
       <c r="H101" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I101" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29873,7 +29877,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
       <c r="F102" s="143">
@@ -29885,11 +29889,11 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H102" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I102" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.29956192183373492</v>
       </c>
     </row>
@@ -29907,7 +29911,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.16</v>
       </c>
       <c r="F103" s="143">
@@ -29919,11 +29923,11 @@
         <v>0.14125333185830088</v>
       </c>
       <c r="H103" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.4033476085779861E-2</v>
       </c>
       <c r="I103" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.34654013980238163</v>
       </c>
     </row>
@@ -29941,7 +29945,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.32</v>
       </c>
       <c r="F104" s="143">
@@ -29953,11 +29957,11 @@
         <v>0.17192549374266075</v>
       </c>
       <c r="H104" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.1720498751689114</v>
       </c>
       <c r="I104" s="127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.51590086265423296</v>
       </c>
     </row>
@@ -29975,7 +29979,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F105" s="143" t="e">
@@ -29987,11 +29991,11 @@
         <v>#N/A</v>
       </c>
       <c r="H105" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I105" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30009,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F106" s="143" t="e">
@@ -30021,11 +30025,11 @@
         <v>#N/A</v>
       </c>
       <c r="H106" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I106" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30043,7 +30047,7 @@
         <v>0</v>
       </c>
       <c r="E107" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F107" s="143" t="e">
@@ -30055,11 +30059,11 @@
         <v>#N/A</v>
       </c>
       <c r="H107" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I107" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30077,7 +30081,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F108" s="143" t="e">
@@ -30089,11 +30093,11 @@
         <v>#N/A</v>
       </c>
       <c r="H108" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I108" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30111,7 +30115,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F109" s="143" t="e">
@@ -30123,11 +30127,11 @@
         <v>#N/A</v>
       </c>
       <c r="H109" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I109" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30145,7 +30149,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F110" s="143" t="e">
@@ -30157,11 +30161,11 @@
         <v>#N/A</v>
       </c>
       <c r="H110" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I110" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30179,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F111" s="143" t="e">
@@ -30191,11 +30195,11 @@
         <v>#N/A</v>
       </c>
       <c r="H111" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I111" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30213,7 +30217,7 @@
         <v>0</v>
       </c>
       <c r="E112" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F112" s="143" t="e">
@@ -30225,11 +30229,11 @@
         <v>#N/A</v>
       </c>
       <c r="H112" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I112" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30247,7 +30251,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F113" s="143" t="e">
@@ -30259,11 +30263,11 @@
         <v>#N/A</v>
       </c>
       <c r="H113" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I113" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30281,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F114" s="143" t="e">
@@ -30293,11 +30297,11 @@
         <v>#N/A</v>
       </c>
       <c r="H114" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I114" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30315,7 +30319,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F115" s="143" t="e">
@@ -30327,11 +30331,11 @@
         <v>#N/A</v>
       </c>
       <c r="H115" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I115" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30349,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F116" s="143" t="e">
@@ -30361,11 +30365,11 @@
         <v>#N/A</v>
       </c>
       <c r="H116" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I116" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30383,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="E117" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F117" s="143" t="e">
@@ -30395,11 +30399,11 @@
         <v>#N/A</v>
       </c>
       <c r="H117" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I117" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30417,7 +30421,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F118" s="143" t="e">
@@ -30429,11 +30433,11 @@
         <v>#N/A</v>
       </c>
       <c r="H118" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I118" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30451,7 +30455,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F119" s="143" t="e">
@@ -30463,11 +30467,11 @@
         <v>#N/A</v>
       </c>
       <c r="H119" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I119" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30485,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F120" s="143" t="e">
@@ -30497,11 +30501,11 @@
         <v>#N/A</v>
       </c>
       <c r="H120" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I120" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30519,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F121" s="143" t="e">
@@ -30531,11 +30535,11 @@
         <v>#N/A</v>
       </c>
       <c r="H121" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I121" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30553,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F122" s="143" t="e">
@@ -30565,11 +30569,11 @@
         <v>#N/A</v>
       </c>
       <c r="H122" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I122" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30580,31 +30584,31 @@
       </c>
       <c r="C123" s="125">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D123" s="125">
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E123" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F123" s="143">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604052</v>
       </c>
       <c r="G123" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C123))*SQRT(E123*(1-E123)/C123 + (Params!$B$3/(2*C123))^2), NA())</f>
-        <v>0.24495001020199958</v>
+        <v>0.21724574737604055</v>
       </c>
       <c r="H123" s="127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I123" s="127">
-        <f t="shared" si="16"/>
-        <v>0.48990002040399916</v>
+        <f t="shared" si="19"/>
+        <v>0.43449149475208104</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -30621,7 +30625,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F124" s="143" t="e">
@@ -30633,11 +30637,11 @@
         <v>#N/A</v>
       </c>
       <c r="H124" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I124" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30655,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F125" s="143" t="e">
@@ -30667,11 +30671,11 @@
         <v>#N/A</v>
       </c>
       <c r="H125" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I125" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30689,7 +30693,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F126" s="143" t="e">
@@ -30701,11 +30705,11 @@
         <v>#N/A</v>
       </c>
       <c r="H126" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I126" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30723,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F127" s="143" t="e">
@@ -30735,11 +30739,11 @@
         <v>#N/A</v>
       </c>
       <c r="H127" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I127" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30757,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F128" s="143" t="e">
@@ -30769,11 +30773,11 @@
         <v>#N/A</v>
       </c>
       <c r="H128" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I128" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30791,7 +30795,7 @@
         <v>0</v>
       </c>
       <c r="E129" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F129" s="143" t="e">
@@ -30803,11 +30807,11 @@
         <v>#N/A</v>
       </c>
       <c r="H129" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I129" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30825,7 +30829,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="143" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="F130" s="143" t="e">
@@ -30837,11 +30841,11 @@
         <v>#N/A</v>
       </c>
       <c r="H130" s="127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="I130" s="127" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30852,31 +30856,31 @@
       </c>
       <c r="C131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E131" s="143">
-        <f t="shared" ref="E131:E140" si="20">IFERROR(D131/C131, NA())</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="E131:E140" si="23">IFERROR(D131/C131, NA())</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F131" s="143">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>0.60160949439115585</v>
+        <v>0.63835596221959856</v>
       </c>
       <c r="G131" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), NA())</f>
-        <v>0.30162117304962721</v>
+        <v>0.27942687207138589</v>
       </c>
       <c r="H131" s="127">
-        <f t="shared" ref="H131:H140" si="21">F131-G131</f>
-        <v>0.29998832134152864</v>
+        <f t="shared" ref="H131:H140" si="24">F131-G131</f>
+        <v>0.35892909014821267</v>
       </c>
       <c r="I131" s="127">
-        <f t="shared" ref="I131:I140" si="22">F131+G131</f>
-        <v>0.90323066744078306</v>
+        <f t="shared" ref="I131:I140" si="25">F131+G131</f>
+        <v>0.9177828342909844</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -30886,31 +30890,31 @@
       </c>
       <c r="C132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E132" s="143">
-        <f t="shared" si="20"/>
-        <v>0.75</v>
+        <f t="shared" si="23"/>
+        <v>0.6</v>
       </c>
       <c r="F132" s="143">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.62752499489900015</v>
+        <v>0.55655085052479192</v>
       </c>
       <c r="G132" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.32688894245636357</v>
+        <v>0.32583091831595484</v>
       </c>
       <c r="H132" s="127">
-        <f t="shared" si="21"/>
-        <v>0.30063605244263658</v>
+        <f t="shared" si="24"/>
+        <v>0.23071993220883708</v>
       </c>
       <c r="I132" s="127">
-        <f t="shared" si="22"/>
-        <v>0.95441393735536373</v>
+        <f t="shared" si="25"/>
+        <v>0.88238176884074671</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -30927,7 +30931,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F133" s="143" t="e">
@@ -30939,11 +30943,11 @@
         <v>#N/A</v>
       </c>
       <c r="H133" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I133" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30961,7 +30965,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F134" s="143" t="e">
@@ -30973,11 +30977,11 @@
         <v>#N/A</v>
       </c>
       <c r="H134" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I134" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30995,7 +30999,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F135" s="143" t="e">
@@ -31007,11 +31011,11 @@
         <v>#N/A</v>
       </c>
       <c r="H135" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I135" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31029,7 +31033,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F136" s="143" t="e">
@@ -31041,11 +31045,11 @@
         <v>#N/A</v>
       </c>
       <c r="H136" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I136" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31063,7 +31067,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F137" s="143" t="e">
@@ -31075,11 +31079,11 @@
         <v>#N/A</v>
       </c>
       <c r="H137" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I137" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31097,7 +31101,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F138" s="143" t="e">
@@ -31109,11 +31113,11 @@
         <v>#N/A</v>
       </c>
       <c r="H138" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I138" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31131,7 +31135,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F139" s="143" t="e">
@@ -31143,11 +31147,11 @@
         <v>#N/A</v>
       </c>
       <c r="H139" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I139" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31165,7 +31169,7 @@
         <v>0</v>
       </c>
       <c r="E140" s="143" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="F140" s="143" t="e">
@@ -31177,11 +31181,11 @@
         <v>#N/A</v>
       </c>
       <c r="H140" s="127" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="I140" s="127" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31199,7 +31203,7 @@
         <v>0</v>
       </c>
       <c r="E141" s="143" t="e">
-        <f t="shared" ref="E141:E157" si="23">IFERROR(D141/C141, NA())</f>
+        <f t="shared" ref="E141:E157" si="26">IFERROR(D141/C141, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F141" s="143" t="e">
@@ -31211,11 +31215,11 @@
         <v>#N/A</v>
       </c>
       <c r="H141" s="127" t="e">
-        <f t="shared" ref="H141:H157" si="24">F141-G141</f>
+        <f t="shared" ref="H141:H157" si="27">F141-G141</f>
         <v>#N/A</v>
       </c>
       <c r="I141" s="127" t="e">
-        <f t="shared" ref="I141:I157" si="25">F141+G141</f>
+        <f t="shared" ref="I141:I157" si="28">F141+G141</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -31233,7 +31237,7 @@
         <v>3</v>
       </c>
       <c r="E142" s="143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.75</v>
       </c>
       <c r="F142" s="143">
@@ -31245,11 +31249,11 @@
         <v>0.32688894245636357</v>
       </c>
       <c r="H142" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.30063605244263658</v>
       </c>
       <c r="I142" s="127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.95441393735536373</v>
       </c>
     </row>
@@ -31260,31 +31264,31 @@
       </c>
       <c r="C143" s="125">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D143" s="125">
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>31</v>
       </c>
       <c r="E143" s="143">
-        <f t="shared" si="23"/>
-        <v>0.59615384615384615</v>
+        <f t="shared" si="26"/>
+        <v>0.58490566037735847</v>
       </c>
       <c r="F143" s="143">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
-        <v>0.589538981691069</v>
+        <v>0.57916737037662547</v>
       </c>
       <c r="G143" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C143))*SQRT(E143*(1-E143)/C143 + (Params!$B$3/(2*C143))^2), NA())</f>
-        <v>0.12886566406610814</v>
+        <v>0.1282255465320879</v>
       </c>
       <c r="H143" s="127">
-        <f t="shared" si="24"/>
-        <v>0.46067331762496089</v>
+        <f t="shared" si="27"/>
+        <v>0.45094182384453757</v>
       </c>
       <c r="I143" s="127">
-        <f t="shared" si="25"/>
-        <v>0.71840464575717711</v>
+        <f t="shared" si="28"/>
+        <v>0.70739291690871342</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -31294,31 +31298,31 @@
       </c>
       <c r="C144" s="125">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" s="125">
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144" s="143">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
+        <f t="shared" si="26"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F144" s="143">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
-        <v>0.55655085052479192</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="G144" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C144))*SQRT(E144*(1-E144)/C144 + (Params!$B$3/(2*C144))^2), NA())</f>
-        <v>0.32583091831595484</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="H144" s="127">
-        <f t="shared" si="24"/>
-        <v>0.23071993220883708</v>
+        <f t="shared" si="27"/>
+        <v>0.29998832134152864</v>
       </c>
       <c r="I144" s="127">
-        <f t="shared" si="25"/>
-        <v>0.88238176884074671</v>
+        <f t="shared" si="28"/>
+        <v>0.90323066744078306</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -31335,7 +31339,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F145" s="143" t="e">
@@ -31347,11 +31351,11 @@
         <v>#N/A</v>
       </c>
       <c r="H145" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I145" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31369,7 +31373,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F146" s="143" t="e">
@@ -31381,11 +31385,11 @@
         <v>#N/A</v>
       </c>
       <c r="H146" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I146" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31403,7 +31407,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F147" s="143" t="e">
@@ -31415,11 +31419,11 @@
         <v>#N/A</v>
       </c>
       <c r="H147" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I147" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31430,31 +31434,31 @@
       </c>
       <c r="C148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="143">
-        <f t="shared" si="23"/>
-        <v>0.25</v>
+        <f t="shared" si="26"/>
+        <v>0.4</v>
       </c>
       <c r="F148" s="143">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.37247500510099979</v>
+        <v>0.44344914947520814</v>
       </c>
       <c r="G148" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.32688894245636357</v>
+        <v>0.32583091831595484</v>
       </c>
       <c r="H148" s="127">
-        <f t="shared" si="24"/>
-        <v>4.5586062644636216E-2</v>
+        <f t="shared" si="27"/>
+        <v>0.11761823115925329</v>
       </c>
       <c r="I148" s="127">
-        <f t="shared" si="25"/>
-        <v>0.69936394755736342</v>
+        <f t="shared" si="28"/>
+        <v>0.76928006779116298</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -31471,7 +31475,7 @@
         <v>4</v>
       </c>
       <c r="E149" s="143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F149" s="143">
@@ -31483,11 +31487,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H149" s="127">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.29998832134152864</v>
       </c>
       <c r="I149" s="127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.90323066744078306</v>
       </c>
     </row>
@@ -31498,31 +31502,31 @@
       </c>
       <c r="C150" s="125">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" s="125">
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" s="143">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
+        <f t="shared" si="26"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F150" s="143">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
-        <v>0.33034744842562436</v>
+        <v>0.39839050560884404</v>
       </c>
       <c r="G150" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C150))*SQRT(E150*(1-E150)/C150 + (Params!$B$3/(2*C150))^2), NA())</f>
-        <v>0.29412428745583691</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="H150" s="127">
-        <f t="shared" si="24"/>
-        <v>3.6223160969787449E-2</v>
+        <f t="shared" si="27"/>
+        <v>9.6769332559216825E-2</v>
       </c>
       <c r="I150" s="127">
-        <f t="shared" si="25"/>
-        <v>0.62447173588146132</v>
+        <f t="shared" si="28"/>
+        <v>0.70001167865847125</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -31539,7 +31543,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F151" s="143" t="e">
@@ -31551,11 +31555,11 @@
         <v>#N/A</v>
       </c>
       <c r="H151" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I151" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31573,7 +31577,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F152" s="143" t="e">
@@ -31585,11 +31589,11 @@
         <v>#N/A</v>
       </c>
       <c r="H152" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I152" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31607,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F153" s="143" t="e">
@@ -31619,11 +31623,11 @@
         <v>#N/A</v>
       </c>
       <c r="H153" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I153" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31641,7 +31645,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F154" s="143" t="e">
@@ -31653,11 +31657,11 @@
         <v>#N/A</v>
       </c>
       <c r="H154" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I154" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31675,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F155" s="143" t="e">
@@ -31687,11 +31691,11 @@
         <v>#N/A</v>
       </c>
       <c r="H155" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I155" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31709,7 +31713,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F156" s="143" t="e">
@@ -31721,11 +31725,11 @@
         <v>#N/A</v>
       </c>
       <c r="H156" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I156" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31743,7 +31747,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="143" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="F157" s="143" t="e">
@@ -31755,11 +31759,11 @@
         <v>#N/A</v>
       </c>
       <c r="H157" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="I157" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31777,7 +31781,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="143" t="e">
-        <f t="shared" ref="E158:E163" si="26">IFERROR(D158/C158, NA())</f>
+        <f t="shared" ref="E158:E163" si="29">IFERROR(D158/C158, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F158" s="143" t="e">
@@ -31789,11 +31793,11 @@
         <v>#N/A</v>
       </c>
       <c r="H158" s="127" t="e">
-        <f t="shared" ref="H158:H163" si="27">F158-G158</f>
+        <f t="shared" ref="H158:H163" si="30">F158-G158</f>
         <v>#N/A</v>
       </c>
       <c r="I158" s="127" t="e">
-        <f t="shared" ref="I158:I163" si="28">F158+G158</f>
+        <f t="shared" ref="I158:I163" si="31">F158+G158</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -31811,7 +31815,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F159" s="143" t="e">
@@ -31823,11 +31827,11 @@
         <v>#N/A</v>
       </c>
       <c r="H159" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I159" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31845,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="E160" s="143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F160" s="143" t="e">
@@ -31857,11 +31861,11 @@
         <v>#N/A</v>
       </c>
       <c r="H160" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I160" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31879,7 +31883,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F161" s="143" t="e">
@@ -31891,11 +31895,11 @@
         <v>#N/A</v>
       </c>
       <c r="H161" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I161" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31913,7 +31917,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F162" s="143" t="e">
@@ -31925,11 +31929,11 @@
         <v>#N/A</v>
       </c>
       <c r="H162" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I162" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31947,7 +31951,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="143" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="F163" s="143" t="e">
@@ -31959,11 +31963,11 @@
         <v>#N/A</v>
       </c>
       <c r="H163" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I163" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400806A2-9639-4526-A994-D4D7D598C732}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38BE42-1EE4-45C5-B2AB-453B6E5D8721}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -21878,9 +21878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -21930,14 +21928,14 @@
       </c>
       <c r="N1" s="133">
         <f>SUM(L2:L1000)/52</f>
-        <v>9.6690384615384612</v>
+        <v>9.5930769230769233</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
       <c r="P1" s="137">
         <f ca="1">NOW() +N1</f>
-        <v>43726.133331169869</v>
+        <v>43726.130581205485</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22068,16 +22066,16 @@
         <v>15027</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5" s="1">
-        <v>0.75</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F5" s="2">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -22095,7 +22093,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="2">
-        <v>57.92</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22182,16 +22180,16 @@
         <v>15033</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="2">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -22209,7 +22207,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>59.77</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22298,7 +22296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -22399,7 +22397,7 @@
       </c>
       <c r="L2" s="135">
         <f>+'V4000'!N1</f>
-        <v>9.6690384615384612</v>
+        <v>9.5930769230769233</v>
       </c>
       <c r="AC2" s="175" t="s">
         <v>42</v>
@@ -25805,11 +25803,11 @@
       </c>
       <c r="AI30" s="140">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
-        <v>0.62752499489900015</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="AJ30" s="127">
         <f ca="1">IFERROR(VLOOKUP(BF30, $B$1:$F1027, 5), "")</f>
-        <v>0.44344914947520814</v>
+        <v>0.5</v>
       </c>
       <c r="AK30" s="127" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG30, $B$1:$F1027, 5), "")</f>
@@ -31230,31 +31228,31 @@
       </c>
       <c r="C142" s="125">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D142" s="125">
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142" s="143">
         <f t="shared" si="26"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F142" s="143">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
-        <v>0.62752499489900015</v>
+        <v>0.60160949439115585</v>
       </c>
       <c r="G142" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C142))*SQRT(E142*(1-E142)/C142 + (Params!$B$3/(2*C142))^2), NA())</f>
-        <v>0.32688894245636357</v>
+        <v>0.30162117304962721</v>
       </c>
       <c r="H142" s="127">
         <f t="shared" si="27"/>
-        <v>0.30063605244263658</v>
+        <v>0.29998832134152864</v>
       </c>
       <c r="I142" s="127">
         <f t="shared" si="28"/>
-        <v>0.95441393735536373</v>
+        <v>0.90323066744078306</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -31434,31 +31432,31 @@
       </c>
       <c r="C148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" s="125">
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148" s="143">
         <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F148" s="143">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
-        <v>0.44344914947520814</v>
+        <v>0.5</v>
       </c>
       <c r="G148" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C148))*SQRT(E148*(1-E148)/C148 + (Params!$B$3/(2*C148))^2), NA())</f>
-        <v>0.32583091831595484</v>
+        <v>0.31238719310059126</v>
       </c>
       <c r="H148" s="127">
         <f t="shared" si="27"/>
-        <v>0.11761823115925329</v>
+        <v>0.18761280689940874</v>
       </c>
       <c r="I148" s="127">
         <f t="shared" si="28"/>
-        <v>0.76928006779116298</v>
+        <v>0.81238719310059126</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626__002.xlsx
+++ b/Math/Results_20190626__002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38BE42-1EE4-45C5-B2AB-453B6E5D8721}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90B7A7B-F8B0-4296-9038-6C9375E996B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" tabRatio="758" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="69">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -246,13 +246,20 @@
   <si>
     <t>wilson sigma</t>
   </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -358,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -823,17 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -851,21 +847,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -898,12 +879,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1043,18 +1085,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1080,18 +1118,25 @@
     <xf numFmtId="10" fontId="4" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="9" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1336,7 +1381,7 @@
                   <c:v>0.53368909012505383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58444804756114044</c:v>
+                  <c:v>0.53893595813605788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,6 +2465,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$39:$AJ$48</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6364668187580054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.15966951112455921</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1513544071794288</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$39:$AJ$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.6364668187580054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.15966951112455921</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1513544071794288</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>TOTAL!$AB$39:$AB$49</c:f>
@@ -2469,7 +2613,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2487,16 +2631,16 @@
                   <c:v>0.13594252746033506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2750,6 +2894,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$54:$AJ$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14125333185830088</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12771091409769464</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12894725413152699</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$54:$AJ$64</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.14125333185830088</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.12771091409769464</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.11372259376924314</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12894725413152699</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.39672835426305358</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>TOTAL!$AD$54:$AD$64</c:f>
@@ -2799,7 +3045,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.20528680794408075</c:v>
@@ -2817,13 +3063,13 @@
                   <c:v>0.17061466770220793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.60327164573694647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.39672835426305353</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3099,6 +3345,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$69:$AJ$73</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6364668187580054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1513544071794288</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16646649029588362</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$69:$AJ$73</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6364668187580054E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1513544071794288</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16646649029588362</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>TOTAL!$AE$69:$AE$73</c:f>
@@ -3393,6 +3705,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$84:$AJ$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12771091409769464</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14125333185830088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17192549374266075</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>TOTAL!$AJ$84:$AJ$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12771091409769464</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.14125333185830088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17192549374266075</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>TOTAL!$AI$84:$AI$88</c:f>
@@ -16004,7 +16382,7 @@
       </c>
       <c r="C42" s="111">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="111">
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -16012,23 +16390,23 @@
       </c>
       <c r="E42" s="112">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F42" s="112">
         <f>(E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42)</f>
-        <v>0.58444804756114044</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="G42" s="113">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C42))*SQRT(E42*(1-E42)/C42 + (Params!$B$3/(2*C42))^2), 0)</f>
-        <v>0.27871019297733857</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H42" s="113">
         <f t="shared" si="1"/>
-        <v>0.30573785458380187</v>
+        <v>0.26664734574402971</v>
       </c>
       <c r="I42" s="114">
         <f t="shared" si="2"/>
-        <v>0.863158240538479</v>
+        <v>0.81122457052808605</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -20097,9 +20475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -20146,7 +20522,7 @@
       </c>
       <c r="N1" s="133">
         <f>SUM(L2:L1000)/52</f>
-        <v>17.119423076923077</v>
+        <v>17.297115384615385</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -21343,16 +21719,16 @@
         <v>9039</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>0.625</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F34" s="2">
-        <v>3.14</v>
+        <v>3.79</v>
       </c>
       <c r="G34">
         <v>0.1</v>
@@ -21370,7 +21746,7 @@
         <v>20</v>
       </c>
       <c r="L34">
-        <v>43.89</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -21876,9 +22252,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ACB516-3180-4DC9-872F-45F68B581586}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -21928,14 +22306,14 @@
       </c>
       <c r="N1" s="133">
         <f>SUM(L2:L1000)/52</f>
-        <v>9.5930769230769233</v>
+        <v>14.055961538461535</v>
       </c>
       <c r="O1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="137">
+      <c r="P1" s="180">
         <f ca="1">NOW() +N1</f>
-        <v>43726.130581205485</v>
+        <v>43731.256210959757</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -21943,42 +22321,42 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>15008</v>
+        <v>9019</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>0.2</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
       <c r="L2" s="2">
-        <v>47.28</v>
-      </c>
-      <c r="O2" t="s">
+        <v>25.25</v>
+      </c>
+      <c r="O2" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="138">
+      <c r="P2" s="181">
         <v>43723.118290286679</v>
       </c>
     </row>
@@ -21987,37 +22365,31 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>15016</v>
+        <v>11000</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.71430000000000005</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>1.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
-        <v>53.56</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22025,37 +22397,31 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>15017</v>
+        <v>11006</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
         <v>0.6</v>
       </c>
-      <c r="F4" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
       <c r="K4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
-        <v>55.93</v>
+        <v>26.69</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22063,37 +22429,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>15027</v>
+        <v>11008</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.39</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
       <c r="L5" s="2">
-        <v>55.49</v>
+        <v>26.27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22101,37 +22461,31 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>15028</v>
+        <v>11009</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1.48</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>59.23</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22139,37 +22493,31 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>15029</v>
+        <v>12000</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>0.2</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2">
-        <v>54.4</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22177,37 +22525,31 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>15033</v>
+        <v>12006</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>58.25</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22215,37 +22557,31 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15034</v>
+        <v>12007</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>0.2</v>
-      </c>
-      <c r="K9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L9" s="2">
-        <v>57.58</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -22253,37 +22589,373 @@
         <v>20</v>
       </c>
       <c r="B10">
+        <v>12008</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>15008</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>15016</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>15017</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="2">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>15027</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>15028</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2">
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>15029</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2">
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>15033</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>15034</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2">
+        <v>56.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>15035</v>
       </c>
-      <c r="C10">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E19" s="1">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F19" s="2">
         <v>1.43</v>
       </c>
-      <c r="G10">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="J10">
-        <v>0.2</v>
-      </c>
-      <c r="K10">
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
         <v>100</v>
       </c>
-      <c r="L10" s="2">
-        <v>57.12</v>
+      <c r="L19" s="2">
+        <v>55.69</v>
       </c>
     </row>
   </sheetData>
@@ -22296,8 +22968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:BQ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="Q19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22372,11 +23044,11 @@
         <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="141">
         <f>IFERROR(D2/C2, NA())</f>
         <v>0.11940298507462686</v>
       </c>
-      <c r="F2" s="143">
+      <c r="F2" s="141">
         <f>IFERROR((E2 + Params!$B$3^2/(2 * C2))/(1 + Params!$B$3^2/C2), NA())</f>
         <v>0.14004200921492455</v>
       </c>
@@ -22397,32 +23069,35 @@
       </c>
       <c r="L2" s="135">
         <f>+'V4000'!N1</f>
-        <v>9.5930769230769233</v>
-      </c>
-      <c r="AC2" s="175" t="s">
+        <v>14.055961538461535</v>
+      </c>
+      <c r="AC2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="177">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="172">
         <v>2</v>
       </c>
-      <c r="AF2" s="177">
+      <c r="AF2" s="172">
         <v>5</v>
       </c>
-      <c r="AG2" s="177">
+      <c r="AG2" s="172">
         <v>10</v>
       </c>
-      <c r="AH2" s="177">
-        <v>20</v>
-      </c>
-      <c r="AI2" s="178">
+      <c r="AH2" s="172">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="173">
         <v>50</v>
       </c>
-      <c r="AJ2" s="177">
+      <c r="AJ2" s="172">
         <v>100</v>
       </c>
-      <c r="AK2" s="179">
+      <c r="AK2" s="183">
         <v>200</v>
+      </c>
+      <c r="AL2" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="AN2" s="56" t="str">
         <f>+AC2</f>
@@ -22513,11 +23188,11 @@
         <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="141">
         <f t="shared" ref="E3:E66" si="0">IFERROR(D3/C3, NA())</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="141">
         <f>IFERROR((E3 + Params!$B$3^2/(2 * C3))/(1 + Params!$B$3^2/C3), NA())</f>
         <v>0.16338328226733051</v>
       </c>
@@ -22538,39 +23213,43 @@
       </c>
       <c r="L3" s="135">
         <f>+THUNDER_3200!N1</f>
-        <v>17.119423076923077</v>
-      </c>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171" t="str">
+        <v>17.297115384615385</v>
+      </c>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="167" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ3, $B$1:$F1000, 5), "")</f>
         <v/>
       </c>
-      <c r="AE3" s="172">
+      <c r="AE3" s="168">
         <f ca="1">IFERROR(VLOOKUP(BA3, $B$1:$F1000, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AF3" s="172">
+      <c r="AF3" s="168">
         <f ca="1">IFERROR(VLOOKUP(BB3, $B$1:$F1000, 5), "")</f>
         <v>6.8176725425754411E-2</v>
       </c>
-      <c r="AG3" s="172">
+      <c r="AG3" s="168">
         <f ca="1">IFERROR(VLOOKUP(BC3, $B$1:$F1000, 5), "")</f>
         <v>0.23156931580519868</v>
       </c>
-      <c r="AH3" s="172">
+      <c r="AH3" s="168">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$F1000, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-      <c r="AI3" s="173">
+      <c r="AI3" s="169">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$F1000, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
-      <c r="AJ3" s="172">
+      <c r="AJ3" s="168">
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$F1000, 5), "")</f>
         <v>8.3830822924320328E-2</v>
       </c>
-      <c r="AK3" s="174" t="str">
+      <c r="AK3" s="182" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$F1000, 5), "")</f>
+        <v/>
+      </c>
+      <c r="AL3" s="188" t="str">
+        <f ca="1">OFFSET(AD3, 0, ROW(AD3)-ROW($AD$3))</f>
         <v/>
       </c>
       <c r="AN3" s="125"/>
@@ -22678,11 +23357,11 @@
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="141">
         <f t="shared" si="0"/>
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="141">
         <f>IFERROR((E4 + Params!$B$3^2/(2 * C4))/(1 + Params!$B$3^2/C4), NA())</f>
         <v>6.8176725425754411E-2</v>
       </c>
@@ -22698,40 +23377,44 @@
         <f t="shared" si="2"/>
         <v>0.13181286478627147</v>
       </c>
-      <c r="AC4" s="162">
+      <c r="AC4" s="158">
         <v>2</v>
       </c>
-      <c r="AD4" s="166">
+      <c r="AD4" s="162">
         <f ca="1">IFERROR(VLOOKUP(AZ4, $B$1:$F1001, 5), "")</f>
         <v>5.5129500367376919E-2</v>
       </c>
-      <c r="AE4" s="149">
+      <c r="AE4" s="145">
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$F1001, 5), "")</f>
         <v>7.2821015720186622E-2</v>
       </c>
-      <c r="AF4" s="150" t="str">
+      <c r="AF4" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AG4" s="150" t="str">
+      <c r="AG4" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AH4" s="150" t="str">
+      <c r="AH4" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AI4" s="151" t="str">
+      <c r="AI4" s="147" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$F1001, 5), "")</f>
         <v/>
       </c>
-      <c r="AJ4" s="150">
+      <c r="AJ4" s="146">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$F1001, 5), "")</f>
         <v>0.21101606750664662</v>
       </c>
-      <c r="AK4" s="152" t="str">
+      <c r="AK4" s="184" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$F1001, 5), "")</f>
         <v/>
+      </c>
+      <c r="AL4" s="188">
+        <f t="shared" ref="AL4:AL10" ca="1" si="3">OFFSET(AD4, 0, ROW(AD4)-ROW($AD$3))</f>
+        <v>7.2821015720186622E-2</v>
       </c>
       <c r="AN4" s="125">
         <v>2</v>
@@ -22842,11 +23525,11 @@
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>10</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="141">
         <f t="shared" si="0"/>
         <v>0.25641025641025639</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="141">
         <f>IFERROR((E5 + Params!$B$3^2/(2 * C5))/(1 + Params!$B$3^2/C5), NA())</f>
         <v>0.27825291305646843</v>
       </c>
@@ -22868,16 +23551,16 @@
       <c r="AB5">
         <v>0.2</v>
       </c>
-      <c r="AC5" s="162">
+      <c r="AC5" s="158">
         <v>5</v>
       </c>
-      <c r="AD5" s="166">
+      <c r="AD5" s="162">
         <f ca="1">IFERROR(VLOOKUP(AZ5, $B$1:$F1002, 5), "")</f>
         <v>6.8176725425754411E-2</v>
       </c>
-      <c r="AE5" s="153" t="str">
+      <c r="AE5" s="149">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$F1002, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
       </c>
       <c r="AF5" s="128">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$F1002, 5), "")</f>
@@ -22891,7 +23574,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD5, $B$1:$F1002, 5), "")</f>
         <v>0.30880272264922948</v>
       </c>
-      <c r="AI5" s="140">
+      <c r="AI5" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE5, $B$1:$F1002, 5), "")</f>
         <v>0.17883496742101909</v>
       </c>
@@ -22899,16 +23582,16 @@
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$F1002, 5), "")</f>
         <v>0.22744829304759534</v>
       </c>
-      <c r="AK5" s="144">
+      <c r="AK5" s="185">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$F1002, 5), "")</f>
         <v>0.14957637677547969</v>
       </c>
-      <c r="AL5" t="str">
-        <f>+AA5</f>
-        <v>sim d</v>
+      <c r="AL5" s="188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AM7" si="3">+AB5</f>
+        <f t="shared" ref="AM5:AM7" si="4">+AB5</f>
         <v>0.2</v>
       </c>
       <c r="AN5" s="125">
@@ -22946,12 +23629,12 @@
         <f>MATCH($AN5 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN5 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>48</v>
       </c>
-      <c r="AW5" t="str">
-        <f>+AL5</f>
-        <v>sim d</v>
+      <c r="AW5">
+        <f ca="1">+AL5</f>
+        <v>0.18488571855392891</v>
       </c>
       <c r="AX5">
-        <f t="shared" ref="AX5:AX7" si="4">+AM5</f>
+        <f t="shared" ref="AX5:AX7" si="5">+AM5</f>
         <v>0.2</v>
       </c>
       <c r="AY5" s="125">
@@ -23030,11 +23713,11 @@
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="143">
+      <c r="F6" s="141">
         <f>IFERROR((E6 + Params!$B$3^2/(2 * C6))/(1 + Params!$B$3^2/C6), NA())</f>
         <v>5.5129500367376919E-2</v>
       </c>
@@ -23056,14 +23739,14 @@
       <c r="AB6">
         <v>0.2</v>
       </c>
-      <c r="AC6" s="162">
+      <c r="AC6" s="158">
         <v>10</v>
       </c>
-      <c r="AD6" s="166">
+      <c r="AD6" s="162">
         <f ca="1">IFERROR(VLOOKUP(AZ6, $B$1:$F1003, 5), "")</f>
         <v>0.14004200921492455</v>
       </c>
-      <c r="AE6" s="153" t="str">
+      <c r="AE6" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$F1003, 5), "")</f>
         <v/>
       </c>
@@ -23079,7 +23762,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD6, $B$1:$F1003, 5), "")</f>
         <v>0.5</v>
       </c>
-      <c r="AI6" s="140">
+      <c r="AI6" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE6, $B$1:$F1003, 5), "")</f>
         <v>0.44292353275428198</v>
       </c>
@@ -23087,16 +23770,16 @@
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$F1003, 5), "")</f>
         <v>0.53893595813605788</v>
       </c>
-      <c r="AK6" s="144">
+      <c r="AK6" s="185">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$F1003, 5), "")</f>
         <v>0.22744829304759534</v>
       </c>
-      <c r="AL6" t="str">
-        <f t="shared" ref="AL6:AL7" si="5">+AA6</f>
-        <v>sim s</v>
+      <c r="AL6" s="188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="AN6" s="125">
@@ -23134,12 +23817,12 @@
         <f>MATCH($AN6 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN6 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>49</v>
       </c>
-      <c r="AW6" t="str">
-        <f t="shared" ref="AW6:AW7" si="6">+AL6</f>
-        <v>sim s</v>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW7" ca="1" si="6">+AL6</f>
+        <v>0.23156931580519868</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="AY6" s="125">
@@ -23218,11 +23901,11 @@
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="141">
         <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="141">
         <f>IFERROR((E7 + Params!$B$3^2/(2 * C7))/(1 + Params!$B$3^2/C7), NA())</f>
         <v>0.1699347905951506</v>
       </c>
@@ -23244,14 +23927,14 @@
       <c r="AB7">
         <v>0.1</v>
       </c>
-      <c r="AC7" s="162">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="166">
+      <c r="AC7" s="158">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="162">
         <f ca="1">IFERROR(VLOOKUP(AZ7, $B$1:$F1004, 5), "")</f>
         <v>0.16338328226733051</v>
       </c>
-      <c r="AE7" s="153" t="str">
+      <c r="AE7" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$F1004, 5), "")</f>
         <v/>
       </c>
@@ -23267,7 +23950,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$F1004, 5), "")</f>
         <v>0.42153700556242274</v>
       </c>
-      <c r="AI7" s="140">
+      <c r="AI7" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE7, $B$1:$F1004, 5), "")</f>
         <v>0.45560719214221934</v>
       </c>
@@ -23275,16 +23958,16 @@
         <f ca="1">IFERROR(VLOOKUP(BF7, $B$1:$F1004, 5), "")</f>
         <v>0.53368909012505383</v>
       </c>
-      <c r="AK7" s="144">
+      <c r="AK7" s="185">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$F1004, 5), "")</f>
-        <v>0.58444804756114044</v>
-      </c>
-      <c r="AL7" t="str">
-        <f t="shared" si="5"/>
-        <v>w</v>
+        <v>0.53893595813605788</v>
+      </c>
+      <c r="AL7" s="188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="AN7" s="125">
@@ -23322,12 +24005,12 @@
         <f>MATCH($AN7 &amp;"#" &amp; AV$2 &amp;"#" &amp; IF($AN7 &lt;&gt; "", $AM$5, "") &amp;"#" &amp; IF(AV$2 &lt;&gt; "", $AM$6, "") &amp;"#" &amp; $AM$7, Defaults_4000!$I$1:$I$1000,0)</f>
         <v>50</v>
       </c>
-      <c r="AW7" t="str">
-        <f t="shared" si="6"/>
-        <v>w</v>
+      <c r="AW7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42153700556242274</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="AY7" s="125">
@@ -23406,11 +24089,11 @@
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="141">
         <f t="shared" si="0"/>
         <v>0.19354838709677419</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="141">
         <f>IFERROR((E8 + Params!$B$3^2/(2 * C8))/(1 + Params!$B$3^2/C8), NA())</f>
         <v>0.22733743570903744</v>
       </c>
@@ -23426,26 +24109,26 @@
         <f t="shared" si="2"/>
         <v>0.36280603555459856</v>
       </c>
-      <c r="AC8" s="163">
+      <c r="AC8" s="159">
         <v>50</v>
       </c>
-      <c r="AD8" s="167">
+      <c r="AD8" s="163">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$F1005, 5), "")</f>
         <v>0.22733743570903744</v>
       </c>
-      <c r="AE8" s="154" t="str">
+      <c r="AE8" s="150" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$F1005, 5), "")</f>
         <v/>
       </c>
-      <c r="AF8" s="140">
+      <c r="AF8" s="138">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$F1005, 5), "")</f>
         <v>0.37950523581459533</v>
       </c>
-      <c r="AG8" s="140">
+      <c r="AG8" s="138">
         <f ca="1">IFERROR(VLOOKUP(BC8, $B$1:$F1005, 5), "")</f>
         <v>0.39218889520253264</v>
       </c>
-      <c r="AH8" s="140">
+      <c r="AH8" s="138">
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$F1005, 5), "")</f>
         <v>0.60781110479746725</v>
       </c>
@@ -23453,13 +24136,17 @@
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$F1005, 5), "")</f>
         <v>0.54439280785778066</v>
       </c>
-      <c r="AJ8" s="140">
+      <c r="AJ8" s="138">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$F1005, 5), "")</f>
         <v>0.63835596221959856</v>
       </c>
-      <c r="AK8" s="145">
+      <c r="AK8" s="186">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$F1005, 5), "")</f>
         <v>0.45388134592680052</v>
+      </c>
+      <c r="AL8" s="188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.54439280785778066</v>
       </c>
       <c r="AN8" s="125">
         <v>50</v>
@@ -23572,11 +24259,11 @@
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="143" t="e">
+      <c r="E9" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="143" t="e">
+      <c r="F9" s="141" t="e">
         <f>IFERROR((E9 + Params!$B$3^2/(2 * C9))/(1 + Params!$B$3^2/C9), NA())</f>
         <v>#N/A</v>
       </c>
@@ -23592,14 +24279,14 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AC9" s="162">
+      <c r="AC9" s="158">
         <v>100</v>
       </c>
-      <c r="AD9" s="166">
+      <c r="AD9" s="162">
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$F1006, 5), "")</f>
         <v>0.1699347905951506</v>
       </c>
-      <c r="AE9" s="153" t="str">
+      <c r="AE9" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$F1006, 5), "")</f>
         <v/>
       </c>
@@ -23615,7 +24302,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$F1006, 5), "")</f>
         <v>0.35550803375332329</v>
       </c>
-      <c r="AI9" s="140">
+      <c r="AI9" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$F1006, 5), "")</f>
         <v>0.61680787440817342</v>
       </c>
@@ -23623,9 +24310,13 @@
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$F1006, 5), "")</f>
         <v>0.40713500341743192</v>
       </c>
-      <c r="AK9" s="144">
+      <c r="AK9" s="185">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$F1006, 5), "")</f>
         <v>0.41555195243885962</v>
+      </c>
+      <c r="AL9" s="188">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.40713500341743192</v>
       </c>
       <c r="AN9" s="125">
         <v>100</v>
@@ -23738,11 +24429,11 @@
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E10" s="143">
+      <c r="E10" s="141">
         <f t="shared" si="0"/>
         <v>0.20512820512820512</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="141">
         <f>IFERROR((E10 + Params!$B$3^2/(2 * C10))/(1 + Params!$B$3^2/C10), NA())</f>
         <v>0.23156931580519868</v>
       </c>
@@ -23758,39 +24449,43 @@
         <f t="shared" si="2"/>
         <v>0.35534272963128621</v>
       </c>
-      <c r="AC10" s="164">
+      <c r="AC10" s="160">
         <v>200</v>
       </c>
-      <c r="AD10" s="168" t="str">
+      <c r="AD10" s="164" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$F1007, 5), "")</f>
         <v/>
       </c>
-      <c r="AE10" s="155" t="str">
+      <c r="AE10" s="151" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$F1007, 5), "")</f>
         <v/>
       </c>
-      <c r="AF10" s="146">
+      <c r="AF10" s="143">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$F1007, 5), "")</f>
         <v>0.33110390487771924</v>
       </c>
-      <c r="AG10" s="146">
+      <c r="AG10" s="143">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$F1007, 5), "")</f>
         <v>0.38319212559182658</v>
       </c>
-      <c r="AH10" s="146">
+      <c r="AH10" s="143">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$F1007, 5), "")</f>
         <v>0.5722459831233383</v>
       </c>
-      <c r="AI10" s="147">
+      <c r="AI10" s="144">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$F1007, 5), "")</f>
         <v>0.53893595813605788</v>
       </c>
-      <c r="AJ10" s="146">
+      <c r="AJ10" s="143">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$F1007, 5), "")</f>
         <v>0.33034744842562436</v>
       </c>
-      <c r="AK10" s="148">
+      <c r="AK10" s="187">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$F1007, 5), "")</f>
+        <v>0.24665585731657882</v>
+      </c>
+      <c r="AL10" s="188">
+        <f t="shared" ca="1" si="3"/>
         <v>0.24665585731657882</v>
       </c>
       <c r="AN10" s="125">
@@ -23904,11 +24599,11 @@
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="141">
         <f t="shared" si="0"/>
         <v>0.15789473684210525</v>
       </c>
-      <c r="F11" s="143">
+      <c r="F11" s="141">
         <f>IFERROR((E11 + Params!$B$3^2/(2 * C11))/(1 + Params!$B$3^2/C11), NA())</f>
         <v>0.18930442430499786</v>
       </c>
@@ -23941,11 +24636,11 @@
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>14</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="141">
         <f t="shared" si="0"/>
         <v>0.35897435897435898</v>
       </c>
-      <c r="F12" s="143">
+      <c r="F12" s="141">
         <f>IFERROR((E12 + Params!$B$3^2/(2 * C12))/(1 + Params!$B$3^2/C12), NA())</f>
         <v>0.37162010755900804</v>
       </c>
@@ -23961,54 +24656,57 @@
         <f t="shared" si="2"/>
         <v>0.51582136815310509</v>
       </c>
-      <c r="AC12" s="169" t="s">
+      <c r="AC12" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="AD12" s="165"/>
-      <c r="AE12" s="156">
+      <c r="AD12" s="161"/>
+      <c r="AE12" s="152">
         <v>2</v>
       </c>
-      <c r="AF12" s="156">
+      <c r="AF12" s="152">
         <v>5</v>
       </c>
-      <c r="AG12" s="156">
+      <c r="AG12" s="152">
         <v>10</v>
       </c>
-      <c r="AH12" s="156">
-        <v>20</v>
-      </c>
-      <c r="AI12" s="157">
+      <c r="AH12" s="152">
+        <v>20</v>
+      </c>
+      <c r="AI12" s="153">
         <v>50</v>
       </c>
-      <c r="AJ12" s="156">
+      <c r="AJ12" s="152">
         <v>100</v>
       </c>
-      <c r="AK12" s="158">
+      <c r="AK12" s="154">
         <v>200</v>
       </c>
-      <c r="AN12" s="169" t="s">
+      <c r="AL12" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN12" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="AO12" s="165"/>
-      <c r="AP12" s="156">
+      <c r="AO12" s="161"/>
+      <c r="AP12" s="152">
         <v>2</v>
       </c>
-      <c r="AQ12" s="156">
+      <c r="AQ12" s="152">
         <v>5</v>
       </c>
-      <c r="AR12" s="156">
+      <c r="AR12" s="152">
         <v>10</v>
       </c>
-      <c r="AS12" s="156">
-        <v>20</v>
-      </c>
-      <c r="AT12" s="157">
+      <c r="AS12" s="152">
+        <v>20</v>
+      </c>
+      <c r="AT12" s="153">
         <v>50</v>
       </c>
-      <c r="AU12" s="156">
+      <c r="AU12" s="152">
         <v>100</v>
       </c>
-      <c r="AV12" s="158">
+      <c r="AV12" s="154">
         <v>200</v>
       </c>
     </row>
@@ -24025,11 +24723,11 @@
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="141">
         <f t="shared" si="0"/>
         <v>0.21052631578947367</v>
       </c>
-      <c r="F13" s="143">
+      <c r="F13" s="141">
         <f>IFERROR((E13 + Params!$B$3^2/(2 * C13))/(1 + Params!$B$3^2/C13), NA())</f>
         <v>0.23710374364269049</v>
       </c>
@@ -24045,69 +24743,73 @@
         <f t="shared" si="2"/>
         <v>0.36346088376442165</v>
       </c>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="180" t="str">
+      <c r="AC13" s="157"/>
+      <c r="AD13" s="174" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ3, $B$1:$G1000, 6), "")</f>
         <v/>
       </c>
-      <c r="AE13" s="159">
+      <c r="AE13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BA3, $B$1:$G1000, 6), "")</f>
         <v>7.8113748837375874E-2</v>
       </c>
-      <c r="AF13" s="159">
+      <c r="AF13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BB3, $B$1:$G1000, 6), "")</f>
         <v>6.3636139360517041E-2</v>
       </c>
-      <c r="AG13" s="159">
+      <c r="AG13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BC3, $B$1:$G1000, 6), "")</f>
         <v>0.12377341382608752</v>
       </c>
-      <c r="AH13" s="159">
+      <c r="AH13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 6), "")</f>
         <v>0.12771091409769464</v>
       </c>
-      <c r="AI13" s="159">
+      <c r="AI13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 6), "")</f>
         <v>0.11859277894870295</v>
       </c>
-      <c r="AJ13" s="159">
+      <c r="AJ13" s="155">
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$G1000, 6), "")</f>
         <v>7.8113748837375874E-2</v>
       </c>
-      <c r="AK13" s="160" t="str">
+      <c r="AK13" s="156" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 6), "")</f>
         <v/>
       </c>
-      <c r="AN13" s="183"/>
-      <c r="AO13" s="185" t="str">
+      <c r="AL13" s="188" t="str">
+        <f ca="1">OFFSET(AD13, 0, ROW(AD13)-ROW($AD$13))</f>
+        <v/>
+      </c>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="179" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ3, $B$1:$G1000, 2), "")</f>
         <v/>
       </c>
-      <c r="AP13" s="182">
+      <c r="AP13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA3, $B$1:$G1000, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AQ13" s="182">
+      <c r="AQ13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB3, $B$1:$G1000, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AR13" s="182">
+      <c r="AR13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC3, $B$1:$G1000, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AS13" s="182">
+      <c r="AS13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD3, $B$1:$G1000, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AT13" s="182">
+      <c r="AT13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE3, $B$1:$G1000, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AU13" s="182">
+      <c r="AU13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF3, $B$1:$G1000, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AV13" s="182">
+      <c r="AV13" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG3, $B$1:$G1000, 2), "")</f>
         <v>0</v>
       </c>
@@ -24125,11 +24827,11 @@
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="141">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="141">
         <f>IFERROR((E14 + Params!$B$3^2/(2 * C14))/(1 + Params!$B$3^2/C14), NA())</f>
         <v>0.18488571855392891</v>
       </c>
@@ -24145,73 +24847,77 @@
         <f t="shared" si="2"/>
         <v>0.29729769865734312</v>
       </c>
-      <c r="AC14" s="162">
+      <c r="AC14" s="158">
         <v>2</v>
       </c>
-      <c r="AD14" s="153">
+      <c r="AD14" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ4, $B$1:$G1001, 6), "")</f>
         <v>5.5129500367376919E-2</v>
       </c>
-      <c r="AE14" s="180">
+      <c r="AE14" s="174">
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$G1001, 6), "")</f>
         <v>6.1782363059360045E-2</v>
       </c>
-      <c r="AF14" s="150" t="str">
+      <c r="AF14" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
-      <c r="AG14" s="150" t="str">
+      <c r="AG14" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
-      <c r="AH14" s="150" t="str">
+      <c r="AH14" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
-      <c r="AI14" s="150" t="str">
+      <c r="AI14" s="146" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
-      <c r="AJ14" s="150">
+      <c r="AJ14" s="146">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 6), "")</f>
         <v>0.19314031799092549</v>
       </c>
-      <c r="AK14" s="152" t="str">
+      <c r="AK14" s="148" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
-      <c r="AN14" s="162">
+      <c r="AL14" s="188">
+        <f t="shared" ref="AL14:AL20" ca="1" si="7">OFFSET(AD14, 0, ROW(AD14)-ROW($AD$13))</f>
+        <v>6.1782363059360045E-2</v>
+      </c>
+      <c r="AN14" s="158">
         <v>2</v>
       </c>
-      <c r="AO14" s="184">
+      <c r="AO14" s="178">
         <f ca="1">IFERROR(VLOOKUP(AZ4, $B$1:$G1001, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AP14" s="185">
+      <c r="AP14" s="179">
         <f ca="1">IFERROR(VLOOKUP(BA4, $B$1:$G1001, 2), "")</f>
         <v>50</v>
       </c>
-      <c r="AQ14" s="182">
+      <c r="AQ14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB4, $B$1:$G1001, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AR14" s="182">
+      <c r="AR14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC4, $B$1:$G1001, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="182">
+      <c r="AS14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD4, $B$1:$G1001, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="182">
+      <c r="AT14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE4, $B$1:$G1001, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="182">
+      <c r="AU14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF4, $B$1:$G1001, 2), "")</f>
         <v>10</v>
       </c>
-      <c r="AV14" s="182">
+      <c r="AV14" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG4, $B$1:$G1001, 2), "")</f>
         <v>0</v>
       </c>
@@ -24229,11 +24935,11 @@
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="141">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="141">
         <f>IFERROR((E15 + Params!$B$3^2/(2 * C15))/(1 + Params!$B$3^2/C15), NA())</f>
         <v>0.18488571855392891</v>
       </c>
@@ -24249,18 +24955,18 @@
         <f t="shared" si="2"/>
         <v>0.29729769865734312</v>
       </c>
-      <c r="AC15" s="162">
+      <c r="AC15" s="158">
         <v>5</v>
       </c>
-      <c r="AD15" s="153">
+      <c r="AD15" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ5, $B$1:$G1002, 6), "")</f>
         <v>6.3636139360517041E-2</v>
       </c>
-      <c r="AE15" s="153" t="str">
+      <c r="AE15" s="149">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$G1002, 6), "")</f>
-        <v/>
-      </c>
-      <c r="AF15" s="143">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="AF15" s="141">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$G1002, 6), "")</f>
         <v>0.11241198010341422</v>
       </c>
@@ -24280,42 +24986,46 @@
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 6), "")</f>
         <v>0.20755792172046483</v>
       </c>
-      <c r="AK15" s="144">
+      <c r="AK15" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 6), "")</f>
         <v>0.14957637677547969</v>
       </c>
-      <c r="AN15" s="162">
+      <c r="AL15" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.11241198010341422</v>
+      </c>
+      <c r="AN15" s="158">
         <v>5</v>
       </c>
-      <c r="AO15" s="182">
+      <c r="AO15" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ5, $B$1:$G1002, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AP15" s="184">
+      <c r="AP15" s="178">
         <f ca="1">IFERROR(VLOOKUP(BA5, $B$1:$G1002, 2), "")</f>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="185">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="179">
         <f ca="1">IFERROR(VLOOKUP(BB5, $B$1:$G1002, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AR15" s="182">
+      <c r="AR15" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC5, $B$1:$G1002, 2), "")</f>
         <v>38</v>
       </c>
-      <c r="AS15" s="182">
+      <c r="AS15" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD5, $B$1:$G1002, 2), "")</f>
         <v>38</v>
       </c>
-      <c r="AT15" s="182">
+      <c r="AT15" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE5, $B$1:$G1002, 2), "")</f>
         <v>74</v>
       </c>
-      <c r="AU15" s="182">
+      <c r="AU15" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF5, $B$1:$G1002, 2), "")</f>
         <v>9</v>
       </c>
-      <c r="AV15" s="182">
+      <c r="AV15" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG5, $B$1:$G1002, 2), "")</f>
         <v>9</v>
       </c>
@@ -24333,11 +25043,11 @@
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>19</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="141">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="141">
         <f>IFERROR((E16 + Params!$B$3^2/(2 * C16))/(1 + Params!$B$3^2/C16), NA())</f>
         <v>0.5</v>
       </c>
@@ -24353,14 +25063,14 @@
         <f t="shared" si="2"/>
         <v>0.65150324467139309</v>
       </c>
-      <c r="AC16" s="162">
+      <c r="AC16" s="158">
         <v>10</v>
       </c>
-      <c r="AD16" s="153">
+      <c r="AD16" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ6, $B$1:$G1003, 6), "")</f>
         <v>7.8280421509049208E-2</v>
       </c>
-      <c r="AE16" s="153" t="str">
+      <c r="AE16" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 6), "")</f>
         <v/>
       </c>
@@ -24368,7 +25078,7 @@
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 6), "")</f>
         <v>0.12635714012173116</v>
       </c>
-      <c r="AG16" s="143">
+      <c r="AG16" s="141">
         <f ca="1">IFERROR(VLOOKUP(BC6, $B$1:$G1003, 6), "")</f>
         <v>0.12377341382608752</v>
       </c>
@@ -24384,42 +25094,46 @@
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 6), "")</f>
         <v>0.27228861239202817</v>
       </c>
-      <c r="AK16" s="144">
+      <c r="AK16" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 6), "")</f>
         <v>0.20755792172046483</v>
       </c>
-      <c r="AN16" s="162">
+      <c r="AL16" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.12377341382608752</v>
+      </c>
+      <c r="AN16" s="158">
         <v>10</v>
       </c>
-      <c r="AO16" s="182">
+      <c r="AO16" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ6, $B$1:$G1003, 2), "")</f>
         <v>67</v>
       </c>
-      <c r="AP16" s="182">
+      <c r="AP16" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA6, $B$1:$G1003, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AQ16" s="184">
+      <c r="AQ16" s="178">
         <f ca="1">IFERROR(VLOOKUP(BB6, $B$1:$G1003, 2), "")</f>
         <v>38</v>
       </c>
-      <c r="AR16" s="185">
+      <c r="AR16" s="179">
         <f ca="1">IFERROR(VLOOKUP(BC6, $B$1:$G1003, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AS16" s="182">
+      <c r="AS16" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD6, $B$1:$G1003, 2), "")</f>
         <v>38</v>
       </c>
-      <c r="AT16" s="182">
+      <c r="AT16" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE6, $B$1:$G1003, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AU16" s="182">
+      <c r="AU16" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF6, $B$1:$G1003, 2), "")</f>
         <v>9</v>
       </c>
-      <c r="AV16" s="182">
+      <c r="AV16" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG6, $B$1:$G1003, 2), "")</f>
         <v>9</v>
       </c>
@@ -24437,11 +25151,11 @@
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>11</v>
       </c>
-      <c r="E17" s="143">
+      <c r="E17" s="141">
         <f t="shared" si="0"/>
         <v>0.28947368421052633</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="141">
         <f>IFERROR((E17 + Params!$B$3^2/(2 * C17))/(1 + Params!$B$3^2/C17), NA())</f>
         <v>0.30880272264922948</v>
       </c>
@@ -24457,14 +25171,14 @@
         <f t="shared" si="2"/>
         <v>0.44757438266189764</v>
       </c>
-      <c r="AC17" s="162">
-        <v>20</v>
-      </c>
-      <c r="AD17" s="153">
+      <c r="AC17" s="158">
+        <v>20</v>
+      </c>
+      <c r="AD17" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ7, $B$1:$G1004, 6), "")</f>
         <v>8.6364668187580054E-2</v>
       </c>
-      <c r="AE17" s="153" t="str">
+      <c r="AE17" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 6), "")</f>
         <v/>
       </c>
@@ -24476,7 +25190,7 @@
         <f ca="1">IFERROR(VLOOKUP(BC7, $B$1:$G1004, 6), "")</f>
         <v>0.14420126059409702</v>
       </c>
-      <c r="AH17" s="143">
+      <c r="AH17" s="141">
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$G1004, 6), "")</f>
         <v>0.10627245507177599</v>
       </c>
@@ -24488,44 +25202,48 @@
         <f ca="1">IFERROR(VLOOKUP(BF7, $B$1:$G1004, 6), "")</f>
         <v>0.25360133443506561</v>
       </c>
-      <c r="AK17" s="144">
+      <c r="AK17" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$G1004, 6), "")</f>
-        <v>0.27871019297733857</v>
-      </c>
-      <c r="AN17" s="162">
-        <v>20</v>
-      </c>
-      <c r="AO17" s="182">
+        <v>0.27228861239202817</v>
+      </c>
+      <c r="AL17" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.10627245507177599</v>
+      </c>
+      <c r="AN17" s="158">
+        <v>20</v>
+      </c>
+      <c r="AO17" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ7, $B$1:$G1004, 2), "")</f>
         <v>63</v>
       </c>
-      <c r="AP17" s="182">
+      <c r="AP17" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA7, $B$1:$G1004, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AQ17" s="182">
+      <c r="AQ17" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB7, $B$1:$G1004, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AR17" s="184">
+      <c r="AR17" s="178">
         <f ca="1">IFERROR(VLOOKUP(BC7, $B$1:$G1004, 2), "")</f>
         <v>39</v>
       </c>
-      <c r="AS17" s="185">
+      <c r="AS17" s="179">
         <f ca="1">IFERROR(VLOOKUP(BD7, $B$1:$G1004, 2), "")</f>
         <v>79</v>
       </c>
-      <c r="AT17" s="182">
+      <c r="AT17" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE7, $B$1:$G1004, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AU17" s="182">
+      <c r="AU17" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF7, $B$1:$G1004, 2), "")</f>
         <v>11</v>
       </c>
-      <c r="AV17" s="182">
+      <c r="AV17" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG7, $B$1:$G1004, 2), "")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -24541,11 +25259,11 @@
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>33</v>
       </c>
-      <c r="E18" s="143">
+      <c r="E18" s="141">
         <f t="shared" si="0"/>
         <v>0.41772151898734178</v>
       </c>
-      <c r="F18" s="143">
+      <c r="F18" s="141">
         <f>IFERROR((E18 + Params!$B$3^2/(2 * C18))/(1 + Params!$B$3^2/C18), NA())</f>
         <v>0.42153700556242274</v>
       </c>
@@ -24561,14 +25279,14 @@
         <f t="shared" si="2"/>
         <v>0.52780946063419876</v>
       </c>
-      <c r="AC18" s="163">
+      <c r="AC18" s="159">
         <v>50</v>
       </c>
-      <c r="AD18" s="153">
+      <c r="AD18" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$G1005, 6), "")</f>
         <v>0.13546859984556112</v>
       </c>
-      <c r="AE18" s="153" t="str">
+      <c r="AE18" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 6), "")</f>
         <v/>
       </c>
@@ -24584,7 +25302,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$G1005, 6), "")</f>
         <v>0.10763841747619295</v>
       </c>
-      <c r="AI18" s="143">
+      <c r="AI18" s="141">
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$G1005, 6), "")</f>
         <v>0.10991107086629816</v>
       </c>
@@ -24592,42 +25310,46 @@
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 6), "")</f>
         <v>0.27942687207138589</v>
       </c>
-      <c r="AK18" s="144">
+      <c r="AK18" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 6), "")</f>
         <v>0.29566442366417367</v>
       </c>
-      <c r="AN18" s="163">
+      <c r="AL18" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.10991107086629816</v>
+      </c>
+      <c r="AN18" s="159">
         <v>50</v>
       </c>
-      <c r="AO18" s="182">
+      <c r="AO18" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ8, $B$1:$G1005, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AP18" s="182">
+      <c r="AP18" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA8, $B$1:$G1005, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AQ18" s="182">
+      <c r="AQ18" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB8, $B$1:$G1005, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AR18" s="182">
+      <c r="AR18" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC8, $B$1:$G1005, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AS18" s="184">
+      <c r="AS18" s="178">
         <f ca="1">IFERROR(VLOOKUP(BD8, $B$1:$G1005, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AT18" s="185">
+      <c r="AT18" s="179">
         <f ca="1">IFERROR(VLOOKUP(BE8, $B$1:$G1005, 2), "")</f>
         <v>75</v>
       </c>
-      <c r="AU18" s="182">
+      <c r="AU18" s="176">
         <f ca="1">IFERROR(VLOOKUP(BF8, $B$1:$G1005, 2), "")</f>
         <v>7</v>
       </c>
-      <c r="AV18" s="182">
+      <c r="AV18" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG8, $B$1:$G1005, 2), "")</f>
         <v>7</v>
       </c>
@@ -24645,11 +25367,11 @@
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="143" t="e">
+      <c r="E19" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="143" t="e">
+      <c r="F19" s="141" t="e">
         <f>IFERROR((E19 + Params!$B$3^2/(2 * C19))/(1 + Params!$B$3^2/C19), NA())</f>
         <v>#N/A</v>
       </c>
@@ -24665,14 +25387,14 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AC19" s="162">
+      <c r="AC19" s="158">
         <v>100</v>
       </c>
-      <c r="AD19" s="153">
+      <c r="AD19" s="149">
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$G1006, 6), "")</f>
         <v>0.11859277894870295</v>
       </c>
-      <c r="AE19" s="153" t="str">
+      <c r="AE19" s="149" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 6), "")</f>
         <v/>
       </c>
@@ -24692,46 +25414,50 @@
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 6), "")</f>
         <v>0.26261052690908371</v>
       </c>
-      <c r="AJ19" s="143">
+      <c r="AJ19" s="141">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 6), "")</f>
         <v>0.13105310555497438</v>
       </c>
-      <c r="AK19" s="144">
+      <c r="AK19" s="142">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 6), "")</f>
         <v>0.27871019297733857</v>
       </c>
-      <c r="AN19" s="162">
+      <c r="AL19" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.13105310555497438</v>
+      </c>
+      <c r="AN19" s="158">
         <v>100</v>
       </c>
-      <c r="AO19" s="182">
+      <c r="AO19" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ9, $B$1:$G1006, 2), "")</f>
         <v>31</v>
       </c>
-      <c r="AP19" s="182">
+      <c r="AP19" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA9, $B$1:$G1006, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AQ19" s="182">
+      <c r="AQ19" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB9, $B$1:$G1006, 2), "")</f>
         <v>8</v>
       </c>
-      <c r="AR19" s="182">
+      <c r="AR19" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC9, $B$1:$G1006, 2), "")</f>
         <v>11</v>
       </c>
-      <c r="AS19" s="182">
+      <c r="AS19" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD9, $B$1:$G1006, 2), "")</f>
         <v>10</v>
       </c>
-      <c r="AT19" s="184">
+      <c r="AT19" s="178">
         <f ca="1">IFERROR(VLOOKUP(BE9, $B$1:$G1006, 2), "")</f>
         <v>9</v>
       </c>
-      <c r="AU19" s="185">
+      <c r="AU19" s="179">
         <f ca="1">IFERROR(VLOOKUP(BF9, $B$1:$G1006, 2), "")</f>
         <v>50</v>
       </c>
-      <c r="AV19" s="182">
+      <c r="AV19" s="176">
         <f ca="1">IFERROR(VLOOKUP(BG9, $B$1:$G1006, 2), "")</f>
         <v>8</v>
       </c>
@@ -24749,11 +25475,11 @@
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>29</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="141">
         <f t="shared" si="0"/>
         <v>0.38666666666666666</v>
       </c>
-      <c r="F20" s="143">
+      <c r="F20" s="141">
         <f>IFERROR((E20 + Params!$B$3^2/(2 * C20))/(1 + Params!$B$3^2/C20), NA())</f>
         <v>0.39218889520253264</v>
       </c>
@@ -24769,73 +25495,77 @@
         <f t="shared" si="2"/>
         <v>0.4998273126787256</v>
       </c>
-      <c r="AC20" s="164">
+      <c r="AC20" s="160">
         <v>200</v>
       </c>
-      <c r="AD20" s="155" t="str">
+      <c r="AD20" s="151" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 6), "")</f>
         <v/>
       </c>
-      <c r="AE20" s="155" t="str">
+      <c r="AE20" s="151" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 6), "")</f>
         <v/>
       </c>
-      <c r="AF20" s="146">
+      <c r="AF20" s="143">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 6), "")</f>
         <v>0.2596262160196916</v>
       </c>
-      <c r="AG20" s="146">
+      <c r="AG20" s="143">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 6), "")</f>
         <v>0.26261052690908371</v>
       </c>
-      <c r="AH20" s="146">
+      <c r="AH20" s="143">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 6), "")</f>
         <v>0.25957643567315197</v>
       </c>
-      <c r="AI20" s="146">
+      <c r="AI20" s="143">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 6), "")</f>
         <v>0.27228861239202817</v>
       </c>
-      <c r="AJ20" s="146">
+      <c r="AJ20" s="143">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 6), "")</f>
         <v>0.29412428745583691</v>
       </c>
-      <c r="AK20" s="181">
+      <c r="AK20" s="175">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 6), "")</f>
         <v>0.22423894845328268</v>
       </c>
-      <c r="AN20" s="164">
+      <c r="AL20" s="188">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.22423894845328268</v>
+      </c>
+      <c r="AN20" s="160">
         <v>200</v>
       </c>
-      <c r="AO20" s="182">
+      <c r="AO20" s="176">
         <f ca="1">IFERROR(VLOOKUP(AZ10, $B$1:$G1007, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AP20" s="182">
+      <c r="AP20" s="176">
         <f ca="1">IFERROR(VLOOKUP(BA10, $B$1:$G1007, 2), "")</f>
         <v>0</v>
       </c>
-      <c r="AQ20" s="182">
+      <c r="AQ20" s="176">
         <f ca="1">IFERROR(VLOOKUP(BB10, $B$1:$G1007, 2), "")</f>
         <v>8</v>
       </c>
-      <c r="AR20" s="182">
+      <c r="AR20" s="176">
         <f ca="1">IFERROR(VLOOKUP(BC10, $B$1:$G1007, 2), "")</f>
         <v>9</v>
       </c>
-      <c r="AS20" s="182">
+      <c r="AS20" s="176">
         <f ca="1">IFERROR(VLOOKUP(BD10, $B$1:$G1007, 2), "")</f>
         <v>10</v>
       </c>
-      <c r="AT20" s="182">
+      <c r="AT20" s="176">
         <f ca="1">IFERROR(VLOOKUP(BE10, $B$1:$G1007, 2), "")</f>
         <v>9</v>
       </c>
-      <c r="AU20" s="184">
+      <c r="AU20" s="178">
         <f ca="1">IFERROR(VLOOKUP(BF10, $B$1:$G1007, 2), "")</f>
         <v>5</v>
       </c>
-      <c r="AV20" s="185">
+      <c r="AV20" s="179">
         <f ca="1">IFERROR(VLOOKUP(BG10, $B$1:$G1007, 2), "")</f>
         <v>8</v>
       </c>
@@ -24853,11 +25583,11 @@
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E21" s="143">
+      <c r="E21" s="141">
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="F21" s="143">
+      <c r="F21" s="141">
         <f>IFERROR((E21 + Params!$B$3^2/(2 * C21))/(1 + Params!$B$3^2/C21), NA())</f>
         <v>0.53368909012505383</v>
       </c>
@@ -24887,11 +25617,11 @@
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="143" t="e">
+      <c r="E22" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="143" t="e">
+      <c r="F22" s="141" t="e">
         <f>IFERROR((E22 + Params!$B$3^2/(2 * C22))/(1 + Params!$B$3^2/C22), NA())</f>
         <v>#N/A</v>
       </c>
@@ -24921,11 +25651,11 @@
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>28</v>
       </c>
-      <c r="E23" s="143">
+      <c r="E23" s="141">
         <f t="shared" si="0"/>
         <v>0.37333333333333335</v>
       </c>
-      <c r="F23" s="143">
+      <c r="F23" s="141">
         <f>IFERROR((E23 + Params!$B$3^2/(2 * C23))/(1 + Params!$B$3^2/C23), NA())</f>
         <v>0.37950523581459533</v>
       </c>
@@ -24955,11 +25685,11 @@
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="143">
+      <c r="E24" s="141">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F24" s="143">
+      <c r="F24" s="141">
         <f>IFERROR((E24 + Params!$B$3^2/(2 * C24))/(1 + Params!$B$3^2/C24), NA())</f>
         <v>0.41555195243885962</v>
       </c>
@@ -24989,11 +25719,11 @@
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="143" t="e">
+      <c r="E25" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="143" t="e">
+      <c r="F25" s="141" t="e">
         <f>IFERROR((E25 + Params!$B$3^2/(2 * C25))/(1 + Params!$B$3^2/C25), NA())</f>
         <v>#N/A</v>
       </c>
@@ -25027,7 +25757,7 @@
       <c r="AH25" s="125">
         <v>20</v>
       </c>
-      <c r="AI25" s="139">
+      <c r="AI25" s="137">
         <v>50</v>
       </c>
       <c r="AJ25" s="125">
@@ -25104,11 +25834,11 @@
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>46</v>
       </c>
-      <c r="E26" s="143">
+      <c r="E26" s="141">
         <f t="shared" si="0"/>
         <v>0.61333333333333329</v>
       </c>
-      <c r="F26" s="143">
+      <c r="F26" s="141">
         <f>IFERROR((E26 + Params!$B$3^2/(2 * C26))/(1 + Params!$B$3^2/C26), NA())</f>
         <v>0.60781110479746725</v>
       </c>
@@ -25145,7 +25875,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD26, $B$1:$F1023, 5), "")</f>
         <v>0.34397536891157215</v>
       </c>
-      <c r="AI26" s="140" t="str">
+      <c r="AI26" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE26, $B$1:$F1023, 5), "")</f>
         <v/>
       </c>
@@ -25237,11 +25967,11 @@
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="143">
+      <c r="E27" s="141">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="F27" s="143">
+      <c r="F27" s="141">
         <f>IFERROR((E27 + Params!$B$3^2/(2 * C27))/(1 + Params!$B$3^2/C27), NA())</f>
         <v>0.35550803375332329</v>
       </c>
@@ -25282,7 +26012,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-      <c r="AI27" s="140" t="str">
+      <c r="AI27" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE27, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
@@ -25380,11 +26110,11 @@
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E28" s="143">
+      <c r="E28" s="141">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="F28" s="143">
+      <c r="F28" s="141">
         <f>IFERROR((E28 + Params!$B$3^2/(2 * C28))/(1 + Params!$B$3^2/C28), NA())</f>
         <v>7.2821015720186622E-2</v>
       </c>
@@ -25429,7 +26159,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-      <c r="AI28" s="140" t="str">
+      <c r="AI28" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE28, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
@@ -25446,7 +26176,7 @@
         <v>sim d</v>
       </c>
       <c r="AM28">
-        <f t="shared" ref="AM28:AM30" si="7">+AB28</f>
+        <f t="shared" ref="AM28:AM30" si="8">+AB28</f>
         <v>0.2</v>
       </c>
       <c r="AN28" s="125">
@@ -25489,7 +26219,7 @@
         <v>sim d</v>
       </c>
       <c r="AX28">
-        <f t="shared" ref="AX28:AX30" si="8">+AM28</f>
+        <f t="shared" ref="AX28:AX30" si="9">+AM28</f>
         <v>0.2</v>
       </c>
       <c r="AY28" s="125">
@@ -25535,31 +26265,31 @@
       </c>
       <c r="C29" s="125">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="125">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="143" t="e">
+      <c r="E29" s="141">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="143" t="e">
+        <v>0</v>
+      </c>
+      <c r="F29" s="141">
         <f>IFERROR((E29 + Params!$B$3^2/(2 * C29))/(1 + Params!$B$3^2/C29), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G29" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C29))*SQRT(E29*(1-E29)/C29 + (Params!$B$3/(2*C29))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H29" s="127">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I29" s="127" t="e">
+        <v>0</v>
+      </c>
+      <c r="I29" s="127">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.79345670852610706</v>
       </c>
       <c r="Q29" t="s">
         <v>11</v>
@@ -25617,7 +26347,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
-      <c r="AI29" s="140" t="str">
+      <c r="AI29" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE29, $B$1:$F1026, 5), "")</f>
         <v/>
       </c>
@@ -25630,11 +26360,11 @@
         <v/>
       </c>
       <c r="AL29" t="str">
-        <f t="shared" ref="AL29:AL30" si="9">+AA29</f>
+        <f t="shared" ref="AL29:AL30" si="10">+AA29</f>
         <v>sim s</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="AN29" s="125">
@@ -25673,11 +26403,11 @@
         <v>154</v>
       </c>
       <c r="AW29" t="str">
-        <f t="shared" ref="AW29:AW30" si="10">+AL29</f>
+        <f t="shared" ref="AW29:AW30" si="11">+AL29</f>
         <v>sim s</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="AY29" s="125">
@@ -25729,11 +26459,11 @@
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="143" t="e">
+      <c r="E30" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="143" t="e">
+      <c r="F30" s="141" t="e">
         <f>IFERROR((E30 + Params!$B$3^2/(2 * C30))/(1 + Params!$B$3^2/C30), NA())</f>
         <v>#N/A</v>
       </c>
@@ -25753,11 +26483,11 @@
         <v>2</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ref="R30:R36" ca="1" si="11">+AD4</f>
+        <f t="shared" ref="R30:R36" ca="1" si="12">+AD4</f>
         <v>5.5129500367376919E-2</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30:S36" ca="1" si="12">+OFFSET($AE$3, 0, ROW(R30)-ROW($R$30))</f>
+        <f t="shared" ref="S30:S36" ca="1" si="13">+OFFSET($AE$3, 0, ROW(R30)-ROW($R$30))</f>
         <v>8.3830822924320328E-2</v>
       </c>
       <c r="T30" s="1">
@@ -25765,7 +26495,7 @@
         <v>0.13896032329169725</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30:U36" ca="1" si="13">+OFFSET($AE$4, ROW(T30)-ROW($R$30), ROW(T30)-ROW($R$30))</f>
+        <f t="shared" ref="U30:U36" ca="1" si="14">+OFFSET($AE$4, ROW(T30)-ROW($R$30), ROW(T30)-ROW($R$30))</f>
         <v>7.2821015720186622E-2</v>
       </c>
       <c r="V30" s="1"/>
@@ -25801,7 +26531,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD30, $B$1:$F1027, 5), "")</f>
         <v>0.21724574737604052</v>
       </c>
-      <c r="AI30" s="140">
+      <c r="AI30" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE30, $B$1:$F1027, 5), "")</f>
         <v>0.60160949439115585</v>
       </c>
@@ -25814,11 +26544,11 @@
         <v/>
       </c>
       <c r="AL30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>w</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AN30" s="125">
@@ -25857,11 +26587,11 @@
         <v>155</v>
       </c>
       <c r="AW30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>w</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AY30" s="125">
@@ -25913,11 +26643,11 @@
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="143" t="e">
+      <c r="E31" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F31" s="143" t="e">
+      <c r="F31" s="141" t="e">
         <f>IFERROR((E31 + Params!$B$3^2/(2 * C31))/(1 + Params!$B$3^2/C31), NA())</f>
         <v>#N/A</v>
       </c>
@@ -25937,57 +26667,57 @@
         <v>5</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.8176725425754411E-2</v>
-      </c>
-      <c r="S31" s="1">
         <f t="shared" ca="1" si="12"/>
         <v>6.8176725425754411E-2</v>
       </c>
+      <c r="S31" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>6.8176725425754411E-2</v>
+      </c>
       <c r="T31" s="1">
-        <f t="shared" ref="T31:T36" ca="1" si="14">+R31+S31</f>
+        <f t="shared" ref="T31:T36" ca="1" si="15">+R31+S31</f>
         <v>0.13635345085150882</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.18488571855392891</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="AC31" s="139">
+      <c r="AC31" s="137">
         <v>50</v>
       </c>
-      <c r="AD31" s="140" t="str">
+      <c r="AD31" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(AZ31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AE31" s="140" t="str">
+      <c r="AE31" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BA31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AF31" s="140" t="str">
+      <c r="AF31" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BB31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AG31" s="140" t="str">
+      <c r="AG31" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BC31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
-      <c r="AH31" s="140">
+      <c r="AH31" s="138">
         <f ca="1">IFERROR(VLOOKUP(BD31, $B$1:$F1028, 5), "")</f>
-        <v>0.63835596221959856</v>
+        <v>0.58444804756114044</v>
       </c>
       <c r="AI31" s="128">
         <f ca="1">IFERROR(VLOOKUP(BE31, $B$1:$F1028, 5), "")</f>
         <v>0.57916737037662547</v>
       </c>
-      <c r="AJ31" s="140">
+      <c r="AJ31" s="138">
         <f ca="1">IFERROR(VLOOKUP(BF31, $B$1:$F1028, 5), "")</f>
         <v>0.60160949439115585</v>
       </c>
-      <c r="AK31" s="140" t="str">
+      <c r="AK31" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BG31, $B$1:$F1028, 5), "")</f>
         <v/>
       </c>
@@ -26075,11 +26805,11 @@
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="143" t="e">
+      <c r="E32" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="143" t="e">
+      <c r="F32" s="141" t="e">
         <f>IFERROR((E32 + Params!$B$3^2/(2 * C32))/(1 + Params!$B$3^2/C32), NA())</f>
         <v>#N/A</v>
       </c>
@@ -26099,19 +26829,19 @@
         <v>10</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.14004200921492455</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.23156931580519868</v>
       </c>
       <c r="T32" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.37161132502012323</v>
+      </c>
+      <c r="U32" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.37161132502012323</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0.23156931580519868</v>
       </c>
       <c r="V32" s="1"/>
@@ -26139,9 +26869,9 @@
       </c>
       <c r="AH32" s="127">
         <f ca="1">IFERROR(VLOOKUP(BD32, $B$1:$F1029, 5), "")</f>
-        <v>0.55655085052479192</v>
-      </c>
-      <c r="AI32" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="AI32" s="138">
         <f ca="1">IFERROR(VLOOKUP(BE32, $B$1:$F1029, 5), "")</f>
         <v>0.60160949439115585</v>
       </c>
@@ -26237,11 +26967,11 @@
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="143" t="e">
+      <c r="E33" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F33" s="143" t="e">
+      <c r="F33" s="141" t="e">
         <f>IFERROR((E33 + Params!$B$3^2/(2 * C33))/(1 + Params!$B$3^2/C33), NA())</f>
         <v>#N/A</v>
       </c>
@@ -26261,19 +26991,19 @@
         <v>20</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.16338328226733051</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.19863611315209401</v>
       </c>
       <c r="T33" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.36201939541942452</v>
+      </c>
+      <c r="U33" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.36201939541942452</v>
-      </c>
-      <c r="U33" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0.42153700556242274</v>
       </c>
       <c r="V33" s="1"/>
@@ -26303,7 +27033,7 @@
         <f ca="1">IFERROR(VLOOKUP(BD33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-      <c r="AI33" s="140" t="str">
+      <c r="AI33" s="138" t="str">
         <f ca="1">IFERROR(VLOOKUP(BE33, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
@@ -26399,11 +27129,11 @@
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="143" t="e">
+      <c r="E34" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="143" t="e">
+      <c r="F34" s="141" t="e">
         <f>IFERROR((E34 + Params!$B$3^2/(2 * C34))/(1 + Params!$B$3^2/C34), NA())</f>
         <v>#N/A</v>
       </c>
@@ -26423,19 +27153,19 @@
         <v>50</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.22733743570903744</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.1699347905951506</v>
       </c>
       <c r="T34" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.39727222630418801</v>
+      </c>
+      <c r="U34" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.39727222630418801</v>
-      </c>
-      <c r="U34" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0.54439280785778066</v>
       </c>
       <c r="V34" s="1"/>
@@ -26456,11 +27186,11 @@
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="E35" s="143">
+      <c r="E35" s="141">
         <f t="shared" si="0"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="F35" s="143">
+      <c r="F35" s="141">
         <f>IFERROR((E35 + Params!$B$3^2/(2 * C35))/(1 + Params!$B$3^2/C35), NA())</f>
         <v>0.17883496742101909</v>
       </c>
@@ -26480,19 +27210,19 @@
         <v>100</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.1699347905951506</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>8.3830822924320328E-2</v>
       </c>
       <c r="T35" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.25376561351947091</v>
+      </c>
+      <c r="U35" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25376561351947091</v>
-      </c>
-      <c r="U35" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0.40713500341743192</v>
       </c>
       <c r="V35" s="1"/>
@@ -26513,11 +27243,11 @@
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>33</v>
       </c>
-      <c r="E36" s="143">
+      <c r="E36" s="141">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="F36" s="143">
+      <c r="F36" s="141">
         <f>IFERROR((E36 + Params!$B$3^2/(2 * C36))/(1 + Params!$B$3^2/C36), NA())</f>
         <v>0.44292353275428198</v>
       </c>
@@ -26537,19 +27267,19 @@
         <v>200</v>
       </c>
       <c r="R36" s="1" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="S36" s="1" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
+      <c r="S36" s="1" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
       <c r="T36" s="1" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U36" s="1">
-        <f t="shared" ca="1" si="13"/>
         <v>0.24665585731657882</v>
       </c>
       <c r="V36"/>
@@ -26570,11 +27300,11 @@
         <f>IFERROR(VLOOKUP($B37, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B37, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B37, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>34</v>
       </c>
-      <c r="E37" s="143">
+      <c r="E37" s="141">
         <f t="shared" si="0"/>
         <v>0.45333333333333331</v>
       </c>
-      <c r="F37" s="143">
+      <c r="F37" s="141">
         <f>IFERROR((E37 + Params!$B$3^2/(2 * C37))/(1 + Params!$B$3^2/C37), NA())</f>
         <v>0.45560719214221934</v>
       </c>
@@ -26604,11 +27334,11 @@
         <f>IFERROR(VLOOKUP($B38, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B38, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B38, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>41</v>
       </c>
-      <c r="E38" s="143">
+      <c r="E38" s="141">
         <f t="shared" si="0"/>
         <v>0.54666666666666663</v>
       </c>
-      <c r="F38" s="143">
+      <c r="F38" s="141">
         <f>IFERROR((E38 + Params!$B$3^2/(2 * C38))/(1 + Params!$B$3^2/C38), NA())</f>
         <v>0.54439280785778066</v>
       </c>
@@ -26650,6 +27380,9 @@
       </c>
       <c r="AI38" s="125" t="s">
         <v>54</v>
+      </c>
+      <c r="AJ38" s="125" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -26665,11 +27398,11 @@
         <f>IFERROR(VLOOKUP($B39, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B39, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B39, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E39" s="143">
+      <c r="E39" s="141">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F39" s="143">
+      <c r="F39" s="141">
         <f>IFERROR((E39 + Params!$B$3^2/(2 * C39))/(1 + Params!$B$3^2/C39), NA())</f>
         <v>0.61680787440817342</v>
       </c>
@@ -26693,7 +27426,7 @@
       </c>
       <c r="AC39" s="125"/>
       <c r="AD39" s="125"/>
-      <c r="AE39" s="141">
+      <c r="AE39" s="139">
         <v>0.1</v>
       </c>
       <c r="AF39" s="125" t="str">
@@ -26708,9 +27441,13 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG39-1, 0)</f>
         <v>11000</v>
       </c>
-      <c r="AI39" s="127" t="str">
+      <c r="AI39" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$F1000, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ39" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH39, $B$1:$G1000, 6), "")</f>
+        <v>0.39672835426305358</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -26726,11 +27463,11 @@
         <f>IFERROR(VLOOKUP($B40, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B40, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B40, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="143">
+      <c r="E40" s="141">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="141">
         <f>IFERROR((E40 + Params!$B$3^2/(2 * C40))/(1 + Params!$B$3^2/C40), NA())</f>
         <v>0.21101606750664662</v>
       </c>
@@ -26754,11 +27491,11 @@
       </c>
       <c r="AC40" s="125"/>
       <c r="AD40" s="125"/>
-      <c r="AE40" s="141">
+      <c r="AE40" s="139">
         <v>0.1</v>
       </c>
       <c r="AF40" s="125" t="str">
-        <f t="shared" ref="AF40:AF49" si="15">AA40 &amp; "#" &amp;  AC40 &amp; "#" &amp; AB40 &amp; "#" &amp;AD40 &amp; "#" &amp; AE40</f>
+        <f t="shared" ref="AF40:AF49" si="16">AA40 &amp; "#" &amp;  AC40 &amp; "#" &amp; AB40 &amp; "#" &amp;AD40 &amp; "#" &amp; AE40</f>
         <v>20##0.1##0.1</v>
       </c>
       <c r="AG40" s="125">
@@ -26771,6 +27508,10 @@
       </c>
       <c r="AI40" s="127" t="str">
         <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$F1001, 5), "")</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH40, $B$1:$G1001, 6), "")</f>
         <v/>
       </c>
     </row>
@@ -26787,11 +27528,11 @@
         <f>IFERROR(VLOOKUP($B41, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B41, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B41, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="143">
+      <c r="E41" s="141">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F41" s="143">
+      <c r="F41" s="141">
         <f>IFERROR((E41 + Params!$B$3^2/(2 * C41))/(1 + Params!$B$3^2/C41), NA())</f>
         <v>0.22744829304759534</v>
       </c>
@@ -26815,11 +27556,11 @@
       </c>
       <c r="AC41" s="56"/>
       <c r="AD41" s="56"/>
-      <c r="AE41" s="141">
+      <c r="AE41" s="139">
         <v>0.1</v>
       </c>
       <c r="AF41" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.2##0.1</v>
       </c>
       <c r="AG41" s="125">
@@ -26834,11 +27575,15 @@
         <f ca="1">IFERROR(VLOOKUP(AH41, $B$1:$F1002, 5), "")</f>
         <v>0.16338328226733051</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH41, $B$1:$G1002, 6), "")</f>
+        <v>8.6364668187580054E-2</v>
+      </c>
+      <c r="AK41">
         <v>11002</v>
       </c>
-      <c r="AK41" s="127" t="str">
-        <f>IFERROR(VLOOKUP(AJ41, $B$1:$F1002, 5), "")</f>
+      <c r="AL41" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AK41, $B$1:$F1002, 5), "")</f>
         <v/>
       </c>
     </row>
@@ -26855,11 +27600,11 @@
         <f>IFERROR(VLOOKUP($B42, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B42, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B42, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E42" s="143">
+      <c r="E42" s="141">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="F42" s="143">
+      <c r="F42" s="141">
         <f>IFERROR((E42 + Params!$B$3^2/(2 * C42))/(1 + Params!$B$3^2/C42), NA())</f>
         <v>0.53893595813605788</v>
       </c>
@@ -26883,11 +27628,11 @@
       </c>
       <c r="AC42" s="125"/>
       <c r="AD42" s="125"/>
-      <c r="AE42" s="141">
+      <c r="AE42" s="139">
         <v>0.1</v>
       </c>
       <c r="AF42" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.3##0.1</v>
       </c>
       <c r="AG42" s="125">
@@ -26901,6 +27646,10 @@
       <c r="AI42" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$F1003, 5), "")</f>
         <v>0.27463108842782646</v>
+      </c>
+      <c r="AJ42" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH42, $B$1:$G1003, 6), "")</f>
+        <v>0.15966951112455921</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -26916,11 +27665,11 @@
         <f>IFERROR(VLOOKUP($B43, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B43, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B43, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E43" s="143">
+      <c r="E43" s="141">
         <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="F43" s="143">
+      <c r="F43" s="141">
         <f>IFERROR((E43 + Params!$B$3^2/(2 * C43))/(1 + Params!$B$3^2/C43), NA())</f>
         <v>0.53368909012505383</v>
       </c>
@@ -26944,11 +27693,11 @@
       </c>
       <c r="AC43" s="125"/>
       <c r="AD43" s="125"/>
-      <c r="AE43" s="141">
+      <c r="AE43" s="139">
         <v>0.1</v>
       </c>
       <c r="AF43" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.4##0.1</v>
       </c>
       <c r="AG43" s="125">
@@ -26962,6 +27711,10 @@
       <c r="AI43" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$F1004, 5), "")</f>
         <v>0.23995894818595365</v>
+      </c>
+      <c r="AJ43" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH43, $B$1:$G1004, 6), "")</f>
+        <v>0.1513544071794288</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -26977,11 +27730,11 @@
         <f>IFERROR(VLOOKUP($B44, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B44, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B44, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E44" s="143">
+      <c r="E44" s="141">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F44" s="143">
+      <c r="F44" s="141">
         <f>IFERROR((E44 + Params!$B$3^2/(2 * C44))/(1 + Params!$B$3^2/C44), NA())</f>
         <v>0.63835596221959856</v>
       </c>
@@ -27005,11 +27758,11 @@
       </c>
       <c r="AC44" s="125"/>
       <c r="AD44" s="125"/>
-      <c r="AE44" s="141">
+      <c r="AE44" s="139">
         <v>0.1</v>
       </c>
       <c r="AF44" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.5##0.1</v>
       </c>
       <c r="AG44" s="125">
@@ -27023,6 +27776,10 @@
       <c r="AI44" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$F1005, 5), "")</f>
         <v>0.13594252746033506</v>
+      </c>
+      <c r="AJ44" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH44, $B$1:$G1005, 6), "")</f>
+        <v>0.11372259376924314</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -27038,11 +27795,11 @@
         <f>IFERROR(VLOOKUP($B45, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B45, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B45, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>20</v>
       </c>
-      <c r="E45" s="143">
+      <c r="E45" s="141">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F45" s="143">
+      <c r="F45" s="141">
         <f>IFERROR((E45 + Params!$B$3^2/(2 * C45))/(1 + Params!$B$3^2/C45), NA())</f>
         <v>0.40713500341743192</v>
       </c>
@@ -27066,11 +27823,11 @@
       </c>
       <c r="AC45" s="125"/>
       <c r="AD45" s="125"/>
-      <c r="AE45" s="141">
+      <c r="AE45" s="139">
         <v>0.1</v>
       </c>
       <c r="AF45" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.6##0.1</v>
       </c>
       <c r="AG45" s="125">
@@ -27081,9 +27838,13 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG45-1, 0)</f>
         <v>11006</v>
       </c>
-      <c r="AI45" s="127" t="str">
+      <c r="AI45" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$F1006, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ45" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH45, $B$1:$G1006, 6), "")</f>
+        <v>0.39672835426305358</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -27099,11 +27860,11 @@
         <f>IFERROR(VLOOKUP($B46, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B46, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B46, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="143" t="e">
+      <c r="E46" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F46" s="143" t="e">
+      <c r="F46" s="141" t="e">
         <f>IFERROR((E46 + Params!$B$3^2/(2 * C46))/(1 + Params!$B$3^2/C46), NA())</f>
         <v>#N/A</v>
       </c>
@@ -27127,11 +27888,11 @@
       </c>
       <c r="AC46" s="125"/>
       <c r="AD46" s="125"/>
-      <c r="AE46" s="141">
+      <c r="AE46" s="139">
         <v>0.1</v>
       </c>
       <c r="AF46" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.7##0.1</v>
       </c>
       <c r="AG46" s="125">
@@ -27144,6 +27905,10 @@
       </c>
       <c r="AI46" s="127" t="str">
         <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$F1007, 5), "")</f>
+        <v/>
+      </c>
+      <c r="AJ46" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH46, $B$1:$G1007, 6), "")</f>
         <v/>
       </c>
     </row>
@@ -27160,11 +27925,11 @@
         <f>IFERROR(VLOOKUP($B47, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B47, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B47, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="143">
+      <c r="E47" s="141">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="143">
+      <c r="F47" s="141">
         <f>IFERROR((E47 + Params!$B$3^2/(2 * C47))/(1 + Params!$B$3^2/C47), NA())</f>
         <v>0.14957637677547969</v>
       </c>
@@ -27188,11 +27953,11 @@
       </c>
       <c r="AC47" s="125"/>
       <c r="AD47" s="125"/>
-      <c r="AE47" s="141">
+      <c r="AE47" s="139">
         <v>0.1</v>
       </c>
       <c r="AF47" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.8##0.1</v>
       </c>
       <c r="AG47" s="125">
@@ -27203,9 +27968,13 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG47-1, 0)</f>
         <v>11008</v>
       </c>
-      <c r="AI47" s="127" t="str">
+      <c r="AI47" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$F1008, 5), "")</f>
-        <v/>
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ47" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH47, $B$1:$G1008, 6), "")</f>
+        <v>0.39672835426305358</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -27221,11 +27990,11 @@
         <f>IFERROR(VLOOKUP($B48, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B48, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B48, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E48" s="143">
+      <c r="E48" s="141">
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F48" s="143">
+      <c r="F48" s="141">
         <f>IFERROR((E48 + Params!$B$3^2/(2 * C48))/(1 + Params!$B$3^2/C48), NA())</f>
         <v>0.22744829304759534</v>
       </c>
@@ -27249,11 +28018,11 @@
       </c>
       <c r="AC48" s="125"/>
       <c r="AD48" s="125"/>
-      <c r="AE48" s="141">
+      <c r="AE48" s="139">
         <v>0.1</v>
       </c>
       <c r="AF48" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##0.9##0.1</v>
       </c>
       <c r="AG48" s="125">
@@ -27264,43 +28033,47 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG48-1, 0)</f>
         <v>11009</v>
       </c>
-      <c r="AI48" s="127" t="str">
+      <c r="AI48" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$F1009, 5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ48" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH48, $B$1:$G1009, 6), "")</f>
+        <v>0.39672835426305358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="125"/>
       <c r="B49" s="56">
         <v>9039</v>
       </c>
       <c r="C49" s="125">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="125">
         <f>IFERROR(VLOOKUP($B49, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B49, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B49, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E49" s="143">
+      <c r="E49" s="141">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="F49" s="143">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F49" s="141">
         <f>IFERROR((E49 + Params!$B$3^2/(2 * C49))/(1 + Params!$B$3^2/C49), NA())</f>
-        <v>0.58444804756114044</v>
+        <v>0.53893595813605788</v>
       </c>
       <c r="G49" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C49))*SQRT(E49*(1-E49)/C49 + (Params!$B$3/(2*C49))^2), NA())</f>
-        <v>0.27871019297733857</v>
+        <v>0.27228861239202817</v>
       </c>
       <c r="H49" s="127">
         <f t="shared" si="1"/>
-        <v>0.30573785458380187</v>
+        <v>0.26664734574402971</v>
       </c>
       <c r="I49" s="127">
         <f t="shared" si="2"/>
-        <v>0.863158240538479</v>
+        <v>0.81122457052808605</v>
       </c>
       <c r="AA49" s="125">
         <v>20</v>
@@ -27310,11 +28083,11 @@
       </c>
       <c r="AC49" s="125"/>
       <c r="AD49" s="125"/>
-      <c r="AE49" s="141">
+      <c r="AE49" s="139">
         <v>0.1</v>
       </c>
       <c r="AF49" s="125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20##1##0.1</v>
       </c>
       <c r="AG49" s="125">
@@ -27329,8 +28102,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$F1010, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ49" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH49, $B$1:$G1010, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:38" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="125"/>
       <c r="B50" s="56">
         <v>9040</v>
@@ -27343,11 +28120,11 @@
         <f>IFERROR(VLOOKUP($B50, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B50, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B50, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E50" s="143">
+      <c r="E50" s="141">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F50" s="143">
+      <c r="F50" s="141">
         <f>IFERROR((E50 + Params!$B$3^2/(2 * C50))/(1 + Params!$B$3^2/C50), NA())</f>
         <v>0.45388134592680052</v>
       </c>
@@ -27364,7 +28141,7 @@
         <v>0.74954576959097419</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:38" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="125"/>
       <c r="B51" s="56">
         <v>9041</v>
@@ -27377,11 +28154,11 @@
         <f>IFERROR(VLOOKUP($B51, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B51, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B51, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E51" s="143">
+      <c r="E51" s="141">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F51" s="143">
+      <c r="F51" s="141">
         <f>IFERROR((E51 + Params!$B$3^2/(2 * C51))/(1 + Params!$B$3^2/C51), NA())</f>
         <v>0.41555195243885962</v>
       </c>
@@ -27398,7 +28175,7 @@
         <v>0.69426214541619813</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:38" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="125"/>
       <c r="B52" s="56">
         <v>9042</v>
@@ -27411,11 +28188,11 @@
         <f>IFERROR(VLOOKUP($B52, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B52, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B52, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E52" s="143">
+      <c r="E52" s="141">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F52" s="143">
+      <c r="F52" s="141">
         <f>IFERROR((E52 + Params!$B$3^2/(2 * C52))/(1 + Params!$B$3^2/C52), NA())</f>
         <v>0.24665585731657882</v>
       </c>
@@ -27432,7 +28209,7 @@
         <v>0.47089480576986154</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="125"/>
       <c r="B53" s="56">
         <v>9043</v>
@@ -27445,11 +28222,11 @@
         <f>IFERROR(VLOOKUP($B53, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B53, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B53, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="143" t="e">
+      <c r="E53" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="143" t="e">
+      <c r="F53" s="141" t="e">
         <f>IFERROR((E53 + Params!$B$3^2/(2 * C53))/(1 + Params!$B$3^2/C53), NA())</f>
         <v>#N/A</v>
       </c>
@@ -27492,8 +28269,11 @@
       <c r="AI53" s="125" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ53" s="125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="125"/>
       <c r="B54" s="56">
         <v>9044</v>
@@ -27506,11 +28286,11 @@
         <f>IFERROR(VLOOKUP($B54, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B54, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B54, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E54" s="143">
+      <c r="E54" s="141">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F54" s="143">
+      <c r="F54" s="141">
         <f>IFERROR((E54 + Params!$B$3^2/(2 * C54))/(1 + Params!$B$3^2/C54), NA())</f>
         <v>0.33110390487771924</v>
       </c>
@@ -27534,7 +28314,7 @@
       <c r="AD54" s="132">
         <v>0</v>
       </c>
-      <c r="AE54" s="141">
+      <c r="AE54" s="139">
         <v>0.1</v>
       </c>
       <c r="AF54" s="125" t="str">
@@ -27549,12 +28329,16 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG54-1, 0)</f>
         <v>12000</v>
       </c>
-      <c r="AI54" s="127" t="str">
+      <c r="AI54" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$F1015, 5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ54" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH54, $B$1:$G1015, 6), "")</f>
+        <v>0.39672835426305358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="125"/>
       <c r="B55" s="56">
         <v>9045</v>
@@ -27567,11 +28351,11 @@
         <f>IFERROR(VLOOKUP($B55, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B55, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B55, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E55" s="143">
+      <c r="E55" s="141">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F55" s="143">
+      <c r="F55" s="141">
         <f>IFERROR((E55 + Params!$B$3^2/(2 * C55))/(1 + Params!$B$3^2/C55), NA())</f>
         <v>0.38319212559182658</v>
       </c>
@@ -27595,11 +28379,11 @@
       <c r="AD55" s="132">
         <v>0.1</v>
       </c>
-      <c r="AE55" s="141">
+      <c r="AE55" s="139">
         <v>0.1</v>
       </c>
       <c r="AF55" s="125" t="str">
-        <f t="shared" ref="AF55:AF64" si="16">AA55 &amp; "#" &amp;  AC55 &amp; "#" &amp; AB55 &amp; "#" &amp;AD55 &amp; "#" &amp; AE55</f>
+        <f t="shared" ref="AF55:AF64" si="17">AA55 &amp; "#" &amp;  AC55 &amp; "#" &amp; AB55 &amp; "#" &amp;AD55 &amp; "#" &amp; AE55</f>
         <v>#20##0.1#0.1</v>
       </c>
       <c r="AG55" s="125">
@@ -27614,8 +28398,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$F1016, 5), "")</f>
         <v>0.20528680794408075</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ55" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH55, $B$1:$G1016, 6), "")</f>
+        <v>0.14125333185830088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="125"/>
       <c r="B56" s="56">
         <v>9046</v>
@@ -27628,11 +28416,11 @@
         <f>IFERROR(VLOOKUP($B56, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B56, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B56, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E56" s="143">
+      <c r="E56" s="141">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="F56" s="143">
+      <c r="F56" s="141">
         <f>IFERROR((E56 + Params!$B$3^2/(2 * C56))/(1 + Params!$B$3^2/C56), NA())</f>
         <v>0.5722459831233383</v>
       </c>
@@ -27656,11 +28444,11 @@
       <c r="AD56" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE56" s="141">
+      <c r="AE56" s="139">
         <v>0.1</v>
       </c>
       <c r="AF56" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.2#0.1</v>
       </c>
       <c r="AG56" s="125">
@@ -27675,15 +28463,19 @@
         <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$F1017, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-      <c r="AJ56">
+      <c r="AJ56" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH56, $B$1:$G1017, 6), "")</f>
+        <v>0.12771091409769464</v>
+      </c>
+      <c r="AK56">
         <v>12002</v>
       </c>
-      <c r="AK56" s="127">
-        <f>IFERROR(VLOOKUP(AJ56, $B$1:$F1017, 5), "")</f>
+      <c r="AL56" s="127">
+        <f>IFERROR(VLOOKUP(AK56, $B$1:$F1017, 5), "")</f>
         <v>0.17061466770220793</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="125"/>
       <c r="B57" s="56">
         <v>9047</v>
@@ -27696,11 +28488,11 @@
         <f>IFERROR(VLOOKUP($B57, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B57, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B57, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E57" s="143">
+      <c r="E57" s="141">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="F57" s="143">
+      <c r="F57" s="141">
         <f>IFERROR((E57 + Params!$B$3^2/(2 * C57))/(1 + Params!$B$3^2/C57), NA())</f>
         <v>0.53893595813605788</v>
       </c>
@@ -27724,11 +28516,11 @@
       <c r="AD57" s="132">
         <v>0.3</v>
       </c>
-      <c r="AE57" s="141">
+      <c r="AE57" s="139">
         <v>0.1</v>
       </c>
       <c r="AF57" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.3#0.1</v>
       </c>
       <c r="AG57" s="125">
@@ -27743,8 +28535,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$F1018, 5), "")</f>
         <v>0.13594252746033506</v>
       </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ57" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH57, $B$1:$G1018, 6), "")</f>
+        <v>0.11372259376924314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="125"/>
       <c r="B58" s="56">
         <v>9048</v>
@@ -27757,11 +28553,11 @@
         <f>IFERROR(VLOOKUP($B58, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B58, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B58, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E58" s="143">
+      <c r="E58" s="141">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F58" s="143">
+      <c r="F58" s="141">
         <f>IFERROR((E58 + Params!$B$3^2/(2 * C58))/(1 + Params!$B$3^2/C58), NA())</f>
         <v>0.33034744842562436</v>
       </c>
@@ -27785,11 +28581,11 @@
       <c r="AD58" s="132">
         <v>0.4</v>
       </c>
-      <c r="AE58" s="141">
+      <c r="AE58" s="139">
         <v>0.1</v>
       </c>
       <c r="AF58" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.4#0.1</v>
       </c>
       <c r="AG58" s="125">
@@ -27804,8 +28600,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$F1019, 5), "")</f>
         <v>0.13594252746033506</v>
       </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ58" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH58, $B$1:$G1019, 6), "")</f>
+        <v>0.11372259376924314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="125"/>
       <c r="B59" s="56">
         <v>10000</v>
@@ -27818,11 +28618,11 @@
         <f>IFERROR(VLOOKUP($B59, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B59, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B59, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E59" s="143">
+      <c r="E59" s="141">
         <f t="shared" si="0"/>
         <v>0.20512820512820512</v>
       </c>
-      <c r="F59" s="143">
+      <c r="F59" s="141">
         <f>IFERROR((E59 + Params!$B$3^2/(2 * C59))/(1 + Params!$B$3^2/C59), NA())</f>
         <v>0.23156931580519868</v>
       </c>
@@ -27846,11 +28646,11 @@
       <c r="AD59" s="132">
         <v>0.5</v>
       </c>
-      <c r="AE59" s="141">
+      <c r="AE59" s="139">
         <v>0.1</v>
       </c>
       <c r="AF59" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.5#0.1</v>
       </c>
       <c r="AG59" s="125">
@@ -27865,8 +28665,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$F1020, 5), "")</f>
         <v>0.17061466770220793</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ59" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH59, $B$1:$G1020, 6), "")</f>
+        <v>0.12894725413152699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="125"/>
       <c r="B60" s="56">
         <v>10001</v>
@@ -27879,11 +28683,11 @@
         <f>IFERROR(VLOOKUP($B60, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B60, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B60, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E60" s="143">
+      <c r="E60" s="141">
         <f t="shared" si="0"/>
         <v>2.564102564102564E-2</v>
       </c>
-      <c r="F60" s="143">
+      <c r="F60" s="141">
         <f>IFERROR((E60 + Params!$B$3^2/(2 * C60))/(1 + Params!$B$3^2/C60), NA())</f>
         <v>6.8176725425754411E-2</v>
       </c>
@@ -27907,11 +28711,11 @@
       <c r="AD60" s="132">
         <v>0.6</v>
       </c>
-      <c r="AE60" s="141">
+      <c r="AE60" s="139">
         <v>0.1</v>
       </c>
       <c r="AF60" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.6#0.1</v>
       </c>
       <c r="AG60" s="125">
@@ -27922,12 +28726,16 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG60-1, 0)</f>
         <v>12006</v>
       </c>
-      <c r="AI60" s="127" t="str">
+      <c r="AI60" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$F1021, 5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ60" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH60, $B$1:$G1021, 6), "")</f>
+        <v>0.39672835426305358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="125"/>
       <c r="B61" s="56">
         <v>10002</v>
@@ -27940,11 +28748,11 @@
         <f>IFERROR(VLOOKUP($B61, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B61, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B61, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E61" s="143">
+      <c r="E61" s="141">
         <f t="shared" si="0"/>
         <v>0.16129032258064516</v>
       </c>
-      <c r="F61" s="143">
+      <c r="F61" s="141">
         <f>IFERROR((E61 + Params!$B$3^2/(2 * C61))/(1 + Params!$B$3^2/C61), NA())</f>
         <v>0.19863611315209401</v>
       </c>
@@ -27968,11 +28776,11 @@
       <c r="AD61" s="132">
         <v>0.7</v>
       </c>
-      <c r="AE61" s="141">
+      <c r="AE61" s="139">
         <v>0.1</v>
       </c>
       <c r="AF61" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.7#0.1</v>
       </c>
       <c r="AG61" s="125">
@@ -27983,12 +28791,16 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG61-1, 0)</f>
         <v>12007</v>
       </c>
-      <c r="AI61" s="127" t="str">
+      <c r="AI61" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$F1022, 5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="AJ61" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH61, $B$1:$G1022, 6), "")</f>
+        <v>0.39672835426305358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="125"/>
       <c r="B62" s="56">
         <v>10003</v>
@@ -28001,11 +28813,11 @@
         <f>IFERROR(VLOOKUP($B62, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B62, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B62, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E62" s="143">
+      <c r="E62" s="141">
         <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
-      <c r="F62" s="143">
+      <c r="F62" s="141">
         <f>IFERROR((E62 + Params!$B$3^2/(2 * C62))/(1 + Params!$B$3^2/C62), NA())</f>
         <v>0.1699347905951506</v>
       </c>
@@ -28029,11 +28841,11 @@
       <c r="AD62" s="132">
         <v>0.8</v>
       </c>
-      <c r="AE62" s="141">
+      <c r="AE62" s="139">
         <v>0.1</v>
       </c>
       <c r="AF62" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.8#0.1</v>
       </c>
       <c r="AG62" s="125">
@@ -28044,12 +28856,16 @@
         <f ca="1">OFFSET(Defaults_4000!$B$1, AG62-1, 0)</f>
         <v>12008</v>
       </c>
-      <c r="AI62" s="127" t="str">
+      <c r="AI62" s="127">
         <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$F1023, 5), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="AJ62" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH62, $B$1:$G1023, 6), "")</f>
+        <v>0.39672835426305358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="125"/>
       <c r="B63" s="56">
         <v>10004</v>
@@ -28062,11 +28878,11 @@
         <f>IFERROR(VLOOKUP($B63, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B63, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B63, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E63" s="143">
+      <c r="E63" s="141">
         <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F63" s="143">
+      <c r="F63" s="141">
         <f>IFERROR((E63 + Params!$B$3^2/(2 * C63))/(1 + Params!$B$3^2/C63), NA())</f>
         <v>8.3830822924320328E-2</v>
       </c>
@@ -28090,11 +28906,11 @@
       <c r="AD63" s="132">
         <v>0.9</v>
       </c>
-      <c r="AE63" s="141">
+      <c r="AE63" s="139">
         <v>0.1</v>
       </c>
       <c r="AF63" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##0.9#0.1</v>
       </c>
       <c r="AG63" s="125">
@@ -28109,8 +28925,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$F1024, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ63" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH63, $B$1:$G1024, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="125"/>
       <c r="B64" s="56">
         <v>10005</v>
@@ -28123,11 +28943,11 @@
         <f>IFERROR(VLOOKUP($B64, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B64, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B64, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E64" s="143">
+      <c r="E64" s="141">
         <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="F64" s="143">
+      <c r="F64" s="141">
         <f>IFERROR((E64 + Params!$B$3^2/(2 * C64))/(1 + Params!$B$3^2/C64), NA())</f>
         <v>8.3830822924320328E-2</v>
       </c>
@@ -28151,11 +28971,11 @@
       <c r="AD64" s="132">
         <v>1</v>
       </c>
-      <c r="AE64" s="141">
+      <c r="AE64" s="139">
         <v>0.1</v>
       </c>
       <c r="AF64" s="125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#20##1#0.1</v>
       </c>
       <c r="AG64" s="125">
@@ -28170,8 +28990,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$F1025, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ64" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH64, $B$1:$G1025, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="125"/>
       <c r="B65" s="56">
         <v>10006</v>
@@ -28184,11 +29008,11 @@
         <f>IFERROR(VLOOKUP($B65, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B65, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B65, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="143" t="e">
+      <c r="E65" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="143" t="e">
+      <c r="F65" s="141" t="e">
         <f>IFERROR((E65 + Params!$B$3^2/(2 * C65))/(1 + Params!$B$3^2/C65), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28205,7 +29029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="125"/>
       <c r="B66" s="56">
         <v>10007</v>
@@ -28218,11 +29042,11 @@
         <f>IFERROR(VLOOKUP($B66, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B66, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B66, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="143" t="e">
+      <c r="E66" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="143" t="e">
+      <c r="F66" s="141" t="e">
         <f>IFERROR((E66 + Params!$B$3^2/(2 * C66))/(1 + Params!$B$3^2/C66), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28239,41 +29063,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="125"/>
       <c r="B67" s="56">
         <v>11000</v>
       </c>
       <c r="C67" s="125">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="125">
         <f>IFERROR(VLOOKUP($B67, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B67, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B67, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E67" s="143" t="e">
-        <f t="shared" ref="E67:E130" si="17">IFERROR(D67/C67, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" s="143" t="e">
+      <c r="E67" s="141">
+        <f t="shared" ref="E67:E130" si="18">IFERROR(D67/C67, NA())</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="141">
         <f>IFERROR((E67 + Params!$B$3^2/(2 * C67))/(1 + Params!$B$3^2/C67), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G67" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C67))*SQRT(E67*(1-E67)/C67 + (Params!$B$3/(2*C67))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H67" s="127" t="e">
-        <f t="shared" ref="H67:H130" si="18">F67-G67</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" s="127" t="e">
-        <f t="shared" ref="I67:I130" si="19">F67+G67</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H67" s="127">
+        <f t="shared" ref="H67:H130" si="19">F67-G67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="127">
+        <f t="shared" ref="I67:I130" si="20">F67+G67</f>
+        <v>0.79345670852610706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="125"/>
       <c r="B68" s="56">
         <v>11001</v>
@@ -28286,11 +29110,11 @@
         <f>IFERROR(VLOOKUP($B68, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B68, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B68, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" s="143" t="e">
+      <c r="E68" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="141" t="e">
         <f>IFERROR((E68 + Params!$B$3^2/(2 * C68))/(1 + Params!$B$3^2/C68), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28299,11 +29123,11 @@
         <v>#N/A</v>
       </c>
       <c r="H68" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I68" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA68" s="125" t="s">
@@ -28333,8 +29157,11 @@
       <c r="AI68" s="125" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ68" s="125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="125"/>
       <c r="B69" s="56">
         <v>11002</v>
@@ -28347,11 +29174,11 @@
         <f>IFERROR(VLOOKUP($B69, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B69, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B69, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E69" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F69" s="143" t="e">
+      <c r="E69" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="141" t="e">
         <f>IFERROR((E69 + Params!$B$3^2/(2 * C69))/(1 + Params!$B$3^2/C69), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28360,11 +29187,11 @@
         <v>#N/A</v>
       </c>
       <c r="H69" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I69" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA69" s="125">
@@ -28375,7 +29202,7 @@
       </c>
       <c r="AC69" s="125"/>
       <c r="AD69" s="125"/>
-      <c r="AE69" s="142">
+      <c r="AE69" s="140">
         <v>0.01</v>
       </c>
       <c r="AF69" s="125" t="str">
@@ -28394,8 +29221,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$F1030, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ69" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH69, $B$1:$G1030, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="125"/>
       <c r="B70" s="56">
         <v>11003</v>
@@ -28408,11 +29239,11 @@
         <f>IFERROR(VLOOKUP($B70, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B70, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B70, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E70" s="143">
-        <f t="shared" si="17"/>
+      <c r="E70" s="141">
+        <f t="shared" si="18"/>
         <v>0.24</v>
       </c>
-      <c r="F70" s="143">
+      <c r="F70" s="141">
         <f>IFERROR((E70 + Params!$B$3^2/(2 * C70))/(1 + Params!$B$3^2/C70), NA())</f>
         <v>0.27463108842782646</v>
       </c>
@@ -28421,11 +29252,11 @@
         <v>0.15966951112455921</v>
       </c>
       <c r="H70" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.11496157730326725</v>
       </c>
       <c r="I70" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43430059955238565</v>
       </c>
       <c r="AA70" s="125">
@@ -28436,11 +29267,11 @@
       </c>
       <c r="AC70" s="125"/>
       <c r="AD70" s="125"/>
-      <c r="AE70" s="142">
+      <c r="AE70" s="140">
         <v>0.1</v>
       </c>
       <c r="AF70" s="125" t="str">
-        <f t="shared" ref="AF70:AF72" si="20">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
+        <f t="shared" ref="AF70:AF72" si="21">AA70 &amp; "#" &amp;  AC70 &amp; "#" &amp; AB70 &amp; "#" &amp;AD70 &amp; "#" &amp; AE70</f>
         <v>20##0.2##0.1</v>
       </c>
       <c r="AG70" s="125">
@@ -28455,8 +29286,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$F1031, 5), "")</f>
         <v>0.16338328226733051</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ70" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH70, $B$1:$G1031, 6), "")</f>
+        <v>8.6364668187580054E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="125"/>
       <c r="B71" s="56">
         <v>11004</v>
@@ -28469,11 +29304,11 @@
         <f>IFERROR(VLOOKUP($B71, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B71, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B71, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E71" s="143">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
-      </c>
-      <c r="F71" s="143">
+      <c r="E71" s="141">
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="141">
         <f>IFERROR((E71 + Params!$B$3^2/(2 * C71))/(1 + Params!$B$3^2/C71), NA())</f>
         <v>0.23995894818595365</v>
       </c>
@@ -28482,11 +29317,11 @@
         <v>0.1513544071794288</v>
       </c>
       <c r="H71" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8604541006524845E-2</v>
       </c>
       <c r="I71" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.39131335536538248</v>
       </c>
       <c r="AA71" s="125">
@@ -28497,11 +29332,11 @@
       </c>
       <c r="AC71" s="56"/>
       <c r="AD71" s="56"/>
-      <c r="AE71" s="142">
+      <c r="AE71" s="140">
         <v>1</v>
       </c>
       <c r="AF71" s="125" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20##0.2##1</v>
       </c>
       <c r="AG71" s="125">
@@ -28516,8 +29351,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$F1032, 5), "")</f>
         <v>0.23995894818595365</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ71" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH71, $B$1:$G1032, 6), "")</f>
+        <v>0.1513544071794288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="125"/>
       <c r="B72" s="56">
         <v>11005</v>
@@ -28530,11 +29369,11 @@
         <f>IFERROR(VLOOKUP($B72, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B72, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B72, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E72" s="143">
-        <f t="shared" si="17"/>
+      <c r="E72" s="141">
+        <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
-      <c r="F72" s="143">
+      <c r="F72" s="141">
         <f>IFERROR((E72 + Params!$B$3^2/(2 * C72))/(1 + Params!$B$3^2/C72), NA())</f>
         <v>0.13594252746033506</v>
       </c>
@@ -28543,11 +29382,11 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H72" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I72" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24966512122957818</v>
       </c>
       <c r="AA72" s="125">
@@ -28558,11 +29397,11 @@
       </c>
       <c r="AC72" s="125"/>
       <c r="AD72" s="125"/>
-      <c r="AE72" s="142">
+      <c r="AE72" s="140">
         <v>10</v>
       </c>
       <c r="AF72" s="125" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20##0.2##10</v>
       </c>
       <c r="AG72" s="125">
@@ -28577,39 +29416,43 @@
         <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$F1033, 5), "")</f>
         <v>0.30930322866969934</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ72" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH72, $B$1:$G1033, 6), "")</f>
+        <v>0.16646649029588362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="125"/>
       <c r="B73" s="56">
         <v>11006</v>
       </c>
       <c r="C73" s="125">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="125">
         <f>IFERROR(VLOOKUP($B73, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B73, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B73, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F73" s="143" t="e">
+      <c r="E73" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="141">
         <f>IFERROR((E73 + Params!$B$3^2/(2 * C73))/(1 + Params!$B$3^2/C73), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G73" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C73))*SQRT(E73*(1-E73)/C73 + (Params!$B$3/(2*C73))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H73" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I73" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H73" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I73" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA73" s="125">
         <v>20</v>
@@ -28619,11 +29462,11 @@
       </c>
       <c r="AC73" s="125"/>
       <c r="AD73" s="125"/>
-      <c r="AE73" s="142">
+      <c r="AE73" s="140">
         <v>100</v>
       </c>
       <c r="AF73" s="125" t="str">
-        <f t="shared" ref="AF73" si="21">AA73 &amp; "#" &amp;  AC73 &amp; "#" &amp; AB73 &amp; "#" &amp;AD73 &amp; "#" &amp; AE73</f>
+        <f t="shared" ref="AF73" si="22">AA73 &amp; "#" &amp;  AC73 &amp; "#" &amp; AB73 &amp; "#" &amp;AD73 &amp; "#" &amp; AE73</f>
         <v>20##0.2##100</v>
       </c>
       <c r="AG73" s="125">
@@ -28638,8 +29481,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$F1034, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ73" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH73, $B$1:$G1034, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="125"/>
       <c r="B74" s="56">
         <v>11007</v>
@@ -28652,11 +29499,11 @@
         <f>IFERROR(VLOOKUP($B74, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B74, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B74, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F74" s="143" t="e">
+      <c r="E74" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F74" s="141" t="e">
         <f>IFERROR((E74 + Params!$B$3^2/(2 * C74))/(1 + Params!$B$3^2/C74), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28665,110 +29512,122 @@
         <v>#N/A</v>
       </c>
       <c r="H74" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I74" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA74" s="125"/>
       <c r="AB74" s="132"/>
       <c r="AC74" s="125"/>
       <c r="AD74" s="125"/>
-      <c r="AE74" s="142"/>
+      <c r="AE74" s="140"/>
       <c r="AF74" s="125"/>
       <c r="AG74" s="125"/>
       <c r="AH74" s="125"/>
       <c r="AI74" s="127"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ74" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH74, $B$1:$G1035, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="125"/>
       <c r="B75" s="56">
         <v>11008</v>
       </c>
       <c r="C75" s="125">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="125">
         <f>IFERROR(VLOOKUP($B75, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B75, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B75, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F75" s="143" t="e">
+      <c r="E75" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="141">
         <f>IFERROR((E75 + Params!$B$3^2/(2 * C75))/(1 + Params!$B$3^2/C75), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G75" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G75" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C75))*SQRT(E75*(1-E75)/C75 + (Params!$B$3/(2*C75))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H75" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I75" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H75" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I75" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA75" s="125"/>
       <c r="AB75" s="132"/>
       <c r="AC75" s="125"/>
       <c r="AD75" s="125"/>
-      <c r="AE75" s="142"/>
+      <c r="AE75" s="140"/>
       <c r="AF75" s="125"/>
       <c r="AG75" s="125"/>
       <c r="AH75" s="125"/>
       <c r="AI75" s="127"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ75" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH75, $B$1:$G1036, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="125"/>
       <c r="B76" s="56">
         <v>11009</v>
       </c>
       <c r="C76" s="125">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="125">
         <f>IFERROR(VLOOKUP($B76, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B76, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B76, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F76" s="143" t="e">
+      <c r="E76" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="141">
         <f>IFERROR((E76 + Params!$B$3^2/(2 * C76))/(1 + Params!$B$3^2/C76), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G76" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G76" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C76))*SQRT(E76*(1-E76)/C76 + (Params!$B$3/(2*C76))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H76" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I76" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H76" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I76" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA76" s="125"/>
       <c r="AB76" s="132"/>
       <c r="AC76" s="125"/>
       <c r="AD76" s="125"/>
-      <c r="AE76" s="142"/>
+      <c r="AE76" s="140"/>
       <c r="AF76" s="125"/>
       <c r="AG76" s="125"/>
       <c r="AH76" s="125"/>
       <c r="AI76" s="127"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ76" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH76, $B$1:$G1037, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="125"/>
       <c r="B77" s="56">
         <v>11010</v>
@@ -28781,11 +29640,11 @@
         <f>IFERROR(VLOOKUP($B77, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B77, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B77, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F77" s="143" t="e">
+      <c r="E77" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="141" t="e">
         <f>IFERROR((E77 + Params!$B$3^2/(2 * C77))/(1 + Params!$B$3^2/C77), NA())</f>
         <v>#N/A</v>
       </c>
@@ -28794,67 +29653,75 @@
         <v>#N/A</v>
       </c>
       <c r="H77" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I77" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA77" s="125"/>
       <c r="AB77" s="132"/>
       <c r="AC77" s="125"/>
       <c r="AD77" s="125"/>
-      <c r="AE77" s="142"/>
+      <c r="AE77" s="140"/>
       <c r="AF77" s="125"/>
       <c r="AG77" s="125"/>
       <c r="AH77" s="125"/>
       <c r="AI77" s="127"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ77" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH77, $B$1:$G1038, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="125"/>
       <c r="B78" s="56">
         <v>12000</v>
       </c>
       <c r="C78" s="125">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="125">
         <f>IFERROR(VLOOKUP($B78, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B78, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B78, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E78" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F78" s="143" t="e">
+      <c r="E78" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="141">
         <f>IFERROR((E78 + Params!$B$3^2/(2 * C78))/(1 + Params!$B$3^2/C78), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G78" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C78))*SQRT(E78*(1-E78)/C78 + (Params!$B$3/(2*C78))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I78" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H78" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I78" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA78" s="125"/>
       <c r="AB78" s="132"/>
       <c r="AC78" s="125"/>
       <c r="AD78" s="125"/>
-      <c r="AE78" s="142"/>
+      <c r="AE78" s="140"/>
       <c r="AF78" s="125"/>
       <c r="AG78" s="125"/>
       <c r="AH78" s="125"/>
       <c r="AI78" s="127"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ78" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH78, $B$1:$G1039, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="125"/>
       <c r="B79" s="56">
         <v>12001</v>
@@ -28867,11 +29734,11 @@
         <f>IFERROR(VLOOKUP($B79, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B79, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B79, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E79" s="143">
-        <f t="shared" si="17"/>
+      <c r="E79" s="141">
+        <f t="shared" si="18"/>
         <v>0.16</v>
       </c>
-      <c r="F79" s="143">
+      <c r="F79" s="141">
         <f>IFERROR((E79 + Params!$B$3^2/(2 * C79))/(1 + Params!$B$3^2/C79), NA())</f>
         <v>0.20528680794408075</v>
       </c>
@@ -28880,24 +29747,28 @@
         <v>0.14125333185830088</v>
       </c>
       <c r="H79" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4033476085779861E-2</v>
       </c>
       <c r="I79" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.34654013980238163</v>
       </c>
       <c r="AA79" s="125"/>
       <c r="AB79" s="132"/>
       <c r="AC79" s="125"/>
       <c r="AD79" s="125"/>
-      <c r="AE79" s="142"/>
+      <c r="AE79" s="140"/>
       <c r="AF79" s="125"/>
       <c r="AG79" s="125"/>
       <c r="AH79" s="125"/>
       <c r="AI79" s="127"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ79" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH79, $B$1:$G1040, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="125"/>
       <c r="B80" s="56">
         <v>12002</v>
@@ -28910,11 +29781,11 @@
         <f>IFERROR(VLOOKUP($B80, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B80, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B80, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B80, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E80" s="143">
-        <f t="shared" si="17"/>
+      <c r="E80" s="141">
+        <f t="shared" si="18"/>
         <v>0.12</v>
       </c>
-      <c r="F80" s="143">
+      <c r="F80" s="141">
         <f>IFERROR((E80 + Params!$B$3^2/(2 * C80))/(1 + Params!$B$3^2/C80), NA())</f>
         <v>0.17061466770220793</v>
       </c>
@@ -28923,15 +29794,15 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H80" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I80" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29956192183373492</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="125"/>
       <c r="B81" s="56">
         <v>12003</v>
@@ -28944,11 +29815,11 @@
         <f>IFERROR(VLOOKUP($B81, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B81, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B81, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E81" s="143">
-        <f t="shared" si="17"/>
+      <c r="E81" s="141">
+        <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
-      <c r="F81" s="143">
+      <c r="F81" s="141">
         <f>IFERROR((E81 + Params!$B$3^2/(2 * C81))/(1 + Params!$B$3^2/C81), NA())</f>
         <v>0.13594252746033506</v>
       </c>
@@ -28957,15 +29828,15 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H81" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I81" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="125"/>
       <c r="B82" s="56">
         <v>12004</v>
@@ -28978,11 +29849,11 @@
         <f>IFERROR(VLOOKUP($B82, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B82, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B82, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E82" s="143">
-        <f t="shared" si="17"/>
+      <c r="E82" s="141">
+        <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
-      <c r="F82" s="143">
+      <c r="F82" s="141">
         <f>IFERROR((E82 + Params!$B$3^2/(2 * C82))/(1 + Params!$B$3^2/C82), NA())</f>
         <v>0.13594252746033506</v>
       </c>
@@ -28991,15 +29862,15 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H82" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I82" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24966512122957818</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="125"/>
       <c r="B83" s="56">
         <v>12005</v>
@@ -29012,11 +29883,11 @@
         <f>IFERROR(VLOOKUP($B83, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B83, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B83, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E83" s="143">
-        <f t="shared" si="17"/>
+      <c r="E83" s="141">
+        <f t="shared" si="18"/>
         <v>0.12</v>
       </c>
-      <c r="F83" s="143">
+      <c r="F83" s="141">
         <f>IFERROR((E83 + Params!$B$3^2/(2 * C83))/(1 + Params!$B$3^2/C83), NA())</f>
         <v>0.17061466770220793</v>
       </c>
@@ -29025,11 +29896,11 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H83" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I83" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29956192183373492</v>
       </c>
       <c r="AA83" s="125" t="s">
@@ -29059,39 +29930,42 @@
       <c r="AI83" s="125" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ83" s="125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="125"/>
       <c r="B84" s="56">
         <v>12006</v>
       </c>
       <c r="C84" s="125">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="125">
         <f>IFERROR(VLOOKUP($B84, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B84, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B84, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E84" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="143" t="e">
+      <c r="E84" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="141">
         <f>IFERROR((E84 + Params!$B$3^2/(2 * C84))/(1 + Params!$B$3^2/C84), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G84" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C84))*SQRT(E84*(1-E84)/C84 + (Params!$B$3/(2*C84))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I84" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H84" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I84" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA84" s="125"/>
       <c r="AB84" s="132"/>
@@ -29101,7 +29975,7 @@
       <c r="AD84" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE84" s="142">
+      <c r="AE84" s="140">
         <v>0.01</v>
       </c>
       <c r="AF84" s="125" t="str">
@@ -29120,39 +29994,43 @@
         <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$F1045, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ84" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH84, $B$1:$G1045, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="125"/>
       <c r="B85" s="56">
         <v>12007</v>
       </c>
       <c r="C85" s="125">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="125">
         <f>IFERROR(VLOOKUP($B85, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B85, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B85, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="143" t="e">
+        <v>1</v>
+      </c>
+      <c r="E85" s="141">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="141">
         <f>IFERROR((E85 + Params!$B$3^2/(2 * C85))/(1 + Params!$B$3^2/C85), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="127" t="e">
+        <v>0.60327164573694647</v>
+      </c>
+      <c r="G85" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C85))*SQRT(E85*(1-E85)/C85 + (Params!$B$3/(2*C85))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H85" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0.20654329147389289</v>
+      </c>
+      <c r="I85" s="127">
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="AA85" s="125"/>
       <c r="AB85" s="132"/>
@@ -29162,11 +30040,11 @@
       <c r="AD85" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE85" s="142">
+      <c r="AE85" s="140">
         <v>0.1</v>
       </c>
       <c r="AF85" s="125" t="str">
-        <f t="shared" ref="AF85:AF88" si="22">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
+        <f t="shared" ref="AF85:AF88" si="23">AA85 &amp; "#" &amp;  AC85 &amp; "#" &amp; AB85 &amp; "#" &amp;AD85 &amp; "#" &amp; AE85</f>
         <v>#20##0.2#0.1</v>
       </c>
       <c r="AG85" s="125">
@@ -29181,39 +30059,43 @@
         <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$F1046, 5), "")</f>
         <v>0.19863611315209401</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ85" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH85, $B$1:$G1046, 6), "")</f>
+        <v>0.12771091409769464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="125"/>
       <c r="B86" s="56">
         <v>12008</v>
       </c>
       <c r="C86" s="125">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="125">
         <f>IFERROR(VLOOKUP($B86, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B86, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B86, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" s="143" t="e">
+      <c r="E86" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="141">
         <f>IFERROR((E86 + Params!$B$3^2/(2 * C86))/(1 + Params!$B$3^2/C86), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" s="127" t="e">
+        <v>0.39672835426305353</v>
+      </c>
+      <c r="G86" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C86))*SQRT(E86*(1-E86)/C86 + (Params!$B$3/(2*C86))^2), NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" s="127" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" s="127" t="e">
+        <v>0.39672835426305358</v>
+      </c>
+      <c r="H86" s="127">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="I86" s="127">
+        <f t="shared" si="20"/>
+        <v>0.79345670852610706</v>
       </c>
       <c r="AA86" s="125"/>
       <c r="AB86" s="132"/>
@@ -29223,11 +30105,11 @@
       <c r="AD86" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE86" s="142">
+      <c r="AE86" s="140">
         <v>1</v>
       </c>
       <c r="AF86" s="125" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#20##0.2#1</v>
       </c>
       <c r="AG86" s="125">
@@ -29242,8 +30124,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$F1047, 5), "")</f>
         <v>0.20528680794408075</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ86" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH86, $B$1:$G1047, 6), "")</f>
+        <v>0.14125333185830088</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="125"/>
       <c r="B87" s="56">
         <v>12009</v>
@@ -29256,11 +30142,11 @@
         <f>IFERROR(VLOOKUP($B87, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B87, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B87, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E87" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="143" t="e">
+      <c r="E87" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="141" t="e">
         <f>IFERROR((E87 + Params!$B$3^2/(2 * C87))/(1 + Params!$B$3^2/C87), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29269,11 +30155,11 @@
         <v>#N/A</v>
       </c>
       <c r="H87" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I87" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA87" s="125"/>
@@ -29284,11 +30170,11 @@
       <c r="AD87" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE87" s="142">
+      <c r="AE87" s="140">
         <v>10</v>
       </c>
       <c r="AF87" s="125" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#20##0.2#10</v>
       </c>
       <c r="AG87" s="125">
@@ -29303,8 +30189,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$F1048, 5), "")</f>
         <v>0.34397536891157215</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ87" s="127">
+        <f ca="1">IFERROR(VLOOKUP(AH87, $B$1:$G1048, 6), "")</f>
+        <v>0.17192549374266075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="125"/>
       <c r="B88" s="56">
         <v>12010</v>
@@ -29317,11 +30207,11 @@
         <f>IFERROR(VLOOKUP($B88, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B88, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B88, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E88" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="143" t="e">
+      <c r="E88" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="141" t="e">
         <f>IFERROR((E88 + Params!$B$3^2/(2 * C88))/(1 + Params!$B$3^2/C88), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29330,11 +30220,11 @@
         <v>#N/A</v>
       </c>
       <c r="H88" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I88" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA88" s="125"/>
@@ -29345,11 +30235,11 @@
       <c r="AD88" s="132">
         <v>0.2</v>
       </c>
-      <c r="AE88" s="142">
+      <c r="AE88" s="140">
         <v>100</v>
       </c>
       <c r="AF88" s="125" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#20##0.2#100</v>
       </c>
       <c r="AG88" s="125">
@@ -29364,8 +30254,12 @@
         <f ca="1">IFERROR(VLOOKUP(AH88, $B$1:$F1049, 5), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ88" s="127" t="str">
+        <f ca="1">IFERROR(VLOOKUP(AH88, $B$1:$G1049, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="125"/>
       <c r="B89" s="56">
         <v>13000</v>
@@ -29378,11 +30272,11 @@
         <f>IFERROR(VLOOKUP($B89, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B89, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B89, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E89" s="143">
-        <f t="shared" si="17"/>
+      <c r="E89" s="141">
+        <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
-      <c r="F89" s="143">
+      <c r="F89" s="141">
         <f>IFERROR((E89 + Params!$B$3^2/(2 * C89))/(1 + Params!$B$3^2/C89), NA())</f>
         <v>0.13594252746033506</v>
       </c>
@@ -29391,24 +30285,28 @@
         <v>0.11372259376924314</v>
       </c>
       <c r="H89" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2219933691091917E-2</v>
       </c>
       <c r="I89" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.24966512122957818</v>
       </c>
       <c r="AA89" s="125"/>
       <c r="AB89" s="132"/>
       <c r="AC89" s="125"/>
       <c r="AD89" s="132"/>
-      <c r="AE89" s="141"/>
+      <c r="AE89" s="139"/>
       <c r="AF89" s="125"/>
       <c r="AG89" s="125"/>
       <c r="AH89" s="125"/>
       <c r="AI89" s="127"/>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ89" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH89, $B$1:$G1050, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="125"/>
       <c r="B90" s="56">
         <v>13001</v>
@@ -29421,11 +30319,11 @@
         <f>IFERROR(VLOOKUP($B90, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B90, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B90, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E90" s="143">
-        <f t="shared" si="17"/>
-        <v>0.2</v>
-      </c>
-      <c r="F90" s="143">
+      <c r="E90" s="141">
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F90" s="141">
         <f>IFERROR((E90 + Params!$B$3^2/(2 * C90))/(1 + Params!$B$3^2/C90), NA())</f>
         <v>0.23995894818595365</v>
       </c>
@@ -29434,24 +30332,28 @@
         <v>0.1513544071794288</v>
       </c>
       <c r="H90" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.8604541006524845E-2</v>
       </c>
       <c r="I90" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.39131335536538248</v>
       </c>
       <c r="AA90" s="125"/>
       <c r="AB90" s="132"/>
       <c r="AC90" s="125"/>
       <c r="AD90" s="132"/>
-      <c r="AE90" s="141"/>
+      <c r="AE90" s="139"/>
       <c r="AF90" s="125"/>
       <c r="AG90" s="125"/>
       <c r="AH90" s="125"/>
       <c r="AI90" s="127"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ90" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH90, $B$1:$G1051, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="125"/>
       <c r="B91" s="56">
         <v>13002</v>
@@ -29464,11 +30366,11 @@
         <f>IFERROR(VLOOKUP($B91, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B91, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B91, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
-      <c r="E91" s="143">
-        <f t="shared" si="17"/>
+      <c r="E91" s="141">
+        <f t="shared" si="18"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="F91" s="143">
+      <c r="F91" s="141">
         <f>IFERROR((E91 + Params!$B$3^2/(2 * C91))/(1 + Params!$B$3^2/C91), NA())</f>
         <v>0.30930322866969934</v>
       </c>
@@ -29477,24 +30379,28 @@
         <v>0.16646649029588362</v>
       </c>
       <c r="H91" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14283673837381572</v>
       </c>
       <c r="I91" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.47576971896558296</v>
       </c>
       <c r="AA91" s="125"/>
       <c r="AB91" s="132"/>
       <c r="AC91" s="125"/>
       <c r="AD91" s="132"/>
-      <c r="AE91" s="141"/>
+      <c r="AE91" s="139"/>
       <c r="AF91" s="125"/>
       <c r="AG91" s="125"/>
       <c r="AH91" s="125"/>
       <c r="AI91" s="127"/>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ91" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH91, $B$1:$G1052, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="125"/>
       <c r="B92" s="56">
         <v>13003</v>
@@ -29507,11 +30413,11 @@
         <f>IFERROR(VLOOKUP($B92, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B92, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B92, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="143" t="e">
+      <c r="E92" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="141" t="e">
         <f>IFERROR((E92 + Params!$B$3^2/(2 * C92))/(1 + Params!$B$3^2/C92), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29520,24 +30426,28 @@
         <v>#N/A</v>
       </c>
       <c r="H92" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I92" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA92" s="125"/>
       <c r="AB92" s="132"/>
       <c r="AC92" s="125"/>
       <c r="AD92" s="132"/>
-      <c r="AE92" s="141"/>
+      <c r="AE92" s="139"/>
       <c r="AF92" s="125"/>
       <c r="AG92" s="125"/>
       <c r="AH92" s="125"/>
       <c r="AI92" s="127"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ92" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH92, $B$1:$G1053, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="125"/>
       <c r="B93" s="56">
         <v>13004</v>
@@ -29550,11 +30460,11 @@
         <f>IFERROR(VLOOKUP($B93, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B93, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B93, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B93, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E93" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="143" t="e">
+      <c r="E93" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="141" t="e">
         <f>IFERROR((E93 + Params!$B$3^2/(2 * C93))/(1 + Params!$B$3^2/C93), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29563,24 +30473,28 @@
         <v>#N/A</v>
       </c>
       <c r="H93" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I93" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA93" s="125"/>
       <c r="AB93" s="132"/>
       <c r="AC93" s="125"/>
       <c r="AD93" s="132"/>
-      <c r="AE93" s="141"/>
+      <c r="AE93" s="139"/>
       <c r="AF93" s="125"/>
       <c r="AG93" s="125"/>
       <c r="AH93" s="125"/>
       <c r="AI93" s="127"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ93" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH93, $B$1:$G1054, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="125"/>
       <c r="B94" s="56">
         <v>13005</v>
@@ -29593,11 +30507,11 @@
         <f>IFERROR(VLOOKUP($B94, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B94, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B94, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B94, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E94" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="143" t="e">
+      <c r="E94" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="141" t="e">
         <f>IFERROR((E94 + Params!$B$3^2/(2 * C94))/(1 + Params!$B$3^2/C94), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29606,24 +30520,28 @@
         <v>#N/A</v>
       </c>
       <c r="H94" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I94" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="AA94" s="125"/>
       <c r="AB94" s="132"/>
       <c r="AC94" s="125"/>
       <c r="AD94" s="132"/>
-      <c r="AE94" s="141"/>
+      <c r="AE94" s="139"/>
       <c r="AF94" s="125"/>
       <c r="AG94" s="125"/>
       <c r="AH94" s="125"/>
       <c r="AI94" s="127"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ94" s="127" t="str">
+        <f>IFERROR(VLOOKUP(AH94, $B$1:$G1055, 6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="125"/>
       <c r="B95" s="56">
         <v>13006</v>
@@ -29636,11 +30554,11 @@
         <f>IFERROR(VLOOKUP($B95, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B95, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B95, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B95, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E95" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="143" t="e">
+      <c r="E95" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="141" t="e">
         <f>IFERROR((E95 + Params!$B$3^2/(2 * C95))/(1 + Params!$B$3^2/C95), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29649,15 +30567,15 @@
         <v>#N/A</v>
       </c>
       <c r="H95" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I95" s="127" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="125"/>
       <c r="B96" s="56">
         <v>13007</v>
@@ -29670,11 +30588,11 @@
         <f>IFERROR(VLOOKUP($B96, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B96, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B96, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B96, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E96" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F96" s="143" t="e">
+      <c r="E96" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="141" t="e">
         <f>IFERROR((E96 + Params!$B$3^2/(2 * C96))/(1 + Params!$B$3^2/C96), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29683,11 +30601,11 @@
         <v>#N/A</v>
       </c>
       <c r="H96" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I96" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29704,11 +30622,11 @@
         <f>IFERROR(VLOOKUP($B97, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B97, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B97, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B97, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" s="143" t="e">
+      <c r="E97" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" s="141" t="e">
         <f>IFERROR((E97 + Params!$B$3^2/(2 * C97))/(1 + Params!$B$3^2/C97), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29717,11 +30635,11 @@
         <v>#N/A</v>
       </c>
       <c r="H97" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I97" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29738,11 +30656,11 @@
         <f>IFERROR(VLOOKUP($B98, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B98, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B98, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B98, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E98" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" s="143" t="e">
+      <c r="E98" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="141" t="e">
         <f>IFERROR((E98 + Params!$B$3^2/(2 * C98))/(1 + Params!$B$3^2/C98), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29751,11 +30669,11 @@
         <v>#N/A</v>
       </c>
       <c r="H98" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I98" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29772,11 +30690,11 @@
         <f>IFERROR(VLOOKUP($B99, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B99, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B99, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E99" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" s="143" t="e">
+      <c r="E99" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="141" t="e">
         <f>IFERROR((E99 + Params!$B$3^2/(2 * C99))/(1 + Params!$B$3^2/C99), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29785,11 +30703,11 @@
         <v>#N/A</v>
       </c>
       <c r="H99" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I99" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29806,11 +30724,11 @@
         <f>IFERROR(VLOOKUP($B100, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B100, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B100, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F100" s="143" t="e">
+      <c r="E100" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="141" t="e">
         <f>IFERROR((E100 + Params!$B$3^2/(2 * C100))/(1 + Params!$B$3^2/C100), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29819,11 +30737,11 @@
         <v>#N/A</v>
       </c>
       <c r="H100" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I100" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29840,11 +30758,11 @@
         <f>IFERROR(VLOOKUP($B101, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B101, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B101, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E101" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="143" t="e">
+      <c r="E101" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="141" t="e">
         <f>IFERROR((E101 + Params!$B$3^2/(2 * C101))/(1 + Params!$B$3^2/C101), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29853,11 +30771,11 @@
         <v>#N/A</v>
       </c>
       <c r="H101" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I101" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29874,11 +30792,11 @@
         <f>IFERROR(VLOOKUP($B102, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B102, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B102, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E102" s="143">
-        <f t="shared" si="17"/>
+      <c r="E102" s="141">
+        <f t="shared" si="18"/>
         <v>0.12</v>
       </c>
-      <c r="F102" s="143">
+      <c r="F102" s="141">
         <f>IFERROR((E102 + Params!$B$3^2/(2 * C102))/(1 + Params!$B$3^2/C102), NA())</f>
         <v>0.17061466770220793</v>
       </c>
@@ -29887,11 +30805,11 @@
         <v>0.12894725413152699</v>
       </c>
       <c r="H102" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.1667413570680933E-2</v>
       </c>
       <c r="I102" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.29956192183373492</v>
       </c>
     </row>
@@ -29908,11 +30826,11 @@
         <f>IFERROR(VLOOKUP($B103, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B103, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B103, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E103" s="143">
-        <f t="shared" si="17"/>
+      <c r="E103" s="141">
+        <f t="shared" si="18"/>
         <v>0.16</v>
       </c>
-      <c r="F103" s="143">
+      <c r="F103" s="141">
         <f>IFERROR((E103 + Params!$B$3^2/(2 * C103))/(1 + Params!$B$3^2/C103), NA())</f>
         <v>0.20528680794408075</v>
       </c>
@@ -29921,11 +30839,11 @@
         <v>0.14125333185830088</v>
       </c>
       <c r="H103" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4033476085779861E-2</v>
       </c>
       <c r="I103" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.34654013980238163</v>
       </c>
     </row>
@@ -29942,11 +30860,11 @@
         <f>IFERROR(VLOOKUP($B104, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B104, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B104, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E104" s="143">
-        <f t="shared" si="17"/>
+      <c r="E104" s="141">
+        <f t="shared" si="18"/>
         <v>0.32</v>
       </c>
-      <c r="F104" s="143">
+      <c r="F104" s="141">
         <f>IFERROR((E104 + Params!$B$3^2/(2 * C104))/(1 + Params!$B$3^2/C104), NA())</f>
         <v>0.34397536891157215</v>
       </c>
@@ -29955,11 +30873,11 @@
         <v>0.17192549374266075</v>
       </c>
       <c r="H104" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1720498751689114</v>
       </c>
       <c r="I104" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.51590086265423296</v>
       </c>
     </row>
@@ -29976,11 +30894,11 @@
         <f>IFERROR(VLOOKUP($B105, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B105, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B105, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B105, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E105" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" s="143" t="e">
+      <c r="E105" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="141" t="e">
         <f>IFERROR((E105 + Params!$B$3^2/(2 * C105))/(1 + Params!$B$3^2/C105), NA())</f>
         <v>#N/A</v>
       </c>
@@ -29989,11 +30907,11 @@
         <v>#N/A</v>
       </c>
       <c r="H105" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I105" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30010,11 +30928,11 @@
         <f>IFERROR(VLOOKUP($B106, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B106, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B106, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B106, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E106" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" s="143" t="e">
+      <c r="E106" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="141" t="e">
         <f>IFERROR((E106 + Params!$B$3^2/(2 * C106))/(1 + Params!$B$3^2/C106), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30023,11 +30941,11 @@
         <v>#N/A</v>
       </c>
       <c r="H106" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I106" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30044,11 +30962,11 @@
         <f>IFERROR(VLOOKUP($B107, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B107, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B107, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B107, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E107" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="143" t="e">
+      <c r="E107" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="141" t="e">
         <f>IFERROR((E107 + Params!$B$3^2/(2 * C107))/(1 + Params!$B$3^2/C107), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30057,11 +30975,11 @@
         <v>#N/A</v>
       </c>
       <c r="H107" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I107" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30078,11 +30996,11 @@
         <f>IFERROR(VLOOKUP($B108, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B108, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B108, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E108" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" s="143" t="e">
+      <c r="E108" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="141" t="e">
         <f>IFERROR((E108 + Params!$B$3^2/(2 * C108))/(1 + Params!$B$3^2/C108), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30091,11 +31009,11 @@
         <v>#N/A</v>
       </c>
       <c r="H108" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I108" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30112,11 +31030,11 @@
         <f>IFERROR(VLOOKUP($B109, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B109, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B109, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E109" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" s="143" t="e">
+      <c r="E109" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="141" t="e">
         <f>IFERROR((E109 + Params!$B$3^2/(2 * C109))/(1 + Params!$B$3^2/C109), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30125,11 +31043,11 @@
         <v>#N/A</v>
       </c>
       <c r="H109" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I109" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30146,11 +31064,11 @@
         <f>IFERROR(VLOOKUP($B110, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B110, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B110, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E110" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" s="143" t="e">
+      <c r="E110" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="141" t="e">
         <f>IFERROR((E110 + Params!$B$3^2/(2 * C110))/(1 + Params!$B$3^2/C110), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30159,11 +31077,11 @@
         <v>#N/A</v>
       </c>
       <c r="H110" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I110" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30180,11 +31098,11 @@
         <f>IFERROR(VLOOKUP($B111, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B111, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B111, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E111" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="143" t="e">
+      <c r="E111" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="141" t="e">
         <f>IFERROR((E111 + Params!$B$3^2/(2 * C111))/(1 + Params!$B$3^2/C111), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30193,11 +31111,11 @@
         <v>#N/A</v>
       </c>
       <c r="H111" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I111" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30214,11 +31132,11 @@
         <f>IFERROR(VLOOKUP($B112, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B112, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B112, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E112" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="143" t="e">
+      <c r="E112" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="141" t="e">
         <f>IFERROR((E112 + Params!$B$3^2/(2 * C112))/(1 + Params!$B$3^2/C112), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30227,11 +31145,11 @@
         <v>#N/A</v>
       </c>
       <c r="H112" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I112" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30248,11 +31166,11 @@
         <f>IFERROR(VLOOKUP($B113, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B113, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B113, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E113" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" s="143" t="e">
+      <c r="E113" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="141" t="e">
         <f>IFERROR((E113 + Params!$B$3^2/(2 * C113))/(1 + Params!$B$3^2/C113), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30261,11 +31179,11 @@
         <v>#N/A</v>
       </c>
       <c r="H113" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I113" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30282,11 +31200,11 @@
         <f>IFERROR(VLOOKUP($B114, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B114, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B114, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E114" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" s="143" t="e">
+      <c r="E114" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="141" t="e">
         <f>IFERROR((E114 + Params!$B$3^2/(2 * C114))/(1 + Params!$B$3^2/C114), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30295,11 +31213,11 @@
         <v>#N/A</v>
       </c>
       <c r="H114" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I114" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30316,11 +31234,11 @@
         <f>IFERROR(VLOOKUP($B115, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B115, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B115, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E115" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F115" s="143" t="e">
+      <c r="E115" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" s="141" t="e">
         <f>IFERROR((E115 + Params!$B$3^2/(2 * C115))/(1 + Params!$B$3^2/C115), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30329,11 +31247,11 @@
         <v>#N/A</v>
       </c>
       <c r="H115" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I115" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30350,11 +31268,11 @@
         <f>IFERROR(VLOOKUP($B116, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B116, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B116, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E116" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F116" s="143" t="e">
+      <c r="E116" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" s="141" t="e">
         <f>IFERROR((E116 + Params!$B$3^2/(2 * C116))/(1 + Params!$B$3^2/C116), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30363,11 +31281,11 @@
         <v>#N/A</v>
       </c>
       <c r="H116" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I116" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30384,11 +31302,11 @@
         <f>IFERROR(VLOOKUP($B117, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B117, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B117, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E117" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F117" s="143" t="e">
+      <c r="E117" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F117" s="141" t="e">
         <f>IFERROR((E117 + Params!$B$3^2/(2 * C117))/(1 + Params!$B$3^2/C117), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30397,11 +31315,11 @@
         <v>#N/A</v>
       </c>
       <c r="H117" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I117" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30418,11 +31336,11 @@
         <f>IFERROR(VLOOKUP($B118, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B118, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B118, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E118" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F118" s="143" t="e">
+      <c r="E118" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="141" t="e">
         <f>IFERROR((E118 + Params!$B$3^2/(2 * C118))/(1 + Params!$B$3^2/C118), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30431,11 +31349,11 @@
         <v>#N/A</v>
       </c>
       <c r="H118" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I118" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30452,11 +31370,11 @@
         <f>IFERROR(VLOOKUP($B119, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B119, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B119, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E119" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F119" s="143" t="e">
+      <c r="E119" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="141" t="e">
         <f>IFERROR((E119 + Params!$B$3^2/(2 * C119))/(1 + Params!$B$3^2/C119), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30465,11 +31383,11 @@
         <v>#N/A</v>
       </c>
       <c r="H119" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I119" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30486,11 +31404,11 @@
         <f>IFERROR(VLOOKUP($B120, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B120, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B120, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E120" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F120" s="143" t="e">
+      <c r="E120" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="141" t="e">
         <f>IFERROR((E120 + Params!$B$3^2/(2 * C120))/(1 + Params!$B$3^2/C120), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30499,11 +31417,11 @@
         <v>#N/A</v>
       </c>
       <c r="H120" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I120" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30520,11 +31438,11 @@
         <f>IFERROR(VLOOKUP($B121, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B121, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B121, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E121" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F121" s="143" t="e">
+      <c r="E121" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="141" t="e">
         <f>IFERROR((E121 + Params!$B$3^2/(2 * C121))/(1 + Params!$B$3^2/C121), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30533,11 +31451,11 @@
         <v>#N/A</v>
       </c>
       <c r="H121" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I121" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30554,11 +31472,11 @@
         <f>IFERROR(VLOOKUP($B122, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B122, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B122, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E122" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="143" t="e">
+      <c r="E122" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="141" t="e">
         <f>IFERROR((E122 + Params!$B$3^2/(2 * C122))/(1 + Params!$B$3^2/C122), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30567,11 +31485,11 @@
         <v>#N/A</v>
       </c>
       <c r="H122" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I122" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30588,11 +31506,11 @@
         <f>IFERROR(VLOOKUP($B123, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B123, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B123, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E123" s="143">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="143">
+      <c r="E123" s="141">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="141">
         <f>IFERROR((E123 + Params!$B$3^2/(2 * C123))/(1 + Params!$B$3^2/C123), NA())</f>
         <v>0.21724574737604052</v>
       </c>
@@ -30601,11 +31519,11 @@
         <v>0.21724574737604055</v>
       </c>
       <c r="H123" s="127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I123" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43449149475208104</v>
       </c>
     </row>
@@ -30622,11 +31540,11 @@
         <f>IFERROR(VLOOKUP($B124, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B124, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B124, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E124" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F124" s="143" t="e">
+      <c r="E124" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F124" s="141" t="e">
         <f>IFERROR((E124 + Params!$B$3^2/(2 * C124))/(1 + Params!$B$3^2/C124), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30635,11 +31553,11 @@
         <v>#N/A</v>
       </c>
       <c r="H124" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I124" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30656,11 +31574,11 @@
         <f>IFERROR(VLOOKUP($B125, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B125, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B125, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E125" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F125" s="143" t="e">
+      <c r="E125" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F125" s="141" t="e">
         <f>IFERROR((E125 + Params!$B$3^2/(2 * C125))/(1 + Params!$B$3^2/C125), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30669,11 +31587,11 @@
         <v>#N/A</v>
       </c>
       <c r="H125" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I125" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30690,11 +31608,11 @@
         <f>IFERROR(VLOOKUP($B126, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B126, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B126, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E126" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F126" s="143" t="e">
+      <c r="E126" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F126" s="141" t="e">
         <f>IFERROR((E126 + Params!$B$3^2/(2 * C126))/(1 + Params!$B$3^2/C126), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30703,11 +31621,11 @@
         <v>#N/A</v>
       </c>
       <c r="H126" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I126" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30724,11 +31642,11 @@
         <f>IFERROR(VLOOKUP($B127, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B127, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B127, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E127" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F127" s="143" t="e">
+      <c r="E127" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="141" t="e">
         <f>IFERROR((E127 + Params!$B$3^2/(2 * C127))/(1 + Params!$B$3^2/C127), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30737,11 +31655,11 @@
         <v>#N/A</v>
       </c>
       <c r="H127" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I127" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30758,11 +31676,11 @@
         <f>IFERROR(VLOOKUP($B128, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B128, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B128, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B128, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E128" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F128" s="143" t="e">
+      <c r="E128" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F128" s="141" t="e">
         <f>IFERROR((E128 + Params!$B$3^2/(2 * C128))/(1 + Params!$B$3^2/C128), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30771,11 +31689,11 @@
         <v>#N/A</v>
       </c>
       <c r="H128" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I128" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30792,11 +31710,11 @@
         <f>IFERROR(VLOOKUP($B129, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B129, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B129, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B129, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E129" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F129" s="143" t="e">
+      <c r="E129" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F129" s="141" t="e">
         <f>IFERROR((E129 + Params!$B$3^2/(2 * C129))/(1 + Params!$B$3^2/C129), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30805,11 +31723,11 @@
         <v>#N/A</v>
       </c>
       <c r="H129" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I129" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30826,11 +31744,11 @@
         <f>IFERROR(VLOOKUP($B130, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B130, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B130, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B130, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E130" s="143" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F130" s="143" t="e">
+      <c r="E130" s="141" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F130" s="141" t="e">
         <f>IFERROR((E130 + Params!$B$3^2/(2 * C130))/(1 + Params!$B$3^2/C130), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30839,11 +31757,11 @@
         <v>#N/A</v>
       </c>
       <c r="H130" s="127" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I130" s="127" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30854,31 +31772,31 @@
       </c>
       <c r="C131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="125">
         <f>IFERROR(VLOOKUP($B131, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B131, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B131, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E131" s="143">
-        <f t="shared" ref="E131:E140" si="23">IFERROR(D131/C131, NA())</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="F131" s="143">
+      <c r="E131" s="141">
+        <f t="shared" ref="E131:E140" si="24">IFERROR(D131/C131, NA())</f>
+        <v>0.625</v>
+      </c>
+      <c r="F131" s="141">
         <f>IFERROR((E131 + Params!$B$3^2/(2 * C131))/(1 + Params!$B$3^2/C131), NA())</f>
-        <v>0.63835596221959856</v>
+        <v>0.58444804756114044</v>
       </c>
       <c r="G131" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C131))*SQRT(E131*(1-E131)/C131 + (Params!$B$3/(2*C131))^2), NA())</f>
-        <v>0.27942687207138589</v>
+        <v>0.27871019297733857</v>
       </c>
       <c r="H131" s="127">
-        <f t="shared" ref="H131:H140" si="24">F131-G131</f>
-        <v>0.35892909014821267</v>
+        <f t="shared" ref="H131:H140" si="25">F131-G131</f>
+        <v>0.30573785458380187</v>
       </c>
       <c r="I131" s="127">
-        <f t="shared" ref="I131:I140" si="25">F131+G131</f>
-        <v>0.9177828342909844</v>
+        <f t="shared" ref="I131:I140" si="26">F131+G131</f>
+        <v>0.863158240538479</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -30888,31 +31806,31 @@
       </c>
       <c r="C132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" s="125">
         <f>IFERROR(VLOOKUP($B132, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B132, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B132, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E132" s="143">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
-      </c>
-      <c r="F132" s="143">
+      <c r="E132" s="141">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="F132" s="141">
         <f>IFERROR((E132 + Params!$B$3^2/(2 * C132))/(1 + Params!$B$3^2/C132), NA())</f>
-        <v>0.55655085052479192</v>
+        <v>0.5</v>
       </c>
       <c r="G132" s="127">
         <f>IFERROR((Params!$B$3/(1+Params!$B$3^2/C132))*SQRT(E132*(1-E132)/C132 + (Params!$B$3/(2*C132))^2), NA())</f>
-        <v>0.32583091831595484</v>
+        <v>0.31238719310059126</v>
       </c>
       <c r="H132" s="127">
-        <f t="shared" si="24"/>
-        <v>0.23071993220883708</v>
+        <f t="shared" si="25"/>
+        <v>0.18761280689940874</v>
       </c>
       <c r="I132" s="127">
-        <f t="shared" si="25"/>
-        <v>0.88238176884074671</v>
+        <f t="shared" si="26"/>
+        <v>0.81238719310059126</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -30928,11 +31846,11 @@
         <f>IFERROR(VLOOKUP($B133, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B133, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B133, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B133, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E133" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F133" s="143" t="e">
+      <c r="E133" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F133" s="141" t="e">
         <f>IFERROR((E133 + Params!$B$3^2/(2 * C133))/(1 + Params!$B$3^2/C133), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30941,11 +31859,11 @@
         <v>#N/A</v>
       </c>
       <c r="H133" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I133" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30962,11 +31880,11 @@
         <f>IFERROR(VLOOKUP($B134, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B134, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B134, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B134, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F134" s="143" t="e">
+      <c r="E134" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F134" s="141" t="e">
         <f>IFERROR((E134 + Params!$B$3^2/(2 * C134))/(1 + Params!$B$3^2/C134), NA())</f>
         <v>#N/A</v>
       </c>
@@ -30975,11 +31893,11 @@
         <v>#N/A</v>
       </c>
       <c r="H134" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I134" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30996,11 +31914,11 @@
         <f>IFERROR(VLOOKUP($B135, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B135, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B135, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B135, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E135" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F135" s="143" t="e">
+      <c r="E135" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F135" s="141" t="e">
         <f>IFERROR((E135 + Params!$B$3^2/(2 * C135))/(1 + Params!$B$3^2/C135), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31009,11 +31927,11 @@
         <v>#N/A</v>
       </c>
       <c r="H135" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I135" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31030,11 +31948,11 @@
         <f>IFERROR(VLOOKUP($B136, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B136, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B136, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E136" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F136" s="143" t="e">
+      <c r="E136" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F136" s="141" t="e">
         <f>IFERROR((E136 + Params!$B$3^2/(2 * C136))/(1 + Params!$B$3^2/C136), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31043,11 +31961,11 @@
         <v>#N/A</v>
       </c>
       <c r="H136" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I136" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31064,11 +31982,11 @@
         <f>IFERROR(VLOOKUP($B137, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B137, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B137, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E137" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F137" s="143" t="e">
+      <c r="E137" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F137" s="141" t="e">
         <f>IFERROR((E137 + Params!$B$3^2/(2 * C137))/(1 + Params!$B$3^2/C137), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31077,11 +31995,11 @@
         <v>#N/A</v>
       </c>
       <c r="H137" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I137" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31098,11 +32016,11 @@
         <f>IFERROR(VLOOKUP($B138, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B138, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B138, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E138" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F138" s="143" t="e">
+      <c r="E138" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F138" s="141" t="e">
         <f>IFERROR((E138 + Params!$B$3^2/(2 * C138))/(1 + Params!$B$3^2/C138), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31111,11 +32029,11 @@
         <v>#N/A</v>
       </c>
       <c r="H138" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I138" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31132,11 +32050,11 @@
         <f>IFERROR(VLOOKUP($B139, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B139, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B139, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B139, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E139" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F139" s="143" t="e">
+      <c r="E139" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F139" s="141" t="e">
         <f>IFERROR((E139 + Params!$B$3^2/(2 * C139))/(1 + Params!$B$3^2/C139), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31145,11 +32063,11 @@
         <v>#N/A</v>
       </c>
       <c r="H139" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I139" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31166,11 +32084,11 @@
         <f>IFERROR(VLOOKUP($B140, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B140, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B140, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B140, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E140" s="143" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F140" s="143" t="e">
+      <c r="E140" s="141" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F140" s="141" t="e">
         <f>IFERROR((E140 + Params!$B$3^2/(2 * C140))/(1 + Params!$B$3^2/C140), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31179,11 +32097,11 @@
         <v>#N/A</v>
       </c>
       <c r="H140" s="127" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="I140" s="127" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31200,11 +32118,11 @@
         <f>IFERROR(VLOOKUP($B141, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B141, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B141, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E141" s="143" t="e">
-        <f t="shared" ref="E141:E157" si="26">IFERROR(D141/C141, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F141" s="143" t="e">
+      <c r="E141" s="141" t="e">
+        <f t="shared" ref="E141:E157" si="27">IFERROR(D141/C141, NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F141" s="141" t="e">
         <f>IFERROR((E141 + Params!$B$3^2/(2 * C141))/(1 + Params!$B$3^2/C141), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31213,11 +32131,11 @@
         <v>#N/A</v>
       </c>
       <c r="H141" s="127" t="e">
-        <f t="shared" ref="H141:H157" si="27">F141-G141</f>
+        <f t="shared" ref="H141:H157" si="28">F141-G141</f>
         <v>#N/A</v>
       </c>
       <c r="I141" s="127" t="e">
-        <f t="shared" ref="I141:I157" si="28">F141+G141</f>
+        <f t="shared" ref="I141:I157" si="29">F141+G141</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -31234,11 +32152,11 @@
         <f>IFERROR(VLOOKUP($B142, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B142, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B142, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E142" s="143">
-        <f t="shared" si="26"/>
+      <c r="E142" s="141">
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F142" s="143">
+      <c r="F142" s="141">
         <f>IFERROR((E142 + Params!$B$3^2/(2 * C142))/(1 + Params!$B$3^2/C142), NA())</f>
         <v>0.60160949439115585</v>
       </c>
@@ -31247,11 +32165,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H142" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.29998832134152864</v>
       </c>
       <c r="I142" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.90323066744078306</v>
       </c>
     </row>
@@ -31268,11 +32186,11 @@
         <f>IFERROR(VLOOKUP($B143, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B143, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B143, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>31</v>
       </c>
-      <c r="E143" s="143">
-        <f t="shared" si="26"/>
+      <c r="E143" s="141">
+        <f t="shared" si="27"/>
         <v>0.58490566037735847</v>
       </c>
-      <c r="F143" s="143">
+      <c r="F143" s="141">
         <f>IFERROR((E143 + Params!$B$3^2/(2 * C143))/(1 + Params!$B$3^2/C143), NA())</f>
         <v>0.57916737037662547</v>
       </c>
@@ -31281,11 +32199,11 @@
         <v>0.1282255465320879</v>
       </c>
       <c r="H143" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.45094182384453757</v>
       </c>
       <c r="I143" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70739291690871342</v>
       </c>
     </row>
@@ -31302,11 +32220,11 @@
         <f>IFERROR(VLOOKUP($B144, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B144, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B144, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E144" s="143">
-        <f t="shared" si="26"/>
+      <c r="E144" s="141">
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F144" s="143">
+      <c r="F144" s="141">
         <f>IFERROR((E144 + Params!$B$3^2/(2 * C144))/(1 + Params!$B$3^2/C144), NA())</f>
         <v>0.60160949439115585</v>
       </c>
@@ -31315,11 +32233,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H144" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.29998832134152864</v>
       </c>
       <c r="I144" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.90323066744078306</v>
       </c>
     </row>
@@ -31336,11 +32254,11 @@
         <f>IFERROR(VLOOKUP($B145, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B145, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B145, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E145" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F145" s="143" t="e">
+      <c r="E145" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F145" s="141" t="e">
         <f>IFERROR((E145 + Params!$B$3^2/(2 * C145))/(1 + Params!$B$3^2/C145), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31349,11 +32267,11 @@
         <v>#N/A</v>
       </c>
       <c r="H145" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I145" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31370,11 +32288,11 @@
         <f>IFERROR(VLOOKUP($B146, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B146, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B146, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E146" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F146" s="143" t="e">
+      <c r="E146" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F146" s="141" t="e">
         <f>IFERROR((E146 + Params!$B$3^2/(2 * C146))/(1 + Params!$B$3^2/C146), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31383,11 +32301,11 @@
         <v>#N/A</v>
       </c>
       <c r="H146" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I146" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31404,11 +32322,11 @@
         <f>IFERROR(VLOOKUP($B147, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B147, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B147, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E147" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F147" s="143" t="e">
+      <c r="E147" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F147" s="141" t="e">
         <f>IFERROR((E147 + Params!$B$3^2/(2 * C147))/(1 + Params!$B$3^2/C147), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31417,11 +32335,11 @@
         <v>#N/A</v>
       </c>
       <c r="H147" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I147" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31438,11 +32356,11 @@
         <f>IFERROR(VLOOKUP($B148, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B148, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B148, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E148" s="143">
-        <f t="shared" si="26"/>
+      <c r="E148" s="141">
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="F148" s="143">
+      <c r="F148" s="141">
         <f>IFERROR((E148 + Params!$B$3^2/(2 * C148))/(1 + Params!$B$3^2/C148), NA())</f>
         <v>0.5</v>
       </c>
@@ -31451,11 +32369,11 @@
         <v>0.31238719310059126</v>
       </c>
       <c r="H148" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.18761280689940874</v>
       </c>
       <c r="I148" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.81238719310059126</v>
       </c>
     </row>
@@ -31472,11 +32390,11 @@
         <f>IFERROR(VLOOKUP($B149, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B149, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B149, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E149" s="143">
-        <f t="shared" si="26"/>
+      <c r="E149" s="141">
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F149" s="143">
+      <c r="F149" s="141">
         <f>IFERROR((E149 + Params!$B$3^2/(2 * C149))/(1 + Params!$B$3^2/C149), NA())</f>
         <v>0.60160949439115585</v>
       </c>
@@ -31485,11 +32403,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H149" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.29998832134152864</v>
       </c>
       <c r="I149" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.90323066744078306</v>
       </c>
     </row>
@@ -31506,11 +32424,11 @@
         <f>IFERROR(VLOOKUP($B150, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B150, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B150, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E150" s="143">
-        <f t="shared" si="26"/>
+      <c r="E150" s="141">
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F150" s="143">
+      <c r="F150" s="141">
         <f>IFERROR((E150 + Params!$B$3^2/(2 * C150))/(1 + Params!$B$3^2/C150), NA())</f>
         <v>0.39839050560884404</v>
       </c>
@@ -31519,11 +32437,11 @@
         <v>0.30162117304962721</v>
       </c>
       <c r="H150" s="127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.6769332559216825E-2</v>
       </c>
       <c r="I150" s="127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.70001167865847125</v>
       </c>
     </row>
@@ -31540,11 +32458,11 @@
         <f>IFERROR(VLOOKUP($B151, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B151, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B151, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E151" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F151" s="143" t="e">
+      <c r="E151" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F151" s="141" t="e">
         <f>IFERROR((E151 + Params!$B$3^2/(2 * C151))/(1 + Params!$B$3^2/C151), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31553,11 +32471,11 @@
         <v>#N/A</v>
       </c>
       <c r="H151" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I151" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31574,11 +32492,11 @@
         <f>IFERROR(VLOOKUP($B152, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B152, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B152, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E152" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F152" s="143" t="e">
+      <c r="E152" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F152" s="141" t="e">
         <f>IFERROR((E152 + Params!$B$3^2/(2 * C152))/(1 + Params!$B$3^2/C152), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31587,11 +32505,11 @@
         <v>#N/A</v>
       </c>
       <c r="H152" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I152" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31608,11 +32526,11 @@
         <f>IFERROR(VLOOKUP($B153, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B153, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B153, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E153" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F153" s="143" t="e">
+      <c r="E153" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F153" s="141" t="e">
         <f>IFERROR((E153 + Params!$B$3^2/(2 * C153))/(1 + Params!$B$3^2/C153), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31621,11 +32539,11 @@
         <v>#N/A</v>
       </c>
       <c r="H153" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I153" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31642,11 +32560,11 @@
         <f>IFERROR(VLOOKUP($B154, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B154, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B154, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E154" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F154" s="143" t="e">
+      <c r="E154" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F154" s="141" t="e">
         <f>IFERROR((E154 + Params!$B$3^2/(2 * C154))/(1 + Params!$B$3^2/C154), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31655,11 +32573,11 @@
         <v>#N/A</v>
       </c>
       <c r="H154" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I154" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31676,11 +32594,11 @@
         <f>IFERROR(VLOOKUP($B155, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B155, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B155, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E155" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F155" s="143" t="e">
+      <c r="E155" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F155" s="141" t="e">
         <f>IFERROR((E155 + Params!$B$3^2/(2 * C155))/(1 + Params!$B$3^2/C155), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31689,11 +32607,11 @@
         <v>#N/A</v>
       </c>
       <c r="H155" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I155" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31710,11 +32628,11 @@
         <f>IFERROR(VLOOKUP($B156, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B156, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B156, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E156" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F156" s="143" t="e">
+      <c r="E156" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F156" s="141" t="e">
         <f>IFERROR((E156 + Params!$B$3^2/(2 * C156))/(1 + Params!$B$3^2/C156), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31723,11 +32641,11 @@
         <v>#N/A</v>
       </c>
       <c r="H156" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I156" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31744,11 +32662,11 @@
         <f>IFERROR(VLOOKUP($B157, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B157, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B157, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E157" s="143" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F157" s="143" t="e">
+      <c r="E157" s="141" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F157" s="141" t="e">
         <f>IFERROR((E157 + Params!$B$3^2/(2 * C157))/(1 + Params!$B$3^2/C157), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31757,11 +32675,11 @@
         <v>#N/A</v>
       </c>
       <c r="H157" s="127" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="I157" s="127" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31778,11 +32696,11 @@
         <f>IFERROR(VLOOKUP($B158, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B158, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B158, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E158" s="143" t="e">
-        <f t="shared" ref="E158:E163" si="29">IFERROR(D158/C158, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F158" s="143" t="e">
+      <c r="E158" s="141" t="e">
+        <f t="shared" ref="E158:E163" si="30">IFERROR(D158/C158, NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F158" s="141" t="e">
         <f>IFERROR((E158 + Params!$B$3^2/(2 * C158))/(1 + Params!$B$3^2/C158), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31791,11 +32709,11 @@
         <v>#N/A</v>
       </c>
       <c r="H158" s="127" t="e">
-        <f t="shared" ref="H158:H163" si="30">F158-G158</f>
+        <f t="shared" ref="H158:H163" si="31">F158-G158</f>
         <v>#N/A</v>
       </c>
       <c r="I158" s="127" t="e">
-        <f t="shared" ref="I158:I163" si="31">F158+G158</f>
+        <f t="shared" ref="I158:I163" si="32">F158+G158</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -31812,11 +32730,11 @@
         <f>IFERROR(VLOOKUP($B159, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B159, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B159, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E159" s="143" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F159" s="143" t="e">
+      <c r="E159" s="141" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F159" s="141" t="e">
         <f>IFERROR((E159 + Params!$B$3^2/(2 * C159))/(1 + Params!$B$3^2/C159), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31825,11 +32743,11 @@
         <v>#N/A</v>
       </c>
       <c r="H159" s="127" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I159" s="127" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31846,11 +32764,11 @@
         <f>IFERROR(VLOOKUP($B160, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B160, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B160, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E160" s="143" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F160" s="143" t="e">
+      <c r="E160" s="141" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F160" s="141" t="e">
         <f>IFERROR((E160 + Params!$B$3^2/(2 * C160))/(1 + Params!$B$3^2/C160), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31859,11 +32777,11 @@
         <v>#N/A</v>
       </c>
       <c r="H160" s="127" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I160" s="127" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31880,11 +32798,11 @@
         <f>IFERROR(VLOOKUP($B161, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B161, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B161, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E161" s="143" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F161" s="143" t="e">
+      <c r="E161" s="141" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F161" s="141" t="e">
         <f>IFERROR((E161 + Params!$B$3^2/(2 * C161))/(1 + Params!$B$3^2/C161), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31893,11 +32811,11 @@
         <v>#N/A</v>
       </c>
       <c r="H161" s="127" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I161" s="127" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31914,11 +32832,11 @@
         <f>IFERROR(VLOOKUP($B162, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B162, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B162, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E162" s="143" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F162" s="143" t="e">
+      <c r="E162" s="141" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F162" s="141" t="e">
         <f>IFERROR((E162 + Params!$B$3^2/(2 * C162))/(1 + Params!$B$3^2/C162), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31927,11 +32845,11 @@
         <v>#N/A</v>
       </c>
       <c r="H162" s="127" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I162" s="127" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -31948,11 +32866,11 @@
         <f>IFERROR(VLOOKUP($B163, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B163, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B163, 'V4000'!$B$2:$D$1001, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E163" s="143" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F163" s="143" t="e">
+      <c r="E163" s="141" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F163" s="141" t="e">
         <f>IFERROR((E163 + Params!$B$3^2/(2 * C163))/(1 + Params!$B$3^2/C163), NA())</f>
         <v>#N/A</v>
       </c>
@@ -31961,11 +32879,11 @@
         <v>#N/A</v>
       </c>
       <c r="H163" s="127" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="I163" s="127" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
